--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,21 @@
     <t>['3', '12']</t>
   </si>
   <si>
+    <t>['23', '37', '51', '85']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['40', '63']</t>
+  </si>
+  <si>
+    <t>['5', '75']</t>
+  </si>
+  <si>
+    <t>['31', '40', '59']</t>
+  </si>
+  <si>
     <t>['8', '23', '33']</t>
   </si>
   <si>
@@ -794,6 +809,21 @@
   </si>
   <si>
     <t>['1', '37']</t>
+  </si>
+  <si>
+    <t>['48', '75']</t>
+  </si>
+  <si>
+    <t>['7', '33', '66', '84', '90+2']</t>
+  </si>
+  <si>
+    <t>['62', '90']</t>
+  </si>
+  <si>
+    <t>['45+1', '66', '90+6']</t>
+  </si>
+  <si>
+    <t>['10', '47', '49', '78']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK130"/>
+  <dimension ref="A1:BK138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1429,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1486,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>1.33</v>
@@ -1590,7 +1620,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1677,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT3">
         <v>1.14</v>
@@ -2059,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2250,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>0.14</v>
@@ -2545,7 +2575,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2632,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT8">
         <v>1.14</v>
@@ -2736,7 +2766,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2826,7 +2856,7 @@
         <v>1.57</v>
       </c>
       <c r="AT9">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3014,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3309,7 +3339,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3399,7 +3429,7 @@
         <v>1.14</v>
       </c>
       <c r="AT12">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3590,7 +3620,7 @@
         <v>2.17</v>
       </c>
       <c r="AT13">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3691,7 +3721,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4073,7 +4103,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4163,7 +4193,7 @@
         <v>1.57</v>
       </c>
       <c r="AT16">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4264,7 +4294,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4354,7 +4384,7 @@
         <v>2.14</v>
       </c>
       <c r="AT17">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4455,7 +4485,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4542,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -4646,7 +4676,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4736,7 +4766,7 @@
         <v>0.83</v>
       </c>
       <c r="AT19">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5028,7 +5058,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5115,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -5219,7 +5249,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5306,10 +5336,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU22">
         <v>1.76</v>
@@ -5497,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT23">
         <v>0.86</v>
@@ -5688,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5792,7 +5822,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5879,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT25">
         <v>0.14</v>
@@ -5983,7 +6013,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6070,7 +6100,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT26">
         <v>1.14</v>
@@ -6174,7 +6204,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6365,7 +6395,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6455,7 +6485,7 @@
         <v>1.14</v>
       </c>
       <c r="AT28">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU28">
         <v>1.38</v>
@@ -6556,7 +6586,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6643,10 +6673,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT29">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU29">
         <v>1.2</v>
@@ -6747,7 +6777,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6938,7 +6968,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7028,7 +7058,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU31">
         <v>1.4</v>
@@ -7129,7 +7159,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7410,7 +7440,7 @@
         <v>1.14</v>
       </c>
       <c r="AT33">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7511,7 +7541,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7702,7 +7732,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7789,10 +7819,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT35">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU35">
         <v>1.28</v>
@@ -8553,10 +8583,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT39">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU39">
         <v>2.25</v>
@@ -8747,7 +8777,7 @@
         <v>0.83</v>
       </c>
       <c r="AT40">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU40">
         <v>1.13</v>
@@ -9039,7 +9069,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9129,7 +9159,7 @@
         <v>1.14</v>
       </c>
       <c r="AT42">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU42">
         <v>1.01</v>
@@ -9421,7 +9451,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9508,10 +9538,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU44">
         <v>1.65</v>
@@ -9803,7 +9833,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9890,7 +9920,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT46">
         <v>1.33</v>
@@ -10081,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10185,7 +10215,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10272,7 +10302,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT48">
         <v>1.14</v>
@@ -10376,7 +10406,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10654,10 +10684,10 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT50">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU50">
         <v>1.33</v>
@@ -10949,7 +10979,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11140,7 +11170,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11230,7 +11260,7 @@
         <v>1.57</v>
       </c>
       <c r="AT53">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU53">
         <v>1.72</v>
@@ -11331,7 +11361,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11418,10 +11448,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT54">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU54">
         <v>1.16</v>
@@ -11522,7 +11552,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11612,7 +11642,7 @@
         <v>2.67</v>
       </c>
       <c r="AT55">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU55">
         <v>2.1</v>
@@ -11803,7 +11833,7 @@
         <v>0.83</v>
       </c>
       <c r="AT56">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU56">
         <v>1.31</v>
@@ -12095,7 +12125,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12182,7 +12212,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12286,7 +12316,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12376,7 +12406,7 @@
         <v>1.86</v>
       </c>
       <c r="AT59">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU59">
         <v>1.33</v>
@@ -12477,7 +12507,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12564,7 +12594,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12668,7 +12698,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12859,7 +12889,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12946,7 +12976,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13050,7 +13080,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13241,7 +13271,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13331,7 +13361,7 @@
         <v>2.17</v>
       </c>
       <c r="AT64">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU64">
         <v>2.22</v>
@@ -13432,7 +13462,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13623,7 +13653,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13713,7 +13743,7 @@
         <v>2.17</v>
       </c>
       <c r="AT66">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU66">
         <v>1.63</v>
@@ -13814,7 +13844,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14005,7 +14035,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14095,7 +14125,7 @@
         <v>1.14</v>
       </c>
       <c r="AT68">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU68">
         <v>1.12</v>
@@ -14283,7 +14313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT69">
         <v>1</v>
@@ -14578,7 +14608,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14856,10 +14886,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT72">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU72">
         <v>1.54</v>
@@ -14960,7 +14990,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15151,7 +15181,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15342,7 +15372,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15533,7 +15563,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15620,7 +15650,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT76">
         <v>0.14</v>
@@ -15724,7 +15754,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15811,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT77">
         <v>0.86</v>
@@ -15915,7 +15945,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16002,7 +16032,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT78">
         <v>1.67</v>
@@ -16196,7 +16226,7 @@
         <v>2.67</v>
       </c>
       <c r="AT79">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU79">
         <v>2</v>
@@ -16297,7 +16327,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16384,10 +16414,10 @@
         <v>0.67</v>
       </c>
       <c r="AS80">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU80">
         <v>1.12</v>
@@ -16578,7 +16608,7 @@
         <v>1.14</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU81">
         <v>1.16</v>
@@ -16679,7 +16709,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16870,7 +16900,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16960,7 +16990,7 @@
         <v>1.57</v>
       </c>
       <c r="AT83">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU83">
         <v>1.83</v>
@@ -17061,7 +17091,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17148,10 +17178,10 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT84">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU84">
         <v>1.43</v>
@@ -17252,7 +17282,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17339,10 +17369,10 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT85">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU85">
         <v>1.43</v>
@@ -17443,7 +17473,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17634,7 +17664,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17721,7 +17751,7 @@
         <v>0.75</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT87">
         <v>1.14</v>
@@ -17825,7 +17855,7 @@
         <v>126</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18016,7 +18046,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18103,10 +18133,10 @@
         <v>2.25</v>
       </c>
       <c r="AS89">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT89">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU89">
         <v>1.72</v>
@@ -18589,7 +18619,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18679,7 +18709,7 @@
         <v>2.17</v>
       </c>
       <c r="AT92">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU92">
         <v>1.7</v>
@@ -18780,7 +18810,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18870,7 +18900,7 @@
         <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU93">
         <v>1.16</v>
@@ -18971,7 +19001,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19058,7 +19088,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -19162,7 +19192,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19353,7 +19383,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19440,7 +19470,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT96">
         <v>1.67</v>
@@ -19544,7 +19574,7 @@
         <v>86</v>
       </c>
       <c r="P97" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19631,10 +19661,10 @@
         <v>0</v>
       </c>
       <c r="AS97">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT97">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU97">
         <v>1.33</v>
@@ -19822,10 +19852,10 @@
         <v>3</v>
       </c>
       <c r="AS98">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT98">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU98">
         <v>1.15</v>
@@ -20117,7 +20147,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20207,7 +20237,7 @@
         <v>2.67</v>
       </c>
       <c r="AT100">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU100">
         <v>1.97</v>
@@ -20395,7 +20425,7 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT101">
         <v>1.33</v>
@@ -20499,7 +20529,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20690,7 +20720,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20881,7 +20911,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -20971,7 +21001,7 @@
         <v>1.57</v>
       </c>
       <c r="AT104">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU104">
         <v>1.76</v>
@@ -21072,7 +21102,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21159,7 +21189,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT105">
         <v>1.14</v>
@@ -21263,7 +21293,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21350,7 +21380,7 @@
         <v>0.8</v>
       </c>
       <c r="AS106">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT106">
         <v>1</v>
@@ -21645,7 +21675,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21923,7 +21953,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -22027,7 +22057,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22117,7 +22147,7 @@
         <v>1.86</v>
       </c>
       <c r="AT110">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU110">
         <v>1.46</v>
@@ -22218,7 +22248,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22308,7 +22338,7 @@
         <v>1.29</v>
       </c>
       <c r="AT111">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU111">
         <v>1.34</v>
@@ -22409,7 +22439,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22496,10 +22526,10 @@
         <v>0.6</v>
       </c>
       <c r="AS112">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT112">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU112">
         <v>2.1</v>
@@ -22878,7 +22908,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT114">
         <v>1.14</v>
@@ -22982,7 +23012,7 @@
         <v>112</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23069,7 +23099,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT115">
         <v>1.17</v>
@@ -23173,7 +23203,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23260,7 +23290,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT116">
         <v>1</v>
@@ -23451,7 +23481,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -23645,7 +23675,7 @@
         <v>0.83</v>
       </c>
       <c r="AT118">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU118">
         <v>1.49</v>
@@ -23836,7 +23866,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU119">
         <v>1.2</v>
@@ -23937,7 +23967,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24024,10 +24054,10 @@
         <v>1.8</v>
       </c>
       <c r="AS120">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT120">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU120">
         <v>1.41</v>
@@ -24218,7 +24248,7 @@
         <v>2.17</v>
       </c>
       <c r="AT121">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU121">
         <v>2.12</v>
@@ -24319,7 +24349,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24510,7 +24540,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24600,7 +24630,7 @@
         <v>1.86</v>
       </c>
       <c r="AT123">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU123">
         <v>1.52</v>
@@ -24701,7 +24731,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24788,7 +24818,7 @@
         <v>1.17</v>
       </c>
       <c r="AS124">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT124">
         <v>1</v>
@@ -24892,7 +24922,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25274,7 +25304,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25465,7 +25495,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25847,7 +25877,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -25989,6 +26019,1534 @@
       </c>
       <c r="BK130">
         <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2435322</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44865.66666666666</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>73</v>
+      </c>
+      <c r="H131" t="s">
+        <v>71</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>111</v>
+      </c>
+      <c r="P131" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q131">
+        <v>5</v>
+      </c>
+      <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131">
+        <v>10</v>
+      </c>
+      <c r="T131">
+        <v>3.1</v>
+      </c>
+      <c r="U131">
+        <v>2.4</v>
+      </c>
+      <c r="V131">
+        <v>3</v>
+      </c>
+      <c r="W131">
+        <v>1.29</v>
+      </c>
+      <c r="X131">
+        <v>3.5</v>
+      </c>
+      <c r="Y131">
+        <v>2.25</v>
+      </c>
+      <c r="Z131">
+        <v>1.57</v>
+      </c>
+      <c r="AA131">
+        <v>5.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.14</v>
+      </c>
+      <c r="AC131">
+        <v>2.46</v>
+      </c>
+      <c r="AD131">
+        <v>3.65</v>
+      </c>
+      <c r="AE131">
+        <v>2.61</v>
+      </c>
+      <c r="AF131">
+        <v>1.03</v>
+      </c>
+      <c r="AG131">
+        <v>11</v>
+      </c>
+      <c r="AH131">
+        <v>1.17</v>
+      </c>
+      <c r="AI131">
+        <v>4.5</v>
+      </c>
+      <c r="AJ131">
+        <v>1.48</v>
+      </c>
+      <c r="AK131">
+        <v>2.35</v>
+      </c>
+      <c r="AL131">
+        <v>1.5</v>
+      </c>
+      <c r="AM131">
+        <v>2.5</v>
+      </c>
+      <c r="AN131">
+        <v>1.49</v>
+      </c>
+      <c r="AO131">
+        <v>1.26</v>
+      </c>
+      <c r="AP131">
+        <v>1.51</v>
+      </c>
+      <c r="AQ131">
+        <v>1.83</v>
+      </c>
+      <c r="AR131">
+        <v>1.33</v>
+      </c>
+      <c r="AS131">
+        <v>1.57</v>
+      </c>
+      <c r="AT131">
+        <v>1.57</v>
+      </c>
+      <c r="AU131">
+        <v>1.42</v>
+      </c>
+      <c r="AV131">
+        <v>1.63</v>
+      </c>
+      <c r="AW131">
+        <v>3.05</v>
+      </c>
+      <c r="AX131">
+        <v>2.2</v>
+      </c>
+      <c r="AY131">
+        <v>7.7</v>
+      </c>
+      <c r="AZ131">
+        <v>1.99</v>
+      </c>
+      <c r="BA131">
+        <v>1.2</v>
+      </c>
+      <c r="BB131">
+        <v>1.41</v>
+      </c>
+      <c r="BC131">
+        <v>1.79</v>
+      </c>
+      <c r="BD131">
+        <v>2.21</v>
+      </c>
+      <c r="BE131">
+        <v>2.93</v>
+      </c>
+      <c r="BF131">
+        <v>2</v>
+      </c>
+      <c r="BG131">
+        <v>3</v>
+      </c>
+      <c r="BH131">
+        <v>1</v>
+      </c>
+      <c r="BI131">
+        <v>2</v>
+      </c>
+      <c r="BJ131">
+        <v>3</v>
+      </c>
+      <c r="BK131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2435328</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>69</v>
+      </c>
+      <c r="H132" t="s">
+        <v>72</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>5</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>86</v>
+      </c>
+      <c r="P132" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+      <c r="R132">
+        <v>5</v>
+      </c>
+      <c r="S132">
+        <v>6</v>
+      </c>
+      <c r="T132">
+        <v>4.75</v>
+      </c>
+      <c r="U132">
+        <v>2.3</v>
+      </c>
+      <c r="V132">
+        <v>2.1</v>
+      </c>
+      <c r="W132">
+        <v>1.3</v>
+      </c>
+      <c r="X132">
+        <v>3.25</v>
+      </c>
+      <c r="Y132">
+        <v>2.3</v>
+      </c>
+      <c r="Z132">
+        <v>1.53</v>
+      </c>
+      <c r="AA132">
+        <v>5.25</v>
+      </c>
+      <c r="AB132">
+        <v>1.13</v>
+      </c>
+      <c r="AC132">
+        <v>5.03</v>
+      </c>
+      <c r="AD132">
+        <v>4.37</v>
+      </c>
+      <c r="AE132">
+        <v>1.61</v>
+      </c>
+      <c r="AF132">
+        <v>1.03</v>
+      </c>
+      <c r="AG132">
+        <v>11</v>
+      </c>
+      <c r="AH132">
+        <v>1.2</v>
+      </c>
+      <c r="AI132">
+        <v>4.33</v>
+      </c>
+      <c r="AJ132">
+        <v>1.6</v>
+      </c>
+      <c r="AK132">
+        <v>2.2</v>
+      </c>
+      <c r="AL132">
+        <v>1.66</v>
+      </c>
+      <c r="AM132">
+        <v>2.05</v>
+      </c>
+      <c r="AN132">
+        <v>2.25</v>
+      </c>
+      <c r="AO132">
+        <v>1.22</v>
+      </c>
+      <c r="AP132">
+        <v>1.17</v>
+      </c>
+      <c r="AQ132">
+        <v>1.17</v>
+      </c>
+      <c r="AR132">
+        <v>2.5</v>
+      </c>
+      <c r="AS132">
+        <v>1</v>
+      </c>
+      <c r="AT132">
+        <v>2.57</v>
+      </c>
+      <c r="AU132">
+        <v>1.33</v>
+      </c>
+      <c r="AV132">
+        <v>2.02</v>
+      </c>
+      <c r="AW132">
+        <v>3.35</v>
+      </c>
+      <c r="AX132">
+        <v>4.7</v>
+      </c>
+      <c r="AY132">
+        <v>9.5</v>
+      </c>
+      <c r="AZ132">
+        <v>1.3</v>
+      </c>
+      <c r="BA132">
+        <v>1.22</v>
+      </c>
+      <c r="BB132">
+        <v>1.42</v>
+      </c>
+      <c r="BC132">
+        <v>1.74</v>
+      </c>
+      <c r="BD132">
+        <v>2.23</v>
+      </c>
+      <c r="BE132">
+        <v>3</v>
+      </c>
+      <c r="BF132">
+        <v>4</v>
+      </c>
+      <c r="BG132">
+        <v>10</v>
+      </c>
+      <c r="BH132">
+        <v>1</v>
+      </c>
+      <c r="BI132">
+        <v>12</v>
+      </c>
+      <c r="BJ132">
+        <v>5</v>
+      </c>
+      <c r="BK132">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2435327</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>68</v>
+      </c>
+      <c r="H133" t="s">
+        <v>75</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>111</v>
+      </c>
+      <c r="P133" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q133">
+        <v>7</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133">
+        <v>8</v>
+      </c>
+      <c r="T133">
+        <v>2.87</v>
+      </c>
+      <c r="U133">
+        <v>2.35</v>
+      </c>
+      <c r="V133">
+        <v>3.64</v>
+      </c>
+      <c r="W133">
+        <v>1.34</v>
+      </c>
+      <c r="X133">
+        <v>3.32</v>
+      </c>
+      <c r="Y133">
+        <v>2.67</v>
+      </c>
+      <c r="Z133">
+        <v>1.49</v>
+      </c>
+      <c r="AA133">
+        <v>6.25</v>
+      </c>
+      <c r="AB133">
+        <v>1.1</v>
+      </c>
+      <c r="AC133">
+        <v>2.2</v>
+      </c>
+      <c r="AD133">
+        <v>3.77</v>
+      </c>
+      <c r="AE133">
+        <v>3.08</v>
+      </c>
+      <c r="AF133">
+        <v>1.05</v>
+      </c>
+      <c r="AG133">
+        <v>9</v>
+      </c>
+      <c r="AH133">
+        <v>1.25</v>
+      </c>
+      <c r="AI133">
+        <v>3.75</v>
+      </c>
+      <c r="AJ133">
+        <v>1.7</v>
+      </c>
+      <c r="AK133">
+        <v>2.05</v>
+      </c>
+      <c r="AL133">
+        <v>1.64</v>
+      </c>
+      <c r="AM133">
+        <v>2.25</v>
+      </c>
+      <c r="AN133">
+        <v>1.35</v>
+      </c>
+      <c r="AO133">
+        <v>1.28</v>
+      </c>
+      <c r="AP133">
+        <v>1.66</v>
+      </c>
+      <c r="AQ133">
+        <v>1.67</v>
+      </c>
+      <c r="AR133">
+        <v>1.5</v>
+      </c>
+      <c r="AS133">
+        <v>1.57</v>
+      </c>
+      <c r="AT133">
+        <v>1.43</v>
+      </c>
+      <c r="AU133">
+        <v>1.51</v>
+      </c>
+      <c r="AV133">
+        <v>1.14</v>
+      </c>
+      <c r="AW133">
+        <v>2.65</v>
+      </c>
+      <c r="AX133">
+        <v>1.71</v>
+      </c>
+      <c r="AY133">
+        <v>8</v>
+      </c>
+      <c r="AZ133">
+        <v>2.65</v>
+      </c>
+      <c r="BA133">
+        <v>1.17</v>
+      </c>
+      <c r="BB133">
+        <v>1.24</v>
+      </c>
+      <c r="BC133">
+        <v>1.43</v>
+      </c>
+      <c r="BD133">
+        <v>1.74</v>
+      </c>
+      <c r="BE133">
+        <v>2.2</v>
+      </c>
+      <c r="BF133">
+        <v>3</v>
+      </c>
+      <c r="BG133">
+        <v>4</v>
+      </c>
+      <c r="BH133">
+        <v>9</v>
+      </c>
+      <c r="BI133">
+        <v>6</v>
+      </c>
+      <c r="BJ133">
+        <v>12</v>
+      </c>
+      <c r="BK133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2435326</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>84</v>
+      </c>
+      <c r="H134" t="s">
+        <v>77</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>183</v>
+      </c>
+      <c r="P134" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q134">
+        <v>5</v>
+      </c>
+      <c r="R134">
+        <v>3</v>
+      </c>
+      <c r="S134">
+        <v>8</v>
+      </c>
+      <c r="T134">
+        <v>2.65</v>
+      </c>
+      <c r="U134">
+        <v>2.25</v>
+      </c>
+      <c r="V134">
+        <v>3.3</v>
+      </c>
+      <c r="W134">
+        <v>1.29</v>
+      </c>
+      <c r="X134">
+        <v>3.25</v>
+      </c>
+      <c r="Y134">
+        <v>2.3</v>
+      </c>
+      <c r="Z134">
+        <v>1.53</v>
+      </c>
+      <c r="AA134">
+        <v>5.25</v>
+      </c>
+      <c r="AB134">
+        <v>1.13</v>
+      </c>
+      <c r="AC134">
+        <v>2.15</v>
+      </c>
+      <c r="AD134">
+        <v>3.73</v>
+      </c>
+      <c r="AE134">
+        <v>3.2</v>
+      </c>
+      <c r="AF134">
+        <v>1.03</v>
+      </c>
+      <c r="AG134">
+        <v>11</v>
+      </c>
+      <c r="AH134">
+        <v>1.2</v>
+      </c>
+      <c r="AI134">
+        <v>4.33</v>
+      </c>
+      <c r="AJ134">
+        <v>1.58</v>
+      </c>
+      <c r="AK134">
+        <v>2.25</v>
+      </c>
+      <c r="AL134">
+        <v>1.52</v>
+      </c>
+      <c r="AM134">
+        <v>2.35</v>
+      </c>
+      <c r="AN134">
+        <v>1.37</v>
+      </c>
+      <c r="AO134">
+        <v>1.27</v>
+      </c>
+      <c r="AP134">
+        <v>1.66</v>
+      </c>
+      <c r="AQ134">
+        <v>2.43</v>
+      </c>
+      <c r="AR134">
+        <v>0.5</v>
+      </c>
+      <c r="AS134">
+        <v>2.5</v>
+      </c>
+      <c r="AT134">
+        <v>0.43</v>
+      </c>
+      <c r="AU134">
+        <v>1.46</v>
+      </c>
+      <c r="AV134">
+        <v>1.5</v>
+      </c>
+      <c r="AW134">
+        <v>2.96</v>
+      </c>
+      <c r="AX134">
+        <v>2.01</v>
+      </c>
+      <c r="AY134">
+        <v>7.8</v>
+      </c>
+      <c r="AZ134">
+        <v>2.17</v>
+      </c>
+      <c r="BA134">
+        <v>1.29</v>
+      </c>
+      <c r="BB134">
+        <v>1.53</v>
+      </c>
+      <c r="BC134">
+        <v>1.92</v>
+      </c>
+      <c r="BD134">
+        <v>2.55</v>
+      </c>
+      <c r="BE134">
+        <v>3.5</v>
+      </c>
+      <c r="BF134">
+        <v>7</v>
+      </c>
+      <c r="BG134">
+        <v>4</v>
+      </c>
+      <c r="BH134">
+        <v>6</v>
+      </c>
+      <c r="BI134">
+        <v>4</v>
+      </c>
+      <c r="BJ134">
+        <v>13</v>
+      </c>
+      <c r="BK134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2435329</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>71</v>
+      </c>
+      <c r="H135" t="s">
+        <v>67</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>184</v>
+      </c>
+      <c r="P135" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q135">
+        <v>5</v>
+      </c>
+      <c r="R135">
+        <v>8</v>
+      </c>
+      <c r="S135">
+        <v>13</v>
+      </c>
+      <c r="T135">
+        <v>2.88</v>
+      </c>
+      <c r="U135">
+        <v>2.15</v>
+      </c>
+      <c r="V135">
+        <v>3.2</v>
+      </c>
+      <c r="W135">
+        <v>1.36</v>
+      </c>
+      <c r="X135">
+        <v>3</v>
+      </c>
+      <c r="Y135">
+        <v>2.62</v>
+      </c>
+      <c r="Z135">
+        <v>1.44</v>
+      </c>
+      <c r="AA135">
+        <v>6.5</v>
+      </c>
+      <c r="AB135">
+        <v>1.1</v>
+      </c>
+      <c r="AC135">
+        <v>2.27</v>
+      </c>
+      <c r="AD135">
+        <v>3.37</v>
+      </c>
+      <c r="AE135">
+        <v>2.83</v>
+      </c>
+      <c r="AF135">
+        <v>1.05</v>
+      </c>
+      <c r="AG135">
+        <v>9</v>
+      </c>
+      <c r="AH135">
+        <v>1.29</v>
+      </c>
+      <c r="AI135">
+        <v>3.5</v>
+      </c>
+      <c r="AJ135">
+        <v>1.75</v>
+      </c>
+      <c r="AK135">
+        <v>2</v>
+      </c>
+      <c r="AL135">
+        <v>1.67</v>
+      </c>
+      <c r="AM135">
+        <v>2.1</v>
+      </c>
+      <c r="AN135">
+        <v>1.36</v>
+      </c>
+      <c r="AO135">
+        <v>1.3</v>
+      </c>
+      <c r="AP135">
+        <v>1.57</v>
+      </c>
+      <c r="AQ135">
+        <v>1.83</v>
+      </c>
+      <c r="AR135">
+        <v>1.71</v>
+      </c>
+      <c r="AS135">
+        <v>1.57</v>
+      </c>
+      <c r="AT135">
+        <v>1.88</v>
+      </c>
+      <c r="AU135">
+        <v>1.75</v>
+      </c>
+      <c r="AV135">
+        <v>1.43</v>
+      </c>
+      <c r="AW135">
+        <v>3.18</v>
+      </c>
+      <c r="AX135">
+        <v>1.88</v>
+      </c>
+      <c r="AY135">
+        <v>7.7</v>
+      </c>
+      <c r="AZ135">
+        <v>2.35</v>
+      </c>
+      <c r="BA135">
+        <v>1.27</v>
+      </c>
+      <c r="BB135">
+        <v>1.5</v>
+      </c>
+      <c r="BC135">
+        <v>1.87</v>
+      </c>
+      <c r="BD135">
+        <v>2.45</v>
+      </c>
+      <c r="BE135">
+        <v>3.4</v>
+      </c>
+      <c r="BF135">
+        <v>4</v>
+      </c>
+      <c r="BG135">
+        <v>7</v>
+      </c>
+      <c r="BH135">
+        <v>8</v>
+      </c>
+      <c r="BI135">
+        <v>7</v>
+      </c>
+      <c r="BJ135">
+        <v>12</v>
+      </c>
+      <c r="BK135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2435324</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>65</v>
+      </c>
+      <c r="H136" t="s">
+        <v>79</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>185</v>
+      </c>
+      <c r="P136" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q136">
+        <v>5</v>
+      </c>
+      <c r="R136">
+        <v>11</v>
+      </c>
+      <c r="S136">
+        <v>16</v>
+      </c>
+      <c r="T136">
+        <v>3.87</v>
+      </c>
+      <c r="U136">
+        <v>2.47</v>
+      </c>
+      <c r="V136">
+        <v>2.59</v>
+      </c>
+      <c r="W136">
+        <v>1.3</v>
+      </c>
+      <c r="X136">
+        <v>3.4</v>
+      </c>
+      <c r="Y136">
+        <v>2.43</v>
+      </c>
+      <c r="Z136">
+        <v>1.57</v>
+      </c>
+      <c r="AA136">
+        <v>5.5</v>
+      </c>
+      <c r="AB136">
+        <v>1.13</v>
+      </c>
+      <c r="AC136">
+        <v>3.43</v>
+      </c>
+      <c r="AD136">
+        <v>3.96</v>
+      </c>
+      <c r="AE136">
+        <v>1.99</v>
+      </c>
+      <c r="AF136">
+        <v>1.03</v>
+      </c>
+      <c r="AG136">
+        <v>12</v>
+      </c>
+      <c r="AH136">
+        <v>1.17</v>
+      </c>
+      <c r="AI136">
+        <v>4.5</v>
+      </c>
+      <c r="AJ136">
+        <v>1.6</v>
+      </c>
+      <c r="AK136">
+        <v>2.2</v>
+      </c>
+      <c r="AL136">
+        <v>1.59</v>
+      </c>
+      <c r="AM136">
+        <v>2.37</v>
+      </c>
+      <c r="AN136">
+        <v>1.84</v>
+      </c>
+      <c r="AO136">
+        <v>1.26</v>
+      </c>
+      <c r="AP136">
+        <v>1.32</v>
+      </c>
+      <c r="AQ136">
+        <v>1.29</v>
+      </c>
+      <c r="AR136">
+        <v>0.67</v>
+      </c>
+      <c r="AS136">
+        <v>1.5</v>
+      </c>
+      <c r="AT136">
+        <v>0.57</v>
+      </c>
+      <c r="AU136">
+        <v>1.56</v>
+      </c>
+      <c r="AV136">
+        <v>1.4</v>
+      </c>
+      <c r="AW136">
+        <v>2.96</v>
+      </c>
+      <c r="AX136">
+        <v>2.85</v>
+      </c>
+      <c r="AY136">
+        <v>7.9</v>
+      </c>
+      <c r="AZ136">
+        <v>1.64</v>
+      </c>
+      <c r="BA136">
+        <v>1.22</v>
+      </c>
+      <c r="BB136">
+        <v>1.42</v>
+      </c>
+      <c r="BC136">
+        <v>1.74</v>
+      </c>
+      <c r="BD136">
+        <v>2.23</v>
+      </c>
+      <c r="BE136">
+        <v>3</v>
+      </c>
+      <c r="BF136">
+        <v>5</v>
+      </c>
+      <c r="BG136">
+        <v>4</v>
+      </c>
+      <c r="BH136">
+        <v>2</v>
+      </c>
+      <c r="BI136">
+        <v>6</v>
+      </c>
+      <c r="BJ136">
+        <v>7</v>
+      </c>
+      <c r="BK136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2435323</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>81</v>
+      </c>
+      <c r="H137" t="s">
+        <v>70</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>3</v>
+      </c>
+      <c r="N137">
+        <v>5</v>
+      </c>
+      <c r="O137" t="s">
+        <v>186</v>
+      </c>
+      <c r="P137" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q137">
+        <v>3</v>
+      </c>
+      <c r="R137">
+        <v>8</v>
+      </c>
+      <c r="S137">
+        <v>11</v>
+      </c>
+      <c r="T137">
+        <v>2.42</v>
+      </c>
+      <c r="U137">
+        <v>2.52</v>
+      </c>
+      <c r="V137">
+        <v>4.16</v>
+      </c>
+      <c r="W137">
+        <v>1.28</v>
+      </c>
+      <c r="X137">
+        <v>3.3</v>
+      </c>
+      <c r="Y137">
+        <v>2.36</v>
+      </c>
+      <c r="Z137">
+        <v>1.6</v>
+      </c>
+      <c r="AA137">
+        <v>5.25</v>
+      </c>
+      <c r="AB137">
+        <v>1.14</v>
+      </c>
+      <c r="AC137">
+        <v>1.86</v>
+      </c>
+      <c r="AD137">
+        <v>3.94</v>
+      </c>
+      <c r="AE137">
+        <v>3.91</v>
+      </c>
+      <c r="AF137">
+        <v>1.02</v>
+      </c>
+      <c r="AG137">
+        <v>12</v>
+      </c>
+      <c r="AH137">
+        <v>1.17</v>
+      </c>
+      <c r="AI137">
+        <v>4.5</v>
+      </c>
+      <c r="AJ137">
+        <v>1.5</v>
+      </c>
+      <c r="AK137">
+        <v>2.32</v>
+      </c>
+      <c r="AL137">
+        <v>1.52</v>
+      </c>
+      <c r="AM137">
+        <v>2.35</v>
+      </c>
+      <c r="AN137">
+        <v>1.26</v>
+      </c>
+      <c r="AO137">
+        <v>1.25</v>
+      </c>
+      <c r="AP137">
+        <v>1.88</v>
+      </c>
+      <c r="AQ137">
+        <v>1.33</v>
+      </c>
+      <c r="AR137">
+        <v>1.67</v>
+      </c>
+      <c r="AS137">
+        <v>1.14</v>
+      </c>
+      <c r="AT137">
+        <v>1.86</v>
+      </c>
+      <c r="AU137">
+        <v>1.95</v>
+      </c>
+      <c r="AV137">
+        <v>1.38</v>
+      </c>
+      <c r="AW137">
+        <v>3.33</v>
+      </c>
+      <c r="AX137">
+        <v>1.41</v>
+      </c>
+      <c r="AY137">
+        <v>9.1</v>
+      </c>
+      <c r="AZ137">
+        <v>3.72</v>
+      </c>
+      <c r="BA137">
+        <v>1.18</v>
+      </c>
+      <c r="BB137">
+        <v>1.34</v>
+      </c>
+      <c r="BC137">
+        <v>1.61</v>
+      </c>
+      <c r="BD137">
+        <v>2.02</v>
+      </c>
+      <c r="BE137">
+        <v>2.7</v>
+      </c>
+      <c r="BF137">
+        <v>6</v>
+      </c>
+      <c r="BG137">
+        <v>9</v>
+      </c>
+      <c r="BH137">
+        <v>6</v>
+      </c>
+      <c r="BI137">
+        <v>5</v>
+      </c>
+      <c r="BJ137">
+        <v>12</v>
+      </c>
+      <c r="BK137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2435325</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>66</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
+      <c r="N138">
+        <v>7</v>
+      </c>
+      <c r="O138" t="s">
+        <v>187</v>
+      </c>
+      <c r="P138" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q138">
+        <v>7</v>
+      </c>
+      <c r="R138">
+        <v>3</v>
+      </c>
+      <c r="S138">
+        <v>10</v>
+      </c>
+      <c r="T138">
+        <v>3.5</v>
+      </c>
+      <c r="U138">
+        <v>2.3</v>
+      </c>
+      <c r="V138">
+        <v>2.45</v>
+      </c>
+      <c r="W138">
+        <v>1.29</v>
+      </c>
+      <c r="X138">
+        <v>3.5</v>
+      </c>
+      <c r="Y138">
+        <v>2.3</v>
+      </c>
+      <c r="Z138">
+        <v>1.57</v>
+      </c>
+      <c r="AA138">
+        <v>4.75</v>
+      </c>
+      <c r="AB138">
+        <v>1.15</v>
+      </c>
+      <c r="AC138">
+        <v>3.25</v>
+      </c>
+      <c r="AD138">
+        <v>4.28</v>
+      </c>
+      <c r="AE138">
+        <v>1.91</v>
+      </c>
+      <c r="AF138">
+        <v>1.02</v>
+      </c>
+      <c r="AG138">
+        <v>12</v>
+      </c>
+      <c r="AH138">
+        <v>1.17</v>
+      </c>
+      <c r="AI138">
+        <v>4.5</v>
+      </c>
+      <c r="AJ138">
+        <v>1.52</v>
+      </c>
+      <c r="AK138">
+        <v>2.35</v>
+      </c>
+      <c r="AL138">
+        <v>1.53</v>
+      </c>
+      <c r="AM138">
+        <v>2.38</v>
+      </c>
+      <c r="AN138">
+        <v>1.8</v>
+      </c>
+      <c r="AO138">
+        <v>1.25</v>
+      </c>
+      <c r="AP138">
+        <v>1.3</v>
+      </c>
+      <c r="AQ138">
+        <v>1.5</v>
+      </c>
+      <c r="AR138">
+        <v>0.83</v>
+      </c>
+      <c r="AS138">
+        <v>1.29</v>
+      </c>
+      <c r="AT138">
+        <v>1.14</v>
+      </c>
+      <c r="AU138">
+        <v>1.27</v>
+      </c>
+      <c r="AV138">
+        <v>1.71</v>
+      </c>
+      <c r="AW138">
+        <v>2.98</v>
+      </c>
+      <c r="AX138">
+        <v>3.28</v>
+      </c>
+      <c r="AY138">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ138">
+        <v>1.51</v>
+      </c>
+      <c r="BA138">
+        <v>1.27</v>
+      </c>
+      <c r="BB138">
+        <v>1.5</v>
+      </c>
+      <c r="BC138">
+        <v>1.87</v>
+      </c>
+      <c r="BD138">
+        <v>2.45</v>
+      </c>
+      <c r="BE138">
+        <v>3.4</v>
+      </c>
+      <c r="BF138">
+        <v>6</v>
+      </c>
+      <c r="BG138">
+        <v>6</v>
+      </c>
+      <c r="BH138">
+        <v>8</v>
+      </c>
+      <c r="BI138">
+        <v>1</v>
+      </c>
+      <c r="BJ138">
+        <v>14</v>
+      </c>
+      <c r="BK138">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,48 @@
     <t>['31', '40', '59']</t>
   </si>
   <si>
+    <t>['40', '45']</t>
+  </si>
+  <si>
+    <t>['24', '80', '90+7']</t>
+  </si>
+  <si>
+    <t>['7', '19', '64', '66', '90']</t>
+  </si>
+  <si>
+    <t>['2', '25']</t>
+  </si>
+  <si>
+    <t>['16', '30', '42', '70', '74']</t>
+  </si>
+  <si>
+    <t>['2', '86']</t>
+  </si>
+  <si>
+    <t>['16', '35', '50', '58']</t>
+  </si>
+  <si>
+    <t>['15', '50', '57']</t>
+  </si>
+  <si>
+    <t>['72', '90+2']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['11', '88', '90+2']</t>
+  </si>
+  <si>
+    <t>['17', '20', '61']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['19', '31']</t>
+  </si>
+  <si>
     <t>['8', '23', '33']</t>
   </si>
   <si>
@@ -824,6 +866,27 @@
   </si>
   <si>
     <t>['10', '47', '49', '78']</t>
+  </si>
+  <si>
+    <t>['22', '70']</t>
+  </si>
+  <si>
+    <t>['13', '50']</t>
+  </si>
+  <si>
+    <t>['41', '52', '77', '83']</t>
+  </si>
+  <si>
+    <t>['5', '12']</t>
+  </si>
+  <si>
+    <t>['3', '81']</t>
+  </si>
+  <si>
+    <t>['32', '45']</t>
+  </si>
+  <si>
+    <t>['3', '79']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK138"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1492,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1516,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1620,7 +1683,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1707,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT3">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1898,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -2089,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT5">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2280,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT6">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2471,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT7">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2575,7 +2638,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2665,7 +2728,7 @@
         <v>1.57</v>
       </c>
       <c r="AT8">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2766,7 +2829,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2853,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT9">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3044,10 +3107,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3235,10 +3298,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AT11">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3339,7 +3402,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3426,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT12">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3617,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT13">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3721,7 +3784,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3808,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3999,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4103,7 +4166,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4190,10 +4253,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4294,7 +4357,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4381,10 +4444,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT17">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4485,7 +4548,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4572,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -4676,7 +4739,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4763,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT19">
         <v>1.88</v>
@@ -4957,7 +5020,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5058,7 +5121,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5145,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5249,7 +5312,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5339,7 +5402,7 @@
         <v>1.57</v>
       </c>
       <c r="AT22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU22">
         <v>1.76</v>
@@ -5527,10 +5590,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT23">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU23">
         <v>1.34</v>
@@ -5718,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5822,7 +5885,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5909,10 +5972,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT25">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU25">
         <v>0.9399999999999999</v>
@@ -6013,7 +6076,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6100,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT26">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AU26">
         <v>1.76</v>
@@ -6204,7 +6267,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6291,10 +6354,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT27">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AU27">
         <v>1.93</v>
@@ -6395,7 +6458,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6482,10 +6545,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT28">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU28">
         <v>1.38</v>
@@ -6586,7 +6649,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6673,10 +6736,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU29">
         <v>1.2</v>
@@ -6777,7 +6840,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6864,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AT30">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU30">
         <v>2.32</v>
@@ -6968,7 +7031,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7159,7 +7222,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7246,10 +7309,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT32">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>1.83</v>
@@ -7437,10 +7500,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT33">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7541,7 +7604,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7628,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU34">
         <v>1.85</v>
@@ -7732,7 +7795,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7819,10 +7882,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT35">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <v>1.28</v>
@@ -8010,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU36">
         <v>1.64</v>
@@ -8201,10 +8264,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU37">
         <v>0.93</v>
@@ -8392,7 +8455,7 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8583,10 +8646,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU39">
         <v>2.25</v>
@@ -8774,10 +8837,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT40">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AU40">
         <v>1.13</v>
@@ -8965,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT41">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU41">
         <v>1.14</v>
@@ -9069,7 +9132,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9156,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT42">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU42">
         <v>1.01</v>
@@ -9347,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT43">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU43">
         <v>0.85</v>
@@ -9451,7 +9514,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9538,10 +9601,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT44">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU44">
         <v>1.65</v>
@@ -9729,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT45">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU45">
         <v>1.28</v>
@@ -9833,7 +9896,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9920,10 +9983,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AU46">
         <v>1.41</v>
@@ -10215,7 +10278,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10302,10 +10365,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT48">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AU48">
         <v>1.69</v>
@@ -10406,7 +10469,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10496,7 +10559,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU49">
         <v>0.96</v>
@@ -10684,7 +10747,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
         <v>1.88</v>
@@ -10875,10 +10938,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AT51">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU51">
         <v>2.38</v>
@@ -10979,7 +11042,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11066,10 +11129,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT52">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11170,7 +11233,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11257,10 +11320,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT53">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AU53">
         <v>1.72</v>
@@ -11361,7 +11424,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11448,10 +11511,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT54">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU54">
         <v>1.16</v>
@@ -11552,7 +11615,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11639,10 +11702,10 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT55">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU55">
         <v>2.1</v>
@@ -11830,10 +11893,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT56">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU56">
         <v>1.31</v>
@@ -12021,10 +12084,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT57">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU57">
         <v>0.95</v>
@@ -12125,7 +12188,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12212,7 +12275,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12316,7 +12379,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12403,10 +12466,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT59">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU59">
         <v>1.33</v>
@@ -12507,7 +12570,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12594,10 +12657,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU60">
         <v>2.28</v>
@@ -12698,7 +12761,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12785,10 +12848,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU61">
         <v>1.83</v>
@@ -12889,7 +12952,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12976,10 +13039,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU62">
         <v>1.41</v>
@@ -13080,7 +13143,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13167,10 +13230,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AU63">
         <v>1.43</v>
@@ -13271,7 +13334,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13358,10 +13421,10 @@
         <v>3</v>
       </c>
       <c r="AS64">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AT64">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU64">
         <v>2.22</v>
@@ -13462,7 +13525,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13653,7 +13716,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13740,10 +13803,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT66">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU66">
         <v>1.63</v>
@@ -13844,7 +13907,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -13931,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -14035,7 +14098,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14122,7 +14185,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT68">
         <v>1.88</v>
@@ -14316,7 +14379,7 @@
         <v>1.57</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU69">
         <v>1.87</v>
@@ -14504,10 +14567,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT70">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU70">
         <v>1.16</v>
@@ -14608,7 +14671,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14695,7 +14758,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -14886,10 +14949,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU72">
         <v>1.54</v>
@@ -14990,7 +15053,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15077,10 +15140,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT73">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU73">
         <v>1.24</v>
@@ -15181,7 +15244,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15268,10 +15331,10 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT74">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU74">
         <v>2.01</v>
@@ -15372,7 +15435,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15459,10 +15522,10 @@
         <v>2.33</v>
       </c>
       <c r="AS75">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT75">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AU75">
         <v>1.31</v>
@@ -15563,7 +15626,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15650,10 +15713,10 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT76">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU76">
         <v>1.35</v>
@@ -15754,7 +15817,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15841,10 +15904,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT77">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU77">
         <v>1.72</v>
@@ -15945,7 +16008,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16032,10 +16095,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT78">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU78">
         <v>1.13</v>
@@ -16223,10 +16286,10 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT79">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU79">
         <v>2</v>
@@ -16327,7 +16390,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16414,10 +16477,10 @@
         <v>0.67</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT80">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AU80">
         <v>1.12</v>
@@ -16605,10 +16668,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT81">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU81">
         <v>1.16</v>
@@ -16709,7 +16772,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16796,10 +16859,10 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT82">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU82">
         <v>1.23</v>
@@ -16900,7 +16963,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16987,10 +17050,10 @@
         <v>0.25</v>
       </c>
       <c r="AS83">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT83">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU83">
         <v>1.83</v>
@@ -17091,7 +17154,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17178,10 +17241,10 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT84">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU84">
         <v>1.43</v>
@@ -17282,7 +17345,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17369,10 +17432,10 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT85">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AU85">
         <v>1.43</v>
@@ -17473,7 +17536,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17560,10 +17623,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT86">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU86">
         <v>1.26</v>
@@ -17664,7 +17727,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17751,10 +17814,10 @@
         <v>0.75</v>
       </c>
       <c r="AS87">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT87">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>2.32</v>
@@ -17855,7 +17918,7 @@
         <v>126</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17942,10 +18005,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT88">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU88">
         <v>1.34</v>
@@ -18046,7 +18109,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18133,7 +18196,7 @@
         <v>2.25</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT89">
         <v>1.88</v>
@@ -18324,10 +18387,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT90">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AU90">
         <v>1.58</v>
@@ -18515,10 +18578,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU91">
         <v>1.84</v>
@@ -18619,7 +18682,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18706,10 +18769,10 @@
         <v>2.25</v>
       </c>
       <c r="AS92">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT92">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU92">
         <v>1.7</v>
@@ -18810,7 +18873,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18900,7 +18963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU93">
         <v>1.16</v>
@@ -19001,7 +19064,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19192,7 +19255,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19279,10 +19342,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT95">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU95">
         <v>1.44</v>
@@ -19383,7 +19446,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19470,10 +19533,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT96">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU96">
         <v>1.16</v>
@@ -19574,7 +19637,7 @@
         <v>86</v>
       </c>
       <c r="P97" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19661,10 +19724,10 @@
         <v>0</v>
       </c>
       <c r="AS97">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU97">
         <v>1.33</v>
@@ -19852,10 +19915,10 @@
         <v>3</v>
       </c>
       <c r="AS98">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT98">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU98">
         <v>1.15</v>
@@ -20043,10 +20106,10 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AT99">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU99">
         <v>2.07</v>
@@ -20147,7 +20210,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20234,10 +20297,10 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT100">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU100">
         <v>1.97</v>
@@ -20425,10 +20488,10 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT101">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AU101">
         <v>2.26</v>
@@ -20529,7 +20592,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20616,10 +20679,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT102">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU102">
         <v>1.32</v>
@@ -20720,7 +20783,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20807,10 +20870,10 @@
         <v>1.6</v>
       </c>
       <c r="AS103">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT103">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AU103">
         <v>1.35</v>
@@ -20911,7 +20974,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -20998,7 +21061,7 @@
         <v>2.4</v>
       </c>
       <c r="AS104">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT104">
         <v>1.88</v>
@@ -21102,7 +21165,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21189,10 +21252,10 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT105">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU105">
         <v>1.38</v>
@@ -21293,7 +21356,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21380,7 +21443,7 @@
         <v>0.8</v>
       </c>
       <c r="AS106">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT106">
         <v>1</v>
@@ -21571,10 +21634,10 @@
         <v>0.2</v>
       </c>
       <c r="AS107">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT107">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU107">
         <v>1.83</v>
@@ -21675,7 +21738,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21762,10 +21825,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT108">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU108">
         <v>1.24</v>
@@ -21953,10 +22016,10 @@
         <v>0.8</v>
       </c>
       <c r="AS109">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT109">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU109">
         <v>1.61</v>
@@ -22057,7 +22120,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22144,10 +22207,10 @@
         <v>0.4</v>
       </c>
       <c r="AS110">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT110">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU110">
         <v>1.46</v>
@@ -22248,7 +22311,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22335,10 +22398,10 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT111">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AU111">
         <v>1.34</v>
@@ -22439,7 +22502,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22526,10 +22589,10 @@
         <v>0.6</v>
       </c>
       <c r="AS112">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT112">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU112">
         <v>2.1</v>
@@ -22717,10 +22780,10 @@
         <v>1.6</v>
       </c>
       <c r="AS113">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AT113">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AU113">
         <v>1.88</v>
@@ -22908,10 +22971,10 @@
         <v>1.33</v>
       </c>
       <c r="AS114">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT114">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AU114">
         <v>1.33</v>
@@ -23012,7 +23075,7 @@
         <v>112</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23102,7 +23165,7 @@
         <v>1.57</v>
       </c>
       <c r="AT115">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU115">
         <v>1.81</v>
@@ -23203,7 +23266,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23290,10 +23353,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU116">
         <v>1.2</v>
@@ -23481,7 +23544,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -23672,10 +23735,10 @@
         <v>2.4</v>
       </c>
       <c r="AS118">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT118">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU118">
         <v>1.49</v>
@@ -23866,7 +23929,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU119">
         <v>1.2</v>
@@ -23967,7 +24030,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24054,10 +24117,10 @@
         <v>1.8</v>
       </c>
       <c r="AS120">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT120">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU120">
         <v>1.41</v>
@@ -24245,10 +24308,10 @@
         <v>1.6</v>
       </c>
       <c r="AS121">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AT121">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU121">
         <v>2.12</v>
@@ -24349,7 +24412,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24436,10 +24499,10 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT122">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU122">
         <v>1.5</v>
@@ -24540,7 +24603,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24627,7 +24690,7 @@
         <v>2</v>
       </c>
       <c r="AS123">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT123">
         <v>1.88</v>
@@ -24731,7 +24794,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24818,10 +24881,10 @@
         <v>1.17</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT124">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU124">
         <v>1.59</v>
@@ -24922,7 +24985,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25009,10 +25072,10 @@
         <v>1.17</v>
       </c>
       <c r="AS125">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT125">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.17</v>
@@ -25200,10 +25263,10 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT126">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU126">
         <v>1.8</v>
@@ -25304,7 +25367,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25391,7 +25454,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT127">
         <v>1</v>
@@ -25495,7 +25558,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25582,10 +25645,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT128">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU128">
         <v>1.72</v>
@@ -25773,10 +25836,10 @@
         <v>0.17</v>
       </c>
       <c r="AS129">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT129">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU129">
         <v>1.67</v>
@@ -25877,7 +25940,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -25964,10 +26027,10 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT130">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU130">
         <v>1.36</v>
@@ -26068,7 +26131,7 @@
         <v>111</v>
       </c>
       <c r="P131" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26155,10 +26218,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT131">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AU131">
         <v>1.42</v>
@@ -26259,16 +26322,16 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="Q132">
         <v>1</v>
       </c>
       <c r="R132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T132">
         <v>4.75</v>
@@ -26346,10 +26409,10 @@
         <v>2.5</v>
       </c>
       <c r="AS132">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT132">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU132">
         <v>1.33</v>
@@ -26388,19 +26451,19 @@
         <v>4</v>
       </c>
       <c r="BG132">
+        <v>3</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
         <v>10</v>
       </c>
-      <c r="BH132">
-        <v>1</v>
-      </c>
-      <c r="BI132">
-        <v>12</v>
-      </c>
       <c r="BJ132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK132">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:63">
@@ -26450,7 +26513,7 @@
         <v>111</v>
       </c>
       <c r="P133" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26537,10 +26600,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT133">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU133">
         <v>1.51</v>
@@ -26576,22 +26639,22 @@
         <v>2.2</v>
       </c>
       <c r="BF133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>7</v>
+      </c>
+      <c r="BI133">
         <v>4</v>
       </c>
-      <c r="BH133">
-        <v>9</v>
-      </c>
-      <c r="BI133">
-        <v>6</v>
-      </c>
       <c r="BJ133">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BK133">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:63">
@@ -26644,13 +26707,13 @@
         <v>86</v>
       </c>
       <c r="Q134">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R134">
         <v>3</v>
       </c>
       <c r="S134">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T134">
         <v>2.65</v>
@@ -26728,10 +26791,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT134">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU134">
         <v>1.46</v>
@@ -26767,22 +26830,22 @@
         <v>3.5</v>
       </c>
       <c r="BF134">
+        <v>6</v>
+      </c>
+      <c r="BG134">
         <v>7</v>
       </c>
-      <c r="BG134">
-        <v>4</v>
-      </c>
       <c r="BH134">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI134">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ134">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK134">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:63">
@@ -26832,16 +26895,16 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Q135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R135">
         <v>8</v>
       </c>
       <c r="S135">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T135">
         <v>2.88</v>
@@ -26958,22 +27021,22 @@
         <v>3.4</v>
       </c>
       <c r="BF135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG135">
+        <v>8</v>
+      </c>
+      <c r="BH135">
         <v>7</v>
       </c>
-      <c r="BH135">
-        <v>8</v>
-      </c>
       <c r="BI135">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ135">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK135">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:63">
@@ -27110,10 +27173,10 @@
         <v>0.67</v>
       </c>
       <c r="AS136">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT136">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU136">
         <v>1.56</v>
@@ -27149,22 +27212,22 @@
         <v>3</v>
       </c>
       <c r="BF136">
+        <v>3</v>
+      </c>
+      <c r="BG136">
+        <v>6</v>
+      </c>
+      <c r="BH136">
+        <v>1</v>
+      </c>
+      <c r="BI136">
         <v>5</v>
       </c>
-      <c r="BG136">
+      <c r="BJ136">
         <v>4</v>
       </c>
-      <c r="BH136">
-        <v>2</v>
-      </c>
-      <c r="BI136">
-        <v>6</v>
-      </c>
-      <c r="BJ136">
-        <v>7</v>
-      </c>
       <c r="BK136">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:63">
@@ -27214,7 +27277,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27301,10 +27364,10 @@
         <v>1.67</v>
       </c>
       <c r="AS137">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT137">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU137">
         <v>1.95</v>
@@ -27340,22 +27403,22 @@
         <v>2.7</v>
       </c>
       <c r="BF137">
+        <v>5</v>
+      </c>
+      <c r="BG137">
+        <v>5</v>
+      </c>
+      <c r="BH137">
+        <v>3</v>
+      </c>
+      <c r="BI137">
         <v>6</v>
       </c>
-      <c r="BG137">
-        <v>9</v>
-      </c>
-      <c r="BH137">
-        <v>6</v>
-      </c>
-      <c r="BI137">
-        <v>5</v>
-      </c>
       <c r="BJ137">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BK137">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:63">
@@ -27405,7 +27468,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27492,10 +27555,10 @@
         <v>0.83</v>
       </c>
       <c r="AS138">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT138">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU138">
         <v>1.27</v>
@@ -27531,22 +27594,4415 @@
         <v>3.4</v>
       </c>
       <c r="BF138">
+        <v>7</v>
+      </c>
+      <c r="BG138">
+        <v>3</v>
+      </c>
+      <c r="BH138">
+        <v>15</v>
+      </c>
+      <c r="BI138">
+        <v>5</v>
+      </c>
+      <c r="BJ138">
+        <v>22</v>
+      </c>
+      <c r="BK138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2435331</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44872.66666666666</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>83</v>
+      </c>
+      <c r="H139" t="s">
+        <v>78</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>86</v>
+      </c>
+      <c r="P139" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q139">
+        <v>2</v>
+      </c>
+      <c r="R139">
+        <v>7</v>
+      </c>
+      <c r="S139">
+        <v>9</v>
+      </c>
+      <c r="T139">
+        <v>2.9</v>
+      </c>
+      <c r="U139">
+        <v>2.25</v>
+      </c>
+      <c r="V139">
+        <v>3.5</v>
+      </c>
+      <c r="W139">
+        <v>1.32</v>
+      </c>
+      <c r="X139">
+        <v>3.1</v>
+      </c>
+      <c r="Y139">
+        <v>2.35</v>
+      </c>
+      <c r="Z139">
+        <v>1.52</v>
+      </c>
+      <c r="AA139">
+        <v>5.3</v>
+      </c>
+      <c r="AB139">
+        <v>1.12</v>
+      </c>
+      <c r="AC139">
+        <v>2.24</v>
+      </c>
+      <c r="AD139">
+        <v>3.77</v>
+      </c>
+      <c r="AE139">
+        <v>2.85</v>
+      </c>
+      <c r="AF139">
+        <v>1.03</v>
+      </c>
+      <c r="AG139">
+        <v>15</v>
+      </c>
+      <c r="AH139">
+        <v>1.22</v>
+      </c>
+      <c r="AI139">
+        <v>4.2</v>
+      </c>
+      <c r="AJ139">
+        <v>1.65</v>
+      </c>
+      <c r="AK139">
+        <v>2.1</v>
+      </c>
+      <c r="AL139">
+        <v>1.58</v>
+      </c>
+      <c r="AM139">
+        <v>2.2</v>
+      </c>
+      <c r="AN139">
+        <v>1.4</v>
+      </c>
+      <c r="AO139">
+        <v>1.25</v>
+      </c>
+      <c r="AP139">
+        <v>1.63</v>
+      </c>
+      <c r="AQ139">
+        <v>1.5</v>
+      </c>
+      <c r="AR139">
+        <v>1.17</v>
+      </c>
+      <c r="AS139">
+        <v>1.5</v>
+      </c>
+      <c r="AT139">
+        <v>1.25</v>
+      </c>
+      <c r="AU139">
+        <v>1.3</v>
+      </c>
+      <c r="AV139">
+        <v>1.6</v>
+      </c>
+      <c r="AW139">
+        <v>2.9</v>
+      </c>
+      <c r="AX139">
+        <v>1.74</v>
+      </c>
+      <c r="AY139">
+        <v>5.5</v>
+      </c>
+      <c r="AZ139">
+        <v>2.35</v>
+      </c>
+      <c r="BA139">
+        <v>1.27</v>
+      </c>
+      <c r="BB139">
+        <v>1.5</v>
+      </c>
+      <c r="BC139">
+        <v>1.87</v>
+      </c>
+      <c r="BD139">
+        <v>2.45</v>
+      </c>
+      <c r="BE139">
+        <v>3.4</v>
+      </c>
+      <c r="BF139">
+        <v>4</v>
+      </c>
+      <c r="BG139">
+        <v>4</v>
+      </c>
+      <c r="BH139">
+        <v>4</v>
+      </c>
+      <c r="BI139">
+        <v>5</v>
+      </c>
+      <c r="BJ139">
+        <v>8</v>
+      </c>
+      <c r="BK139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2435332</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44872.66666666666</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>82</v>
+      </c>
+      <c r="H140" t="s">
+        <v>80</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>86</v>
+      </c>
+      <c r="P140" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>7</v>
+      </c>
+      <c r="T140">
+        <v>3.75</v>
+      </c>
+      <c r="U140">
+        <v>2.25</v>
+      </c>
+      <c r="V140">
+        <v>2.75</v>
+      </c>
+      <c r="W140">
+        <v>1.32</v>
+      </c>
+      <c r="X140">
+        <v>3.1</v>
+      </c>
+      <c r="Y140">
+        <v>2.6</v>
+      </c>
+      <c r="Z140">
+        <v>1.44</v>
+      </c>
+      <c r="AA140">
+        <v>6.4</v>
+      </c>
+      <c r="AB140">
+        <v>1.09</v>
+      </c>
+      <c r="AC140">
+        <v>3.19</v>
+      </c>
+      <c r="AD140">
+        <v>3.6</v>
+      </c>
+      <c r="AE140">
+        <v>2.11</v>
+      </c>
+      <c r="AF140">
+        <v>1.04</v>
+      </c>
+      <c r="AG140">
+        <v>10.5</v>
+      </c>
+      <c r="AH140">
+        <v>1.24</v>
+      </c>
+      <c r="AI140">
+        <v>3.7</v>
+      </c>
+      <c r="AJ140">
+        <v>1.82</v>
+      </c>
+      <c r="AK140">
+        <v>1.95</v>
+      </c>
+      <c r="AL140">
+        <v>1.68</v>
+      </c>
+      <c r="AM140">
+        <v>2.15</v>
+      </c>
+      <c r="AN140">
+        <v>1.75</v>
+      </c>
+      <c r="AO140">
+        <v>1.22</v>
+      </c>
+      <c r="AP140">
+        <v>1.35</v>
+      </c>
+      <c r="AQ140">
+        <v>0.83</v>
+      </c>
+      <c r="AR140">
+        <v>1.33</v>
+      </c>
+      <c r="AS140">
+        <v>1</v>
+      </c>
+      <c r="AT140">
+        <v>1.38</v>
+      </c>
+      <c r="AU140">
+        <v>1.46</v>
+      </c>
+      <c r="AV140">
+        <v>1.28</v>
+      </c>
+      <c r="AW140">
+        <v>2.74</v>
+      </c>
+      <c r="AX140">
+        <v>2.2</v>
+      </c>
+      <c r="AY140">
+        <v>5.75</v>
+      </c>
+      <c r="AZ140">
+        <v>1.8</v>
+      </c>
+      <c r="BA140">
+        <v>1.22</v>
+      </c>
+      <c r="BB140">
+        <v>1.42</v>
+      </c>
+      <c r="BC140">
+        <v>1.74</v>
+      </c>
+      <c r="BD140">
+        <v>2.23</v>
+      </c>
+      <c r="BE140">
+        <v>3</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
+      <c r="BG140">
+        <v>4</v>
+      </c>
+      <c r="BH140">
+        <v>10</v>
+      </c>
+      <c r="BI140">
+        <v>11</v>
+      </c>
+      <c r="BJ140">
+        <v>10</v>
+      </c>
+      <c r="BK140">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2435330</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44872.66666666666</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" t="s">
+        <v>76</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>188</v>
+      </c>
+      <c r="P141" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q141">
+        <v>7</v>
+      </c>
+      <c r="R141">
+        <v>9</v>
+      </c>
+      <c r="S141">
+        <v>16</v>
+      </c>
+      <c r="T141">
+        <v>3.6</v>
+      </c>
+      <c r="U141">
+        <v>2.2</v>
+      </c>
+      <c r="V141">
+        <v>2.9</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>3.1</v>
+      </c>
+      <c r="Y141">
+        <v>2.55</v>
+      </c>
+      <c r="Z141">
+        <v>1.46</v>
+      </c>
+      <c r="AA141">
+        <v>5.95</v>
+      </c>
+      <c r="AB141">
+        <v>1.1</v>
+      </c>
+      <c r="AC141">
+        <v>2.98</v>
+      </c>
+      <c r="AD141">
+        <v>3.63</v>
+      </c>
+      <c r="AE141">
+        <v>2.2</v>
+      </c>
+      <c r="AF141">
+        <v>1.04</v>
+      </c>
+      <c r="AG141">
+        <v>10.5</v>
+      </c>
+      <c r="AH141">
+        <v>1.23</v>
+      </c>
+      <c r="AI141">
+        <v>3.75</v>
+      </c>
+      <c r="AJ141">
+        <v>1.68</v>
+      </c>
+      <c r="AK141">
+        <v>2.05</v>
+      </c>
+      <c r="AL141">
+        <v>1.6</v>
+      </c>
+      <c r="AM141">
+        <v>2.15</v>
+      </c>
+      <c r="AN141">
+        <v>1.65</v>
+      </c>
+      <c r="AO141">
+        <v>1.25</v>
+      </c>
+      <c r="AP141">
+        <v>1.38</v>
+      </c>
+      <c r="AQ141">
+        <v>2.17</v>
+      </c>
+      <c r="AR141">
+        <v>1.14</v>
+      </c>
+      <c r="AS141">
+        <v>2.13</v>
+      </c>
+      <c r="AT141">
+        <v>1.22</v>
+      </c>
+      <c r="AU141">
+        <v>1.92</v>
+      </c>
+      <c r="AV141">
+        <v>1.59</v>
+      </c>
+      <c r="AW141">
+        <v>3.51</v>
+      </c>
+      <c r="AX141">
+        <v>2.25</v>
+      </c>
+      <c r="AY141">
+        <v>5.75</v>
+      </c>
+      <c r="AZ141">
+        <v>1.76</v>
+      </c>
+      <c r="BA141">
+        <v>1.22</v>
+      </c>
+      <c r="BB141">
+        <v>1.42</v>
+      </c>
+      <c r="BC141">
+        <v>1.74</v>
+      </c>
+      <c r="BD141">
+        <v>2.23</v>
+      </c>
+      <c r="BE141">
+        <v>3</v>
+      </c>
+      <c r="BF141">
+        <v>8</v>
+      </c>
+      <c r="BG141">
+        <v>9</v>
+      </c>
+      <c r="BH141">
+        <v>5</v>
+      </c>
+      <c r="BI141">
+        <v>10</v>
+      </c>
+      <c r="BJ141">
+        <v>13</v>
+      </c>
+      <c r="BK141">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2435334</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44876.66666666666</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>79</v>
+      </c>
+      <c r="H142" t="s">
+        <v>83</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>5</v>
+      </c>
+      <c r="O142" t="s">
+        <v>189</v>
+      </c>
+      <c r="P142" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q142">
+        <v>4</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
         <v>6</v>
       </c>
-      <c r="BG138">
+      <c r="T142">
+        <v>2.3</v>
+      </c>
+      <c r="U142">
+        <v>2.35</v>
+      </c>
+      <c r="V142">
+        <v>4.5</v>
+      </c>
+      <c r="W142">
+        <v>1.3</v>
+      </c>
+      <c r="X142">
+        <v>3.2</v>
+      </c>
+      <c r="Y142">
+        <v>2.5</v>
+      </c>
+      <c r="Z142">
+        <v>1.47</v>
+      </c>
+      <c r="AA142">
+        <v>5.95</v>
+      </c>
+      <c r="AB142">
+        <v>1.1</v>
+      </c>
+      <c r="AC142">
+        <v>1.75</v>
+      </c>
+      <c r="AD142">
+        <v>4</v>
+      </c>
+      <c r="AE142">
+        <v>4.33</v>
+      </c>
+      <c r="AF142">
+        <v>1.02</v>
+      </c>
+      <c r="AG142">
+        <v>15</v>
+      </c>
+      <c r="AH142">
+        <v>1.22</v>
+      </c>
+      <c r="AI142">
+        <v>4.2</v>
+      </c>
+      <c r="AJ142">
+        <v>1.72</v>
+      </c>
+      <c r="AK142">
+        <v>2.15</v>
+      </c>
+      <c r="AL142">
+        <v>1.68</v>
+      </c>
+      <c r="AM142">
+        <v>2.15</v>
+      </c>
+      <c r="AN142">
+        <v>1.22</v>
+      </c>
+      <c r="AO142">
+        <v>1.2</v>
+      </c>
+      <c r="AP142">
+        <v>2.1</v>
+      </c>
+      <c r="AQ142">
+        <v>1.57</v>
+      </c>
+      <c r="AR142">
+        <v>1.14</v>
+      </c>
+      <c r="AS142">
+        <v>1.75</v>
+      </c>
+      <c r="AT142">
+        <v>1</v>
+      </c>
+      <c r="AU142">
+        <v>1.77</v>
+      </c>
+      <c r="AV142">
+        <v>1.16</v>
+      </c>
+      <c r="AW142">
+        <v>2.93</v>
+      </c>
+      <c r="AX142">
+        <v>1.51</v>
+      </c>
+      <c r="AY142">
+        <v>7.6</v>
+      </c>
+      <c r="AZ142">
+        <v>3.26</v>
+      </c>
+      <c r="BA142">
+        <v>1.33</v>
+      </c>
+      <c r="BB142">
+        <v>1.61</v>
+      </c>
+      <c r="BC142">
+        <v>2.01</v>
+      </c>
+      <c r="BD142">
+        <v>2.46</v>
+      </c>
+      <c r="BE142">
+        <v>3.4</v>
+      </c>
+      <c r="BF142">
+        <v>8</v>
+      </c>
+      <c r="BG142">
+        <v>4</v>
+      </c>
+      <c r="BH142">
+        <v>9</v>
+      </c>
+      <c r="BI142">
+        <v>7</v>
+      </c>
+      <c r="BJ142">
+        <v>17</v>
+      </c>
+      <c r="BK142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2435335</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44876.66666666666</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>72</v>
+      </c>
+      <c r="H143" t="s">
+        <v>80</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>3</v>
+      </c>
+      <c r="L143">
+        <v>5</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>7</v>
+      </c>
+      <c r="O143" t="s">
+        <v>190</v>
+      </c>
+      <c r="P143" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q143">
+        <v>3</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>5</v>
+      </c>
+      <c r="T143">
+        <v>2.15</v>
+      </c>
+      <c r="U143">
+        <v>2.35</v>
+      </c>
+      <c r="V143">
+        <v>5.5</v>
+      </c>
+      <c r="W143">
+        <v>1.32</v>
+      </c>
+      <c r="X143">
+        <v>3.1</v>
+      </c>
+      <c r="Y143">
+        <v>2.55</v>
+      </c>
+      <c r="Z143">
+        <v>1.46</v>
+      </c>
+      <c r="AA143">
+        <v>5.95</v>
+      </c>
+      <c r="AB143">
+        <v>1.1</v>
+      </c>
+      <c r="AC143">
+        <v>1.57</v>
+      </c>
+      <c r="AD143">
+        <v>4.2</v>
+      </c>
+      <c r="AE143">
+        <v>5.5</v>
+      </c>
+      <c r="AF143">
+        <v>1.03</v>
+      </c>
+      <c r="AG143">
+        <v>13</v>
+      </c>
+      <c r="AH143">
+        <v>1.22</v>
+      </c>
+      <c r="AI143">
+        <v>4</v>
+      </c>
+      <c r="AJ143">
+        <v>1.75</v>
+      </c>
+      <c r="AK143">
+        <v>2.1</v>
+      </c>
+      <c r="AL143">
+        <v>1.8</v>
+      </c>
+      <c r="AM143">
+        <v>1.95</v>
+      </c>
+      <c r="AN143">
+        <v>1.14</v>
+      </c>
+      <c r="AO143">
+        <v>1.18</v>
+      </c>
+      <c r="AP143">
+        <v>2.4</v>
+      </c>
+      <c r="AQ143">
+        <v>1.57</v>
+      </c>
+      <c r="AR143">
+        <v>1.57</v>
+      </c>
+      <c r="AS143">
+        <v>1.75</v>
+      </c>
+      <c r="AT143">
+        <v>1.38</v>
+      </c>
+      <c r="AU143">
+        <v>1.79</v>
+      </c>
+      <c r="AV143">
+        <v>1.31</v>
+      </c>
+      <c r="AW143">
+        <v>3.1</v>
+      </c>
+      <c r="AX143">
+        <v>1.38</v>
+      </c>
+      <c r="AY143">
+        <v>7.6</v>
+      </c>
+      <c r="AZ143">
+        <v>4.08</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>1.35</v>
+      </c>
+      <c r="BC143">
+        <v>1.64</v>
+      </c>
+      <c r="BD143">
+        <v>2</v>
+      </c>
+      <c r="BE143">
+        <v>2.51</v>
+      </c>
+      <c r="BF143">
         <v>6</v>
       </c>
-      <c r="BH138">
+      <c r="BG143">
+        <v>5</v>
+      </c>
+      <c r="BH143">
+        <v>4</v>
+      </c>
+      <c r="BI143">
+        <v>2</v>
+      </c>
+      <c r="BJ143">
+        <v>10</v>
+      </c>
+      <c r="BK143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2435337</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44876.66666666666</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" t="s">
+        <v>81</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" t="s">
+        <v>86</v>
+      </c>
+      <c r="P144" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q144">
+        <v>5</v>
+      </c>
+      <c r="R144">
+        <v>3</v>
+      </c>
+      <c r="S144">
         <v>8</v>
       </c>
-      <c r="BI138">
-        <v>1</v>
-      </c>
-      <c r="BJ138">
+      <c r="T144">
+        <v>3</v>
+      </c>
+      <c r="U144">
+        <v>2.2</v>
+      </c>
+      <c r="V144">
+        <v>3.4</v>
+      </c>
+      <c r="W144">
+        <v>1.33</v>
+      </c>
+      <c r="X144">
+        <v>3.1</v>
+      </c>
+      <c r="Y144">
+        <v>2.6</v>
+      </c>
+      <c r="Z144">
+        <v>1.44</v>
+      </c>
+      <c r="AA144">
+        <v>6.4</v>
+      </c>
+      <c r="AB144">
+        <v>1.09</v>
+      </c>
+      <c r="AC144">
+        <v>2.4</v>
+      </c>
+      <c r="AD144">
+        <v>3.5</v>
+      </c>
+      <c r="AE144">
+        <v>2.8</v>
+      </c>
+      <c r="AF144">
+        <v>1.03</v>
+      </c>
+      <c r="AG144">
+        <v>13</v>
+      </c>
+      <c r="AH144">
+        <v>1.25</v>
+      </c>
+      <c r="AI144">
+        <v>3.75</v>
+      </c>
+      <c r="AJ144">
+        <v>1.8</v>
+      </c>
+      <c r="AK144">
+        <v>2.05</v>
+      </c>
+      <c r="AL144">
+        <v>1.63</v>
+      </c>
+      <c r="AM144">
+        <v>2.2</v>
+      </c>
+      <c r="AN144">
+        <v>1.44</v>
+      </c>
+      <c r="AO144">
+        <v>1.25</v>
+      </c>
+      <c r="AP144">
+        <v>1.57</v>
+      </c>
+      <c r="AQ144">
+        <v>1.14</v>
+      </c>
+      <c r="AR144">
+        <v>1</v>
+      </c>
+      <c r="AS144">
+        <v>1.13</v>
+      </c>
+      <c r="AT144">
+        <v>1</v>
+      </c>
+      <c r="AU144">
+        <v>1.37</v>
+      </c>
+      <c r="AV144">
+        <v>1.62</v>
+      </c>
+      <c r="AW144">
+        <v>2.99</v>
+      </c>
+      <c r="AX144">
+        <v>2.08</v>
+      </c>
+      <c r="AY144">
+        <v>6.7</v>
+      </c>
+      <c r="AZ144">
+        <v>2.08</v>
+      </c>
+      <c r="BA144">
+        <v>1.31</v>
+      </c>
+      <c r="BB144">
+        <v>1.6</v>
+      </c>
+      <c r="BC144">
+        <v>1.98</v>
+      </c>
+      <c r="BD144">
+        <v>2.43</v>
+      </c>
+      <c r="BE144">
+        <v>3.3</v>
+      </c>
+      <c r="BF144">
+        <v>6</v>
+      </c>
+      <c r="BG144">
+        <v>5</v>
+      </c>
+      <c r="BH144">
+        <v>7</v>
+      </c>
+      <c r="BI144">
+        <v>6</v>
+      </c>
+      <c r="BJ144">
+        <v>13</v>
+      </c>
+      <c r="BK144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2435338</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44876.66666666666</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>69</v>
+      </c>
+      <c r="H145" t="s">
+        <v>74</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>191</v>
+      </c>
+      <c r="P145" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q145">
+        <v>4</v>
+      </c>
+      <c r="R145">
+        <v>7</v>
+      </c>
+      <c r="S145">
+        <v>11</v>
+      </c>
+      <c r="T145">
+        <v>2.7</v>
+      </c>
+      <c r="U145">
+        <v>2.2</v>
+      </c>
+      <c r="V145">
+        <v>3.3</v>
+      </c>
+      <c r="W145">
+        <v>1.33</v>
+      </c>
+      <c r="X145">
+        <v>3.1</v>
+      </c>
+      <c r="Y145">
+        <v>2.6</v>
+      </c>
+      <c r="Z145">
+        <v>1.44</v>
+      </c>
+      <c r="AA145">
+        <v>6.4</v>
+      </c>
+      <c r="AB145">
+        <v>1.09</v>
+      </c>
+      <c r="AC145">
+        <v>2.15</v>
+      </c>
+      <c r="AD145">
+        <v>3.3</v>
+      </c>
+      <c r="AE145">
+        <v>3</v>
+      </c>
+      <c r="AF145">
+        <v>1.03</v>
+      </c>
+      <c r="AG145">
+        <v>13</v>
+      </c>
+      <c r="AH145">
+        <v>1.25</v>
+      </c>
+      <c r="AI145">
+        <v>3.75</v>
+      </c>
+      <c r="AJ145">
+        <v>1.8</v>
+      </c>
+      <c r="AK145">
+        <v>2.05</v>
+      </c>
+      <c r="AL145">
+        <v>1.62</v>
+      </c>
+      <c r="AM145">
+        <v>2.2</v>
+      </c>
+      <c r="AN145">
+        <v>1.44</v>
+      </c>
+      <c r="AO145">
+        <v>1.29</v>
+      </c>
+      <c r="AP145">
+        <v>1.53</v>
+      </c>
+      <c r="AQ145">
+        <v>1</v>
+      </c>
+      <c r="AR145">
+        <v>1</v>
+      </c>
+      <c r="AS145">
+        <v>1.25</v>
+      </c>
+      <c r="AT145">
+        <v>0.88</v>
+      </c>
+      <c r="AU145">
+        <v>1.33</v>
+      </c>
+      <c r="AV145">
+        <v>1.38</v>
+      </c>
+      <c r="AW145">
+        <v>2.71</v>
+      </c>
+      <c r="AX145">
+        <v>2.02</v>
+      </c>
+      <c r="AY145">
+        <v>6.7</v>
+      </c>
+      <c r="AZ145">
+        <v>2.14</v>
+      </c>
+      <c r="BA145">
+        <v>1.27</v>
+      </c>
+      <c r="BB145">
+        <v>1.52</v>
+      </c>
+      <c r="BC145">
+        <v>1.86</v>
+      </c>
+      <c r="BD145">
+        <v>2.3</v>
+      </c>
+      <c r="BE145">
+        <v>3</v>
+      </c>
+      <c r="BF145">
+        <v>5</v>
+      </c>
+      <c r="BG145">
+        <v>6</v>
+      </c>
+      <c r="BH145">
+        <v>5</v>
+      </c>
+      <c r="BI145">
+        <v>7</v>
+      </c>
+      <c r="BJ145">
+        <v>10</v>
+      </c>
+      <c r="BK145">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2435339</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44876.66666666666</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>70</v>
+      </c>
+      <c r="H146" t="s">
+        <v>71</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146" t="s">
+        <v>86</v>
+      </c>
+      <c r="P146" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q146">
+        <v>4</v>
+      </c>
+      <c r="R146">
+        <v>6</v>
+      </c>
+      <c r="S146">
+        <v>10</v>
+      </c>
+      <c r="T146">
+        <v>4.5</v>
+      </c>
+      <c r="U146">
+        <v>2.3</v>
+      </c>
+      <c r="V146">
+        <v>2.4</v>
+      </c>
+      <c r="W146">
+        <v>1.3</v>
+      </c>
+      <c r="X146">
+        <v>3.2</v>
+      </c>
+      <c r="Y146">
+        <v>2.55</v>
+      </c>
+      <c r="Z146">
+        <v>1.46</v>
+      </c>
+      <c r="AA146">
+        <v>5.95</v>
+      </c>
+      <c r="AB146">
+        <v>1.1</v>
+      </c>
+      <c r="AC146">
+        <v>4.2</v>
+      </c>
+      <c r="AD146">
+        <v>3.75</v>
+      </c>
+      <c r="AE146">
+        <v>1.8</v>
+      </c>
+      <c r="AF146">
+        <v>1.03</v>
+      </c>
+      <c r="AG146">
+        <v>13</v>
+      </c>
+      <c r="AH146">
+        <v>1.22</v>
+      </c>
+      <c r="AI146">
+        <v>4</v>
+      </c>
+      <c r="AJ146">
+        <v>1.75</v>
+      </c>
+      <c r="AK146">
+        <v>2.1</v>
+      </c>
+      <c r="AL146">
+        <v>1.7</v>
+      </c>
+      <c r="AM146">
+        <v>2.1</v>
+      </c>
+      <c r="AN146">
+        <v>2.05</v>
+      </c>
+      <c r="AO146">
+        <v>1.2</v>
+      </c>
+      <c r="AP146">
+        <v>1.22</v>
+      </c>
+      <c r="AQ146">
+        <v>1.14</v>
+      </c>
+      <c r="AR146">
+        <v>1.57</v>
+      </c>
+      <c r="AS146">
+        <v>1.13</v>
+      </c>
+      <c r="AT146">
+        <v>1.44</v>
+      </c>
+      <c r="AU146">
+        <v>1.5</v>
+      </c>
+      <c r="AV146">
+        <v>1.52</v>
+      </c>
+      <c r="AW146">
+        <v>3.02</v>
+      </c>
+      <c r="AX146">
+        <v>3.12</v>
+      </c>
+      <c r="AY146">
+        <v>7.7</v>
+      </c>
+      <c r="AZ146">
+        <v>1.54</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>1.31</v>
+      </c>
+      <c r="BC146">
+        <v>1.57</v>
+      </c>
+      <c r="BD146">
+        <v>1.91</v>
+      </c>
+      <c r="BE146">
+        <v>2.37</v>
+      </c>
+      <c r="BF146">
+        <v>4</v>
+      </c>
+      <c r="BG146">
+        <v>2</v>
+      </c>
+      <c r="BH146">
+        <v>6</v>
+      </c>
+      <c r="BI146">
+        <v>1</v>
+      </c>
+      <c r="BJ146">
+        <v>10</v>
+      </c>
+      <c r="BK146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2435340</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44876.66666666666</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>67</v>
+      </c>
+      <c r="H147" t="s">
+        <v>68</v>
+      </c>
+      <c r="I147">
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>4</v>
+      </c>
+      <c r="L147">
+        <v>5</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>6</v>
+      </c>
+      <c r="O147" t="s">
+        <v>192</v>
+      </c>
+      <c r="P147" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q147">
+        <v>5</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>7</v>
+      </c>
+      <c r="T147">
+        <v>1.85</v>
+      </c>
+      <c r="U147">
+        <v>2.6</v>
+      </c>
+      <c r="V147">
+        <v>5</v>
+      </c>
+      <c r="W147">
+        <v>1.25</v>
+      </c>
+      <c r="X147">
+        <v>3.75</v>
+      </c>
+      <c r="Y147">
+        <v>2.1</v>
+      </c>
+      <c r="Z147">
+        <v>1.67</v>
+      </c>
+      <c r="AA147">
+        <v>4.33</v>
+      </c>
+      <c r="AB147">
+        <v>1.2</v>
+      </c>
+      <c r="AC147">
+        <v>1.5</v>
+      </c>
+      <c r="AD147">
+        <v>4</v>
+      </c>
+      <c r="AE147">
+        <v>5.5</v>
+      </c>
+      <c r="AF147">
+        <v>1.02</v>
+      </c>
+      <c r="AG147">
+        <v>13</v>
+      </c>
+      <c r="AH147">
+        <v>1.14</v>
+      </c>
+      <c r="AI147">
+        <v>5</v>
+      </c>
+      <c r="AJ147">
+        <v>1.5</v>
+      </c>
+      <c r="AK147">
+        <v>2.5</v>
+      </c>
+      <c r="AL147">
+        <v>1.57</v>
+      </c>
+      <c r="AM147">
+        <v>2.3</v>
+      </c>
+      <c r="AN147">
+        <v>1.12</v>
+      </c>
+      <c r="AO147">
+        <v>1.2</v>
+      </c>
+      <c r="AP147">
+        <v>2.45</v>
+      </c>
+      <c r="AQ147">
+        <v>2.67</v>
+      </c>
+      <c r="AR147">
+        <v>1</v>
+      </c>
+      <c r="AS147">
+        <v>2.75</v>
+      </c>
+      <c r="AT147">
+        <v>0.88</v>
+      </c>
+      <c r="AU147">
+        <v>1.91</v>
+      </c>
+      <c r="AV147">
+        <v>1.27</v>
+      </c>
+      <c r="AW147">
+        <v>3.18</v>
+      </c>
+      <c r="AX147">
+        <v>1.38</v>
+      </c>
+      <c r="AY147">
+        <v>8.4</v>
+      </c>
+      <c r="AZ147">
+        <v>4.04</v>
+      </c>
+      <c r="BA147">
+        <v>1.19</v>
+      </c>
+      <c r="BB147">
+        <v>1.37</v>
+      </c>
+      <c r="BC147">
+        <v>1.68</v>
+      </c>
+      <c r="BD147">
+        <v>2.03</v>
+      </c>
+      <c r="BE147">
+        <v>2.55</v>
+      </c>
+      <c r="BF147">
+        <v>12</v>
+      </c>
+      <c r="BG147">
+        <v>2</v>
+      </c>
+      <c r="BH147">
+        <v>7</v>
+      </c>
+      <c r="BI147">
+        <v>4</v>
+      </c>
+      <c r="BJ147">
+        <v>19</v>
+      </c>
+      <c r="BK147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2435336</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44877.66666666666</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>76</v>
+      </c>
+      <c r="H148" t="s">
+        <v>77</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>86</v>
+      </c>
+      <c r="P148" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q148">
+        <v>15</v>
+      </c>
+      <c r="R148">
+        <v>6</v>
+      </c>
+      <c r="S148">
+        <v>21</v>
+      </c>
+      <c r="T148">
+        <v>1.98</v>
+      </c>
+      <c r="U148">
+        <v>2.48</v>
+      </c>
+      <c r="V148">
+        <v>5.8</v>
+      </c>
+      <c r="W148">
+        <v>1.29</v>
+      </c>
+      <c r="X148">
+        <v>3.25</v>
+      </c>
+      <c r="Y148">
+        <v>2.3</v>
+      </c>
+      <c r="Z148">
+        <v>1.53</v>
+      </c>
+      <c r="AA148">
+        <v>5.25</v>
+      </c>
+      <c r="AB148">
+        <v>1.13</v>
+      </c>
+      <c r="AC148">
+        <v>1.48</v>
+      </c>
+      <c r="AD148">
+        <v>4.33</v>
+      </c>
+      <c r="AE148">
+        <v>5.5</v>
+      </c>
+      <c r="AF148">
+        <v>1.03</v>
+      </c>
+      <c r="AG148">
+        <v>13</v>
+      </c>
+      <c r="AH148">
+        <v>1.18</v>
+      </c>
+      <c r="AI148">
+        <v>4.33</v>
+      </c>
+      <c r="AJ148">
+        <v>1.57</v>
+      </c>
+      <c r="AK148">
+        <v>2.2</v>
+      </c>
+      <c r="AL148">
+        <v>1.73</v>
+      </c>
+      <c r="AM148">
+        <v>2</v>
+      </c>
+      <c r="AN148">
+        <v>1.13</v>
+      </c>
+      <c r="AO148">
+        <v>1.2</v>
+      </c>
+      <c r="AP148">
+        <v>2.6</v>
+      </c>
+      <c r="AQ148">
+        <v>2.17</v>
+      </c>
+      <c r="AR148">
+        <v>0.43</v>
+      </c>
+      <c r="AS148">
+        <v>1.86</v>
+      </c>
+      <c r="AT148">
+        <v>0.75</v>
+      </c>
+      <c r="AU148">
+        <v>1.75</v>
+      </c>
+      <c r="AV148">
+        <v>1.5</v>
+      </c>
+      <c r="AW148">
+        <v>3.25</v>
+      </c>
+      <c r="AX148">
+        <v>1.32</v>
+      </c>
+      <c r="AY148">
+        <v>9.5</v>
+      </c>
+      <c r="AZ148">
+        <v>4.45</v>
+      </c>
+      <c r="BA148">
+        <v>1.21</v>
+      </c>
+      <c r="BB148">
+        <v>1.42</v>
+      </c>
+      <c r="BC148">
+        <v>1.76</v>
+      </c>
+      <c r="BD148">
+        <v>2.16</v>
+      </c>
+      <c r="BE148">
+        <v>2.79</v>
+      </c>
+      <c r="BF148">
+        <v>3</v>
+      </c>
+      <c r="BG148">
+        <v>3</v>
+      </c>
+      <c r="BH148">
+        <v>9</v>
+      </c>
+      <c r="BI148">
+        <v>2</v>
+      </c>
+      <c r="BJ148">
+        <v>12</v>
+      </c>
+      <c r="BK148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2435333</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44878.34375</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s">
+        <v>66</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>193</v>
+      </c>
+      <c r="P149" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q149">
+        <v>10</v>
+      </c>
+      <c r="R149">
+        <v>4</v>
+      </c>
+      <c r="S149">
         <v>14</v>
       </c>
-      <c r="BK138">
+      <c r="T149">
+        <v>2.04</v>
+      </c>
+      <c r="U149">
+        <v>2.42</v>
+      </c>
+      <c r="V149">
+        <v>5.65</v>
+      </c>
+      <c r="W149">
+        <v>1.31</v>
+      </c>
+      <c r="X149">
+        <v>3.32</v>
+      </c>
+      <c r="Y149">
+        <v>2.44</v>
+      </c>
+      <c r="Z149">
+        <v>1.53</v>
+      </c>
+      <c r="AA149">
+        <v>5.7</v>
+      </c>
+      <c r="AB149">
+        <v>1.13</v>
+      </c>
+      <c r="AC149">
+        <v>1.51</v>
+      </c>
+      <c r="AD149">
+        <v>4.4</v>
+      </c>
+      <c r="AE149">
+        <v>5.85</v>
+      </c>
+      <c r="AF149">
+        <v>1.04</v>
+      </c>
+      <c r="AG149">
+        <v>10</v>
+      </c>
+      <c r="AH149">
+        <v>1.22</v>
+      </c>
+      <c r="AI149">
+        <v>4</v>
+      </c>
+      <c r="AJ149">
+        <v>1.67</v>
+      </c>
+      <c r="AK149">
+        <v>2.1</v>
+      </c>
+      <c r="AL149">
+        <v>1.76</v>
+      </c>
+      <c r="AM149">
+        <v>2.01</v>
+      </c>
+      <c r="AN149">
+        <v>1.13</v>
+      </c>
+      <c r="AO149">
+        <v>1.21</v>
+      </c>
+      <c r="AP149">
+        <v>2.52</v>
+      </c>
+      <c r="AQ149">
+        <v>1.86</v>
+      </c>
+      <c r="AR149">
+        <v>0.86</v>
+      </c>
+      <c r="AS149">
+        <v>2</v>
+      </c>
+      <c r="AT149">
+        <v>0.75</v>
+      </c>
+      <c r="AU149">
+        <v>1.56</v>
+      </c>
+      <c r="AV149">
+        <v>1.12</v>
+      </c>
+      <c r="AW149">
+        <v>2.68</v>
+      </c>
+      <c r="AX149">
+        <v>1.3</v>
+      </c>
+      <c r="AY149">
+        <v>9.9</v>
+      </c>
+      <c r="AZ149">
+        <v>4.6</v>
+      </c>
+      <c r="BA149">
+        <v>1.17</v>
+      </c>
+      <c r="BB149">
+        <v>1.31</v>
+      </c>
+      <c r="BC149">
+        <v>1.62</v>
+      </c>
+      <c r="BD149">
+        <v>1.97</v>
+      </c>
+      <c r="BE149">
+        <v>2.44</v>
+      </c>
+      <c r="BF149">
+        <v>5</v>
+      </c>
+      <c r="BG149">
+        <v>5</v>
+      </c>
+      <c r="BH149">
+        <v>6</v>
+      </c>
+      <c r="BI149">
+        <v>4</v>
+      </c>
+      <c r="BJ149">
+        <v>11</v>
+      </c>
+      <c r="BK149">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2435341</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44879.66666666666</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>73</v>
+      </c>
+      <c r="H150" t="s">
+        <v>65</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+      <c r="N150">
+        <v>8</v>
+      </c>
+      <c r="O150" t="s">
+        <v>194</v>
+      </c>
+      <c r="P150" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
         <v>7</v>
+      </c>
+      <c r="S150">
+        <v>10</v>
+      </c>
+      <c r="T150">
+        <v>2.25</v>
+      </c>
+      <c r="U150">
+        <v>2.6</v>
+      </c>
+      <c r="V150">
+        <v>4</v>
+      </c>
+      <c r="W150">
+        <v>1.22</v>
+      </c>
+      <c r="X150">
+        <v>4</v>
+      </c>
+      <c r="Y150">
+        <v>2.1</v>
+      </c>
+      <c r="Z150">
+        <v>1.67</v>
+      </c>
+      <c r="AA150">
+        <v>4.5</v>
+      </c>
+      <c r="AB150">
+        <v>1.18</v>
+      </c>
+      <c r="AC150">
+        <v>1.74</v>
+      </c>
+      <c r="AD150">
+        <v>4.18</v>
+      </c>
+      <c r="AE150">
+        <v>3.97</v>
+      </c>
+      <c r="AF150">
+        <v>1.02</v>
+      </c>
+      <c r="AG150">
+        <v>13</v>
+      </c>
+      <c r="AH150">
+        <v>1.12</v>
+      </c>
+      <c r="AI150">
+        <v>5.5</v>
+      </c>
+      <c r="AJ150">
+        <v>1.36</v>
+      </c>
+      <c r="AK150">
+        <v>2.9</v>
+      </c>
+      <c r="AL150">
+        <v>1.44</v>
+      </c>
+      <c r="AM150">
+        <v>2.63</v>
+      </c>
+      <c r="AN150">
+        <v>1.23</v>
+      </c>
+      <c r="AO150">
+        <v>1.21</v>
+      </c>
+      <c r="AP150">
+        <v>2.05</v>
+      </c>
+      <c r="AQ150">
+        <v>1.57</v>
+      </c>
+      <c r="AR150">
+        <v>1</v>
+      </c>
+      <c r="AS150">
+        <v>1.5</v>
+      </c>
+      <c r="AT150">
+        <v>1</v>
+      </c>
+      <c r="AU150">
+        <v>1.31</v>
+      </c>
+      <c r="AV150">
+        <v>1.21</v>
+      </c>
+      <c r="AW150">
+        <v>2.52</v>
+      </c>
+      <c r="AX150">
+        <v>1.56</v>
+      </c>
+      <c r="AY150">
+        <v>8.4</v>
+      </c>
+      <c r="AZ150">
+        <v>3.05</v>
+      </c>
+      <c r="BA150">
+        <v>1.2</v>
+      </c>
+      <c r="BB150">
+        <v>1.41</v>
+      </c>
+      <c r="BC150">
+        <v>1.75</v>
+      </c>
+      <c r="BD150">
+        <v>2.15</v>
+      </c>
+      <c r="BE150">
+        <v>2.79</v>
+      </c>
+      <c r="BF150">
+        <v>11</v>
+      </c>
+      <c r="BG150">
+        <v>7</v>
+      </c>
+      <c r="BH150">
+        <v>5</v>
+      </c>
+      <c r="BI150">
+        <v>8</v>
+      </c>
+      <c r="BJ150">
+        <v>16</v>
+      </c>
+      <c r="BK150">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2435342</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44879.66666666666</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>82</v>
+      </c>
+      <c r="H151" t="s">
+        <v>84</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>195</v>
+      </c>
+      <c r="P151" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q151">
+        <v>2</v>
+      </c>
+      <c r="R151">
+        <v>1</v>
+      </c>
+      <c r="S151">
+        <v>3</v>
+      </c>
+      <c r="T151">
+        <v>3.1</v>
+      </c>
+      <c r="U151">
+        <v>2.3</v>
+      </c>
+      <c r="V151">
+        <v>3.1</v>
+      </c>
+      <c r="W151">
+        <v>1.3</v>
+      </c>
+      <c r="X151">
+        <v>3.4</v>
+      </c>
+      <c r="Y151">
+        <v>2.5</v>
+      </c>
+      <c r="Z151">
+        <v>1.5</v>
+      </c>
+      <c r="AA151">
+        <v>6</v>
+      </c>
+      <c r="AB151">
+        <v>1.13</v>
+      </c>
+      <c r="AC151">
+        <v>2.4</v>
+      </c>
+      <c r="AD151">
+        <v>4.06</v>
+      </c>
+      <c r="AE151">
+        <v>2.48</v>
+      </c>
+      <c r="AF151">
+        <v>1.03</v>
+      </c>
+      <c r="AG151">
+        <v>11</v>
+      </c>
+      <c r="AH151">
+        <v>1.22</v>
+      </c>
+      <c r="AI151">
+        <v>4</v>
+      </c>
+      <c r="AJ151">
+        <v>1.65</v>
+      </c>
+      <c r="AK151">
+        <v>2.1</v>
+      </c>
+      <c r="AL151">
+        <v>1.53</v>
+      </c>
+      <c r="AM151">
+        <v>2.38</v>
+      </c>
+      <c r="AN151">
+        <v>1.48</v>
+      </c>
+      <c r="AO151">
+        <v>1.24</v>
+      </c>
+      <c r="AP151">
+        <v>1.52</v>
+      </c>
+      <c r="AQ151">
+        <v>0.71</v>
+      </c>
+      <c r="AR151">
+        <v>1.67</v>
+      </c>
+      <c r="AS151">
+        <v>1</v>
+      </c>
+      <c r="AT151">
+        <v>1.43</v>
+      </c>
+      <c r="AU151">
+        <v>1.4</v>
+      </c>
+      <c r="AV151">
+        <v>1.28</v>
+      </c>
+      <c r="AW151">
+        <v>2.68</v>
+      </c>
+      <c r="AX151">
+        <v>1.93</v>
+      </c>
+      <c r="AY151">
+        <v>7.2</v>
+      </c>
+      <c r="AZ151">
+        <v>2.33</v>
+      </c>
+      <c r="BA151">
+        <v>1.22</v>
+      </c>
+      <c r="BB151">
+        <v>1.5</v>
+      </c>
+      <c r="BC151">
+        <v>1.83</v>
+      </c>
+      <c r="BD151">
+        <v>2.25</v>
+      </c>
+      <c r="BE151">
+        <v>2.98</v>
+      </c>
+      <c r="BF151">
+        <v>13</v>
+      </c>
+      <c r="BG151">
+        <v>3</v>
+      </c>
+      <c r="BH151">
+        <v>12</v>
+      </c>
+      <c r="BI151">
+        <v>7</v>
+      </c>
+      <c r="BJ151">
+        <v>25</v>
+      </c>
+      <c r="BK151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2435352</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44881.66666666666</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>81</v>
+      </c>
+      <c r="H152" t="s">
+        <v>76</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>86</v>
+      </c>
+      <c r="P152" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q152">
+        <v>3</v>
+      </c>
+      <c r="R152">
+        <v>7</v>
+      </c>
+      <c r="S152">
+        <v>10</v>
+      </c>
+      <c r="T152">
+        <v>3.2</v>
+      </c>
+      <c r="U152">
+        <v>2.27</v>
+      </c>
+      <c r="V152">
+        <v>3</v>
+      </c>
+      <c r="W152">
+        <v>1.33</v>
+      </c>
+      <c r="X152">
+        <v>3.25</v>
+      </c>
+      <c r="Y152">
+        <v>2.38</v>
+      </c>
+      <c r="Z152">
+        <v>1.53</v>
+      </c>
+      <c r="AA152">
+        <v>5.5</v>
+      </c>
+      <c r="AB152">
+        <v>1.12</v>
+      </c>
+      <c r="AC152">
+        <v>2.54</v>
+      </c>
+      <c r="AD152">
+        <v>3.35</v>
+      </c>
+      <c r="AE152">
+        <v>2.39</v>
+      </c>
+      <c r="AF152">
+        <v>1.04</v>
+      </c>
+      <c r="AG152">
+        <v>10</v>
+      </c>
+      <c r="AH152">
+        <v>1.22</v>
+      </c>
+      <c r="AI152">
+        <v>4</v>
+      </c>
+      <c r="AJ152">
+        <v>1.68</v>
+      </c>
+      <c r="AK152">
+        <v>2.1</v>
+      </c>
+      <c r="AL152">
+        <v>1.57</v>
+      </c>
+      <c r="AM152">
+        <v>2.3</v>
+      </c>
+      <c r="AN152">
+        <v>1.53</v>
+      </c>
+      <c r="AO152">
+        <v>1.25</v>
+      </c>
+      <c r="AP152">
+        <v>1.47</v>
+      </c>
+      <c r="AQ152">
+        <v>1.14</v>
+      </c>
+      <c r="AR152">
+        <v>1</v>
+      </c>
+      <c r="AS152">
+        <v>1</v>
+      </c>
+      <c r="AT152">
+        <v>1.22</v>
+      </c>
+      <c r="AU152">
+        <v>1.95</v>
+      </c>
+      <c r="AV152">
+        <v>1.68</v>
+      </c>
+      <c r="AW152">
+        <v>3.63</v>
+      </c>
+      <c r="AX152">
+        <v>2.05</v>
+      </c>
+      <c r="AY152">
+        <v>7.2</v>
+      </c>
+      <c r="AZ152">
+        <v>2.05</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>1.3</v>
+      </c>
+      <c r="BC152">
+        <v>1.55</v>
+      </c>
+      <c r="BD152">
+        <v>1.98</v>
+      </c>
+      <c r="BE152">
+        <v>2.5</v>
+      </c>
+      <c r="BF152">
+        <v>4</v>
+      </c>
+      <c r="BG152">
+        <v>6</v>
+      </c>
+      <c r="BH152">
+        <v>9</v>
+      </c>
+      <c r="BI152">
+        <v>8</v>
+      </c>
+      <c r="BJ152">
+        <v>13</v>
+      </c>
+      <c r="BK152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2435343</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44882.61458333334</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>83</v>
+      </c>
+      <c r="H153" t="s">
+        <v>82</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>196</v>
+      </c>
+      <c r="P153" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q153">
+        <v>6</v>
+      </c>
+      <c r="R153">
+        <v>10</v>
+      </c>
+      <c r="S153">
+        <v>16</v>
+      </c>
+      <c r="T153">
+        <v>2.25</v>
+      </c>
+      <c r="U153">
+        <v>2.45</v>
+      </c>
+      <c r="V153">
+        <v>4.5</v>
+      </c>
+      <c r="W153">
+        <v>1.3</v>
+      </c>
+      <c r="X153">
+        <v>3.4</v>
+      </c>
+      <c r="Y153">
+        <v>2.3</v>
+      </c>
+      <c r="Z153">
+        <v>1.57</v>
+      </c>
+      <c r="AA153">
+        <v>5</v>
+      </c>
+      <c r="AB153">
+        <v>1.14</v>
+      </c>
+      <c r="AC153">
+        <v>1.64</v>
+      </c>
+      <c r="AD153">
+        <v>3.85</v>
+      </c>
+      <c r="AE153">
+        <v>4.17</v>
+      </c>
+      <c r="AF153">
+        <v>1.02</v>
+      </c>
+      <c r="AG153">
+        <v>17</v>
+      </c>
+      <c r="AH153">
+        <v>1.2</v>
+      </c>
+      <c r="AI153">
+        <v>4.5</v>
+      </c>
+      <c r="AJ153">
+        <v>1.62</v>
+      </c>
+      <c r="AK153">
+        <v>2.15</v>
+      </c>
+      <c r="AL153">
+        <v>1.63</v>
+      </c>
+      <c r="AM153">
+        <v>2.2</v>
+      </c>
+      <c r="AN153">
+        <v>1.2</v>
+      </c>
+      <c r="AO153">
+        <v>1.2</v>
+      </c>
+      <c r="AP153">
+        <v>2.1</v>
+      </c>
+      <c r="AQ153">
+        <v>1.29</v>
+      </c>
+      <c r="AR153">
+        <v>0.14</v>
+      </c>
+      <c r="AS153">
+        <v>1.5</v>
+      </c>
+      <c r="AT153">
+        <v>0.13</v>
+      </c>
+      <c r="AU153">
+        <v>1.26</v>
+      </c>
+      <c r="AV153">
+        <v>1.28</v>
+      </c>
+      <c r="AW153">
+        <v>2.54</v>
+      </c>
+      <c r="AX153">
+        <v>1.45</v>
+      </c>
+      <c r="AY153">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ153">
+        <v>3.6</v>
+      </c>
+      <c r="BA153">
+        <v>1.31</v>
+      </c>
+      <c r="BB153">
+        <v>1.63</v>
+      </c>
+      <c r="BC153">
+        <v>2.03</v>
+      </c>
+      <c r="BD153">
+        <v>2.26</v>
+      </c>
+      <c r="BE153">
+        <v>3.65</v>
+      </c>
+      <c r="BF153">
+        <v>5</v>
+      </c>
+      <c r="BG153">
+        <v>2</v>
+      </c>
+      <c r="BH153">
+        <v>4</v>
+      </c>
+      <c r="BI153">
+        <v>6</v>
+      </c>
+      <c r="BJ153">
+        <v>9</v>
+      </c>
+      <c r="BK153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2435344</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44882.70833333334</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>74</v>
+      </c>
+      <c r="H154" t="s">
+        <v>73</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>197</v>
+      </c>
+      <c r="P154" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q154">
+        <v>8</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>10</v>
+      </c>
+      <c r="T154">
+        <v>3.1</v>
+      </c>
+      <c r="U154">
+        <v>2.42</v>
+      </c>
+      <c r="V154">
+        <v>2.84</v>
+      </c>
+      <c r="W154">
+        <v>1.25</v>
+      </c>
+      <c r="X154">
+        <v>3.75</v>
+      </c>
+      <c r="Y154">
+        <v>2.2</v>
+      </c>
+      <c r="Z154">
+        <v>1.62</v>
+      </c>
+      <c r="AA154">
+        <v>4.5</v>
+      </c>
+      <c r="AB154">
+        <v>1.17</v>
+      </c>
+      <c r="AC154">
+        <v>2.59</v>
+      </c>
+      <c r="AD154">
+        <v>3.59</v>
+      </c>
+      <c r="AE154">
+        <v>2.24</v>
+      </c>
+      <c r="AF154">
+        <v>1.02</v>
+      </c>
+      <c r="AG154">
+        <v>12</v>
+      </c>
+      <c r="AH154">
+        <v>1.15</v>
+      </c>
+      <c r="AI154">
+        <v>4.75</v>
+      </c>
+      <c r="AJ154">
+        <v>1.44</v>
+      </c>
+      <c r="AK154">
+        <v>2.46</v>
+      </c>
+      <c r="AL154">
+        <v>1.44</v>
+      </c>
+      <c r="AM154">
+        <v>2.62</v>
+      </c>
+      <c r="AN154">
+        <v>1.56</v>
+      </c>
+      <c r="AO154">
+        <v>1.26</v>
+      </c>
+      <c r="AP154">
+        <v>1.48</v>
+      </c>
+      <c r="AQ154">
+        <v>2.29</v>
+      </c>
+      <c r="AR154">
+        <v>1.14</v>
+      </c>
+      <c r="AS154">
+        <v>2.13</v>
+      </c>
+      <c r="AT154">
+        <v>1.13</v>
+      </c>
+      <c r="AU154">
+        <v>1.89</v>
+      </c>
+      <c r="AV154">
+        <v>1.71</v>
+      </c>
+      <c r="AW154">
+        <v>3.6</v>
+      </c>
+      <c r="AX154">
+        <v>1.87</v>
+      </c>
+      <c r="AY154">
+        <v>7.7</v>
+      </c>
+      <c r="AZ154">
+        <v>2.25</v>
+      </c>
+      <c r="BA154">
+        <v>1.18</v>
+      </c>
+      <c r="BB154">
+        <v>1.38</v>
+      </c>
+      <c r="BC154">
+        <v>1.71</v>
+      </c>
+      <c r="BD154">
+        <v>2.1</v>
+      </c>
+      <c r="BE154">
+        <v>2.77</v>
+      </c>
+      <c r="BF154">
+        <v>9</v>
+      </c>
+      <c r="BG154">
+        <v>5</v>
+      </c>
+      <c r="BH154">
+        <v>5</v>
+      </c>
+      <c r="BI154">
+        <v>10</v>
+      </c>
+      <c r="BJ154">
+        <v>14</v>
+      </c>
+      <c r="BK154">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2435345</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44883.61458333334</v>
+      </c>
+      <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>80</v>
+      </c>
+      <c r="H155" t="s">
+        <v>75</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>3</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>198</v>
+      </c>
+      <c r="P155" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q155">
+        <v>5</v>
+      </c>
+      <c r="R155">
+        <v>4</v>
+      </c>
+      <c r="S155">
+        <v>9</v>
+      </c>
+      <c r="T155">
+        <v>2.55</v>
+      </c>
+      <c r="U155">
+        <v>2.21</v>
+      </c>
+      <c r="V155">
+        <v>4.26</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>3.1</v>
+      </c>
+      <c r="Y155">
+        <v>2.55</v>
+      </c>
+      <c r="Z155">
+        <v>1.46</v>
+      </c>
+      <c r="AA155">
+        <v>5.95</v>
+      </c>
+      <c r="AB155">
+        <v>1.1</v>
+      </c>
+      <c r="AC155">
+        <v>2</v>
+      </c>
+      <c r="AD155">
+        <v>3.6</v>
+      </c>
+      <c r="AE155">
+        <v>3.74</v>
+      </c>
+      <c r="AF155">
+        <v>1.03</v>
+      </c>
+      <c r="AG155">
+        <v>13</v>
+      </c>
+      <c r="AH155">
+        <v>1.22</v>
+      </c>
+      <c r="AI155">
+        <v>4</v>
+      </c>
+      <c r="AJ155">
+        <v>1.85</v>
+      </c>
+      <c r="AK155">
+        <v>1.99</v>
+      </c>
+      <c r="AL155">
+        <v>1.65</v>
+      </c>
+      <c r="AM155">
+        <v>2.2</v>
+      </c>
+      <c r="AN155">
+        <v>1.3</v>
+      </c>
+      <c r="AO155">
+        <v>1.25</v>
+      </c>
+      <c r="AP155">
+        <v>1.83</v>
+      </c>
+      <c r="AQ155">
+        <v>2.14</v>
+      </c>
+      <c r="AR155">
+        <v>1.43</v>
+      </c>
+      <c r="AS155">
+        <v>2.25</v>
+      </c>
+      <c r="AT155">
+        <v>1.25</v>
+      </c>
+      <c r="AU155">
+        <v>1.18</v>
+      </c>
+      <c r="AV155">
+        <v>1.14</v>
+      </c>
+      <c r="AW155">
+        <v>2.32</v>
+      </c>
+      <c r="AX155">
+        <v>1.47</v>
+      </c>
+      <c r="AY155">
+        <v>6.25</v>
+      </c>
+      <c r="AZ155">
+        <v>3</v>
+      </c>
+      <c r="BA155">
+        <v>1.23</v>
+      </c>
+      <c r="BB155">
+        <v>1.51</v>
+      </c>
+      <c r="BC155">
+        <v>1.83</v>
+      </c>
+      <c r="BD155">
+        <v>2.25</v>
+      </c>
+      <c r="BE155">
+        <v>3.08</v>
+      </c>
+      <c r="BF155">
+        <v>6</v>
+      </c>
+      <c r="BG155">
+        <v>3</v>
+      </c>
+      <c r="BH155">
+        <v>4</v>
+      </c>
+      <c r="BI155">
+        <v>5</v>
+      </c>
+      <c r="BJ155">
+        <v>10</v>
+      </c>
+      <c r="BK155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2435346</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44883.70833333334</v>
+      </c>
+      <c r="F156">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>77</v>
+      </c>
+      <c r="H156" t="s">
+        <v>79</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>86</v>
+      </c>
+      <c r="P156" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q156">
+        <v>4</v>
+      </c>
+      <c r="R156">
+        <v>9</v>
+      </c>
+      <c r="S156">
+        <v>13</v>
+      </c>
+      <c r="T156">
+        <v>4.2</v>
+      </c>
+      <c r="U156">
+        <v>2.33</v>
+      </c>
+      <c r="V156">
+        <v>2.42</v>
+      </c>
+      <c r="W156">
+        <v>1.29</v>
+      </c>
+      <c r="X156">
+        <v>3.3</v>
+      </c>
+      <c r="Y156">
+        <v>2.4</v>
+      </c>
+      <c r="Z156">
+        <v>1.51</v>
+      </c>
+      <c r="AA156">
+        <v>5.9</v>
+      </c>
+      <c r="AB156">
+        <v>1.1</v>
+      </c>
+      <c r="AC156">
+        <v>3.72</v>
+      </c>
+      <c r="AD156">
+        <v>3.78</v>
+      </c>
+      <c r="AE156">
+        <v>1.87</v>
+      </c>
+      <c r="AF156">
+        <v>1.02</v>
+      </c>
+      <c r="AG156">
+        <v>15</v>
+      </c>
+      <c r="AH156">
+        <v>1.2</v>
+      </c>
+      <c r="AI156">
+        <v>4.33</v>
+      </c>
+      <c r="AJ156">
+        <v>1.6</v>
+      </c>
+      <c r="AK156">
+        <v>2.11</v>
+      </c>
+      <c r="AL156">
+        <v>1.6</v>
+      </c>
+      <c r="AM156">
+        <v>2.27</v>
+      </c>
+      <c r="AN156">
+        <v>1.89</v>
+      </c>
+      <c r="AO156">
+        <v>1.26</v>
+      </c>
+      <c r="AP156">
+        <v>1.27</v>
+      </c>
+      <c r="AQ156">
+        <v>1.29</v>
+      </c>
+      <c r="AR156">
+        <v>0.57</v>
+      </c>
+      <c r="AS156">
+        <v>1.13</v>
+      </c>
+      <c r="AT156">
+        <v>0.88</v>
+      </c>
+      <c r="AU156">
+        <v>1.29</v>
+      </c>
+      <c r="AV156">
+        <v>1.4</v>
+      </c>
+      <c r="AW156">
+        <v>2.69</v>
+      </c>
+      <c r="AX156">
+        <v>3.3</v>
+      </c>
+      <c r="AY156">
+        <v>6.5</v>
+      </c>
+      <c r="AZ156">
+        <v>1.41</v>
+      </c>
+      <c r="BA156">
+        <v>1.19</v>
+      </c>
+      <c r="BB156">
+        <v>1.4</v>
+      </c>
+      <c r="BC156">
+        <v>1.76</v>
+      </c>
+      <c r="BD156">
+        <v>2.17</v>
+      </c>
+      <c r="BE156">
+        <v>2.84</v>
+      </c>
+      <c r="BF156">
+        <v>6</v>
+      </c>
+      <c r="BG156">
+        <v>7</v>
+      </c>
+      <c r="BH156">
+        <v>9</v>
+      </c>
+      <c r="BI156">
+        <v>6</v>
+      </c>
+      <c r="BJ156">
+        <v>15</v>
+      </c>
+      <c r="BK156">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>2435347</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44884.52083333334</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>65</v>
+      </c>
+      <c r="H157" t="s">
+        <v>70</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>86</v>
+      </c>
+      <c r="P157" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q157">
+        <v>7</v>
+      </c>
+      <c r="R157">
+        <v>10</v>
+      </c>
+      <c r="S157">
+        <v>17</v>
+      </c>
+      <c r="T157">
+        <v>2.94</v>
+      </c>
+      <c r="U157">
+        <v>2.29</v>
+      </c>
+      <c r="V157">
+        <v>3.22</v>
+      </c>
+      <c r="W157">
+        <v>1.3</v>
+      </c>
+      <c r="X157">
+        <v>3.4</v>
+      </c>
+      <c r="Y157">
+        <v>2.38</v>
+      </c>
+      <c r="Z157">
+        <v>1.53</v>
+      </c>
+      <c r="AA157">
+        <v>5.5</v>
+      </c>
+      <c r="AB157">
+        <v>1.12</v>
+      </c>
+      <c r="AC157">
+        <v>2.43</v>
+      </c>
+      <c r="AD157">
+        <v>3.64</v>
+      </c>
+      <c r="AE157">
+        <v>2.67</v>
+      </c>
+      <c r="AF157">
+        <v>1.04</v>
+      </c>
+      <c r="AG157">
+        <v>10</v>
+      </c>
+      <c r="AH157">
+        <v>1.22</v>
+      </c>
+      <c r="AI157">
+        <v>4</v>
+      </c>
+      <c r="AJ157">
+        <v>1.67</v>
+      </c>
+      <c r="AK157">
+        <v>2.1</v>
+      </c>
+      <c r="AL157">
+        <v>1.56</v>
+      </c>
+      <c r="AM157">
+        <v>2.36</v>
+      </c>
+      <c r="AN157">
+        <v>1.46</v>
+      </c>
+      <c r="AO157">
+        <v>1.28</v>
+      </c>
+      <c r="AP157">
+        <v>1.55</v>
+      </c>
+      <c r="AQ157">
+        <v>1.5</v>
+      </c>
+      <c r="AR157">
+        <v>1.86</v>
+      </c>
+      <c r="AS157">
+        <v>1.33</v>
+      </c>
+      <c r="AT157">
+        <v>2</v>
+      </c>
+      <c r="AU157">
+        <v>1.56</v>
+      </c>
+      <c r="AV157">
+        <v>1.38</v>
+      </c>
+      <c r="AW157">
+        <v>2.94</v>
+      </c>
+      <c r="AX157">
+        <v>1.8</v>
+      </c>
+      <c r="AY157">
+        <v>5.5</v>
+      </c>
+      <c r="AZ157">
+        <v>2.3</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>1.3</v>
+      </c>
+      <c r="BC157">
+        <v>1.63</v>
+      </c>
+      <c r="BD157">
+        <v>1.99</v>
+      </c>
+      <c r="BE157">
+        <v>2.45</v>
+      </c>
+      <c r="BF157">
+        <v>2</v>
+      </c>
+      <c r="BG157">
+        <v>11</v>
+      </c>
+      <c r="BH157">
+        <v>3</v>
+      </c>
+      <c r="BI157">
+        <v>4</v>
+      </c>
+      <c r="BJ157">
+        <v>5</v>
+      </c>
+      <c r="BK157">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>2435348</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44884.61458333334</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>67</v>
+      </c>
+      <c r="H158" t="s">
+        <v>69</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>199</v>
+      </c>
+      <c r="P158" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q158">
+        <v>7</v>
+      </c>
+      <c r="R158">
+        <v>3</v>
+      </c>
+      <c r="S158">
+        <v>10</v>
+      </c>
+      <c r="T158">
+        <v>1.74</v>
+      </c>
+      <c r="U158">
+        <v>2.71</v>
+      </c>
+      <c r="V158">
+        <v>6.95</v>
+      </c>
+      <c r="W158">
+        <v>1.25</v>
+      </c>
+      <c r="X158">
+        <v>3.75</v>
+      </c>
+      <c r="Y158">
+        <v>2.1</v>
+      </c>
+      <c r="Z158">
+        <v>1.67</v>
+      </c>
+      <c r="AA158">
+        <v>4.5</v>
+      </c>
+      <c r="AB158">
+        <v>1.17</v>
+      </c>
+      <c r="AC158">
+        <v>1.32</v>
+      </c>
+      <c r="AD158">
+        <v>5.45</v>
+      </c>
+      <c r="AE158">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AF158">
+        <v>1.02</v>
+      </c>
+      <c r="AG158">
+        <v>12</v>
+      </c>
+      <c r="AH158">
+        <v>1.15</v>
+      </c>
+      <c r="AI158">
+        <v>4.75</v>
+      </c>
+      <c r="AJ158">
+        <v>1.5</v>
+      </c>
+      <c r="AK158">
+        <v>2.5</v>
+      </c>
+      <c r="AL158">
+        <v>1.79</v>
+      </c>
+      <c r="AM158">
+        <v>1.98</v>
+      </c>
+      <c r="AN158">
+        <v>1.07</v>
+      </c>
+      <c r="AO158">
+        <v>1.14</v>
+      </c>
+      <c r="AP158">
+        <v>3.32</v>
+      </c>
+      <c r="AQ158">
+        <v>2.71</v>
+      </c>
+      <c r="AR158">
+        <v>0.86</v>
+      </c>
+      <c r="AS158">
+        <v>2.75</v>
+      </c>
+      <c r="AT158">
+        <v>0.75</v>
+      </c>
+      <c r="AU158">
+        <v>1.97</v>
+      </c>
+      <c r="AV158">
+        <v>1.06</v>
+      </c>
+      <c r="AW158">
+        <v>3.03</v>
+      </c>
+      <c r="AX158">
+        <v>1.14</v>
+      </c>
+      <c r="AY158">
+        <v>8.75</v>
+      </c>
+      <c r="AZ158">
+        <v>7</v>
+      </c>
+      <c r="BA158">
+        <v>1.19</v>
+      </c>
+      <c r="BB158">
+        <v>1.4</v>
+      </c>
+      <c r="BC158">
+        <v>1.72</v>
+      </c>
+      <c r="BD158">
+        <v>2.11</v>
+      </c>
+      <c r="BE158">
+        <v>2.88</v>
+      </c>
+      <c r="BF158">
+        <v>6</v>
+      </c>
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BH158">
+        <v>3</v>
+      </c>
+      <c r="BI158">
+        <v>0</v>
+      </c>
+      <c r="BJ158">
+        <v>9</v>
+      </c>
+      <c r="BK158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>2435351</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44884.66666666666</v>
+      </c>
+      <c r="F159">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>84</v>
+      </c>
+      <c r="H159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>200</v>
+      </c>
+      <c r="P159" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q159">
+        <v>3</v>
+      </c>
+      <c r="R159">
+        <v>3</v>
+      </c>
+      <c r="S159">
+        <v>6</v>
+      </c>
+      <c r="T159">
+        <v>3.36</v>
+      </c>
+      <c r="U159">
+        <v>2.27</v>
+      </c>
+      <c r="V159">
+        <v>2.88</v>
+      </c>
+      <c r="W159">
+        <v>1.33</v>
+      </c>
+      <c r="X159">
+        <v>3.25</v>
+      </c>
+      <c r="Y159">
+        <v>2.5</v>
+      </c>
+      <c r="Z159">
+        <v>1.5</v>
+      </c>
+      <c r="AA159">
+        <v>5.5</v>
+      </c>
+      <c r="AB159">
+        <v>1.12</v>
+      </c>
+      <c r="AC159">
+        <v>2.8</v>
+      </c>
+      <c r="AD159">
+        <v>3.62</v>
+      </c>
+      <c r="AE159">
+        <v>2.34</v>
+      </c>
+      <c r="AF159">
+        <v>1.04</v>
+      </c>
+      <c r="AG159">
+        <v>10</v>
+      </c>
+      <c r="AH159">
+        <v>1.22</v>
+      </c>
+      <c r="AI159">
+        <v>4</v>
+      </c>
+      <c r="AJ159">
+        <v>1.67</v>
+      </c>
+      <c r="AK159">
+        <v>2.1</v>
+      </c>
+      <c r="AL159">
+        <v>1.58</v>
+      </c>
+      <c r="AM159">
+        <v>2.32</v>
+      </c>
+      <c r="AN159">
+        <v>1.58</v>
+      </c>
+      <c r="AO159">
+        <v>1.28</v>
+      </c>
+      <c r="AP159">
+        <v>1.43</v>
+      </c>
+      <c r="AQ159">
+        <v>2.5</v>
+      </c>
+      <c r="AR159">
+        <v>1.43</v>
+      </c>
+      <c r="AS159">
+        <v>2.56</v>
+      </c>
+      <c r="AT159">
+        <v>1.25</v>
+      </c>
+      <c r="AU159">
+        <v>1.46</v>
+      </c>
+      <c r="AV159">
+        <v>1.56</v>
+      </c>
+      <c r="AW159">
+        <v>3.02</v>
+      </c>
+      <c r="AX159">
+        <v>2.5</v>
+      </c>
+      <c r="AY159">
+        <v>8.5</v>
+      </c>
+      <c r="AZ159">
+        <v>1.65</v>
+      </c>
+      <c r="BA159">
+        <v>1.2</v>
+      </c>
+      <c r="BB159">
+        <v>1.38</v>
+      </c>
+      <c r="BC159">
+        <v>1.67</v>
+      </c>
+      <c r="BD159">
+        <v>2.12</v>
+      </c>
+      <c r="BE159">
+        <v>2.85</v>
+      </c>
+      <c r="BF159">
+        <v>2</v>
+      </c>
+      <c r="BG159">
+        <v>2</v>
+      </c>
+      <c r="BH159">
+        <v>3</v>
+      </c>
+      <c r="BI159">
+        <v>2</v>
+      </c>
+      <c r="BJ159">
+        <v>5</v>
+      </c>
+      <c r="BK159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>2435349</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44884.70833333334</v>
+      </c>
+      <c r="F160">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>68</v>
+      </c>
+      <c r="H160" t="s">
+        <v>72</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>2</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>86</v>
+      </c>
+      <c r="P160" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q160">
+        <v>4</v>
+      </c>
+      <c r="R160">
+        <v>7</v>
+      </c>
+      <c r="S160">
+        <v>11</v>
+      </c>
+      <c r="T160">
+        <v>4.1</v>
+      </c>
+      <c r="U160">
+        <v>2.34</v>
+      </c>
+      <c r="V160">
+        <v>2.41</v>
+      </c>
+      <c r="W160">
+        <v>1.3</v>
+      </c>
+      <c r="X160">
+        <v>3.4</v>
+      </c>
+      <c r="Y160">
+        <v>2.38</v>
+      </c>
+      <c r="Z160">
+        <v>1.53</v>
+      </c>
+      <c r="AA160">
+        <v>5.5</v>
+      </c>
+      <c r="AB160">
+        <v>1.12</v>
+      </c>
+      <c r="AC160">
+        <v>3.7</v>
+      </c>
+      <c r="AD160">
+        <v>3.82</v>
+      </c>
+      <c r="AE160">
+        <v>1.89</v>
+      </c>
+      <c r="AF160">
+        <v>1.04</v>
+      </c>
+      <c r="AG160">
+        <v>10</v>
+      </c>
+      <c r="AH160">
+        <v>1.22</v>
+      </c>
+      <c r="AI160">
+        <v>4</v>
+      </c>
+      <c r="AJ160">
+        <v>1.67</v>
+      </c>
+      <c r="AK160">
+        <v>2.1</v>
+      </c>
+      <c r="AL160">
+        <v>1.58</v>
+      </c>
+      <c r="AM160">
+        <v>2.32</v>
+      </c>
+      <c r="AN160">
+        <v>1.89</v>
+      </c>
+      <c r="AO160">
+        <v>1.26</v>
+      </c>
+      <c r="AP160">
+        <v>1.27</v>
+      </c>
+      <c r="AQ160">
+        <v>1.57</v>
+      </c>
+      <c r="AR160">
+        <v>2.57</v>
+      </c>
+      <c r="AS160">
+        <v>1.38</v>
+      </c>
+      <c r="AT160">
+        <v>2.63</v>
+      </c>
+      <c r="AU160">
+        <v>1.51</v>
+      </c>
+      <c r="AV160">
+        <v>2.02</v>
+      </c>
+      <c r="AW160">
+        <v>3.53</v>
+      </c>
+      <c r="AX160">
+        <v>3.1</v>
+      </c>
+      <c r="AY160">
+        <v>6.25</v>
+      </c>
+      <c r="AZ160">
+        <v>1.45</v>
+      </c>
+      <c r="BA160">
+        <v>1.18</v>
+      </c>
+      <c r="BB160">
+        <v>1.33</v>
+      </c>
+      <c r="BC160">
+        <v>1.65</v>
+      </c>
+      <c r="BD160">
+        <v>2.01</v>
+      </c>
+      <c r="BE160">
+        <v>2.66</v>
+      </c>
+      <c r="BF160">
+        <v>2</v>
+      </c>
+      <c r="BG160">
+        <v>5</v>
+      </c>
+      <c r="BH160">
+        <v>5</v>
+      </c>
+      <c r="BI160">
+        <v>14</v>
+      </c>
+      <c r="BJ160">
+        <v>7</v>
+      </c>
+      <c r="BK160">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>2435350</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44885.4375</v>
+      </c>
+      <c r="F161">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>66</v>
+      </c>
+      <c r="H161" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161" t="s">
+        <v>201</v>
+      </c>
+      <c r="P161" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q161">
+        <v>1</v>
+      </c>
+      <c r="R161">
+        <v>11</v>
+      </c>
+      <c r="S161">
+        <v>12</v>
+      </c>
+      <c r="T161">
+        <v>4.5</v>
+      </c>
+      <c r="U161">
+        <v>2.38</v>
+      </c>
+      <c r="V161">
+        <v>2.25</v>
+      </c>
+      <c r="W161">
+        <v>1.3</v>
+      </c>
+      <c r="X161">
+        <v>3.4</v>
+      </c>
+      <c r="Y161">
+        <v>2.5</v>
+      </c>
+      <c r="Z161">
+        <v>1.5</v>
+      </c>
+      <c r="AA161">
+        <v>6</v>
+      </c>
+      <c r="AB161">
+        <v>1.13</v>
+      </c>
+      <c r="AC161">
+        <v>4.35</v>
+      </c>
+      <c r="AD161">
+        <v>4.1</v>
+      </c>
+      <c r="AE161">
+        <v>1.68</v>
+      </c>
+      <c r="AF161">
+        <v>1.03</v>
+      </c>
+      <c r="AG161">
+        <v>16</v>
+      </c>
+      <c r="AH161">
+        <v>1.2</v>
+      </c>
+      <c r="AI161">
+        <v>4</v>
+      </c>
+      <c r="AJ161">
+        <v>1.67</v>
+      </c>
+      <c r="AK161">
+        <v>2.15</v>
+      </c>
+      <c r="AL161">
+        <v>1.67</v>
+      </c>
+      <c r="AM161">
+        <v>2.1</v>
+      </c>
+      <c r="AN161">
+        <v>2.05</v>
+      </c>
+      <c r="AO161">
+        <v>1.25</v>
+      </c>
+      <c r="AP161">
+        <v>1.2</v>
+      </c>
+      <c r="AQ161">
+        <v>1.29</v>
+      </c>
+      <c r="AR161">
+        <v>1.5</v>
+      </c>
+      <c r="AS161">
+        <v>1.25</v>
+      </c>
+      <c r="AT161">
+        <v>1.44</v>
+      </c>
+      <c r="AU161">
+        <v>1.27</v>
+      </c>
+      <c r="AV161">
+        <v>1.41</v>
+      </c>
+      <c r="AW161">
+        <v>2.68</v>
+      </c>
+      <c r="AX161">
+        <v>3.7</v>
+      </c>
+      <c r="AY161">
+        <v>6.25</v>
+      </c>
+      <c r="AZ161">
+        <v>1.34</v>
+      </c>
+      <c r="BA161">
+        <v>1.25</v>
+      </c>
+      <c r="BB161">
+        <v>1.54</v>
+      </c>
+      <c r="BC161">
+        <v>1.76</v>
+      </c>
+      <c r="BD161">
+        <v>2.19</v>
+      </c>
+      <c r="BE161">
+        <v>3.2</v>
+      </c>
+      <c r="BF161">
+        <v>6</v>
+      </c>
+      <c r="BG161">
+        <v>6</v>
+      </c>
+      <c r="BH161">
+        <v>8</v>
+      </c>
+      <c r="BI161">
+        <v>11</v>
+      </c>
+      <c r="BJ161">
+        <v>14</v>
+      </c>
+      <c r="BK161">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.38</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT7" t="n">
         <v>1.25</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT9" t="n">
         <v>0.88</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
         <v>1.25</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT15" t="n">
         <v>0.75</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
         <v>2</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.56</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT22" t="n">
         <v>1.25</v>
@@ -5369,7 +5369,7 @@
         <v>2.56</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -5572,7 +5572,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AU25" t="n">
         <v>0.9399999999999999</v>
@@ -5978,7 +5978,7 @@
         <v>1.13</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU27" t="n">
         <v>1.93</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT28" t="n">
         <v>2.63</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
         <v>0.88</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT30" t="n">
         <v>1.25</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.4</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.13</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU34" t="n">
         <v>1.85</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT35" t="n">
         <v>2</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.64</v>
@@ -8208,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU38" t="n">
         <v>1.19</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU39" t="n">
         <v>2.25</v>
@@ -8820,7 +8820,7 @@
         <v>2.75</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.14</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT42" t="n">
         <v>0.88</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AU43" t="n">
         <v>0.85</v>
@@ -9835,7 +9835,7 @@
         <v>1.38</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU46" t="n">
         <v>1.41</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU47" t="n">
         <v>1.64</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT49" t="n">
         <v>0.75</v>
@@ -10644,10 +10644,10 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.33</v>
@@ -10847,10 +10847,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>2.38</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT53" t="n">
         <v>1.44</v>
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU54" t="n">
         <v>1.16</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU56" t="n">
         <v>1.31</v>
@@ -12068,7 +12068,7 @@
         <v>2.25</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU57" t="n">
         <v>0.95</v>
@@ -12271,7 +12271,7 @@
         <v>1.25</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU58" t="n">
         <v>0.9</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT59" t="n">
         <v>1.25</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU61" t="n">
         <v>1.83</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU62" t="n">
         <v>1.41</v>
@@ -13283,10 +13283,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU63" t="n">
         <v>1.43</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT64" t="n">
         <v>2.63</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU65" t="n">
         <v>1.2</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT66" t="n">
         <v>0.88</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU67" t="n">
         <v>1.27</v>
@@ -14298,10 +14298,10 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU68" t="n">
         <v>1.12</v>
@@ -14501,7 +14501,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14704,10 +14704,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU70" t="n">
         <v>1.16</v>
@@ -14907,10 +14907,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT71" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU71" t="n">
         <v>1.81</v>
@@ -15113,7 +15113,7 @@
         <v>2.56</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU72" t="n">
         <v>1.54</v>
@@ -15316,7 +15316,7 @@
         <v>1.13</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.24</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT74" t="n">
         <v>1.25</v>
@@ -15925,7 +15925,7 @@
         <v>1.38</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AU76" t="n">
         <v>1.35</v>
@@ -16331,7 +16331,7 @@
         <v>1.25</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16534,7 +16534,7 @@
         <v>2.75</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU79" t="n">
         <v>2</v>
@@ -16734,7 +16734,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT80" t="n">
         <v>1.44</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT81" t="n">
         <v>1.25</v>
@@ -17140,10 +17140,10 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AU82" t="n">
         <v>1.23</v>
@@ -17343,10 +17343,10 @@
         <v>0.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU83" t="n">
         <v>1.83</v>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU87" t="n">
         <v>2.32</v>
@@ -18361,7 +18361,7 @@
         <v>2.25</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.34</v>
@@ -18564,7 +18564,7 @@
         <v>1.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.72</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT90" t="n">
         <v>1.22</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19170,7 +19170,7 @@
         <v>2.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT92" t="n">
         <v>2</v>
@@ -19373,7 +19373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT93" t="n">
         <v>1.25</v>
@@ -19576,10 +19576,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU94" t="n">
         <v>1.95</v>
@@ -19982,10 +19982,10 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU96" t="n">
         <v>1.16</v>
@@ -20185,10 +20185,10 @@
         <v>0</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU97" t="n">
         <v>1.33</v>
@@ -20591,10 +20591,10 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU99" t="n">
         <v>2.07</v>
@@ -21000,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU101" t="n">
         <v>2.26</v>
@@ -21200,10 +21200,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.32</v>
@@ -21403,7 +21403,7 @@
         <v>1.6</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT103" t="n">
         <v>1.22</v>
@@ -21606,10 +21606,10 @@
         <v>2.4</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU104" t="n">
         <v>1.76</v>
@@ -21812,7 +21812,7 @@
         <v>2.56</v>
       </c>
       <c r="AT105" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU105" t="n">
         <v>1.38</v>
@@ -22015,7 +22015,7 @@
         <v>1.38</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU106" t="n">
         <v>1.47</v>
@@ -22215,10 +22215,10 @@
         <v>0.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AU107" t="n">
         <v>1.83</v>
@@ -22824,10 +22824,10 @@
         <v>0.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU110" t="n">
         <v>1.46</v>
@@ -23436,7 +23436,7 @@
         <v>2.75</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU113" t="n">
         <v>1.88</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT114" t="n">
         <v>1.22</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT115" t="n">
         <v>1.25</v>
@@ -24045,7 +24045,7 @@
         <v>1.25</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU116" t="n">
         <v>1.2</v>
@@ -24248,7 +24248,7 @@
         <v>2.56</v>
       </c>
       <c r="AT117" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU117" t="n">
         <v>1.31</v>
@@ -24651,10 +24651,10 @@
         <v>0.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU119" t="n">
         <v>1.2</v>
@@ -24854,7 +24854,7 @@
         <v>1.8</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT120" t="n">
         <v>2</v>
@@ -25057,7 +25057,7 @@
         <v>1.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT121" t="n">
         <v>1.25</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25463,10 +25463,10 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU123" t="n">
         <v>1.52</v>
@@ -25669,7 +25669,7 @@
         <v>1.33</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU124" t="n">
         <v>1.59</v>
@@ -25872,7 +25872,7 @@
         <v>2.25</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU125" t="n">
         <v>1.17</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT126" t="n">
         <v>0.75</v>
@@ -26278,7 +26278,7 @@
         <v>1.13</v>
       </c>
       <c r="AT127" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26478,10 +26478,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU128" t="n">
         <v>1.72</v>
@@ -26681,10 +26681,10 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AU129" t="n">
         <v>1.67</v>
@@ -26884,10 +26884,10 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.36</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT131" t="n">
         <v>1.44</v>
@@ -27290,7 +27290,7 @@
         <v>2.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT132" t="n">
         <v>2.63</v>
@@ -27699,7 +27699,7 @@
         <v>2.56</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU134" t="n">
         <v>1.46</v>
@@ -27899,10 +27899,10 @@
         <v>1.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU135" t="n">
         <v>1.75</v>
@@ -28511,7 +28511,7 @@
         <v>1.25</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU138" t="n">
         <v>1.27</v>
@@ -28711,7 +28711,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT139" t="n">
         <v>1.25</v>
@@ -28917,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU140" t="n">
         <v>1.46</v>
@@ -29117,7 +29117,7 @@
         <v>1.14</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT141" t="n">
         <v>1.22</v>
@@ -29320,10 +29320,10 @@
         <v>1.14</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT142" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU142" t="n">
         <v>1.77</v>
@@ -29523,10 +29523,10 @@
         <v>1.57</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU143" t="n">
         <v>1.79</v>
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU144" t="n">
         <v>1.37</v>
@@ -29929,7 +29929,7 @@
         <v>1.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT145" t="n">
         <v>1.44</v>
@@ -30135,7 +30135,7 @@
         <v>2.75</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU146" t="n">
         <v>1.91</v>
@@ -30335,10 +30335,10 @@
         <v>0.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU147" t="n">
         <v>1.75</v>
@@ -30538,10 +30538,10 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.56</v>
@@ -30741,10 +30741,10 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU149" t="n">
         <v>1.31</v>
@@ -30947,7 +30947,7 @@
         <v>1</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU150" t="n">
         <v>1.4</v>
@@ -31350,10 +31350,10 @@
         <v>0.14</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AU152" t="n">
         <v>1.26</v>
@@ -31553,10 +31553,10 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU153" t="n">
         <v>1.89</v>
@@ -33028,6 +33028,2239 @@
         <v>14</v>
       </c>
       <c r="BK160" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2435359</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44906.34375</v>
+      </c>
+      <c r="F161" t="n">
+        <v>17</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['47', '52']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>8</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1</v>
+      </c>
+      <c r="S161" t="n">
+        <v>9</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V161" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X161" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2435358</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44906.4375</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>3</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['73', '86']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>4</v>
+      </c>
+      <c r="R162" t="n">
+        <v>1</v>
+      </c>
+      <c r="S162" t="n">
+        <v>5</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2435360</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44906.4375</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>3</v>
+      </c>
+      <c r="N163" t="n">
+        <v>4</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['10', '68', '79']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>4</v>
+      </c>
+      <c r="R163" t="n">
+        <v>4</v>
+      </c>
+      <c r="S163" t="n">
+        <v>8</v>
+      </c>
+      <c r="T163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2435357</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44906.4375</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>4</v>
+      </c>
+      <c r="R164" t="n">
+        <v>5</v>
+      </c>
+      <c r="S164" t="n">
+        <v>9</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2435354</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44906.4375</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['53', '77']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2</v>
+      </c>
+      <c r="R165" t="n">
+        <v>5</v>
+      </c>
+      <c r="S165" t="n">
+        <v>7</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2435355</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44906.4375</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Ajax II</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>2</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['40', '73']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>5</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2</v>
+      </c>
+      <c r="S166" t="n">
+        <v>7</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V166" t="n">
+        <v>5</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X166" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2435353</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44906.4375</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" t="n">
+        <v>4</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>5</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['38', '64', '70', '90+4']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3</v>
+      </c>
+      <c r="R167" t="n">
+        <v>6</v>
+      </c>
+      <c r="S167" t="n">
+        <v>9</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V167" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2435356</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44906.4375</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>10</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2</v>
+      </c>
+      <c r="S168" t="n">
+        <v>12</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V168" t="n">
+        <v>4</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2435361</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44907.61458333334</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>PSV II</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3</v>
+      </c>
+      <c r="K169" t="n">
+        <v>5</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>3</v>
+      </c>
+      <c r="N169" t="n">
+        <v>5</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['25', '45+2']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['10', '21', '35']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>3</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
+      <c r="S169" t="n">
+        <v>3</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V169" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2435362</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44907.70833333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>8</v>
+      </c>
+      <c r="R170" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" t="n">
+        <v>11</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V170" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X170" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2435363</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44910.66666666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>18</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>PSV II</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Ajax II</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>4</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['52', '74']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['39', '58']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>3</v>
+      </c>
+      <c r="R171" t="n">
+        <v>4</v>
+      </c>
+      <c r="S171" t="n">
+        <v>7</v>
+      </c>
+      <c r="T171" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK171" t="n">
         <v>17</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT4" t="n">
         <v>0.89</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT5" t="n">
         <v>0.67</v>
@@ -1918,7 +1918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>2.11</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT27" t="n">
         <v>1.56</v>
@@ -6587,7 +6587,7 @@
         <v>1.89</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU30" t="n">
         <v>2.32</v>
@@ -7602,7 +7602,7 @@
         <v>0.88</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU35" t="n">
         <v>1.28</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU36" t="n">
         <v>1.64</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>2.11</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU38" t="n">
         <v>1.19</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU40" t="n">
         <v>1.13</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT41" t="n">
         <v>1.25</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU45" t="n">
         <v>1.28</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT46" t="n">
         <v>1.56</v>
@@ -10444,7 +10444,7 @@
         <v>1.44</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU49" t="n">
         <v>0.96</v>
@@ -10850,7 +10850,7 @@
         <v>1.89</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU51" t="n">
         <v>2.38</v>
@@ -11256,7 +11256,7 @@
         <v>1.89</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU53" t="n">
         <v>1.72</v>
@@ -11659,10 +11659,10 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT55" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU55" t="n">
         <v>2.1</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
         <v>1.25</v>
@@ -12271,7 +12271,7 @@
         <v>1.25</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU58" t="n">
         <v>0.9</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT61" t="n">
         <v>1.11</v>
@@ -13692,7 +13692,7 @@
         <v>1.44</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU65" t="n">
         <v>1.2</v>
@@ -15313,10 +15313,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU73" t="n">
         <v>1.24</v>
@@ -15516,10 +15516,10 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU74" t="n">
         <v>2.01</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>1.22</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT76" t="n">
         <v>0.44</v>
@@ -16128,7 +16128,7 @@
         <v>1.33</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU77" t="n">
         <v>1.72</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT79" t="n">
         <v>0.67</v>
@@ -16737,7 +16737,7 @@
         <v>0.88</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU80" t="n">
         <v>1.12</v>
@@ -17546,10 +17546,10 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT84" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU84" t="n">
         <v>1.43</v>
@@ -17752,7 +17752,7 @@
         <v>2.56</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU85" t="n">
         <v>1.43</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU86" t="n">
         <v>1.26</v>
@@ -18358,10 +18358,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU88" t="n">
         <v>1.34</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.63</v>
       </c>
       <c r="AT92" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU92" t="n">
         <v>1.7</v>
@@ -19579,7 +19579,7 @@
         <v>1.38</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU94" t="n">
         <v>1.95</v>
@@ -19782,7 +19782,7 @@
         <v>1</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU95" t="n">
         <v>1.44</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT100" t="n">
         <v>0.88</v>
@@ -21203,7 +21203,7 @@
         <v>1.33</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU102" t="n">
         <v>1.32</v>
@@ -22012,7 +22012,7 @@
         <v>0.8</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT106" t="n">
         <v>0.89</v>
@@ -22215,7 +22215,7 @@
         <v>0.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT107" t="n">
         <v>0.44</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU108" t="n">
         <v>1.24</v>
@@ -23027,10 +23027,10 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU111" t="n">
         <v>1.34</v>
@@ -23433,7 +23433,7 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT113" t="n">
         <v>1.56</v>
@@ -23842,7 +23842,7 @@
         <v>1.38</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU115" t="n">
         <v>1.81</v>
@@ -24248,7 +24248,7 @@
         <v>2.56</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU117" t="n">
         <v>1.31</v>
@@ -24857,7 +24857,7 @@
         <v>1.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU120" t="n">
         <v>1.41</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT125" t="n">
         <v>1.22</v>
@@ -26072,10 +26072,10 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU126" t="n">
         <v>1.8</v>
@@ -26275,7 +26275,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT127" t="n">
         <v>0.89</v>
@@ -26887,7 +26887,7 @@
         <v>1.33</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU130" t="n">
         <v>1.36</v>
@@ -27090,7 +27090,7 @@
         <v>1.33</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU131" t="n">
         <v>1.42</v>
@@ -27493,7 +27493,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT133" t="n">
         <v>1.25</v>
@@ -28308,7 +28308,7 @@
         <v>1</v>
       </c>
       <c r="AT137" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU137" t="n">
         <v>1.95</v>
@@ -28714,7 +28714,7 @@
         <v>1.44</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU139" t="n">
         <v>1.3</v>
@@ -29320,7 +29320,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT142" t="n">
         <v>1.22</v>
@@ -29932,7 +29932,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU145" t="n">
         <v>1.5</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT146" t="n">
         <v>1.11</v>
@@ -30541,7 +30541,7 @@
         <v>2.11</v>
       </c>
       <c r="AT148" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU148" t="n">
         <v>1.56</v>
@@ -30744,7 +30744,7 @@
         <v>1.33</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU149" t="n">
         <v>1.31</v>
@@ -31756,7 +31756,7 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT154" t="n">
         <v>1.25</v>
@@ -31959,7 +31959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT155" t="n">
         <v>0.88</v>
@@ -32165,7 +32165,7 @@
         <v>1.33</v>
       </c>
       <c r="AT156" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU156" t="n">
         <v>1.56</v>
@@ -32365,10 +32365,10 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU157" t="n">
         <v>1.97</v>
@@ -32571,7 +32571,7 @@
         <v>2.56</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU158" t="n">
         <v>1.46</v>
@@ -32771,7 +32771,7 @@
         <v>2.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT159" t="n">
         <v>2.63</v>
@@ -32977,7 +32977,7 @@
         <v>1.25</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU160" t="n">
         <v>1.27</v>
@@ -33789,7 +33789,7 @@
         <v>0.88</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU164" t="n">
         <v>1.33</v>
@@ -33989,7 +33989,7 @@
         <v>1.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT165" t="n">
         <v>1.56</v>
@@ -34601,7 +34601,7 @@
         <v>1.33</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU168" t="n">
         <v>1.43</v>
@@ -35262,6 +35262,1224 @@
       </c>
       <c r="BK171" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2435364</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44911.66666666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>8</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2</v>
+      </c>
+      <c r="S172" t="n">
+        <v>10</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V172" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2435365</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44911.66666666666</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2</v>
+      </c>
+      <c r="N173" t="n">
+        <v>2</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['74', '82']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>1</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2</v>
+      </c>
+      <c r="S173" t="n">
+        <v>3</v>
+      </c>
+      <c r="T173" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V173" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X173" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2435366</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44911.66666666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>3</v>
+      </c>
+      <c r="N174" t="n">
+        <v>3</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['23', '77', '89']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>6</v>
+      </c>
+      <c r="R174" t="n">
+        <v>5</v>
+      </c>
+      <c r="S174" t="n">
+        <v>11</v>
+      </c>
+      <c r="T174" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2435367</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44911.66666666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>6</v>
+      </c>
+      <c r="R175" t="n">
+        <v>6</v>
+      </c>
+      <c r="S175" t="n">
+        <v>12</v>
+      </c>
+      <c r="T175" t="n">
+        <v>3</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2435368</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44911.66666666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>4</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>5</v>
+      </c>
+      <c r="L176" t="n">
+        <v>8</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="n">
+        <v>9</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['8', '37', '39', '45+2', '56', '61', '81', '83']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>2</v>
+      </c>
+      <c r="R176" t="n">
+        <v>3</v>
+      </c>
+      <c r="S176" t="n">
+        <v>5</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U176" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="V176" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X176" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2435369</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44911.66666666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>4</v>
+      </c>
+      <c r="R177" t="n">
+        <v>4</v>
+      </c>
+      <c r="S177" t="n">
+        <v>8</v>
+      </c>
+      <c r="T177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -20044,7 +20044,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>2435284</v>
+        <v>2435283</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -20064,182 +20064,182 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>1</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>['2']</t>
-        </is>
-      </c>
       <c r="Q97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T97" t="n">
-        <v>2.05</v>
+        <v>2.95</v>
       </c>
       <c r="U97" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="V97" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="W97" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X97" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Y97" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AA97" t="n">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB97" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AC97" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT97" t="n">
         <v>1.56</v>
       </c>
-      <c r="AD97" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AN97" t="n">
+      <c r="AU97" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA97" t="n">
         <v>1.18</v>
       </c>
-      <c r="AO97" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP97" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AQ97" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AR97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS97" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT97" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU97" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AV97" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AW97" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AX97" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AY97" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ97" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="BA97" t="n">
-        <v>1.27</v>
-      </c>
       <c r="BB97" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BC97" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="BD97" t="n">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="BE97" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="BF97" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG97" t="n">
         <v>4</v>
       </c>
       <c r="BH97" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BI97" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ97" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK97" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -20450,7 +20450,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>2435285</v>
+        <v>2435284</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -20470,182 +20470,182 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
       </c>
       <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
         <v>4</v>
       </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>7</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG99" t="n">
         <v>4</v>
       </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>['18', '51', '60', '87']</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
-        <v>6</v>
-      </c>
-      <c r="R99" t="n">
-        <v>7</v>
-      </c>
-      <c r="S99" t="n">
-        <v>13</v>
-      </c>
-      <c r="T99" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U99" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V99" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W99" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X99" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AM99" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AO99" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP99" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AQ99" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AR99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS99" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AT99" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AU99" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AV99" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AW99" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AY99" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AZ99" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BA99" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB99" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="BC99" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BD99" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="BE99" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF99" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG99" t="n">
-        <v>3</v>
-      </c>
       <c r="BH99" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI99" t="n">
         <v>6</v>
       </c>
       <c r="BJ99" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BK99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -20856,7 +20856,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>2435283</v>
+        <v>2435285</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -20876,35 +20876,35 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['18', '51', '60', '87']</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -20916,142 +20916,142 @@
         <v>6</v>
       </c>
       <c r="R101" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S101" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T101" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="U101" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V101" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="W101" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X101" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Y101" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Z101" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AA101" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB101" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AC101" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="AD101" t="n">
-        <v>3.22</v>
+        <v>3.52</v>
       </c>
       <c r="AE101" t="n">
-        <v>2.74</v>
+        <v>2.25</v>
       </c>
       <c r="AF101" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH101" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AI101" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AK101" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AL101" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN101" t="n">
         <v>1.6</v>
       </c>
-      <c r="AM101" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN101" t="n">
+      <c r="AO101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP101" t="n">
         <v>1.42</v>
       </c>
-      <c r="AO101" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP101" t="n">
-        <v>1.52</v>
-      </c>
       <c r="AQ101" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AR101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="AU101" t="n">
-        <v>2.26</v>
+        <v>2.07</v>
       </c>
       <c r="AV101" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AW101" t="n">
-        <v>3.47</v>
+        <v>3.27</v>
       </c>
       <c r="AX101" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="AY101" t="n">
         <v>7.8</v>
       </c>
       <c r="AZ101" t="n">
-        <v>2.36</v>
+        <v>1.88</v>
       </c>
       <c r="BA101" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BB101" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="BC101" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="BD101" t="n">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="BE101" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BF101" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BG101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK101" t="n">
         <v>9</v>
-      </c>
-      <c r="BI101" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ101" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK101" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -21262,7 +21262,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>2435301</v>
+        <v>2435300</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -21282,170 +21282,170 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N103" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>['12', '15']</t>
+          <t>['27', '34', '36']</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>['90+4']</t>
+          <t>['45+2', '82']</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>12</v>
+      </c>
+      <c r="T103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF103" t="n">
         <v>6</v>
       </c>
-      <c r="S103" t="n">
-        <v>7</v>
-      </c>
-      <c r="T103" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U103" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V103" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W103" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X103" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z103" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM103" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AN103" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AO103" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP103" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AQ103" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AR103" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AS103" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT103" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AU103" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AV103" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AW103" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AX103" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AY103" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ103" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BA103" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB103" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="BC103" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BD103" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="BE103" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF103" t="n">
+      <c r="BG103" t="n">
         <v>5</v>
-      </c>
-      <c r="BG103" t="n">
-        <v>9</v>
       </c>
       <c r="BH103" t="n">
         <v>5</v>
@@ -21454,10 +21454,10 @@
         <v>6</v>
       </c>
       <c r="BJ103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK103" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
@@ -21465,7 +21465,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>2435300</v>
+        <v>2435299</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -21485,182 +21485,182 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
         <v>2</v>
       </c>
       <c r="N104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['27', '34', '36']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>['45+2', '82']</t>
+          <t>['13', '32']</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T104" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U104" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V104" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W104" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X104" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Y104" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="Z104" t="n">
         <v>1.5</v>
       </c>
       <c r="AA104" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="AB104" t="n">
         <v>1.12</v>
       </c>
       <c r="AC104" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AD104" t="n">
-        <v>3.67</v>
+        <v>3.55</v>
       </c>
       <c r="AE104" t="n">
-        <v>3.51</v>
+        <v>3.02</v>
       </c>
       <c r="AF104" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG104" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH104" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AI104" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AJ104" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AK104" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AL104" t="n">
         <v>1.57</v>
       </c>
       <c r="AM104" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AN104" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AO104" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AR104" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ104" t="n">
         <v>2.4</v>
       </c>
-      <c r="AS104" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AT104" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU104" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AV104" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AW104" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AX104" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AY104" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AZ104" t="n">
-        <v>2.86</v>
-      </c>
       <c r="BA104" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="BB104" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="BC104" t="n">
-        <v>1.92</v>
+        <v>1.61</v>
       </c>
       <c r="BD104" t="n">
-        <v>2.55</v>
+        <v>2.02</v>
       </c>
       <c r="BE104" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="BF104" t="n">
         <v>6</v>
       </c>
       <c r="BG104" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH104" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI104" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ104" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BK104" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
@@ -21871,7 +21871,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>2435299</v>
+        <v>2435301</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -21891,182 +21891,182 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N106" t="n">
         <v>3</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['12', '15']</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>['13', '32']</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S106" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T106" t="n">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="U106" t="n">
-        <v>2.3</v>
+        <v>1.87</v>
       </c>
       <c r="V106" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="W106" t="n">
         <v>1.33</v>
       </c>
       <c r="X106" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y106" t="n">
         <v>2.5</v>
       </c>
       <c r="Z106" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AA106" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="AB106" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AC106" t="n">
-        <v>2.1</v>
+        <v>3.53</v>
       </c>
       <c r="AD106" t="n">
-        <v>3.55</v>
+        <v>3.73</v>
       </c>
       <c r="AE106" t="n">
-        <v>3.02</v>
+        <v>2.02</v>
       </c>
       <c r="AF106" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG106" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ106" t="n">
         <v>10</v>
       </c>
-      <c r="AH106" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL106" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM106" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AN106" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO106" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP106" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AQ106" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR106" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AS106" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AT106" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AU106" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AV106" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AW106" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX106" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AY106" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AZ106" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BA106" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB106" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BC106" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="BD106" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="BE106" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BF106" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG106" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH106" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI106" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ106" t="n">
+      <c r="BK106" t="n">
         <v>15</v>
-      </c>
-      <c r="BK106" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="107">
@@ -28570,7 +28570,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>2435331</v>
+        <v>2435332</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -28590,12 +28590,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -28623,26 +28623,26 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R139" t="n">
+        <v>2</v>
+      </c>
+      <c r="S139" t="n">
         <v>7</v>
       </c>
-      <c r="S139" t="n">
-        <v>9</v>
-      </c>
       <c r="T139" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="U139" t="n">
         <v>2.25</v>
       </c>
       <c r="V139" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="W139" t="n">
         <v>1.32</v>
@@ -28651,121 +28651,121 @@
         <v>3.1</v>
       </c>
       <c r="Y139" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="Z139" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AA139" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB139" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AC139" t="n">
-        <v>2.24</v>
+        <v>3.19</v>
       </c>
       <c r="AD139" t="n">
-        <v>3.77</v>
+        <v>3.6</v>
       </c>
       <c r="AE139" t="n">
-        <v>2.85</v>
+        <v>2.11</v>
       </c>
       <c r="AF139" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG139" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH139" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO139" t="n">
         <v>1.22</v>
       </c>
-      <c r="AI139" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ139" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK139" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL139" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AM139" t="n">
+      <c r="AP139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX139" t="n">
         <v>2.2</v>
       </c>
-      <c r="AN139" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO139" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP139" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AQ139" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR139" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AS139" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AT139" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AU139" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AV139" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AW139" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AX139" t="n">
+      <c r="AY139" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC139" t="n">
         <v>1.74</v>
       </c>
-      <c r="AY139" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ139" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BA139" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB139" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC139" t="n">
-        <v>1.87</v>
-      </c>
       <c r="BD139" t="n">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BE139" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BF139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG139" t="n">
         <v>4</v>
       </c>
       <c r="BH139" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BI139" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BJ139" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK139" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140">
@@ -28773,7 +28773,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>2435332</v>
+        <v>2435331</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -28793,12 +28793,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -28826,26 +28826,26 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S140" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T140" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="U140" t="n">
         <v>2.25</v>
       </c>
       <c r="V140" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="W140" t="n">
         <v>1.32</v>
@@ -28854,121 +28854,121 @@
         <v>3.1</v>
       </c>
       <c r="Y140" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="Z140" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS140" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA140" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB140" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC140" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AD140" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE140" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AF140" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG140" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH140" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AI140" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AK140" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AL140" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM140" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AN140" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AO140" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP140" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AQ140" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AR140" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS140" t="n">
-        <v>1</v>
-      </c>
       <c r="AT140" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AU140" t="n">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AV140" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="AW140" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="AX140" t="n">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="AY140" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="AZ140" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="BA140" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BB140" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BC140" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="BD140" t="n">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="BE140" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BF140" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG140" t="n">
         <v>4</v>
       </c>
       <c r="BH140" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BI140" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BJ140" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK140" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141">
@@ -29179,7 +29179,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>2435334</v>
+        <v>2435340</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -29199,182 +29199,182 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L142" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N142" t="n">
+        <v>6</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['16', '30', '42', '70', '74']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
         <v>5</v>
       </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>['24', '80', '90+7']</t>
-        </is>
-      </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>['22', '70']</t>
-        </is>
-      </c>
-      <c r="Q142" t="n">
-        <v>4</v>
-      </c>
       <c r="R142" t="n">
         <v>2</v>
       </c>
       <c r="S142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T142" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="U142" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="V142" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W142" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X142" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y142" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z142" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AA142" t="n">
-        <v>5.95</v>
+        <v>4.33</v>
       </c>
       <c r="AB142" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AC142" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AD142" t="n">
         <v>4</v>
       </c>
       <c r="AE142" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AF142" t="n">
         <v>1.02</v>
       </c>
       <c r="AG142" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH142" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AI142" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AJ142" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AK142" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="AL142" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AM142" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AN142" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AO142" t="n">
         <v>1.2</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.57</v>
+        <v>2.67</v>
       </c>
       <c r="AR142" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.4</v>
+        <v>2.78</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AU142" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="AV142" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="AW142" t="n">
-        <v>2.93</v>
+        <v>3.18</v>
       </c>
       <c r="AX142" t="n">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AY142" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AZ142" t="n">
-        <v>3.26</v>
+        <v>4.04</v>
       </c>
       <c r="BA142" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="BB142" t="n">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="BC142" t="n">
-        <v>2.01</v>
+        <v>1.68</v>
       </c>
       <c r="BD142" t="n">
-        <v>2.46</v>
+        <v>2.03</v>
       </c>
       <c r="BE142" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="BF142" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BG142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI142" t="n">
         <v>4</v>
       </c>
-      <c r="BH142" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI142" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ142" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BK142" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
@@ -29382,7 +29382,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>2435335</v>
+        <v>2435334</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -29402,71 +29402,71 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L143" t="n">
+        <v>3</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2</v>
+      </c>
+      <c r="N143" t="n">
         <v>5</v>
       </c>
-      <c r="M143" t="n">
-        <v>2</v>
-      </c>
-      <c r="N143" t="n">
-        <v>7</v>
-      </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>['7', '19', '64', '66', '90']</t>
+          <t>['24', '80', '90+7']</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>['13', '50']</t>
+          <t>['22', '70']</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R143" t="n">
         <v>2</v>
       </c>
       <c r="S143" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T143" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="U143" t="n">
         <v>2.35</v>
       </c>
       <c r="V143" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="W143" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X143" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y143" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Z143" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AA143" t="n">
         <v>5.95</v>
@@ -29475,109 +29475,109 @@
         <v>1.1</v>
       </c>
       <c r="AC143" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AD143" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AE143" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AF143" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG143" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH143" t="n">
         <v>1.22</v>
       </c>
       <c r="AI143" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AJ143" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AK143" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP143" t="n">
         <v>2.1</v>
-      </c>
-      <c r="AL143" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM143" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN143" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AO143" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP143" t="n">
-        <v>2.4</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.57</v>
       </c>
       <c r="AR143" t="n">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="AU143" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AV143" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="AW143" t="n">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="AX143" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AY143" t="n">
         <v>7.6</v>
       </c>
       <c r="AZ143" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="BA143" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BB143" t="n">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="BC143" t="n">
-        <v>1.64</v>
+        <v>2.01</v>
       </c>
       <c r="BD143" t="n">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="BE143" t="n">
-        <v>2.51</v>
+        <v>3.4</v>
       </c>
       <c r="BF143" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH143" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BI143" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ143" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BK143" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -29585,7 +29585,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>2435337</v>
+        <v>2435335</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -29605,86 +29605,86 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['7', '19', '64', '66', '90']</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13', '50']</t>
         </is>
       </c>
       <c r="Q144" t="n">
+        <v>3</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2</v>
+      </c>
+      <c r="S144" t="n">
         <v>5</v>
       </c>
-      <c r="R144" t="n">
-        <v>3</v>
-      </c>
-      <c r="S144" t="n">
-        <v>8</v>
-      </c>
       <c r="T144" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="U144" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="V144" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="W144" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X144" t="n">
         <v>3.1</v>
       </c>
       <c r="Y144" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Z144" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AA144" t="n">
-        <v>6.4</v>
+        <v>5.95</v>
       </c>
       <c r="AB144" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AC144" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="AD144" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AE144" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="AF144" t="n">
         <v>1.03</v>
@@ -29693,76 +29693,76 @@
         <v>13</v>
       </c>
       <c r="AH144" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI144" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AJ144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL144" t="n">
         <v>1.8</v>
       </c>
-      <c r="AK144" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AL144" t="n">
-        <v>1.63</v>
-      </c>
       <c r="AM144" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AN144" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="AO144" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ144" t="n">
         <v>1.57</v>
       </c>
-      <c r="AQ144" t="n">
-        <v>1.14</v>
-      </c>
       <c r="AR144" t="n">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.89</v>
+        <v>1.56</v>
       </c>
       <c r="AU144" t="n">
-        <v>1.37</v>
+        <v>1.79</v>
       </c>
       <c r="AV144" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="AW144" t="n">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="AX144" t="n">
-        <v>2.08</v>
+        <v>1.38</v>
       </c>
       <c r="AY144" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="AZ144" t="n">
-        <v>2.08</v>
+        <v>4.08</v>
       </c>
       <c r="BA144" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BB144" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="BC144" t="n">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="BD144" t="n">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="BE144" t="n">
-        <v>3.3</v>
+        <v>2.51</v>
       </c>
       <c r="BF144" t="n">
         <v>6</v>
@@ -29771,16 +29771,16 @@
         <v>5</v>
       </c>
       <c r="BH144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK144" t="n">
         <v>7</v>
-      </c>
-      <c r="BI144" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ144" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK144" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="145">
@@ -29788,7 +29788,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>2435339</v>
+        <v>2435337</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -29808,12 +29808,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -29845,49 +29845,49 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R145" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S145" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T145" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="U145" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC145" t="n">
         <v>2.4</v>
       </c>
-      <c r="W145" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X145" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z145" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA145" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AB145" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC145" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AD145" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AE145" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="AF145" t="n">
         <v>1.03</v>
@@ -29896,94 +29896,94 @@
         <v>13</v>
       </c>
       <c r="AH145" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI145" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ145" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AK145" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AL145" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AM145" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AN145" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="AO145" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.14</v>
       </c>
       <c r="AR145" t="n">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AS145" t="n">
         <v>1.33</v>
       </c>
       <c r="AT145" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB145" t="n">
         <v>1.6</v>
       </c>
-      <c r="AU145" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AV145" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AW145" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AX145" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AY145" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AZ145" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="BA145" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB145" t="n">
-        <v>1.31</v>
-      </c>
       <c r="BC145" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="BD145" t="n">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="BE145" t="n">
-        <v>2.37</v>
+        <v>3.3</v>
       </c>
       <c r="BF145" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG145" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI145" t="n">
         <v>6</v>
       </c>
-      <c r="BI145" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ145" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK145" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
@@ -29991,7 +29991,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>2435340</v>
+        <v>2435339</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -30011,182 +30011,182 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
         <v>4</v>
       </c>
-      <c r="L146" t="n">
-        <v>5</v>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="n">
+      <c r="R146" t="n">
         <v>6</v>
       </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>['16', '30', '42', '70', '74']</t>
-        </is>
-      </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>['9']</t>
-        </is>
-      </c>
-      <c r="Q146" t="n">
-        <v>5</v>
-      </c>
-      <c r="R146" t="n">
-        <v>2</v>
-      </c>
       <c r="S146" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T146" t="n">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="U146" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="V146" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="W146" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD146" t="n">
         <v>3.75</v>
       </c>
-      <c r="Y146" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z146" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA146" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AB146" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC146" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD146" t="n">
-        <v>4</v>
-      </c>
       <c r="AE146" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="AF146" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG146" t="n">
         <v>13</v>
       </c>
       <c r="AH146" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AI146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ146" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AK146" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AL146" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AM146" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AN146" t="n">
-        <v>1.12</v>
+        <v>2.05</v>
       </c>
       <c r="AO146" t="n">
         <v>1.2</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.45</v>
+        <v>1.22</v>
       </c>
       <c r="AQ146" t="n">
-        <v>2.67</v>
+        <v>1.14</v>
       </c>
       <c r="AR146" t="n">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.78</v>
+        <v>1.33</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AU146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD146" t="n">
         <v>1.91</v>
       </c>
-      <c r="AV146" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AW146" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AX146" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AY146" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AZ146" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="BA146" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BB146" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BC146" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BD146" t="n">
-        <v>2.03</v>
-      </c>
       <c r="BE146" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="BF146" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BG146" t="n">
         <v>2</v>
       </c>
       <c r="BH146" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BJ146" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BK146" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -33848,7 +33848,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>2435354</v>
+        <v>2435353</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -33868,59 +33868,59 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N165" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['38', '64', '70', '90+4']</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>['53', '77']</t>
+          <t>['13']</t>
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R165" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S165" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T165" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U165" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V165" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="W165" t="n">
         <v>1.33</v>
@@ -33929,43 +33929,43 @@
         <v>3.25</v>
       </c>
       <c r="Y165" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z165" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA165" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB165" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AC165" t="n">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="AD165" t="n">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="AE165" t="n">
-        <v>3.07</v>
+        <v>3.93</v>
       </c>
       <c r="AF165" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG165" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH165" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI165" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AJ165" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AK165" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AL165" t="n">
         <v>1.62</v>
@@ -33974,76 +33974,76 @@
         <v>2.2</v>
       </c>
       <c r="AN165" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AO165" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR165" t="n">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.4</v>
+        <v>2.11</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.56</v>
+        <v>0.89</v>
       </c>
       <c r="AU165" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="AV165" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="AW165" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="AX165" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AY165" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AZ165" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="BA165" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BB165" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BC165" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BD165" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="BE165" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BF165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH165" t="n">
         <v>4</v>
       </c>
-      <c r="BG165" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH165" t="n">
-        <v>3</v>
-      </c>
       <c r="BI165" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ165" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK165" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166">
@@ -34254,7 +34254,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>2435353</v>
+        <v>2435354</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -34274,59 +34274,59 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N167" t="n">
+        <v>3</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['53', '77']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>2</v>
+      </c>
+      <c r="R167" t="n">
         <v>5</v>
       </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>['38', '64', '70', '90+4']</t>
-        </is>
-      </c>
-      <c r="P167" t="inlineStr">
-        <is>
-          <t>['13']</t>
-        </is>
-      </c>
-      <c r="Q167" t="n">
-        <v>3</v>
-      </c>
-      <c r="R167" t="n">
-        <v>6</v>
-      </c>
       <c r="S167" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T167" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U167" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V167" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="W167" t="n">
         <v>1.33</v>
@@ -34335,43 +34335,43 @@
         <v>3.25</v>
       </c>
       <c r="Y167" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z167" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA167" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB167" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC167" t="n">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="AD167" t="n">
-        <v>3.62</v>
+        <v>3.4</v>
       </c>
       <c r="AE167" t="n">
-        <v>3.93</v>
+        <v>3.07</v>
       </c>
       <c r="AF167" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG167" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH167" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI167" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ167" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AK167" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AL167" t="n">
         <v>1.62</v>
@@ -34380,76 +34380,76 @@
         <v>2.2</v>
       </c>
       <c r="AN167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO167" t="n">
         <v>1.25</v>
       </c>
-      <c r="AO167" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AP167" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="AQ167" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR167" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.11</v>
+        <v>1.4</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.89</v>
+        <v>1.56</v>
       </c>
       <c r="AU167" t="n">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="AV167" t="n">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="AW167" t="n">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="AX167" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AY167" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AZ167" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="BA167" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BB167" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BC167" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="BD167" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="BE167" t="n">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BF167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG167" t="n">
         <v>7</v>
       </c>
-      <c r="BG167" t="n">
-        <v>9</v>
-      </c>
       <c r="BH167" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI167" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ167" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BK167" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168">
@@ -35269,7 +35269,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>2435364</v>
+        <v>2435369</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -35289,31 +35289,31 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L172" t="n">
         <v>0</v>
       </c>
       <c r="M172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -35322,149 +35322,149 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['22']</t>
         </is>
       </c>
       <c r="Q172" t="n">
+        <v>4</v>
+      </c>
+      <c r="R172" t="n">
+        <v>4</v>
+      </c>
+      <c r="S172" t="n">
         <v>8</v>
       </c>
-      <c r="R172" t="n">
-        <v>2</v>
-      </c>
-      <c r="S172" t="n">
+      <c r="T172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK172" t="n">
         <v>10</v>
-      </c>
-      <c r="T172" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U172" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V172" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="W172" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X172" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y172" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Z172" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AA172" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="AB172" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC172" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AD172" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE172" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AF172" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG172" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH172" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI172" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ172" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK172" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AL172" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AM172" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN172" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AO172" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP172" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AQ172" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR172" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS172" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT172" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AU172" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AV172" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AW172" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AX172" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AY172" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ172" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA172" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BB172" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BC172" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BD172" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="BE172" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="BF172" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG172" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH172" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI172" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ172" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK172" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="173">
@@ -35472,7 +35472,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>2435365</v>
+        <v>2435364</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -35492,12 +35492,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="I173" t="n">
@@ -35513,10 +35513,10 @@
         <v>0</v>
       </c>
       <c r="M173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -35525,149 +35525,149 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>['74', '82']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R173" t="n">
         <v>2</v>
       </c>
       <c r="S173" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T173" t="n">
-        <v>2.73</v>
+        <v>2.2</v>
       </c>
       <c r="U173" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="V173" t="n">
-        <v>4.04</v>
+        <v>4.75</v>
       </c>
       <c r="W173" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="X173" t="n">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="Y173" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE173" t="n">
         <v>2.84</v>
       </c>
-      <c r="Z173" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA173" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB173" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC173" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AD173" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE173" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AF173" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG173" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH173" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI173" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ173" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK173" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AL173" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AM173" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN173" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AO173" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP173" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AQ173" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AR173" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS173" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT173" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AU173" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AV173" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AW173" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AX173" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AY173" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ173" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BA173" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB173" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BC173" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="BD173" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="BE173" t="n">
-        <v>2.77</v>
-      </c>
       <c r="BF173" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK173" t="n">
         <v>4</v>
-      </c>
-      <c r="BH173" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI173" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ173" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK173" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="174">
@@ -35675,7 +35675,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>2435366</v>
+        <v>2435365</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -35695,31 +35695,31 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>0</v>
       </c>
       <c r="M174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -35728,149 +35728,149 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>['23', '77', '89']</t>
+          <t>['74', '82']</t>
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R174" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S174" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="T174" t="n">
-        <v>3.23</v>
+        <v>2.73</v>
       </c>
       <c r="U174" t="n">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="V174" t="n">
-        <v>3.34</v>
+        <v>4.04</v>
       </c>
       <c r="W174" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X174" t="n">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="Y174" t="n">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="Z174" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AA174" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB174" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC174" t="n">
-        <v>2.46</v>
+        <v>1.96</v>
       </c>
       <c r="AD174" t="n">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="AE174" t="n">
-        <v>2.52</v>
+        <v>3.3</v>
       </c>
       <c r="AF174" t="n">
         <v>1.05</v>
       </c>
       <c r="AG174" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AH174" t="n">
         <v>1.25</v>
       </c>
       <c r="AI174" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="AJ174" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AK174" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AL174" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="AM174" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AN174" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX174" t="n">
         <v>1.49</v>
       </c>
-      <c r="AO174" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP174" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AQ174" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AR174" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AS174" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT174" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AU174" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AV174" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AW174" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AX174" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AY174" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AZ174" t="n">
-        <v>2.28</v>
+        <v>3.35</v>
       </c>
       <c r="BA174" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="BB174" t="n">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="BC174" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="BD174" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="BE174" t="n">
-        <v>3.14</v>
+        <v>2.77</v>
       </c>
       <c r="BF174" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG174" t="n">
         <v>4</v>
       </c>
       <c r="BH174" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BI174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ174" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK174" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
@@ -35878,7 +35878,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>2435367</v>
+        <v>2435366</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -35898,182 +35898,182 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>['68']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['23', '77', '89']</t>
         </is>
       </c>
       <c r="Q175" t="n">
         <v>6</v>
       </c>
       <c r="R175" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S175" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T175" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="U175" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="V175" t="n">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="W175" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="X175" t="n">
-        <v>3.5</v>
+        <v>3.12</v>
       </c>
       <c r="Y175" t="n">
-        <v>2.29</v>
+        <v>2.85</v>
       </c>
       <c r="Z175" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ175" t="n">
         <v>1.56</v>
       </c>
-      <c r="AA175" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AB175" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC175" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AD175" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE175" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF175" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG175" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH175" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI175" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ175" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AK175" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AL175" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AM175" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AN175" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AO175" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP175" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ175" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AR175" t="n">
-        <v>0.88</v>
+        <v>1.44</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU175" t="n">
-        <v>1.35</v>
+        <v>1.77</v>
       </c>
       <c r="AV175" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AW175" t="n">
-        <v>2.59</v>
+        <v>3.27</v>
       </c>
       <c r="AX175" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="AY175" t="n">
         <v>7.7</v>
       </c>
       <c r="AZ175" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="BA175" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="BB175" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="BC175" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="BD175" t="n">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="BE175" t="n">
-        <v>2.84</v>
+        <v>3.14</v>
       </c>
       <c r="BF175" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BG175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH175" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BI175" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ175" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BK175" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -36081,7 +36081,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>2435368</v>
+        <v>2435367</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -36101,182 +36101,182 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>['8', '37', '39', '45+2', '56', '61', '81', '83']</t>
+          <t>['68']</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R176" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S176" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T176" t="n">
-        <v>1.61</v>
+        <v>3</v>
       </c>
       <c r="U176" t="n">
-        <v>3.11</v>
+        <v>2.35</v>
       </c>
       <c r="V176" t="n">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="W176" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="X176" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Y176" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="Z176" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AA176" t="n">
-        <v>4.3</v>
+        <v>4.95</v>
       </c>
       <c r="AB176" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AC176" t="n">
-        <v>1.21</v>
+        <v>2.5</v>
       </c>
       <c r="AD176" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="AE176" t="n">
-        <v>9.25</v>
+        <v>2.6</v>
       </c>
       <c r="AF176" t="n">
         <v>1.02</v>
       </c>
       <c r="AG176" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AH176" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AI176" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="AJ176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB176" t="n">
         <v>1.4</v>
       </c>
-      <c r="AK176" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AL176" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM176" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AN176" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AO176" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AP176" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AQ176" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AR176" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS176" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AT176" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AU176" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AV176" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AW176" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AX176" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AY176" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="AZ176" t="n">
+      <c r="BC176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF176" t="n">
         <v>9</v>
       </c>
-      <c r="BA176" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB176" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BC176" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="BD176" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="BE176" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="BF176" t="n">
-        <v>10</v>
-      </c>
       <c r="BG176" t="n">
         <v>2</v>
       </c>
       <c r="BH176" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BI176" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ176" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BK176" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
@@ -36284,7 +36284,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>2435369</v>
+        <v>2435368</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -36304,158 +36304,158 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
       <c r="N177" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['8', '37', '39', '45+2', '56', '61', '81', '83']</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>['22']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="Q177" t="n">
+        <v>2</v>
+      </c>
+      <c r="R177" t="n">
+        <v>3</v>
+      </c>
+      <c r="S177" t="n">
+        <v>5</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U177" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="V177" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X177" t="n">
         <v>4</v>
       </c>
-      <c r="R177" t="n">
-        <v>4</v>
-      </c>
-      <c r="S177" t="n">
-        <v>8</v>
-      </c>
-      <c r="T177" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U177" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V177" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W177" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X177" t="n">
-        <v>3.2</v>
-      </c>
       <c r="Y177" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="Z177" t="n">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="AA177" t="n">
-        <v>5.95</v>
+        <v>4.3</v>
       </c>
       <c r="AB177" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AC177" t="n">
-        <v>2.68</v>
+        <v>1.21</v>
       </c>
       <c r="AD177" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AE177" t="n">
-        <v>2.32</v>
+        <v>9.25</v>
       </c>
       <c r="AF177" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG177" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AH177" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AI177" t="n">
-        <v>4.2</v>
+        <v>6.25</v>
       </c>
       <c r="AJ177" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="AK177" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AL177" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="AM177" t="n">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="AN177" t="n">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="AO177" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.4</v>
+        <v>4.33</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.38</v>
+        <v>2.75</v>
       </c>
       <c r="AR177" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.22</v>
+        <v>2.78</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.44</v>
+        <v>0.9</v>
       </c>
       <c r="AU177" t="n">
-        <v>1.46</v>
+        <v>1.87</v>
       </c>
       <c r="AV177" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="AW177" t="n">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="AX177" t="n">
-        <v>2.02</v>
+        <v>1.11</v>
       </c>
       <c r="AY177" t="n">
-        <v>7.7</v>
+        <v>13.75</v>
       </c>
       <c r="AZ177" t="n">
-        <v>2.16</v>
+        <v>9</v>
       </c>
       <c r="BA177" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="BB177" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="BC177" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="BD177" t="n">
         <v>2.08</v>
@@ -36464,22 +36464,22 @@
         <v>2.77</v>
       </c>
       <c r="BF177" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BG177" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH177" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BI177" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ177" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK177" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.78</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT11" t="n">
         <v>1.25</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT21" t="n">
         <v>1.11</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU22" t="n">
         <v>1.76</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT23" t="n">
         <v>0.78</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU25" t="n">
         <v>0.9399999999999999</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.76</v>
@@ -5978,7 +5978,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.93</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT28" t="n">
         <v>2.63</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU29" t="n">
         <v>1.2</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU30" t="n">
         <v>2.32</v>
@@ -6790,7 +6790,7 @@
         <v>1.44</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU31" t="n">
         <v>1.4</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7196,7 +7196,7 @@
         <v>1.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU33" t="n">
         <v>1.13</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT35" t="n">
         <v>2.11</v>
@@ -9023,7 +9023,7 @@
         <v>1.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU42" t="n">
         <v>1.01</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU43" t="n">
         <v>0.85</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT44" t="n">
         <v>2.63</v>
@@ -9632,7 +9632,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU45" t="n">
         <v>1.28</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU46" t="n">
         <v>1.41</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.64</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.69</v>
@@ -10644,10 +10644,10 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT50" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU50" t="n">
         <v>1.33</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT51" t="n">
         <v>0.9</v>
@@ -11053,7 +11053,7 @@
         <v>1.63</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>1.6</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT54" t="n">
         <v>1.11</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU56" t="n">
         <v>1.31</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT58" t="n">
         <v>0.78</v>
@@ -12474,7 +12474,7 @@
         <v>2.11</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU59" t="n">
         <v>1.33</v>
@@ -13080,7 +13080,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT62" t="n">
         <v>1.11</v>
@@ -13286,7 +13286,7 @@
         <v>2.11</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.43</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT64" t="n">
         <v>2.63</v>
@@ -13895,7 +13895,7 @@
         <v>1.63</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU66" t="n">
         <v>1.63</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.27</v>
@@ -14301,7 +14301,7 @@
         <v>1.33</v>
       </c>
       <c r="AT68" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU68" t="n">
         <v>1.12</v>
@@ -14501,7 +14501,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14704,10 +14704,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.16</v>
@@ -14907,10 +14907,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.81</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT72" t="n">
         <v>1.11</v>
@@ -15519,7 +15519,7 @@
         <v>1.4</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU74" t="n">
         <v>2.01</v>
@@ -15722,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.31</v>
@@ -15922,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU76" t="n">
         <v>1.35</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT77" t="n">
         <v>0.78</v>
@@ -16328,7 +16328,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT78" t="n">
         <v>1.25</v>
@@ -16534,7 +16534,7 @@
         <v>2.78</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU79" t="n">
         <v>2</v>
@@ -16734,7 +16734,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT80" t="n">
         <v>1.6</v>
@@ -16937,10 +16937,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU81" t="n">
         <v>1.16</v>
@@ -17143,7 +17143,7 @@
         <v>1.33</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU82" t="n">
         <v>1.23</v>
@@ -17343,7 +17343,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT83" t="n">
         <v>1.11</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT84" t="n">
         <v>2.11</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT85" t="n">
         <v>1.6</v>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU87" t="n">
         <v>2.32</v>
@@ -18561,10 +18561,10 @@
         <v>2.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU89" t="n">
         <v>1.72</v>
@@ -18767,7 +18767,7 @@
         <v>2.11</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.58</v>
@@ -19376,7 +19376,7 @@
         <v>1.44</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU93" t="n">
         <v>1.16</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT94" t="n">
         <v>0.78</v>
@@ -19782,7 +19782,7 @@
         <v>1</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU95" t="n">
         <v>1.44</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT96" t="n">
         <v>1.25</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU97" t="n">
         <v>2.26</v>
@@ -20388,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT98" t="n">
         <v>2.63</v>
@@ -20591,10 +20591,10 @@
         <v>0</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -20797,7 +20797,7 @@
         <v>2.78</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU100" t="n">
         <v>1.97</v>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT101" t="n">
         <v>1.11</v>
@@ -21200,7 +21200,7 @@
         <v>0.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT102" t="n">
         <v>0.9</v>
@@ -21403,10 +21403,10 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU103" t="n">
         <v>1.76</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -21809,10 +21809,10 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU105" t="n">
         <v>1.38</v>
@@ -22015,7 +22015,7 @@
         <v>1.33</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU106" t="n">
         <v>1.35</v>
@@ -22218,7 +22218,7 @@
         <v>1.4</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU107" t="n">
         <v>1.83</v>
@@ -22621,7 +22621,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT109" t="n">
         <v>1</v>
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU112" t="n">
         <v>2.1</v>
@@ -23436,7 +23436,7 @@
         <v>2.78</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.88</v>
@@ -23636,10 +23636,10 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.33</v>
@@ -23839,10 +23839,10 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU115" t="n">
         <v>1.81</v>
@@ -24042,7 +24042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT116" t="n">
         <v>1.11</v>
@@ -24245,7 +24245,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT117" t="n">
         <v>0.78</v>
@@ -24654,7 +24654,7 @@
         <v>1.44</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU119" t="n">
         <v>1.2</v>
@@ -24854,7 +24854,7 @@
         <v>1.8</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT120" t="n">
         <v>2.11</v>
@@ -25057,10 +25057,10 @@
         <v>1.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25466,7 +25466,7 @@
         <v>2.11</v>
       </c>
       <c r="AT123" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU123" t="n">
         <v>1.52</v>
@@ -25666,7 +25666,7 @@
         <v>1.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT124" t="n">
         <v>1.11</v>
@@ -25872,7 +25872,7 @@
         <v>2</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.17</v>
@@ -26278,7 +26278,7 @@
         <v>1.33</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26478,7 +26478,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT128" t="n">
         <v>1.25</v>
@@ -26684,7 +26684,7 @@
         <v>1.63</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU129" t="n">
         <v>1.67</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT131" t="n">
         <v>1.6</v>
@@ -27290,7 +27290,7 @@
         <v>2.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT132" t="n">
         <v>2.63</v>
@@ -27493,10 +27493,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU133" t="n">
         <v>1.51</v>
@@ -27696,10 +27696,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU134" t="n">
         <v>1.46</v>
@@ -27899,10 +27899,10 @@
         <v>1.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT135" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU135" t="n">
         <v>1.75</v>
@@ -28102,10 +28102,10 @@
         <v>0.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU136" t="n">
         <v>1.56</v>
@@ -28508,7 +28508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT138" t="n">
         <v>1.11</v>
@@ -28714,7 +28714,7 @@
         <v>1</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU139" t="n">
         <v>1.46</v>
@@ -28917,7 +28917,7 @@
         <v>1.44</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU140" t="n">
         <v>1.3</v>
@@ -29117,10 +29117,10 @@
         <v>1.14</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.92</v>
@@ -29526,7 +29526,7 @@
         <v>1.4</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -29726,10 +29726,10 @@
         <v>1.57</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU144" t="n">
         <v>1.79</v>
@@ -29932,7 +29932,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU145" t="n">
         <v>1.37</v>
@@ -30132,7 +30132,7 @@
         <v>1.57</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT146" t="n">
         <v>1.6</v>
@@ -30338,7 +30338,7 @@
         <v>1.63</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU147" t="n">
         <v>1.75</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT149" t="n">
         <v>0.78</v>
@@ -31150,7 +31150,7 @@
         <v>1</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU151" t="n">
         <v>1.95</v>
@@ -31353,7 +31353,7 @@
         <v>1.44</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU152" t="n">
         <v>1.26</v>
@@ -31553,7 +31553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT153" t="n">
         <v>1.11</v>
@@ -31759,7 +31759,7 @@
         <v>2</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -31962,7 +31962,7 @@
         <v>1.33</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU155" t="n">
         <v>1.29</v>
@@ -32162,7 +32162,7 @@
         <v>1.86</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT156" t="n">
         <v>2.11</v>
@@ -32568,10 +32568,10 @@
         <v>1.43</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU158" t="n">
         <v>1.46</v>
@@ -32771,7 +32771,7 @@
         <v>2.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT159" t="n">
         <v>2.63</v>
@@ -32974,7 +32974,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT160" t="n">
         <v>1.6</v>
@@ -33177,7 +33177,7 @@
         <v>0.88</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT161" t="n">
         <v>1.11</v>
@@ -33380,7 +33380,7 @@
         <v>1.43</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT162" t="n">
         <v>1.25</v>
@@ -33586,7 +33586,7 @@
         <v>1.63</v>
       </c>
       <c r="AT163" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU163" t="n">
         <v>1.75</v>
@@ -33786,7 +33786,7 @@
         <v>0.75</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT164" t="n">
         <v>0.9</v>
@@ -33992,7 +33992,7 @@
         <v>2.11</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU165" t="n">
         <v>1.55</v>
@@ -34192,10 +34192,10 @@
         <v>0.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU166" t="n">
         <v>1.43</v>
@@ -34398,7 +34398,7 @@
         <v>1.4</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU167" t="n">
         <v>1.85</v>
@@ -34801,10 +34801,10 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU169" t="n">
         <v>1.9</v>
@@ -35004,10 +35004,10 @@
         <v>0.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU170" t="n">
         <v>1.75</v>
@@ -35410,10 +35410,10 @@
         <v>1.25</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU172" t="n">
         <v>1.46</v>
@@ -36480,6 +36480,2036 @@
       </c>
       <c r="BK177" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2435378</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>19</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>PSV II</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>3</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['4', '32']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>3</v>
+      </c>
+      <c r="R178" t="n">
+        <v>4</v>
+      </c>
+      <c r="S178" t="n">
+        <v>7</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2435379</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>19</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>3</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['10', '88']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>3</v>
+      </c>
+      <c r="R179" t="n">
+        <v>3</v>
+      </c>
+      <c r="S179" t="n">
+        <v>6</v>
+      </c>
+      <c r="T179" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2435377</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>19</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['43', '48']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['24', '90']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>4</v>
+      </c>
+      <c r="R180" t="n">
+        <v>5</v>
+      </c>
+      <c r="S180" t="n">
+        <v>9</v>
+      </c>
+      <c r="T180" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V180" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X180" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2435381</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>19</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>4</v>
+      </c>
+      <c r="R181" t="n">
+        <v>3</v>
+      </c>
+      <c r="S181" t="n">
+        <v>7</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V181" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2435380</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>3</v>
+      </c>
+      <c r="M182" t="n">
+        <v>2</v>
+      </c>
+      <c r="N182" t="n">
+        <v>5</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['31', '65', '86']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['25', '54']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>7</v>
+      </c>
+      <c r="R182" t="n">
+        <v>1</v>
+      </c>
+      <c r="S182" t="n">
+        <v>8</v>
+      </c>
+      <c r="T182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V182" t="n">
+        <v>5</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2435376</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>3</v>
+      </c>
+      <c r="R183" t="n">
+        <v>4</v>
+      </c>
+      <c r="S183" t="n">
+        <v>7</v>
+      </c>
+      <c r="T183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V183" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2435382</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>8</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
+      <c r="S184" t="n">
+        <v>8</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X184" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2435374</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>7</v>
+      </c>
+      <c r="R185" t="n">
+        <v>9</v>
+      </c>
+      <c r="S185" t="n">
+        <v>16</v>
+      </c>
+      <c r="T185" t="n">
+        <v>4</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V185" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2435373</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Ajax II</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>7</v>
+      </c>
+      <c r="R186" t="n">
+        <v>4</v>
+      </c>
+      <c r="S186" t="n">
+        <v>11</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2435375</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>4</v>
+      </c>
+      <c r="N187" t="n">
+        <v>5</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['25', '61', '88', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>6</v>
+      </c>
+      <c r="R187" t="n">
+        <v>7</v>
+      </c>
+      <c r="S187" t="n">
+        <v>13</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3339,7 +3339,7 @@
         <v>1.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT19" t="n">
         <v>1.9</v>
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU37" t="n">
         <v>0.93</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT40" t="n">
         <v>1.6</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT56" t="n">
         <v>0.7</v>
@@ -12677,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU60" t="n">
         <v>2.28</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT67" t="n">
         <v>1.1</v>
@@ -14504,7 +14504,7 @@
         <v>1.56</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU69" t="n">
         <v>1.87</v>
@@ -18970,7 +18970,7 @@
         <v>1.4</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU91" t="n">
         <v>1.84</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT95" t="n">
         <v>1.3</v>
@@ -22624,7 +22624,7 @@
         <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU109" t="n">
         <v>1.61</v>
@@ -24448,7 +24448,7 @@
         <v>2.4</v>
       </c>
       <c r="AS118" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT118" t="n">
         <v>2.63</v>
@@ -25263,7 +25263,7 @@
         <v>1.3</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU122" t="n">
         <v>1.5</v>
@@ -28711,7 +28711,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT139" t="n">
         <v>1.5</v>
@@ -30944,7 +30944,7 @@
         <v>1.67</v>
       </c>
       <c r="AS150" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT150" t="n">
         <v>1.25</v>
@@ -38510,6 +38510,209 @@
       </c>
       <c r="BK187" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2435372</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>44935.66666666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>18</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>2</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['76', '88']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>6</v>
+      </c>
+      <c r="R188" t="n">
+        <v>7</v>
+      </c>
+      <c r="S188" t="n">
+        <v>13</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK188"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.8</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.11</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT16" t="n">
         <v>2.11</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT18" t="n">
         <v>0.78</v>
@@ -4760,7 +4760,7 @@
         <v>2.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT33" t="n">
         <v>0.7</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.85</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT36" t="n">
         <v>0.9</v>
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU37" t="n">
         <v>0.93</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>2.25</v>
@@ -8820,7 +8820,7 @@
         <v>2.78</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU41" t="n">
         <v>1.14</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>0.89</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT45" t="n">
         <v>1.3</v>
@@ -10444,7 +10444,7 @@
         <v>1.44</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU49" t="n">
         <v>0.96</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT52" t="n">
         <v>1.1</v>
@@ -11459,7 +11459,7 @@
         <v>1.11</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.16</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU57" t="n">
         <v>0.95</v>
@@ -12674,10 +12674,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU60" t="n">
         <v>2.28</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU61" t="n">
         <v>1.83</v>
@@ -13083,7 +13083,7 @@
         <v>1.3</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.41</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT66" t="n">
         <v>0.89</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT68" t="n">
         <v>1.9</v>
@@ -14504,7 +14504,7 @@
         <v>1.56</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU69" t="n">
         <v>1.87</v>
@@ -15113,7 +15113,7 @@
         <v>2.4</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.54</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT73" t="n">
         <v>0.9</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT74" t="n">
         <v>1.3</v>
@@ -16128,7 +16128,7 @@
         <v>1.2</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU77" t="n">
         <v>1.72</v>
@@ -16331,7 +16331,7 @@
         <v>1.11</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT82" t="n">
         <v>0.7</v>
@@ -17346,7 +17346,7 @@
         <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.83</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU86" t="n">
         <v>1.26</v>
@@ -18155,7 +18155,7 @@
         <v>0.75</v>
       </c>
       <c r="AS87" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT87" t="n">
         <v>1.1</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU91" t="n">
         <v>1.84</v>
@@ -19170,7 +19170,7 @@
         <v>2.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT92" t="n">
         <v>2.11</v>
@@ -19985,7 +19985,7 @@
         <v>1.11</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU96" t="n">
         <v>1.16</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT97" t="n">
         <v>1.5</v>
@@ -21000,7 +21000,7 @@
         <v>1.8</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU101" t="n">
         <v>2.07</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
         <v>1.1</v>
@@ -22215,7 +22215,7 @@
         <v>0.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT107" t="n">
         <v>0.7</v>
@@ -22421,7 +22421,7 @@
         <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU108" t="n">
         <v>1.24</v>
@@ -22624,7 +22624,7 @@
         <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU109" t="n">
         <v>1.61</v>
@@ -22827,7 +22827,7 @@
         <v>2.11</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.46</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT111" t="n">
         <v>1.6</v>
@@ -23230,7 +23230,7 @@
         <v>0.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT112" t="n">
         <v>0.89</v>
@@ -24045,7 +24045,7 @@
         <v>1.11</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU116" t="n">
         <v>1.2</v>
@@ -25263,7 +25263,7 @@
         <v>1.3</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU122" t="n">
         <v>1.5</v>
@@ -25669,7 +25669,7 @@
         <v>1.2</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.59</v>
@@ -26072,10 +26072,10 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU126" t="n">
         <v>1.8</v>
@@ -26275,7 +26275,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT127" t="n">
         <v>1.1</v>
@@ -26481,7 +26481,7 @@
         <v>2</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU128" t="n">
         <v>1.72</v>
@@ -26681,7 +26681,7 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT129" t="n">
         <v>0.7</v>
@@ -26884,7 +26884,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT130" t="n">
         <v>0.9</v>
@@ -28305,7 +28305,7 @@
         <v>1.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT137" t="n">
         <v>2.11</v>
@@ -28511,7 +28511,7 @@
         <v>1.11</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.27</v>
@@ -29323,7 +29323,7 @@
         <v>2.78</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU142" t="n">
         <v>1.91</v>
@@ -29523,7 +29523,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT143" t="n">
         <v>1.1</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT145" t="n">
         <v>1.1</v>
@@ -30335,7 +30335,7 @@
         <v>0.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT147" t="n">
         <v>0.7</v>
@@ -30947,7 +30947,7 @@
         <v>0.89</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU150" t="n">
         <v>1.4</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT151" t="n">
         <v>1.1</v>
@@ -31556,7 +31556,7 @@
         <v>1.8</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>1.89</v>
@@ -31959,7 +31959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT155" t="n">
         <v>0.89</v>
@@ -32368,7 +32368,7 @@
         <v>2.78</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU157" t="n">
         <v>1.97</v>
@@ -33180,7 +33180,7 @@
         <v>1.56</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU161" t="n">
         <v>1.75</v>
@@ -33383,7 +33383,7 @@
         <v>1.3</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU162" t="n">
         <v>1.47</v>
@@ -33583,7 +33583,7 @@
         <v>1.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT163" t="n">
         <v>1.9</v>
@@ -34395,7 +34395,7 @@
         <v>1.38</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT167" t="n">
         <v>1.5</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT168" t="n">
         <v>0.78</v>
@@ -35210,7 +35210,7 @@
         <v>1.44</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU171" t="n">
         <v>1.26</v>
@@ -35613,10 +35613,10 @@
         <v>0.75</v>
       </c>
       <c r="AS173" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU173" t="n">
         <v>1.9</v>
@@ -36019,7 +36019,7 @@
         <v>1.44</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT175" t="n">
         <v>1.6</v>
@@ -36222,7 +36222,7 @@
         <v>0.88</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT176" t="n">
         <v>0.78</v>
@@ -38661,7 +38661,7 @@
         <v>0.89</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU188" t="n">
         <v>1.61</v>
@@ -38713,6 +38713,1021 @@
       </c>
       <c r="BK188" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2435389</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44939.66666666666</v>
+      </c>
+      <c r="F189" t="n">
+        <v>20</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3</v>
+      </c>
+      <c r="R189" t="n">
+        <v>3</v>
+      </c>
+      <c r="S189" t="n">
+        <v>6</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2435388</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>44939.66666666666</v>
+      </c>
+      <c r="F190" t="n">
+        <v>20</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>8</v>
+      </c>
+      <c r="R190" t="n">
+        <v>1</v>
+      </c>
+      <c r="S190" t="n">
+        <v>9</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V190" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2435387</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44939.66666666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>20</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>2</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" t="n">
+        <v>4</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['28', '55']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['16', '56']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>2</v>
+      </c>
+      <c r="R191" t="n">
+        <v>3</v>
+      </c>
+      <c r="S191" t="n">
+        <v>5</v>
+      </c>
+      <c r="T191" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2435383</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44939.66666666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>3</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['10', '89']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>4</v>
+      </c>
+      <c r="R192" t="n">
+        <v>5</v>
+      </c>
+      <c r="S192" t="n">
+        <v>9</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V192" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2435385</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44939.66666666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Ajax II</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>3</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['26', '83', '90+2']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>18</v>
+      </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
+      <c r="S193" t="n">
+        <v>18</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V193" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>27</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>38</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT15" t="n">
         <v>0.8</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT38" t="n">
         <v>0.78</v>
@@ -8617,7 +8617,7 @@
         <v>0.89</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU40" t="n">
         <v>1.13</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU53" t="n">
         <v>1.72</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT59" t="n">
         <v>1.11</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.5</v>
@@ -16737,7 +16737,7 @@
         <v>1.11</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU80" t="n">
         <v>1.12</v>
@@ -17752,7 +17752,7 @@
         <v>2.4</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU85" t="n">
         <v>1.43</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT90" t="n">
         <v>1.1</v>
@@ -22824,7 +22824,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23030,7 +23030,7 @@
         <v>1.3</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU111" t="n">
         <v>1.34</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT123" t="n">
         <v>1.9</v>
@@ -27090,7 +27090,7 @@
         <v>1.3</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU131" t="n">
         <v>1.42</v>
@@ -30135,7 +30135,7 @@
         <v>1.3</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU146" t="n">
         <v>1.5</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT148" t="n">
         <v>0.9</v>
@@ -32977,7 +32977,7 @@
         <v>1.11</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU160" t="n">
         <v>1.27</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT165" t="n">
         <v>1.1</v>
@@ -36022,7 +36022,7 @@
         <v>1.55</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU175" t="n">
         <v>1.77</v>
@@ -39728,6 +39728,209 @@
       </c>
       <c r="BK193" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2435384</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>44941.34375</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>1</v>
+      </c>
+      <c r="R194" t="n">
+        <v>5</v>
+      </c>
+      <c r="S194" t="n">
+        <v>6</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V194" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK194"/>
+  <dimension ref="A1:BK195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT4" t="n">
         <v>1.1</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1.3</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU28" t="n">
         <v>1.38</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.11</v>
@@ -9429,7 +9429,7 @@
         <v>1.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU44" t="n">
         <v>1.65</v>
@@ -11659,7 +11659,7 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT55" t="n">
         <v>2.11</v>
@@ -13489,7 +13489,7 @@
         <v>1.8</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU64" t="n">
         <v>2.22</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT79" t="n">
         <v>0.7</v>
@@ -20391,7 +20391,7 @@
         <v>1.11</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU98" t="n">
         <v>1.15</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT100" t="n">
         <v>0.89</v>
@@ -23433,7 +23433,7 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT113" t="n">
         <v>1.5</v>
@@ -24451,7 +24451,7 @@
         <v>0.89</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU118" t="n">
         <v>1.49</v>
@@ -27293,7 +27293,7 @@
         <v>1.11</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT142" t="n">
         <v>1.1</v>
@@ -32365,7 +32365,7 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT157" t="n">
         <v>0.8</v>
@@ -32774,7 +32774,7 @@
         <v>1.4</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT177" t="n">
         <v>0.9</v>
@@ -39915,22 +39915,225 @@
         <v>2.7</v>
       </c>
       <c r="BF194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2435390</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>44941.4375</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>3</v>
+      </c>
+      <c r="K195" t="n">
+        <v>3</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>3</v>
+      </c>
+      <c r="N195" t="n">
+        <v>3</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['8', '35', '39']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
         <v>6</v>
       </c>
-      <c r="BG194" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH194" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI194" t="n">
+      <c r="R195" t="n">
+        <v>6</v>
+      </c>
+      <c r="S195" t="n">
+        <v>12</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X195" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI195" t="n">
         <v>5</v>
       </c>
-      <c r="BJ194" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK194" t="n">
-        <v>8</v>
+      <c r="BJ195" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK195"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>0.7</v>
@@ -3339,7 +3339,7 @@
         <v>1.3</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT17" t="n">
         <v>1.45</v>
@@ -4151,7 +4151,7 @@
         <v>1.2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT19" t="n">
         <v>1.9</v>
@@ -4557,7 +4557,7 @@
         <v>1.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
         <v>2.11</v>
@@ -7805,7 +7805,7 @@
         <v>1.55</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU36" t="n">
         <v>1.64</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU37" t="n">
         <v>0.93</v>
@@ -8211,7 +8211,7 @@
         <v>2.2</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU38" t="n">
         <v>1.19</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT40" t="n">
         <v>1.45</v>
@@ -10850,7 +10850,7 @@
         <v>1.8</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU51" t="n">
         <v>2.38</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT56" t="n">
         <v>0.7</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT57" t="n">
         <v>1.11</v>
@@ -12271,7 +12271,7 @@
         <v>1.11</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU58" t="n">
         <v>0.9</v>
@@ -12677,7 +12677,7 @@
         <v>1.2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU60" t="n">
         <v>2.28</v>
@@ -13692,7 +13692,7 @@
         <v>1.44</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU65" t="n">
         <v>1.2</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT67" t="n">
         <v>1.1</v>
@@ -14504,7 +14504,7 @@
         <v>1.56</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU69" t="n">
         <v>1.87</v>
@@ -15316,7 +15316,7 @@
         <v>1.3</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU73" t="n">
         <v>1.24</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT75" t="n">
         <v>1.1</v>
@@ -16734,7 +16734,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT80" t="n">
         <v>1.45</v>
@@ -18358,10 +18358,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU88" t="n">
         <v>1.34</v>
@@ -18970,7 +18970,7 @@
         <v>1.55</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU91" t="n">
         <v>1.84</v>
@@ -19579,7 +19579,7 @@
         <v>1.56</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU94" t="n">
         <v>1.95</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT95" t="n">
         <v>1.3</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
         <v>1.11</v>
@@ -21203,7 +21203,7 @@
         <v>1.3</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU102" t="n">
         <v>1.32</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT108" t="n">
         <v>0.8</v>
@@ -22624,7 +22624,7 @@
         <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU109" t="n">
         <v>1.61</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT114" t="n">
         <v>1.1</v>
@@ -24248,7 +24248,7 @@
         <v>2.4</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU117" t="n">
         <v>1.31</v>
@@ -24448,7 +24448,7 @@
         <v>2.4</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT118" t="n">
         <v>2.67</v>
@@ -25263,7 +25263,7 @@
         <v>1.3</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU122" t="n">
         <v>1.5</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT125" t="n">
         <v>1.1</v>
@@ -26887,7 +26887,7 @@
         <v>1.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU130" t="n">
         <v>1.36</v>
@@ -27290,7 +27290,7 @@
         <v>2.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT132" t="n">
         <v>2.67</v>
@@ -28711,7 +28711,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT139" t="n">
         <v>1.5</v>
@@ -30541,7 +30541,7 @@
         <v>2.2</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU148" t="n">
         <v>1.56</v>
@@ -30744,7 +30744,7 @@
         <v>1.3</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU149" t="n">
         <v>1.31</v>
@@ -30944,7 +30944,7 @@
         <v>1.67</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT150" t="n">
         <v>1.11</v>
@@ -31756,7 +31756,7 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT154" t="n">
         <v>1.11</v>
@@ -33786,10 +33786,10 @@
         <v>0.75</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU164" t="n">
         <v>1.33</v>
@@ -34601,7 +34601,7 @@
         <v>1.5</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU168" t="n">
         <v>1.43</v>
@@ -35816,7 +35816,7 @@
         <v>2</v>
       </c>
       <c r="AS174" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT174" t="n">
         <v>2.11</v>
@@ -36225,7 +36225,7 @@
         <v>1.3</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU176" t="n">
         <v>1.35</v>
@@ -36428,7 +36428,7 @@
         <v>2.5</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU177" t="n">
         <v>1.87</v>
@@ -36831,7 +36831,7 @@
         <v>1.25</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT179" t="n">
         <v>1.11</v>
@@ -38658,10 +38658,10 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU188" t="n">
         <v>1.61</v>
@@ -38864,7 +38864,7 @@
         <v>1.5</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU189" t="n">
         <v>1.43</v>
@@ -40134,6 +40134,615 @@
       </c>
       <c r="BK195" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2435338</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>44942.66666666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>15</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>3</v>
+      </c>
+      <c r="N196" t="n">
+        <v>4</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['31', '78', '84']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>6</v>
+      </c>
+      <c r="R196" t="n">
+        <v>7</v>
+      </c>
+      <c r="S196" t="n">
+        <v>13</v>
+      </c>
+      <c r="T196" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2435386</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>44942.66666666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>2</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="n">
+        <v>3</v>
+      </c>
+      <c r="L197" t="n">
+        <v>4</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>5</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['5', '21', '56', '90+3']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
+      <c r="R197" t="n">
+        <v>4</v>
+      </c>
+      <c r="S197" t="n">
+        <v>5</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V197" t="n">
+        <v>5</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2435391</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>44942.66666666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>5</v>
+      </c>
+      <c r="R198" t="n">
+        <v>3</v>
+      </c>
+      <c r="S198" t="n">
+        <v>8</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V198" t="n">
+        <v>4</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X198" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT6" t="n">
         <v>0.7</v>
@@ -2121,7 +2121,7 @@
         <v>1.56</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT15" t="n">
         <v>0.8</v>
@@ -3745,7 +3745,7 @@
         <v>1.55</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT26" t="n">
         <v>1.1</v>
@@ -6384,7 +6384,7 @@
         <v>1.3</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU29" t="n">
         <v>1.2</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7399,7 +7399,7 @@
         <v>1.56</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU34" t="n">
         <v>1.85</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU35" t="n">
         <v>1.28</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT38" t="n">
         <v>0.7</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU42" t="n">
         <v>1.01</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT44" t="n">
         <v>2.67</v>
@@ -11053,7 +11053,7 @@
         <v>1.56</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT53" t="n">
         <v>1.45</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>2.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU55" t="n">
         <v>2.1</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT59" t="n">
         <v>1.11</v>
@@ -12880,7 +12880,7 @@
         <v>1.55</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU61" t="n">
         <v>1.83</v>
@@ -13083,7 +13083,7 @@
         <v>1.3</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU62" t="n">
         <v>1.41</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT63" t="n">
         <v>1.5</v>
@@ -13895,7 +13895,7 @@
         <v>1.56</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU66" t="n">
         <v>1.63</v>
@@ -14707,7 +14707,7 @@
         <v>1.3</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.16</v>
@@ -14907,7 +14907,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT71" t="n">
         <v>1.1</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT77" t="n">
         <v>0.8</v>
@@ -16734,7 +16734,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT80" t="n">
         <v>1.45</v>
@@ -17343,7 +17343,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17549,7 +17549,7 @@
         <v>1.4</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU84" t="n">
         <v>1.43</v>
@@ -18158,7 +18158,7 @@
         <v>1.2</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>2.32</v>
@@ -18561,7 +18561,7 @@
         <v>2.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT89" t="n">
         <v>1.9</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT90" t="n">
         <v>1.1</v>
@@ -19173,7 +19173,7 @@
         <v>1.56</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU92" t="n">
         <v>1.7</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT96" t="n">
         <v>1.11</v>
@@ -20797,7 +20797,7 @@
         <v>2.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU100" t="n">
         <v>1.97</v>
@@ -21000,7 +21000,7 @@
         <v>1.8</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU101" t="n">
         <v>2.07</v>
@@ -21403,7 +21403,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT103" t="n">
         <v>1.9</v>
@@ -21812,7 +21812,7 @@
         <v>2.4</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU105" t="n">
         <v>1.38</v>
@@ -22621,7 +22621,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT109" t="n">
         <v>1.3</v>
@@ -22824,7 +22824,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23233,7 +23233,7 @@
         <v>1.2</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU112" t="n">
         <v>2.1</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT114" t="n">
         <v>1.1</v>
@@ -24045,7 +24045,7 @@
         <v>1.11</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU116" t="n">
         <v>1.2</v>
@@ -24857,7 +24857,7 @@
         <v>1.3</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU120" t="n">
         <v>1.41</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT123" t="n">
         <v>1.9</v>
@@ -25666,10 +25666,10 @@
         <v>1.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU124" t="n">
         <v>1.59</v>
@@ -25872,7 +25872,7 @@
         <v>2.1</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.17</v>
@@ -26478,7 +26478,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT128" t="n">
         <v>1.11</v>
@@ -27290,7 +27290,7 @@
         <v>2.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT132" t="n">
         <v>2.67</v>
@@ -28102,10 +28102,10 @@
         <v>0.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU136" t="n">
         <v>1.56</v>
@@ -28308,7 +28308,7 @@
         <v>1.2</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU137" t="n">
         <v>1.95</v>
@@ -29323,7 +29323,7 @@
         <v>2.5</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU142" t="n">
         <v>1.91</v>
@@ -29526,7 +29526,7 @@
         <v>1.55</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -29726,7 +29726,7 @@
         <v>1.57</v>
       </c>
       <c r="AS144" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT144" t="n">
         <v>1.5</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT148" t="n">
         <v>1.09</v>
@@ -31962,7 +31962,7 @@
         <v>1.3</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU155" t="n">
         <v>1.29</v>
@@ -32162,10 +32162,10 @@
         <v>1.86</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT156" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU156" t="n">
         <v>1.56</v>
@@ -33180,7 +33180,7 @@
         <v>1.56</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU161" t="n">
         <v>1.75</v>
@@ -33786,7 +33786,7 @@
         <v>0.75</v>
       </c>
       <c r="AS164" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT164" t="n">
         <v>1.09</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT165" t="n">
         <v>1.1</v>
@@ -34804,7 +34804,7 @@
         <v>1.8</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU169" t="n">
         <v>1.9</v>
@@ -35004,7 +35004,7 @@
         <v>0.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT170" t="n">
         <v>0.7</v>
@@ -35819,7 +35819,7 @@
         <v>2.1</v>
       </c>
       <c r="AT174" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU174" t="n">
         <v>1.2</v>
@@ -36631,7 +36631,7 @@
         <v>1.4</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU178" t="n">
         <v>1.47</v>
@@ -36831,7 +36831,7 @@
         <v>1.25</v>
       </c>
       <c r="AS179" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT179" t="n">
         <v>1.11</v>
@@ -37037,7 +37037,7 @@
         <v>2.4</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU180" t="n">
         <v>1.38</v>
@@ -37440,7 +37440,7 @@
         <v>1.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT182" t="n">
         <v>1.3</v>
@@ -38455,7 +38455,7 @@
         <v>0.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT187" t="n">
         <v>0.7</v>
@@ -39270,7 +39270,7 @@
         <v>1.3</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU191" t="n">
         <v>1.47</v>
@@ -39876,7 +39876,7 @@
         <v>1.6</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT194" t="n">
         <v>1.45</v>
@@ -40282,7 +40282,7 @@
         <v>1.11</v>
       </c>
       <c r="AS196" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT196" t="n">
         <v>1.3</v>
@@ -40743,6 +40743,818 @@
       </c>
       <c r="BK198" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2435397</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>44946.66666666666</v>
+      </c>
+      <c r="F199" t="n">
+        <v>21</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>2</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2</v>
+      </c>
+      <c r="N199" t="n">
+        <v>3</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['1', '36']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>4</v>
+      </c>
+      <c r="R199" t="n">
+        <v>9</v>
+      </c>
+      <c r="S199" t="n">
+        <v>13</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X199" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2435394</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>44946.66666666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>21</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>PSV II</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>7</v>
+      </c>
+      <c r="R200" t="n">
+        <v>3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>10</v>
+      </c>
+      <c r="T200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2435396</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>44946.66666666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>21</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['74', '79']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>6</v>
+      </c>
+      <c r="R201" t="n">
+        <v>5</v>
+      </c>
+      <c r="S201" t="n">
+        <v>11</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V201" t="n">
+        <v>5</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2435393</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>44946.66666666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>2</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>4</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['40', '65']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['2', '61']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>6</v>
+      </c>
+      <c r="R202" t="n">
+        <v>6</v>
+      </c>
+      <c r="S202" t="n">
+        <v>12</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK202"/>
+  <dimension ref="A1:BK204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT3" t="n">
         <v>1.1</v>
@@ -1715,7 +1715,7 @@
         <v>0.91</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.3</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT18" t="n">
         <v>0.7</v>
@@ -4963,7 +4963,7 @@
         <v>1.56</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.76</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU25" t="n">
         <v>0.9399999999999999</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -9226,7 +9226,7 @@
         <v>1.3</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU43" t="n">
         <v>0.85</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT58" t="n">
         <v>0.7</v>
@@ -12474,7 +12474,7 @@
         <v>2.09</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.33</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT60" t="n">
         <v>1.3</v>
@@ -15925,7 +15925,7 @@
         <v>1.4</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU76" t="n">
         <v>1.35</v>
@@ -16328,7 +16328,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT78" t="n">
         <v>1.11</v>
@@ -16940,7 +16940,7 @@
         <v>1.3</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU81" t="n">
         <v>1.16</v>
@@ -17143,7 +17143,7 @@
         <v>1.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU82" t="n">
         <v>1.23</v>
@@ -18155,7 +18155,7 @@
         <v>0.75</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT87" t="n">
         <v>1</v>
@@ -19376,7 +19376,7 @@
         <v>1.44</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.16</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT97" t="n">
         <v>1.5</v>
@@ -20388,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT98" t="n">
         <v>2.67</v>
@@ -22218,7 +22218,7 @@
         <v>1.55</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU107" t="n">
         <v>1.83</v>
@@ -23230,7 +23230,7 @@
         <v>0.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT112" t="n">
         <v>0.9</v>
@@ -24042,7 +24042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT116" t="n">
         <v>1.27</v>
@@ -25060,7 +25060,7 @@
         <v>1.8</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -26684,7 +26684,7 @@
         <v>1.56</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU129" t="n">
         <v>1.67</v>
@@ -27496,7 +27496,7 @@
         <v>1.4</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.51</v>
@@ -28305,7 +28305,7 @@
         <v>1.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT137" t="n">
         <v>1.9</v>
@@ -28508,7 +28508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT138" t="n">
         <v>1</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT151" t="n">
         <v>1.1</v>
@@ -31353,7 +31353,7 @@
         <v>1.44</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU152" t="n">
         <v>1.26</v>
@@ -31759,7 +31759,7 @@
         <v>2.1</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -32974,7 +32974,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT160" t="n">
         <v>1.45</v>
@@ -34195,7 +34195,7 @@
         <v>1.3</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU166" t="n">
         <v>1.43</v>
@@ -35613,7 +35613,7 @@
         <v>0.75</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT173" t="n">
         <v>0.8</v>
@@ -36834,7 +36834,7 @@
         <v>0.91</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU179" t="n">
         <v>1.25</v>
@@ -37643,7 +37643,7 @@
         <v>0.89</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT183" t="n">
         <v>1.1</v>
@@ -38458,7 +38458,7 @@
         <v>1.36</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU187" t="n">
         <v>1.47</v>
@@ -39470,7 +39470,7 @@
         <v>1.25</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT192" t="n">
         <v>1.11</v>
@@ -41555,6 +41555,412 @@
       </c>
       <c r="BK202" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2435399</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>44947.52083333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>9</v>
+      </c>
+      <c r="R203" t="n">
+        <v>3</v>
+      </c>
+      <c r="S203" t="n">
+        <v>12</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2435400</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>44948.34375</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>2</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>5</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2</v>
+      </c>
+      <c r="S204" t="n">
+        <v>7</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X204" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK204"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT10" t="n">
         <v>1.1</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT12" t="n">
         <v>2.67</v>
@@ -3745,7 +3745,7 @@
         <v>1.55</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT20" t="n">
         <v>1.09</v>
@@ -5775,7 +5775,7 @@
         <v>1.36</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU26" t="n">
         <v>1.76</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT29" t="n">
         <v>0.9</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT30" t="n">
         <v>1.3</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT31" t="n">
         <v>1.9</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU33" t="n">
         <v>1.13</v>
@@ -7602,7 +7602,7 @@
         <v>0.91</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.28</v>
@@ -8820,7 +8820,7 @@
         <v>2.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.14</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT42" t="n">
         <v>0.9</v>
@@ -10241,7 +10241,7 @@
         <v>2.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU48" t="n">
         <v>1.69</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT49" t="n">
         <v>0.8</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT50" t="n">
         <v>1.9</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT51" t="n">
         <v>1.09</v>
@@ -11662,7 +11662,7 @@
         <v>2.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU55" t="n">
         <v>2.1</v>
@@ -11865,7 +11865,7 @@
         <v>0.8</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU56" t="n">
         <v>1.31</v>
@@ -12068,7 +12068,7 @@
         <v>2.1</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>0.95</v>
@@ -13080,7 +13080,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT62" t="n">
         <v>1.27</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT64" t="n">
         <v>2.67</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT65" t="n">
         <v>0.7</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT68" t="n">
         <v>1.9</v>
@@ -15722,7 +15722,7 @@
         <v>2.1</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU75" t="n">
         <v>1.31</v>
@@ -16331,7 +16331,7 @@
         <v>1.1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16534,7 +16534,7 @@
         <v>2.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU79" t="n">
         <v>2</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT82" t="n">
         <v>0.73</v>
@@ -17549,7 +17549,7 @@
         <v>1.4</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU84" t="n">
         <v>1.43</v>
@@ -18767,7 +18767,7 @@
         <v>2.09</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU90" t="n">
         <v>1.58</v>
@@ -19173,7 +19173,7 @@
         <v>1.56</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU92" t="n">
         <v>1.7</v>
@@ -19373,7 +19373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT93" t="n">
         <v>1.1</v>
@@ -19985,7 +19985,7 @@
         <v>0.91</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.16</v>
@@ -20591,10 +20591,10 @@
         <v>0</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT101" t="n">
         <v>1.27</v>
@@ -22012,10 +22012,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU106" t="n">
         <v>1.35</v>
@@ -23639,7 +23639,7 @@
         <v>0.91</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU114" t="n">
         <v>1.33</v>
@@ -24651,10 +24651,10 @@
         <v>0.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU119" t="n">
         <v>1.2</v>
@@ -24854,10 +24854,10 @@
         <v>1.8</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU120" t="n">
         <v>1.41</v>
@@ -25057,7 +25057,7 @@
         <v>1.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT121" t="n">
         <v>1.1</v>
@@ -26481,7 +26481,7 @@
         <v>2.09</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.72</v>
@@ -26884,7 +26884,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT130" t="n">
         <v>1.09</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT131" t="n">
         <v>1.45</v>
@@ -27699,7 +27699,7 @@
         <v>2.4</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU134" t="n">
         <v>1.46</v>
@@ -28308,7 +28308,7 @@
         <v>1.18</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU137" t="n">
         <v>1.95</v>
@@ -28914,7 +28914,7 @@
         <v>1.17</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT140" t="n">
         <v>1.3</v>
@@ -29117,10 +29117,10 @@
         <v>1.14</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU141" t="n">
         <v>1.92</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT145" t="n">
         <v>1.1</v>
@@ -30338,7 +30338,7 @@
         <v>1.56</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU147" t="n">
         <v>1.75</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT149" t="n">
         <v>0.7</v>
@@ -30947,7 +30947,7 @@
         <v>0.8</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.4</v>
@@ -31150,7 +31150,7 @@
         <v>1.18</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU151" t="n">
         <v>1.95</v>
@@ -31350,7 +31350,7 @@
         <v>0.14</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT152" t="n">
         <v>0.73</v>
@@ -31553,7 +31553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT153" t="n">
         <v>1</v>
@@ -32165,7 +32165,7 @@
         <v>1.36</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU156" t="n">
         <v>1.56</v>
@@ -33383,7 +33383,7 @@
         <v>1.3</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU162" t="n">
         <v>1.47</v>
@@ -34192,7 +34192,7 @@
         <v>0.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT166" t="n">
         <v>0.73</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT168" t="n">
         <v>0.7</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT169" t="n">
         <v>1</v>
@@ -35007,7 +35007,7 @@
         <v>2.09</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU170" t="n">
         <v>1.75</v>
@@ -35207,7 +35207,7 @@
         <v>1.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT171" t="n">
         <v>1</v>
@@ -35819,7 +35819,7 @@
         <v>2.1</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU174" t="n">
         <v>1.2</v>
@@ -37240,7 +37240,7 @@
         <v>1.3</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU181" t="n">
         <v>1.37</v>
@@ -37849,7 +37849,7 @@
         <v>1.56</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU184" t="n">
         <v>1.78</v>
@@ -38049,7 +38049,7 @@
         <v>2</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT185" t="n">
         <v>1.9</v>
@@ -38252,7 +38252,7 @@
         <v>1.56</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT186" t="n">
         <v>1.5</v>
@@ -38861,7 +38861,7 @@
         <v>1.25</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT189" t="n">
         <v>1.3</v>
@@ -39473,7 +39473,7 @@
         <v>1.18</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU192" t="n">
         <v>1.86</v>
@@ -40344,7 +40344,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>2435386</v>
+        <v>2435391</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -40364,59 +40364,59 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
         <v>1</v>
       </c>
       <c r="K197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>5</v>
+      </c>
+      <c r="R197" t="n">
+        <v>3</v>
+      </c>
+      <c r="S197" t="n">
+        <v>8</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V197" t="n">
         <v>4</v>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="n">
-        <v>5</v>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>['5', '21', '56', '90+3']</t>
-        </is>
-      </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>['35']</t>
-        </is>
-      </c>
-      <c r="Q197" t="n">
-        <v>1</v>
-      </c>
-      <c r="R197" t="n">
-        <v>4</v>
-      </c>
-      <c r="S197" t="n">
-        <v>5</v>
-      </c>
-      <c r="T197" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U197" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V197" t="n">
-        <v>5</v>
       </c>
       <c r="W197" t="n">
         <v>1.33</v>
@@ -40437,76 +40437,76 @@
         <v>1.11</v>
       </c>
       <c r="AC197" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL197" t="n">
         <v>1.62</v>
       </c>
-      <c r="AD197" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="AE197" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AF197" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG197" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH197" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI197" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ197" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK197" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AL197" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AM197" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AN197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV197" t="n">
         <v>1.12</v>
       </c>
-      <c r="AO197" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP197" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AQ197" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR197" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AS197" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AT197" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AU197" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AV197" t="n">
-        <v>1.23</v>
-      </c>
       <c r="AW197" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="AX197" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AY197" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AZ197" t="n">
-        <v>3.26</v>
+        <v>3.03</v>
       </c>
       <c r="BA197" t="n">
         <v>1.27</v>
@@ -40524,22 +40524,22 @@
         <v>3.4</v>
       </c>
       <c r="BF197" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK197" t="n">
         <v>4</v>
-      </c>
-      <c r="BI197" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ197" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK197" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -40547,7 +40547,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>2435391</v>
+        <v>2435386</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -40567,59 +40567,59 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="n">
         <v>1</v>
       </c>
       <c r="K198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L198" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
       <c r="N198" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5', '21', '56', '90+3']</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>['4']</t>
+          <t>['35']</t>
         </is>
       </c>
       <c r="Q198" t="n">
+        <v>1</v>
+      </c>
+      <c r="R198" t="n">
+        <v>4</v>
+      </c>
+      <c r="S198" t="n">
         <v>5</v>
       </c>
-      <c r="R198" t="n">
-        <v>3</v>
-      </c>
-      <c r="S198" t="n">
-        <v>8</v>
-      </c>
       <c r="T198" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="U198" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V198" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W198" t="n">
         <v>1.33</v>
@@ -40640,76 +40640,76 @@
         <v>1.11</v>
       </c>
       <c r="AC198" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="AD198" t="n">
-        <v>4.01</v>
+        <v>3.78</v>
       </c>
       <c r="AE198" t="n">
-        <v>3.72</v>
+        <v>4.75</v>
       </c>
       <c r="AF198" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AG198" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH198" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO198" t="n">
         <v>1.22</v>
       </c>
-      <c r="AI198" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AJ198" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AK198" t="n">
+      <c r="AP198" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS198" t="n">
         <v>2.1</v>
       </c>
-      <c r="AL198" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM198" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN198" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO198" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP198" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AQ198" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AR198" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AS198" t="n">
-        <v>0.8</v>
-      </c>
       <c r="AT198" t="n">
-        <v>1.09</v>
+        <v>0.7</v>
       </c>
       <c r="AU198" t="n">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="AV198" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AW198" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="AX198" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AY198" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AZ198" t="n">
-        <v>3.03</v>
+        <v>3.26</v>
       </c>
       <c r="BA198" t="n">
         <v>1.27</v>
@@ -40727,22 +40727,22 @@
         <v>3.4</v>
       </c>
       <c r="BF198" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH198" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI198" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ198" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK198" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
@@ -40750,7 +40750,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>2435397</v>
+        <v>2435393</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -40770,182 +40770,182 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K199" t="n">
         <v>2</v>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M199" t="n">
         <v>2</v>
       </c>
       <c r="N199" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['40', '65']</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>['1', '36']</t>
+          <t>['2', '61']</t>
         </is>
       </c>
       <c r="Q199" t="n">
+        <v>6</v>
+      </c>
+      <c r="R199" t="n">
+        <v>6</v>
+      </c>
+      <c r="S199" t="n">
+        <v>12</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI199" t="n">
         <v>4</v>
       </c>
-      <c r="R199" t="n">
-        <v>9</v>
-      </c>
-      <c r="S199" t="n">
-        <v>13</v>
-      </c>
-      <c r="T199" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U199" t="n">
+      <c r="AJ199" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ199" t="n">
         <v>2.2</v>
       </c>
-      <c r="V199" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="W199" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X199" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y199" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Z199" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA199" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB199" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC199" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AD199" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE199" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AF199" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG199" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH199" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI199" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ199" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AK199" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL199" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM199" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN199" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AO199" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP199" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AQ199" t="n">
-        <v>1</v>
-      </c>
       <c r="AR199" t="n">
-        <v>1.1</v>
+        <v>0.89</v>
       </c>
       <c r="AS199" t="n">
-        <v>0.91</v>
+        <v>2.09</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AU199" t="n">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="AV199" t="n">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AW199" t="n">
-        <v>2.42</v>
+        <v>3.03</v>
       </c>
       <c r="AX199" t="n">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="AY199" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AZ199" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="BA199" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="BB199" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="BC199" t="n">
-        <v>1.92</v>
+        <v>1.61</v>
       </c>
       <c r="BD199" t="n">
-        <v>2.55</v>
+        <v>2.02</v>
       </c>
       <c r="BE199" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="BF199" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG199" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BH199" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BI199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ199" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BK199" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200">
@@ -41300,7 +41300,7 @@
         <v>2.09</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU201" t="n">
         <v>1.87</v>
@@ -41359,7 +41359,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>2435393</v>
+        <v>2435397</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -41379,182 +41379,182 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K202" t="n">
         <v>2</v>
       </c>
       <c r="L202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M202" t="n">
         <v>2</v>
       </c>
       <c r="N202" t="n">
+        <v>3</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['1', '36']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
         <v>4</v>
       </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>['40', '65']</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>['2', '61']</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>6</v>
-      </c>
       <c r="R202" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S202" t="n">
+        <v>13</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V202" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X202" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG202" t="n">
         <v>12</v>
       </c>
-      <c r="T202" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U202" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V202" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W202" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X202" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y202" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z202" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA202" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB202" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC202" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AD202" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE202" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AF202" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG202" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH202" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI202" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ202" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK202" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AL202" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM202" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AN202" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO202" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP202" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AQ202" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AR202" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AS202" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AT202" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AU202" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AV202" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AW202" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AX202" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AY202" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AZ202" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA202" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB202" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BC202" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="BD202" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="BE202" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BF202" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG202" t="n">
-        <v>6</v>
-      </c>
       <c r="BH202" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BI202" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ202" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BK202" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203">
@@ -41961,6 +41961,818 @@
       </c>
       <c r="BK204" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2435402</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>44949.66666666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>2</v>
+      </c>
+      <c r="R205" t="n">
+        <v>7</v>
+      </c>
+      <c r="S205" t="n">
+        <v>9</v>
+      </c>
+      <c r="T205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2435401</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>44949.66666666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Ajax II</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2</v>
+      </c>
+      <c r="K206" t="n">
+        <v>3</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['41', '45+3']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>3</v>
+      </c>
+      <c r="R206" t="n">
+        <v>5</v>
+      </c>
+      <c r="S206" t="n">
+        <v>8</v>
+      </c>
+      <c r="T206" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V206" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2435392</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>44949.66666666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>20</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>PSV II</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['61', '90']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>3</v>
+      </c>
+      <c r="R207" t="n">
+        <v>4</v>
+      </c>
+      <c r="S207" t="n">
+        <v>7</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2435371</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>44950.66666666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>18</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>3</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>4</v>
+      </c>
+      <c r="L208" t="n">
+        <v>5</v>
+      </c>
+      <c r="M208" t="n">
+        <v>3</v>
+      </c>
+      <c r="N208" t="n">
+        <v>8</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['20', '28', '34', '49', '87']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['24', '56', '60']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>9</v>
+      </c>
+      <c r="R208" t="n">
+        <v>3</v>
+      </c>
+      <c r="S208" t="n">
+        <v>12</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V208" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -42634,13 +42634,13 @@
         </is>
       </c>
       <c r="Q208" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R208" t="n">
         <v>3</v>
       </c>
       <c r="S208" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T208" t="n">
         <v>2.2</v>
@@ -42760,19 +42760,19 @@
         <v>9</v>
       </c>
       <c r="BG208" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH208" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BI208" t="n">
         <v>6</v>
       </c>
       <c r="BJ208" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BK208" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -1309,7 +1309,7 @@
         <v>2.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT5" t="n">
         <v>0.73</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT9" t="n">
         <v>0.9</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
         <v>2.67</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.09</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT17" t="n">
         <v>1.45</v>
@@ -4354,7 +4354,7 @@
         <v>0.8</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.3</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -5369,7 +5369,7 @@
         <v>2.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT26" t="n">
         <v>1.27</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT28" t="n">
         <v>2.67</v>
@@ -6587,7 +6587,7 @@
         <v>1.73</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU30" t="n">
         <v>2.32</v>
@@ -6790,7 +6790,7 @@
         <v>1.3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU31" t="n">
         <v>1.4</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT33" t="n">
         <v>0.73</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT34" t="n">
         <v>1.27</v>
@@ -7805,7 +7805,7 @@
         <v>1.55</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.64</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU37" t="n">
         <v>0.93</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>0.9</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT43" t="n">
         <v>0.73</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT44" t="n">
         <v>2.67</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU45" t="n">
         <v>1.28</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT46" t="n">
         <v>1.5</v>
@@ -10038,7 +10038,7 @@
         <v>1.56</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU47" t="n">
         <v>1.64</v>
@@ -10444,7 +10444,7 @@
         <v>1.3</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU49" t="n">
         <v>0.96</v>
@@ -10647,7 +10647,7 @@
         <v>1.18</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU50" t="n">
         <v>1.33</v>
@@ -10850,7 +10850,7 @@
         <v>1.73</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>2.38</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT53" t="n">
         <v>1.45</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>1.18</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU60" t="n">
         <v>2.28</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT66" t="n">
         <v>0.9</v>
@@ -14098,7 +14098,7 @@
         <v>0.8</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU67" t="n">
         <v>1.27</v>
@@ -14298,10 +14298,10 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU68" t="n">
         <v>1.12</v>
@@ -14504,7 +14504,7 @@
         <v>1.56</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU69" t="n">
         <v>1.87</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -14907,10 +14907,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU71" t="n">
         <v>1.81</v>
@@ -15313,10 +15313,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.24</v>
@@ -15519,7 +15519,7 @@
         <v>1.55</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU74" t="n">
         <v>2.01</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT75" t="n">
         <v>1.27</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT76" t="n">
         <v>0.73</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU77" t="n">
         <v>1.72</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT81" t="n">
         <v>1.1</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT82" t="n">
         <v>0.73</v>
@@ -17343,7 +17343,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT84" t="n">
         <v>2</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU86" t="n">
         <v>1.26</v>
@@ -18358,10 +18358,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.34</v>
@@ -18561,10 +18561,10 @@
         <v>2.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU89" t="n">
         <v>1.72</v>
@@ -18970,7 +18970,7 @@
         <v>1.55</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU91" t="n">
         <v>1.84</v>
@@ -19170,7 +19170,7 @@
         <v>2.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT92" t="n">
         <v>2</v>
@@ -19782,7 +19782,7 @@
         <v>0.8</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU95" t="n">
         <v>1.44</v>
@@ -21200,10 +21200,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.32</v>
@@ -21403,10 +21403,10 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU103" t="n">
         <v>1.76</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
         <v>1.27</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU108" t="n">
         <v>1.24</v>
@@ -22621,10 +22621,10 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU109" t="n">
         <v>1.61</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT111" t="n">
         <v>1.45</v>
@@ -23842,7 +23842,7 @@
         <v>1.56</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU115" t="n">
         <v>1.81</v>
@@ -25260,10 +25260,10 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU122" t="n">
         <v>1.5</v>
@@ -25466,7 +25466,7 @@
         <v>2.09</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU123" t="n">
         <v>1.52</v>
@@ -25666,7 +25666,7 @@
         <v>1.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT124" t="n">
         <v>1.27</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26075,7 +26075,7 @@
         <v>1.55</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU126" t="n">
         <v>1.8</v>
@@ -26275,10 +26275,10 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26478,7 +26478,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26681,7 +26681,7 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT129" t="n">
         <v>0.73</v>
@@ -26884,10 +26884,10 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.36</v>
@@ -27493,7 +27493,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT133" t="n">
         <v>1.1</v>
@@ -27902,7 +27902,7 @@
         <v>1.56</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU135" t="n">
         <v>1.75</v>
@@ -28102,7 +28102,7 @@
         <v>0.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT136" t="n">
         <v>0.9</v>
@@ -28917,7 +28917,7 @@
         <v>1.3</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU140" t="n">
         <v>1.3</v>
@@ -29726,7 +29726,7 @@
         <v>1.57</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT144" t="n">
         <v>1.5</v>
@@ -29929,10 +29929,10 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU145" t="n">
         <v>1.37</v>
@@ -30132,7 +30132,7 @@
         <v>1.57</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT146" t="n">
         <v>1.45</v>
@@ -30335,7 +30335,7 @@
         <v>0.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT147" t="n">
         <v>0.73</v>
@@ -30541,7 +30541,7 @@
         <v>2.09</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.56</v>
@@ -31756,7 +31756,7 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT154" t="n">
         <v>1.1</v>
@@ -31959,7 +31959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT155" t="n">
         <v>0.9</v>
@@ -32162,7 +32162,7 @@
         <v>1.86</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT156" t="n">
         <v>2</v>
@@ -32368,7 +32368,7 @@
         <v>2.5</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU157" t="n">
         <v>1.97</v>
@@ -32571,7 +32571,7 @@
         <v>2.4</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU158" t="n">
         <v>1.46</v>
@@ -32771,7 +32771,7 @@
         <v>2.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT159" t="n">
         <v>2.67</v>
@@ -33380,7 +33380,7 @@
         <v>1.43</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT162" t="n">
         <v>1</v>
@@ -33583,10 +33583,10 @@
         <v>1.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU163" t="n">
         <v>1.75</v>
@@ -33789,7 +33789,7 @@
         <v>0.91</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU164" t="n">
         <v>1.33</v>
@@ -33992,7 +33992,7 @@
         <v>2.09</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU165" t="n">
         <v>1.55</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT168" t="n">
         <v>0.7</v>
@@ -35004,7 +35004,7 @@
         <v>0.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT170" t="n">
         <v>0.73</v>
@@ -35410,10 +35410,10 @@
         <v>1.25</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU172" t="n">
         <v>1.46</v>
@@ -35616,7 +35616,7 @@
         <v>1.18</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU173" t="n">
         <v>1.9</v>
@@ -35816,7 +35816,7 @@
         <v>2</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT174" t="n">
         <v>2</v>
@@ -36222,7 +36222,7 @@
         <v>0.88</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT176" t="n">
         <v>0.7</v>
@@ -36428,7 +36428,7 @@
         <v>2.5</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU177" t="n">
         <v>1.87</v>
@@ -36628,7 +36628,7 @@
         <v>1.22</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT178" t="n">
         <v>1</v>
@@ -37237,7 +37237,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT181" t="n">
         <v>0.73</v>
@@ -37440,10 +37440,10 @@
         <v>1.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU182" t="n">
         <v>1.84</v>
@@ -37646,7 +37646,7 @@
         <v>1.1</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU183" t="n">
         <v>1.31</v>
@@ -38052,7 +38052,7 @@
         <v>1.73</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU185" t="n">
         <v>1.97</v>
@@ -38455,7 +38455,7 @@
         <v>0.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT187" t="n">
         <v>0.73</v>
@@ -38661,7 +38661,7 @@
         <v>0.8</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU188" t="n">
         <v>1.61</v>
@@ -38861,10 +38861,10 @@
         <v>1.25</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU189" t="n">
         <v>1.43</v>
@@ -39064,10 +39064,10 @@
         <v>0.78</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU190" t="n">
         <v>1.6</v>
@@ -39267,7 +39267,7 @@
         <v>1.11</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT191" t="n">
         <v>1.27</v>
@@ -40285,7 +40285,7 @@
         <v>0.91</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU196" t="n">
         <v>1.21</v>
@@ -40488,7 +40488,7 @@
         <v>0.8</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU197" t="n">
         <v>1.54</v>
@@ -40688,7 +40688,7 @@
         <v>0.78</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT198" t="n">
         <v>0.7</v>
@@ -41094,7 +41094,7 @@
         <v>1.1</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT200" t="n">
         <v>1</v>
@@ -41297,7 +41297,7 @@
         <v>2.11</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT201" t="n">
         <v>2</v>
@@ -42718,7 +42718,7 @@
         <v>1.11</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT208" t="n">
         <v>1</v>
@@ -42773,6 +42773,1630 @@
       </c>
       <c r="BK208" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2435409</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>44953.66666666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>22</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>4</v>
+      </c>
+      <c r="R209" t="n">
+        <v>5</v>
+      </c>
+      <c r="S209" t="n">
+        <v>9</v>
+      </c>
+      <c r="T209" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X209" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2435407</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>44953.66666666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>22</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>4</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>5</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['29', '75', '80', '85']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>4</v>
+      </c>
+      <c r="R210" t="n">
+        <v>1</v>
+      </c>
+      <c r="S210" t="n">
+        <v>5</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U210" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="V210" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X210" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2435410</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>44953.66666666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>22</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>6</v>
+      </c>
+      <c r="R211" t="n">
+        <v>4</v>
+      </c>
+      <c r="S211" t="n">
+        <v>10</v>
+      </c>
+      <c r="T211" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2435408</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>44953.66666666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>22</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>7</v>
+      </c>
+      <c r="R212" t="n">
+        <v>3</v>
+      </c>
+      <c r="S212" t="n">
+        <v>10</v>
+      </c>
+      <c r="T212" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V212" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2435406</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>44953.66666666666</v>
+      </c>
+      <c r="F213" t="n">
+        <v>22</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>5</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="n">
+        <v>6</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['11', '48', '61', '67', '89']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>7</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2</v>
+      </c>
+      <c r="S213" t="n">
+        <v>9</v>
+      </c>
+      <c r="T213" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2435403</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>44953.66666666666</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>3</v>
+      </c>
+      <c r="L214" t="n">
+        <v>3</v>
+      </c>
+      <c r="M214" t="n">
+        <v>3</v>
+      </c>
+      <c r="N214" t="n">
+        <v>6</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['15', '45+4', '56']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['27', '89', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>3</v>
+      </c>
+      <c r="R214" t="n">
+        <v>5</v>
+      </c>
+      <c r="S214" t="n">
+        <v>8</v>
+      </c>
+      <c r="T214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X214" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2435404</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>44953.66666666666</v>
+      </c>
+      <c r="F215" t="n">
+        <v>22</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>2</v>
+      </c>
+      <c r="R215" t="n">
+        <v>11</v>
+      </c>
+      <c r="S215" t="n">
+        <v>13</v>
+      </c>
+      <c r="T215" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X215" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2435405</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>44953.66666666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>22</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Ajax II</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>6</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2</v>
+      </c>
+      <c r="S216" t="n">
+        <v>8</v>
+      </c>
+      <c r="T216" t="n">
+        <v>3</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V216" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X216" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK216"/>
+  <dimension ref="A1:BK219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>2.17</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>2.18</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT19" t="n">
         <v>1.73</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>1.27</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU28" t="n">
         <v>1.38</v>
@@ -6384,7 +6384,7 @@
         <v>1.18</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU29" t="n">
         <v>1.2</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT31" t="n">
         <v>1.73</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT34" t="n">
         <v>1.27</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU40" t="n">
         <v>1.13</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU42" t="n">
         <v>1.01</v>
@@ -9429,7 +9429,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU44" t="n">
         <v>1.65</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT49" t="n">
         <v>0.73</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11256,7 +11256,7 @@
         <v>2.17</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU53" t="n">
         <v>1.72</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT56" t="n">
         <v>0.73</v>
@@ -13489,7 +13489,7 @@
         <v>1.73</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU64" t="n">
         <v>2.22</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT65" t="n">
         <v>0.7</v>
@@ -13892,10 +13892,10 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU66" t="n">
         <v>1.63</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT67" t="n">
         <v>1.09</v>
@@ -16737,7 +16737,7 @@
         <v>0.91</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.12</v>
@@ -17752,7 +17752,7 @@
         <v>2.4</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU85" t="n">
         <v>1.43</v>
@@ -19170,7 +19170,7 @@
         <v>2.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT92" t="n">
         <v>2</v>
@@ -19373,7 +19373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT93" t="n">
         <v>1.1</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT95" t="n">
         <v>1.45</v>
@@ -20391,7 +20391,7 @@
         <v>1.1</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU98" t="n">
         <v>1.15</v>
@@ -20797,7 +20797,7 @@
         <v>2.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU100" t="n">
         <v>1.97</v>
@@ -23030,7 +23030,7 @@
         <v>1.27</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU111" t="n">
         <v>1.34</v>
@@ -23233,7 +23233,7 @@
         <v>1.18</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU112" t="n">
         <v>2.1</v>
@@ -24448,10 +24448,10 @@
         <v>2.4</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU118" t="n">
         <v>1.49</v>
@@ -24651,7 +24651,7 @@
         <v>0.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT119" t="n">
         <v>0.73</v>
@@ -26681,7 +26681,7 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT129" t="n">
         <v>0.73</v>
@@ -27090,7 +27090,7 @@
         <v>1.18</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU131" t="n">
         <v>1.42</v>
@@ -27293,7 +27293,7 @@
         <v>0.91</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -28105,7 +28105,7 @@
         <v>1.33</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU136" t="n">
         <v>1.56</v>
@@ -28711,7 +28711,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT139" t="n">
         <v>1.5</v>
@@ -28914,7 +28914,7 @@
         <v>1.17</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT140" t="n">
         <v>1.45</v>
@@ -30135,7 +30135,7 @@
         <v>1.27</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU146" t="n">
         <v>1.5</v>
@@ -30335,7 +30335,7 @@
         <v>0.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT147" t="n">
         <v>0.73</v>
@@ -30944,7 +30944,7 @@
         <v>1.67</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -31350,7 +31350,7 @@
         <v>0.14</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT152" t="n">
         <v>0.73</v>
@@ -31962,7 +31962,7 @@
         <v>1.27</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU155" t="n">
         <v>1.29</v>
@@ -32774,7 +32774,7 @@
         <v>1.55</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -32977,7 +32977,7 @@
         <v>1.1</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU160" t="n">
         <v>1.27</v>
@@ -33583,7 +33583,7 @@
         <v>1.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT163" t="n">
         <v>1.73</v>
@@ -35207,7 +35207,7 @@
         <v>1.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT171" t="n">
         <v>1</v>
@@ -36022,7 +36022,7 @@
         <v>1.55</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU175" t="n">
         <v>1.77</v>
@@ -37037,7 +37037,7 @@
         <v>2.4</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU180" t="n">
         <v>1.38</v>
@@ -38658,7 +38658,7 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT188" t="n">
         <v>1.18</v>
@@ -39064,7 +39064,7 @@
         <v>0.78</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT190" t="n">
         <v>0.73</v>
@@ -39879,7 +39879,7 @@
         <v>2.09</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU194" t="n">
         <v>1.53</v>
@@ -40082,7 +40082,7 @@
         <v>2.5</v>
       </c>
       <c r="AT195" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU195" t="n">
         <v>1.84</v>
@@ -40485,7 +40485,7 @@
         <v>0.9</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -40894,7 +40894,7 @@
         <v>2.09</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU199" t="n">
         <v>1.56</v>
@@ -42515,7 +42515,7 @@
         <v>1.9</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT207" t="n">
         <v>2</v>
@@ -43530,7 +43530,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT212" t="n">
         <v>1</v>
@@ -44397,6 +44397,615 @@
       </c>
       <c r="BK216" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2435370</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>44956.66666666666</v>
+      </c>
+      <c r="F217" t="n">
+        <v>18</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>2</v>
+      </c>
+      <c r="K217" t="n">
+        <v>2</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>2</v>
+      </c>
+      <c r="N217" t="n">
+        <v>3</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['32', '37']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>3</v>
+      </c>
+      <c r="R217" t="n">
+        <v>6</v>
+      </c>
+      <c r="S217" t="n">
+        <v>9</v>
+      </c>
+      <c r="T217" t="n">
+        <v>3</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X217" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2435411</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>44956.66666666666</v>
+      </c>
+      <c r="F218" t="n">
+        <v>22</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>PSV II</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>3</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2</v>
+      </c>
+      <c r="N218" t="n">
+        <v>5</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['71', '85', '90+4']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['3', '88']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>2</v>
+      </c>
+      <c r="R218" t="n">
+        <v>3</v>
+      </c>
+      <c r="S218" t="n">
+        <v>5</v>
+      </c>
+      <c r="T218" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V218" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X218" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2435412</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>44956.66666666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>22</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>3</v>
+      </c>
+      <c r="R219" t="n">
+        <v>7</v>
+      </c>
+      <c r="S219" t="n">
+        <v>10</v>
+      </c>
+      <c r="T219" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V219" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X219" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK219"/>
+  <dimension ref="A1:BK227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT3" t="n">
         <v>1.27</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT4" t="n">
         <v>1.09</v>
@@ -1512,7 +1512,7 @@
         <v>1.55</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.18</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT15" t="n">
         <v>0.73</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU22" t="n">
         <v>1.76</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU25" t="n">
         <v>0.9399999999999999</v>
@@ -5978,7 +5978,7 @@
         <v>1.27</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU27" t="n">
         <v>1.93</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT30" t="n">
         <v>1.45</v>
@@ -6993,7 +6993,7 @@
         <v>2.17</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7196,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.13</v>
@@ -7399,7 +7399,7 @@
         <v>1.55</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU34" t="n">
         <v>1.85</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU35" t="n">
         <v>1.28</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8208,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU38" t="n">
         <v>1.19</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9226,7 +9226,7 @@
         <v>1.27</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU43" t="n">
         <v>0.85</v>
@@ -9835,7 +9835,7 @@
         <v>1.55</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU46" t="n">
         <v>1.41</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT47" t="n">
         <v>1.09</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT51" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>1.55</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11659,10 +11659,10 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT55" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU55" t="n">
         <v>2.1</v>
@@ -11865,7 +11865,7 @@
         <v>0.82</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU56" t="n">
         <v>1.31</v>
@@ -12268,10 +12268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU58" t="n">
         <v>0.9</v>
@@ -12471,10 +12471,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU59" t="n">
         <v>1.33</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT60" t="n">
         <v>1.18</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU61" t="n">
         <v>1.83</v>
@@ -13083,7 +13083,7 @@
         <v>1.18</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU62" t="n">
         <v>1.41</v>
@@ -13283,10 +13283,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU63" t="n">
         <v>1.43</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT64" t="n">
         <v>2.7</v>
@@ -13692,7 +13692,7 @@
         <v>1.45</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU65" t="n">
         <v>1.2</v>
@@ -14501,7 +14501,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT69" t="n">
         <v>1.18</v>
@@ -14707,7 +14707,7 @@
         <v>1.27</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU70" t="n">
         <v>1.16</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT74" t="n">
         <v>1.45</v>
@@ -15925,7 +15925,7 @@
         <v>1.55</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU76" t="n">
         <v>1.35</v>
@@ -16328,7 +16328,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16531,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU79" t="n">
         <v>2</v>
@@ -16734,7 +16734,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT80" t="n">
         <v>1.33</v>
@@ -16940,7 +16940,7 @@
         <v>1.27</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU81" t="n">
         <v>1.16</v>
@@ -17143,7 +17143,7 @@
         <v>1.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU82" t="n">
         <v>1.23</v>
@@ -17549,7 +17549,7 @@
         <v>1.55</v>
       </c>
       <c r="AT84" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU84" t="n">
         <v>1.43</v>
@@ -18155,10 +18155,10 @@
         <v>0.75</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU87" t="n">
         <v>2.32</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT90" t="n">
         <v>1.27</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT91" t="n">
         <v>1.18</v>
@@ -19173,7 +19173,7 @@
         <v>1.55</v>
       </c>
       <c r="AT92" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU92" t="n">
         <v>1.7</v>
@@ -19376,7 +19376,7 @@
         <v>1.45</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU93" t="n">
         <v>1.16</v>
@@ -19576,10 +19576,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU94" t="n">
         <v>1.95</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20185,10 +20185,10 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU97" t="n">
         <v>2.26</v>
@@ -20388,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT98" t="n">
         <v>2.7</v>
@@ -20594,7 +20594,7 @@
         <v>1.18</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT100" t="n">
         <v>0.91</v>
@@ -20997,10 +20997,10 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU101" t="n">
         <v>2.07</v>
@@ -21812,7 +21812,7 @@
         <v>2.4</v>
       </c>
       <c r="AT105" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU105" t="n">
         <v>1.38</v>
@@ -22215,10 +22215,10 @@
         <v>0.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU107" t="n">
         <v>1.83</v>
@@ -22824,7 +22824,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23230,7 +23230,7 @@
         <v>0.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT112" t="n">
         <v>0.91</v>
@@ -23433,10 +23433,10 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU113" t="n">
         <v>1.88</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT114" t="n">
         <v>1.27</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT115" t="n">
         <v>1.45</v>
@@ -24042,10 +24042,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU116" t="n">
         <v>1.2</v>
@@ -24248,7 +24248,7 @@
         <v>2.4</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU117" t="n">
         <v>1.31</v>
@@ -24654,7 +24654,7 @@
         <v>1.45</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU119" t="n">
         <v>1.2</v>
@@ -24857,7 +24857,7 @@
         <v>1.18</v>
       </c>
       <c r="AT120" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU120" t="n">
         <v>1.41</v>
@@ -25057,10 +25057,10 @@
         <v>1.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT123" t="n">
         <v>1.73</v>
@@ -25669,7 +25669,7 @@
         <v>1.33</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU124" t="n">
         <v>1.59</v>
@@ -25872,7 +25872,7 @@
         <v>2.18</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU125" t="n">
         <v>1.17</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT126" t="n">
         <v>0.73</v>
@@ -26684,7 +26684,7 @@
         <v>1.55</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU129" t="n">
         <v>1.67</v>
@@ -27290,7 +27290,7 @@
         <v>2.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT132" t="n">
         <v>2.7</v>
@@ -27496,7 +27496,7 @@
         <v>1.55</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU133" t="n">
         <v>1.51</v>
@@ -27699,7 +27699,7 @@
         <v>2.4</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU134" t="n">
         <v>1.46</v>
@@ -27899,7 +27899,7 @@
         <v>1.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT135" t="n">
         <v>1.73</v>
@@ -28305,10 +28305,10 @@
         <v>1.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT137" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU137" t="n">
         <v>1.95</v>
@@ -28508,7 +28508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT138" t="n">
         <v>1</v>
@@ -28714,7 +28714,7 @@
         <v>0.82</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU139" t="n">
         <v>1.46</v>
@@ -29117,7 +29117,7 @@
         <v>1.14</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT141" t="n">
         <v>1.27</v>
@@ -29320,10 +29320,10 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU142" t="n">
         <v>1.91</v>
@@ -29523,10 +29523,10 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT143" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -29729,7 +29729,7 @@
         <v>2.17</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU144" t="n">
         <v>1.79</v>
@@ -30338,7 +30338,7 @@
         <v>1.55</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU147" t="n">
         <v>1.75</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -30744,7 +30744,7 @@
         <v>1.18</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU149" t="n">
         <v>1.31</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT151" t="n">
         <v>1.27</v>
@@ -31353,7 +31353,7 @@
         <v>1.45</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU152" t="n">
         <v>1.26</v>
@@ -31553,7 +31553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT153" t="n">
         <v>1</v>
@@ -31759,7 +31759,7 @@
         <v>2.18</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -32165,7 +32165,7 @@
         <v>1.33</v>
       </c>
       <c r="AT156" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU156" t="n">
         <v>1.56</v>
@@ -32365,7 +32365,7 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT157" t="n">
         <v>0.73</v>
@@ -32974,7 +32974,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT160" t="n">
         <v>1.33</v>
@@ -33177,10 +33177,10 @@
         <v>0.88</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU161" t="n">
         <v>1.75</v>
@@ -33786,7 +33786,7 @@
         <v>0.75</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT164" t="n">
         <v>1</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT165" t="n">
         <v>1.09</v>
@@ -34195,7 +34195,7 @@
         <v>1.18</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU166" t="n">
         <v>1.43</v>
@@ -34395,10 +34395,10 @@
         <v>1.38</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU167" t="n">
         <v>1.85</v>
@@ -34601,7 +34601,7 @@
         <v>1.5</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU168" t="n">
         <v>1.43</v>
@@ -34801,10 +34801,10 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT169" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU169" t="n">
         <v>1.9</v>
@@ -35007,7 +35007,7 @@
         <v>2.17</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU170" t="n">
         <v>1.75</v>
@@ -35613,7 +35613,7 @@
         <v>0.75</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT173" t="n">
         <v>0.73</v>
@@ -35819,7 +35819,7 @@
         <v>2.18</v>
       </c>
       <c r="AT174" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU174" t="n">
         <v>1.2</v>
@@ -36019,7 +36019,7 @@
         <v>1.44</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT175" t="n">
         <v>1.33</v>
@@ -36225,7 +36225,7 @@
         <v>1.27</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU176" t="n">
         <v>1.35</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT177" t="n">
         <v>1</v>
@@ -36631,7 +36631,7 @@
         <v>1.55</v>
       </c>
       <c r="AT178" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU178" t="n">
         <v>1.47</v>
@@ -36831,10 +36831,10 @@
         <v>1.25</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU179" t="n">
         <v>1.25</v>
@@ -37240,7 +37240,7 @@
         <v>1.27</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU181" t="n">
         <v>1.37</v>
@@ -37643,7 +37643,7 @@
         <v>0.89</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT183" t="n">
         <v>1.09</v>
@@ -37846,7 +37846,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT184" t="n">
         <v>1.27</v>
@@ -38049,7 +38049,7 @@
         <v>2</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT185" t="n">
         <v>1.73</v>
@@ -38255,7 +38255,7 @@
         <v>1.18</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU186" t="n">
         <v>1.51</v>
@@ -38458,7 +38458,7 @@
         <v>1.33</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU187" t="n">
         <v>1.47</v>
@@ -39270,7 +39270,7 @@
         <v>1.27</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU191" t="n">
         <v>1.47</v>
@@ -39470,7 +39470,7 @@
         <v>1.25</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT192" t="n">
         <v>1</v>
@@ -39673,7 +39673,7 @@
         <v>1.11</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT193" t="n">
         <v>1</v>
@@ -39876,7 +39876,7 @@
         <v>1.6</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT194" t="n">
         <v>1.33</v>
@@ -40079,7 +40079,7 @@
         <v>2.63</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT195" t="n">
         <v>2.7</v>
@@ -40282,7 +40282,7 @@
         <v>1.11</v>
       </c>
       <c r="AS196" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT196" t="n">
         <v>1.18</v>
@@ -40691,7 +40691,7 @@
         <v>2.18</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU198" t="n">
         <v>1.23</v>
@@ -40891,7 +40891,7 @@
         <v>0.89</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT199" t="n">
         <v>0.91</v>
@@ -41097,7 +41097,7 @@
         <v>1.33</v>
       </c>
       <c r="AT200" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU200" t="n">
         <v>1.45</v>
@@ -41300,7 +41300,7 @@
         <v>2.17</v>
       </c>
       <c r="AT201" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU201" t="n">
         <v>1.87</v>
@@ -41500,10 +41500,10 @@
         <v>1.1</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU202" t="n">
         <v>1.21</v>
@@ -41703,10 +41703,10 @@
         <v>1.11</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU203" t="n">
         <v>1.26</v>
@@ -41906,10 +41906,10 @@
         <v>0.7</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU204" t="n">
         <v>1.91</v>
@@ -42109,10 +42109,10 @@
         <v>0.7</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU205" t="n">
         <v>1.89</v>
@@ -42518,7 +42518,7 @@
         <v>1.45</v>
       </c>
       <c r="AT207" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU207" t="n">
         <v>1.28</v>
@@ -45006,6 +45006,1630 @@
       </c>
       <c r="BK219" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2435422</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="F220" t="n">
+        <v>23</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>2</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>3</v>
+      </c>
+      <c r="L220" t="n">
+        <v>4</v>
+      </c>
+      <c r="M220" t="n">
+        <v>3</v>
+      </c>
+      <c r="N220" t="n">
+        <v>7</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['5', '23', '50', '90+4']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['33', '83', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>3</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2</v>
+      </c>
+      <c r="S220" t="n">
+        <v>5</v>
+      </c>
+      <c r="T220" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2435419</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="F221" t="n">
+        <v>23</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" t="n">
+        <v>5</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="n">
+        <v>6</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['25', '45+2', '54', '73', '84']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>8</v>
+      </c>
+      <c r="R221" t="n">
+        <v>3</v>
+      </c>
+      <c r="S221" t="n">
+        <v>11</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V221" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2435417</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="F222" t="n">
+        <v>23</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>4</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>4</v>
+      </c>
+      <c r="L222" t="n">
+        <v>6</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>7</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['8', '23', '24', '34', '64', '73']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>8</v>
+      </c>
+      <c r="R222" t="n">
+        <v>5</v>
+      </c>
+      <c r="S222" t="n">
+        <v>13</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X222" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2435416</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="F223" t="n">
+        <v>23</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>1</v>
+      </c>
+      <c r="R223" t="n">
+        <v>6</v>
+      </c>
+      <c r="S223" t="n">
+        <v>7</v>
+      </c>
+      <c r="T223" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V223" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X223" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2435418</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="F224" t="n">
+        <v>23</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>3</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>3</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['26', '76', '90+1']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>8</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2</v>
+      </c>
+      <c r="S224" t="n">
+        <v>10</v>
+      </c>
+      <c r="T224" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X224" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2435414</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="F225" t="n">
+        <v>23</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>PSV II</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="n">
+        <v>2</v>
+      </c>
+      <c r="N225" t="n">
+        <v>3</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['23', '67']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>9</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2</v>
+      </c>
+      <c r="S225" t="n">
+        <v>11</v>
+      </c>
+      <c r="T225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V225" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X225" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2435413</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>23</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>2</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>3</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['23', '39']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>8</v>
+      </c>
+      <c r="R226" t="n">
+        <v>6</v>
+      </c>
+      <c r="S226" t="n">
+        <v>14</v>
+      </c>
+      <c r="T226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V226" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2435415</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>23</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>2</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2</v>
+      </c>
+      <c r="L227" t="n">
+        <v>4</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>4</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['10', '44', '66', '90+1']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>1</v>
+      </c>
+      <c r="R227" t="n">
+        <v>6</v>
+      </c>
+      <c r="S227" t="n">
+        <v>7</v>
+      </c>
+      <c r="T227" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X227" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK227"/>
+  <dimension ref="A1:BK228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.83</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT34" t="n">
         <v>1.17</v>
@@ -8820,7 +8820,7 @@
         <v>2.55</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU41" t="n">
         <v>1.14</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT52" t="n">
         <v>1.17</v>
@@ -12068,7 +12068,7 @@
         <v>2.18</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU57" t="n">
         <v>0.95</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT66" t="n">
         <v>0.91</v>
@@ -16331,7 +16331,7 @@
         <v>1.27</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -19170,7 +19170,7 @@
         <v>2.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT92" t="n">
         <v>1.83</v>
@@ -19985,7 +19985,7 @@
         <v>1.08</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU96" t="n">
         <v>1.16</v>
@@ -26481,7 +26481,7 @@
         <v>2.17</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU128" t="n">
         <v>1.72</v>
@@ -26681,7 +26681,7 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT129" t="n">
         <v>0.67</v>
@@ -30335,7 +30335,7 @@
         <v>0.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT147" t="n">
         <v>0.67</v>
@@ -30947,7 +30947,7 @@
         <v>0.82</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU150" t="n">
         <v>1.4</v>
@@ -33383,7 +33383,7 @@
         <v>1.27</v>
       </c>
       <c r="AT162" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU162" t="n">
         <v>1.47</v>
@@ -33583,7 +33583,7 @@
         <v>1.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT163" t="n">
         <v>1.73</v>
@@ -39064,7 +39064,7 @@
         <v>0.78</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT190" t="n">
         <v>0.73</v>
@@ -39473,7 +39473,7 @@
         <v>1.33</v>
       </c>
       <c r="AT192" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU192" t="n">
         <v>1.86</v>
@@ -42721,7 +42721,7 @@
         <v>1.5</v>
       </c>
       <c r="AT208" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU208" t="n">
         <v>1.44</v>
@@ -43530,7 +43530,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT212" t="n">
         <v>1</v>
@@ -43939,7 +43939,7 @@
         <v>1.33</v>
       </c>
       <c r="AT214" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU214" t="n">
         <v>1.46</v>
@@ -44545,7 +44545,7 @@
         <v>2.67</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT217" t="n">
         <v>2.7</v>
@@ -46630,6 +46630,209 @@
       </c>
       <c r="BK227" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2435420</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>44962.34375</v>
+      </c>
+      <c r="F228" t="n">
+        <v>23</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>3</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['59', '67']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>8</v>
+      </c>
+      <c r="R228" t="n">
+        <v>9</v>
+      </c>
+      <c r="S228" t="n">
+        <v>17</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V228" t="n">
+        <v>5</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X228" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK228"/>
+  <dimension ref="A1:BK230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT8" t="n">
         <v>1.17</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT10" t="n">
         <v>1.27</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT22" t="n">
         <v>1.27</v>
@@ -5978,7 +5978,7 @@
         <v>1.27</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU27" t="n">
         <v>1.93</v>
@@ -6181,7 +6181,7 @@
         <v>1.27</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU28" t="n">
         <v>1.38</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT29" t="n">
         <v>0.91</v>
@@ -9429,7 +9429,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU44" t="n">
         <v>1.65</v>
@@ -9835,7 +9835,7 @@
         <v>1.55</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU46" t="n">
         <v>1.41</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT47" t="n">
         <v>1.09</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT50" t="n">
         <v>1.73</v>
@@ -13080,7 +13080,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT62" t="n">
         <v>1.17</v>
@@ -13286,7 +13286,7 @@
         <v>1.92</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU63" t="n">
         <v>1.43</v>
@@ -13489,7 +13489,7 @@
         <v>1.83</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU64" t="n">
         <v>2.22</v>
@@ -14501,7 +14501,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT69" t="n">
         <v>1.18</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT94" t="n">
         <v>0.64</v>
@@ -20188,7 +20188,7 @@
         <v>1.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU97" t="n">
         <v>2.26</v>
@@ -20391,7 +20391,7 @@
         <v>1.27</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU98" t="n">
         <v>1.15</v>
@@ -20591,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT99" t="n">
         <v>0.67</v>
@@ -23436,7 +23436,7 @@
         <v>2.55</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU113" t="n">
         <v>1.88</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT115" t="n">
         <v>1.45</v>
@@ -24451,7 +24451,7 @@
         <v>0.82</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU118" t="n">
         <v>1.49</v>
@@ -24854,7 +24854,7 @@
         <v>1.8</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT120" t="n">
         <v>1.83</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT131" t="n">
         <v>1.33</v>
@@ -27293,7 +27293,7 @@
         <v>1.08</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -27899,7 +27899,7 @@
         <v>1.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT135" t="n">
         <v>1.73</v>
@@ -28714,7 +28714,7 @@
         <v>0.82</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU139" t="n">
         <v>1.46</v>
@@ -29729,7 +29729,7 @@
         <v>2.17</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU144" t="n">
         <v>1.79</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT149" t="n">
         <v>0.64</v>
@@ -32774,7 +32774,7 @@
         <v>1.55</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -33177,7 +33177,7 @@
         <v>0.88</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT161" t="n">
         <v>1.17</v>
@@ -34192,7 +34192,7 @@
         <v>0.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT166" t="n">
         <v>0.67</v>
@@ -34398,7 +34398,7 @@
         <v>1.42</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU167" t="n">
         <v>1.85</v>
@@ -37846,7 +37846,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT184" t="n">
         <v>1.27</v>
@@ -38252,10 +38252,10 @@
         <v>1.56</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU186" t="n">
         <v>1.51</v>
@@ -40082,7 +40082,7 @@
         <v>2.55</v>
       </c>
       <c r="AT195" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU195" t="n">
         <v>1.84</v>
@@ -42312,7 +42312,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT206" t="n">
         <v>1.27</v>
@@ -44548,7 +44548,7 @@
         <v>1.67</v>
       </c>
       <c r="AT217" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU217" t="n">
         <v>1.73</v>
@@ -45357,7 +45357,7 @@
         <v>0.73</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT221" t="n">
         <v>0.67</v>
@@ -46578,7 +46578,7 @@
         <v>1.27</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU227" t="n">
         <v>1.28</v>
@@ -46833,6 +46833,412 @@
       </c>
       <c r="BK228" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2435398</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>44963.66666666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>21</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>3</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['11', '70', '88']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>5</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2</v>
+      </c>
+      <c r="S229" t="n">
+        <v>7</v>
+      </c>
+      <c r="T229" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V229" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X229" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2435421</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>44963.66666666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>23</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Ajax II</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="n">
+        <v>6</v>
+      </c>
+      <c r="S230" t="n">
+        <v>6</v>
+      </c>
+      <c r="T230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X230" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="364">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,6 +748,21 @@
     <t>['11', '70', '88']</t>
   </si>
   <si>
+    <t>['61', '75', '82']</t>
+  </si>
+  <si>
+    <t>['17', '49', '66', '83']</t>
+  </si>
+  <si>
+    <t>['36', '56', '59', '63', '90+1']</t>
+  </si>
+  <si>
+    <t>['40', '55']</t>
+  </si>
+  <si>
+    <t>['26', '31', '34', '59']</t>
+  </si>
+  <si>
     <t>['8', '23', '33']</t>
   </si>
   <si>
@@ -1082,6 +1097,15 @@
   </si>
   <si>
     <t>['20']</t>
+  </si>
+  <si>
+    <t>['33', '38']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['64']</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK230"/>
+  <dimension ref="A1:BK238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1687,7 +1711,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1774,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT2">
         <v>1.25</v>
@@ -1878,7 +1902,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1968,7 +1992,7 @@
         <v>1.27</v>
       </c>
       <c r="AT3">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2347,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT5">
         <v>0.67</v>
@@ -2729,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT7">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2833,7 +2857,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2920,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT8">
         <v>1.17</v>
@@ -3024,7 +3048,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3111,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT9">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3597,7 +3621,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3878,7 +3902,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3979,7 +4003,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4066,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT14">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4260,7 +4284,7 @@
         <v>1.92</v>
       </c>
       <c r="AT15">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4361,7 +4385,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4552,7 +4576,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4639,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>1.33</v>
@@ -4743,7 +4767,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4934,7 +4958,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5024,7 +5048,7 @@
         <v>0.82</v>
       </c>
       <c r="AT19">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5215,7 +5239,7 @@
         <v>1.45</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5316,7 +5340,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5403,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT21">
         <v>1.17</v>
@@ -5507,7 +5531,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5594,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT22">
         <v>1.27</v>
@@ -5785,10 +5809,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU23">
         <v>1.34</v>
@@ -5976,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT24">
         <v>1.09</v>
@@ -6080,7 +6104,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6271,7 +6295,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6358,10 +6382,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT26">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>1.76</v>
@@ -6549,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT27">
         <v>1.25</v>
@@ -6653,7 +6677,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6740,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT28">
         <v>2.55</v>
@@ -6844,7 +6868,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6934,7 +6958,7 @@
         <v>1.17</v>
       </c>
       <c r="AT29">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU29">
         <v>1.2</v>
@@ -7035,7 +7059,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7125,7 +7149,7 @@
         <v>1.83</v>
       </c>
       <c r="AT30">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU30">
         <v>2.32</v>
@@ -7226,7 +7250,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7316,7 +7340,7 @@
         <v>1.45</v>
       </c>
       <c r="AT31">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU31">
         <v>1.4</v>
@@ -7417,7 +7441,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7504,7 +7528,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT32">
         <v>1.17</v>
@@ -7799,7 +7823,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7990,7 +8014,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8271,7 +8295,7 @@
         <v>1.42</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU36">
         <v>1.64</v>
@@ -8459,10 +8483,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT37">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU37">
         <v>0.93</v>
@@ -8844,7 +8868,7 @@
         <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU39">
         <v>2.25</v>
@@ -9327,7 +9351,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9417,7 +9441,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU42">
         <v>1.01</v>
@@ -9605,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT43">
         <v>0.67</v>
@@ -9709,7 +9733,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9796,7 +9820,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT44">
         <v>2.55</v>
@@ -9987,10 +10011,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT45">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU45">
         <v>1.28</v>
@@ -10091,7 +10115,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10178,7 +10202,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT46">
         <v>1.25</v>
@@ -10369,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT47">
         <v>1.09</v>
@@ -10473,7 +10497,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10560,10 +10584,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT48">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU48">
         <v>1.69</v>
@@ -10664,7 +10688,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10754,7 +10778,7 @@
         <v>1.45</v>
       </c>
       <c r="AT49">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU49">
         <v>0.96</v>
@@ -10945,7 +10969,7 @@
         <v>1.17</v>
       </c>
       <c r="AT50">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU50">
         <v>1.33</v>
@@ -11136,7 +11160,7 @@
         <v>1.83</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU51">
         <v>2.38</v>
@@ -11237,7 +11261,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11428,7 +11452,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11515,7 +11539,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT53">
         <v>1.33</v>
@@ -11709,7 +11733,7 @@
         <v>1.08</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU54">
         <v>1.16</v>
@@ -11810,7 +11834,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12279,7 +12303,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>0.92</v>
@@ -12574,7 +12598,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12765,7 +12789,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12855,7 +12879,7 @@
         <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU60">
         <v>2.28</v>
@@ -12956,7 +12980,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13529,7 +13553,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13720,7 +13744,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13911,7 +13935,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14001,7 +14025,7 @@
         <v>1.67</v>
       </c>
       <c r="AT66">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU66">
         <v>1.63</v>
@@ -14102,7 +14126,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14293,7 +14317,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14383,7 +14407,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU68">
         <v>1.12</v>
@@ -14571,10 +14595,10 @@
         <v>1.33</v>
       </c>
       <c r="AS69">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT69">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU69">
         <v>1.87</v>
@@ -14762,7 +14786,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT70">
         <v>1.17</v>
@@ -14866,7 +14890,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14953,7 +14977,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT71">
         <v>1.09</v>
@@ -15144,10 +15168,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU72">
         <v>1.54</v>
@@ -15248,7 +15272,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15335,10 +15359,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU73">
         <v>1.24</v>
@@ -15439,7 +15463,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15529,7 +15553,7 @@
         <v>1.42</v>
       </c>
       <c r="AT74">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU74">
         <v>2.01</v>
@@ -15630,7 +15654,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15717,10 +15741,10 @@
         <v>2.33</v>
       </c>
       <c r="AS75">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT75">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU75">
         <v>1.31</v>
@@ -15908,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT76">
         <v>0.67</v>
@@ -16099,10 +16123,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT77">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU77">
         <v>1.72</v>
@@ -16203,7 +16227,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16585,7 +16609,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16863,7 +16887,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT81">
         <v>1.27</v>
@@ -16967,7 +16991,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17245,10 +17269,10 @@
         <v>0.25</v>
       </c>
       <c r="AS83">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU83">
         <v>1.83</v>
@@ -17349,7 +17373,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17436,7 +17460,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT84">
         <v>1.83</v>
@@ -17540,7 +17564,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17627,7 +17651,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT85">
         <v>1.33</v>
@@ -17731,7 +17755,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17818,10 +17842,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT86">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU86">
         <v>1.26</v>
@@ -17922,7 +17946,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18200,10 +18224,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU88">
         <v>1.34</v>
@@ -18304,7 +18328,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18391,10 +18415,10 @@
         <v>2.25</v>
       </c>
       <c r="AS89">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT89">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU89">
         <v>1.72</v>
@@ -18585,7 +18609,7 @@
         <v>1.92</v>
       </c>
       <c r="AT90">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU90">
         <v>1.58</v>
@@ -18776,7 +18800,7 @@
         <v>1.42</v>
       </c>
       <c r="AT91">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU91">
         <v>1.84</v>
@@ -19068,7 +19092,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19259,7 +19283,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19346,7 +19370,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT94">
         <v>0.64</v>
@@ -19450,7 +19474,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19540,7 +19564,7 @@
         <v>0.82</v>
       </c>
       <c r="AT95">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU95">
         <v>1.44</v>
@@ -19641,7 +19665,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -20214,7 +20238,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20405,7 +20429,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20495,7 +20519,7 @@
         <v>2.55</v>
       </c>
       <c r="AT100">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU100">
         <v>1.97</v>
@@ -20787,7 +20811,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20874,10 +20898,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU102">
         <v>1.32</v>
@@ -20978,7 +21002,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21065,10 +21089,10 @@
         <v>2.4</v>
       </c>
       <c r="AS103">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT103">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU103">
         <v>1.76</v>
@@ -21169,7 +21193,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21256,7 +21280,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT104">
         <v>1.09</v>
@@ -21360,7 +21384,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21447,7 +21471,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT105">
         <v>1.17</v>
@@ -21551,7 +21575,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21641,7 +21665,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU106">
         <v>1.35</v>
@@ -21933,7 +21957,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22020,10 +22044,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT108">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU108">
         <v>1.24</v>
@@ -22211,10 +22235,10 @@
         <v>0.8</v>
       </c>
       <c r="AS109">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT109">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU109">
         <v>1.61</v>
@@ -22315,7 +22339,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22405,7 +22429,7 @@
         <v>1.92</v>
       </c>
       <c r="AT110">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU110">
         <v>1.46</v>
@@ -22506,7 +22530,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22593,7 +22617,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT111">
         <v>1.33</v>
@@ -22697,7 +22721,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22787,7 +22811,7 @@
         <v>1.33</v>
       </c>
       <c r="AT112">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU112">
         <v>2.1</v>
@@ -23169,7 +23193,7 @@
         <v>1.08</v>
       </c>
       <c r="AT114">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU114">
         <v>1.33</v>
@@ -23270,7 +23294,7 @@
         <v>112</v>
       </c>
       <c r="P115" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23357,10 +23381,10 @@
         <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT115">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU115">
         <v>1.81</v>
@@ -23461,7 +23485,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23739,7 +23763,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT117">
         <v>0.64</v>
@@ -24225,7 +24249,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24607,7 +24631,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24694,10 +24718,10 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT122">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU122">
         <v>1.5</v>
@@ -24798,7 +24822,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24888,7 +24912,7 @@
         <v>1.92</v>
       </c>
       <c r="AT123">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU123">
         <v>1.52</v>
@@ -24989,7 +25013,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25076,7 +25100,7 @@
         <v>1.17</v>
       </c>
       <c r="AS124">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT124">
         <v>1.17</v>
@@ -25180,7 +25204,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25267,7 +25291,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT125">
         <v>1.17</v>
@@ -25461,7 +25485,7 @@
         <v>1.42</v>
       </c>
       <c r="AT126">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU126">
         <v>1.8</v>
@@ -25562,7 +25586,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25649,7 +25673,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT127">
         <v>1.09</v>
@@ -25753,7 +25777,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25840,7 +25864,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT128">
         <v>0.92</v>
@@ -26135,7 +26159,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26225,7 +26249,7 @@
         <v>1.5</v>
       </c>
       <c r="AT130">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU130">
         <v>1.36</v>
@@ -26326,7 +26350,7 @@
         <v>111</v>
       </c>
       <c r="P131" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26517,7 +26541,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q132">
         <v>1</v>
@@ -26795,7 +26819,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT133">
         <v>1.27</v>
@@ -26986,7 +27010,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT134">
         <v>0.67</v>
@@ -27090,7 +27114,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27177,10 +27201,10 @@
         <v>1.71</v>
       </c>
       <c r="AS135">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT135">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU135">
         <v>1.75</v>
@@ -27368,10 +27392,10 @@
         <v>0.67</v>
       </c>
       <c r="AS136">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT136">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU136">
         <v>1.56</v>
@@ -27472,7 +27496,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27663,7 +27687,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27753,7 +27777,7 @@
         <v>1.27</v>
       </c>
       <c r="AT138">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU138">
         <v>1.27</v>
@@ -28135,7 +28159,7 @@
         <v>1.45</v>
       </c>
       <c r="AT140">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU140">
         <v>1.3</v>
@@ -28326,7 +28350,7 @@
         <v>1.83</v>
       </c>
       <c r="AT141">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU141">
         <v>1.92</v>
@@ -28618,7 +28642,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28809,7 +28833,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28896,7 +28920,7 @@
         <v>1.57</v>
       </c>
       <c r="AS144">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT144">
         <v>1.25</v>
@@ -29278,7 +29302,7 @@
         <v>1.57</v>
       </c>
       <c r="AS146">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT146">
         <v>1.33</v>
@@ -29382,7 +29406,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q147">
         <v>15</v>
@@ -29663,7 +29687,7 @@
         <v>1.92</v>
       </c>
       <c r="AT148">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU148">
         <v>1.56</v>
@@ -29764,7 +29788,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -30236,7 +30260,7 @@
         <v>1.33</v>
       </c>
       <c r="AT151">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU151">
         <v>1.95</v>
@@ -30618,7 +30642,7 @@
         <v>1.83</v>
       </c>
       <c r="AT153">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU153">
         <v>1.89</v>
@@ -30806,7 +30830,7 @@
         <v>1.43</v>
       </c>
       <c r="AS154">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT154">
         <v>1.27</v>
@@ -30910,7 +30934,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -30997,10 +31021,10 @@
         <v>0.57</v>
       </c>
       <c r="AS155">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT155">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU155">
         <v>1.29</v>
@@ -31101,7 +31125,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31188,7 +31212,7 @@
         <v>1.86</v>
       </c>
       <c r="AS156">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT156">
         <v>1.83</v>
@@ -31382,7 +31406,7 @@
         <v>2.55</v>
       </c>
       <c r="AT157">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU157">
         <v>1.97</v>
@@ -31570,10 +31594,10 @@
         <v>1.43</v>
       </c>
       <c r="AS158">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT158">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU158">
         <v>1.46</v>
@@ -31674,7 +31698,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31761,7 +31785,7 @@
         <v>2.57</v>
       </c>
       <c r="AS159">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT159">
         <v>2.55</v>
@@ -31865,7 +31889,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -32143,7 +32167,7 @@
         <v>0.88</v>
       </c>
       <c r="AS161">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT161">
         <v>1.17</v>
@@ -32247,7 +32271,7 @@
         <v>202</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32334,7 +32358,7 @@
         <v>1.43</v>
       </c>
       <c r="AS162">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT162">
         <v>0.92</v>
@@ -32438,7 +32462,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32528,7 +32552,7 @@
         <v>1.67</v>
       </c>
       <c r="AT163">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU163">
         <v>1.75</v>
@@ -32719,7 +32743,7 @@
         <v>1.08</v>
       </c>
       <c r="AT164">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU164">
         <v>1.33</v>
@@ -33011,7 +33035,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33202,7 +33226,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33584,7 +33608,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33862,7 +33886,7 @@
         <v>0.75</v>
       </c>
       <c r="AS170">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT170">
         <v>0.67</v>
@@ -33966,7 +33990,7 @@
         <v>209</v>
       </c>
       <c r="P171" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34056,7 +34080,7 @@
         <v>1.45</v>
       </c>
       <c r="AT171">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU171">
         <v>1.26</v>
@@ -34157,7 +34181,7 @@
         <v>86</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34244,10 +34268,10 @@
         <v>1.25</v>
       </c>
       <c r="AS172">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT172">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU172">
         <v>1.46</v>
@@ -34438,7 +34462,7 @@
         <v>1.33</v>
       </c>
       <c r="AT173">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU173">
         <v>1.9</v>
@@ -34539,7 +34563,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -34626,7 +34650,7 @@
         <v>2</v>
       </c>
       <c r="AS174">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT174">
         <v>1.83</v>
@@ -34730,7 +34754,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -35008,7 +35032,7 @@
         <v>0.88</v>
       </c>
       <c r="AS176">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT176">
         <v>0.64</v>
@@ -35112,7 +35136,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35202,7 +35226,7 @@
         <v>2.55</v>
       </c>
       <c r="AT177">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU177">
         <v>1.87</v>
@@ -35303,7 +35327,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35390,7 +35414,7 @@
         <v>1.22</v>
       </c>
       <c r="AS178">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT178">
         <v>1.17</v>
@@ -35685,7 +35709,7 @@
         <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35772,10 +35796,10 @@
         <v>0.88</v>
       </c>
       <c r="AS180">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT180">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU180">
         <v>1.38</v>
@@ -35963,7 +35987,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT181">
         <v>0.67</v>
@@ -36067,7 +36091,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36154,10 +36178,10 @@
         <v>1.44</v>
       </c>
       <c r="AS182">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT182">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU182">
         <v>1.84</v>
@@ -36536,10 +36560,10 @@
         <v>1.22</v>
       </c>
       <c r="AS184">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT184">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU184">
         <v>1.78</v>
@@ -36640,7 +36664,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36730,7 +36754,7 @@
         <v>1.83</v>
       </c>
       <c r="AT185">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU185">
         <v>1.97</v>
@@ -36831,7 +36855,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37022,7 +37046,7 @@
         <v>95</v>
       </c>
       <c r="P187" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q187">
         <v>6</v>
@@ -37109,7 +37133,7 @@
         <v>0.44</v>
       </c>
       <c r="AS187">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT187">
         <v>0.67</v>
@@ -37213,7 +37237,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37303,7 +37327,7 @@
         <v>0.82</v>
       </c>
       <c r="AT188">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU188">
         <v>1.61</v>
@@ -37494,7 +37518,7 @@
         <v>1.5</v>
       </c>
       <c r="AT189">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU189">
         <v>1.43</v>
@@ -37685,7 +37709,7 @@
         <v>1.67</v>
       </c>
       <c r="AT190">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU190">
         <v>1.6</v>
@@ -37786,7 +37810,7 @@
         <v>220</v>
       </c>
       <c r="P191" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -37873,7 +37897,7 @@
         <v>1.11</v>
       </c>
       <c r="AS191">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT191">
         <v>1.17</v>
@@ -37977,7 +38001,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38258,7 +38282,7 @@
         <v>1.42</v>
       </c>
       <c r="AT193">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU193">
         <v>1.72</v>
@@ -38550,7 +38574,7 @@
         <v>86</v>
       </c>
       <c r="P195" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38741,7 +38765,7 @@
         <v>218</v>
       </c>
       <c r="P196" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -38831,7 +38855,7 @@
         <v>1.08</v>
       </c>
       <c r="AT196">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU196">
         <v>1.21</v>
@@ -39022,7 +39046,7 @@
         <v>0.82</v>
       </c>
       <c r="AT197">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU197">
         <v>1.54</v>
@@ -39123,7 +39147,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -39210,7 +39234,7 @@
         <v>0.78</v>
       </c>
       <c r="AS198">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT198">
         <v>0.64</v>
@@ -39314,7 +39338,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39404,7 +39428,7 @@
         <v>1.92</v>
       </c>
       <c r="AT199">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU199">
         <v>1.56</v>
@@ -39592,7 +39616,7 @@
         <v>1.1</v>
       </c>
       <c r="AS200">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT200">
         <v>1.17</v>
@@ -39783,7 +39807,7 @@
         <v>2.11</v>
       </c>
       <c r="AS201">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT201">
         <v>1.83</v>
@@ -39887,7 +39911,7 @@
         <v>157</v>
       </c>
       <c r="P202" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40460,7 +40484,7 @@
         <v>85</v>
       </c>
       <c r="P205" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q205">
         <v>2</v>
@@ -40651,7 +40675,7 @@
         <v>227</v>
       </c>
       <c r="P206" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q206">
         <v>3</v>
@@ -40741,7 +40765,7 @@
         <v>1.17</v>
       </c>
       <c r="AT206">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU206">
         <v>1.45</v>
@@ -40842,7 +40866,7 @@
         <v>228</v>
       </c>
       <c r="P207" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -41033,7 +41057,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q208">
         <v>10</v>
@@ -41314,7 +41338,7 @@
         <v>1.5</v>
       </c>
       <c r="AT209">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU209">
         <v>1.5</v>
@@ -41502,10 +41526,10 @@
         <v>0.8</v>
       </c>
       <c r="AS210">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT210">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU210">
         <v>1.92</v>
@@ -41693,7 +41717,7 @@
         <v>1.1</v>
       </c>
       <c r="AS211">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT211">
         <v>1.09</v>
@@ -41887,7 +41911,7 @@
         <v>1.67</v>
       </c>
       <c r="AT212">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU212">
         <v>1.67</v>
@@ -41988,7 +42012,7 @@
         <v>231</v>
       </c>
       <c r="P213" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42075,10 +42099,10 @@
         <v>1.3</v>
       </c>
       <c r="AS213">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT213">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU213">
         <v>1.48</v>
@@ -42179,7 +42203,7 @@
         <v>232</v>
       </c>
       <c r="P214" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -42266,7 +42290,7 @@
         <v>1</v>
       </c>
       <c r="AS214">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT214">
         <v>0.92</v>
@@ -42457,10 +42481,10 @@
         <v>1.9</v>
       </c>
       <c r="AS215">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT215">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU215">
         <v>1.27</v>
@@ -42648,10 +42672,10 @@
         <v>1</v>
       </c>
       <c r="AS216">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT216">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU216">
         <v>1.46</v>
@@ -42752,7 +42776,7 @@
         <v>157</v>
       </c>
       <c r="P217" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -42943,7 +42967,7 @@
         <v>233</v>
       </c>
       <c r="P218" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q218">
         <v>2</v>
@@ -43134,7 +43158,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43224,7 +43248,7 @@
         <v>0.82</v>
       </c>
       <c r="AT219">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU219">
         <v>1.5</v>
@@ -43325,7 +43349,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43516,7 +43540,7 @@
         <v>236</v>
       </c>
       <c r="P221" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q221">
         <v>8</v>
@@ -43603,7 +43627,7 @@
         <v>0.73</v>
       </c>
       <c r="AS221">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT221">
         <v>0.67</v>
@@ -43707,7 +43731,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -43898,7 +43922,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44280,7 +44304,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44471,7 +44495,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q226">
         <v>8</v>
@@ -44853,7 +44877,7 @@
         <v>242</v>
       </c>
       <c r="P228" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -45131,7 +45155,7 @@
         <v>1.36</v>
       </c>
       <c r="AS229">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT229">
         <v>1.25</v>
@@ -45377,6 +45401,1534 @@
       </c>
       <c r="BK230">
         <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>2435429</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44967.66666666666</v>
+      </c>
+      <c r="F231">
+        <v>24</v>
+      </c>
+      <c r="G231" t="s">
+        <v>70</v>
+      </c>
+      <c r="H231" t="s">
+        <v>67</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>3</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>4</v>
+      </c>
+      <c r="O231" t="s">
+        <v>244</v>
+      </c>
+      <c r="P231" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q231">
+        <v>3</v>
+      </c>
+      <c r="R231">
+        <v>8</v>
+      </c>
+      <c r="S231">
+        <v>11</v>
+      </c>
+      <c r="T231">
+        <v>4</v>
+      </c>
+      <c r="U231">
+        <v>2.35</v>
+      </c>
+      <c r="V231">
+        <v>2.5</v>
+      </c>
+      <c r="W231">
+        <v>1.28</v>
+      </c>
+      <c r="X231">
+        <v>3.4</v>
+      </c>
+      <c r="Y231">
+        <v>2.39</v>
+      </c>
+      <c r="Z231">
+        <v>1.52</v>
+      </c>
+      <c r="AA231">
+        <v>5.45</v>
+      </c>
+      <c r="AB231">
+        <v>1.12</v>
+      </c>
+      <c r="AC231">
+        <v>3.6</v>
+      </c>
+      <c r="AD231">
+        <v>3.75</v>
+      </c>
+      <c r="AE231">
+        <v>1.95</v>
+      </c>
+      <c r="AF231">
+        <v>1.02</v>
+      </c>
+      <c r="AG231">
+        <v>15</v>
+      </c>
+      <c r="AH231">
+        <v>1.2</v>
+      </c>
+      <c r="AI231">
+        <v>4.5</v>
+      </c>
+      <c r="AJ231">
+        <v>1.65</v>
+      </c>
+      <c r="AK231">
+        <v>2.25</v>
+      </c>
+      <c r="AL231">
+        <v>1.57</v>
+      </c>
+      <c r="AM231">
+        <v>2.3</v>
+      </c>
+      <c r="AN231">
+        <v>1.9</v>
+      </c>
+      <c r="AO231">
+        <v>1.22</v>
+      </c>
+      <c r="AP231">
+        <v>1.3</v>
+      </c>
+      <c r="AQ231">
+        <v>1.27</v>
+      </c>
+      <c r="AR231">
+        <v>1.73</v>
+      </c>
+      <c r="AS231">
+        <v>1.42</v>
+      </c>
+      <c r="AT231">
+        <v>1.58</v>
+      </c>
+      <c r="AU231">
+        <v>1.38</v>
+      </c>
+      <c r="AV231">
+        <v>1.48</v>
+      </c>
+      <c r="AW231">
+        <v>2.86</v>
+      </c>
+      <c r="AX231">
+        <v>2.77</v>
+      </c>
+      <c r="AY231">
+        <v>10.5</v>
+      </c>
+      <c r="AZ231">
+        <v>1.59</v>
+      </c>
+      <c r="BA231">
+        <v>1.18</v>
+      </c>
+      <c r="BB231">
+        <v>1.34</v>
+      </c>
+      <c r="BC231">
+        <v>1.68</v>
+      </c>
+      <c r="BD231">
+        <v>2.06</v>
+      </c>
+      <c r="BE231">
+        <v>2.72</v>
+      </c>
+      <c r="BF231">
+        <v>5</v>
+      </c>
+      <c r="BG231">
+        <v>3</v>
+      </c>
+      <c r="BH231">
+        <v>1</v>
+      </c>
+      <c r="BI231">
+        <v>9</v>
+      </c>
+      <c r="BJ231">
+        <v>6</v>
+      </c>
+      <c r="BK231">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2435423</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44967.66666666666</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>65</v>
+      </c>
+      <c r="H232" t="s">
+        <v>73</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>2</v>
+      </c>
+      <c r="K232">
+        <v>3</v>
+      </c>
+      <c r="L232">
+        <v>4</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232">
+        <v>6</v>
+      </c>
+      <c r="O232" t="s">
+        <v>245</v>
+      </c>
+      <c r="P232" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q232">
+        <v>2</v>
+      </c>
+      <c r="R232">
+        <v>5</v>
+      </c>
+      <c r="S232">
+        <v>7</v>
+      </c>
+      <c r="T232">
+        <v>3.1</v>
+      </c>
+      <c r="U232">
+        <v>2.4</v>
+      </c>
+      <c r="V232">
+        <v>2.95</v>
+      </c>
+      <c r="W232">
+        <v>1.24</v>
+      </c>
+      <c r="X232">
+        <v>3.7</v>
+      </c>
+      <c r="Y232">
+        <v>2.22</v>
+      </c>
+      <c r="Z232">
+        <v>1.6</v>
+      </c>
+      <c r="AA232">
+        <v>4.7</v>
+      </c>
+      <c r="AB232">
+        <v>1.16</v>
+      </c>
+      <c r="AC232">
+        <v>2.6</v>
+      </c>
+      <c r="AD232">
+        <v>3.75</v>
+      </c>
+      <c r="AE232">
+        <v>2.45</v>
+      </c>
+      <c r="AF232">
+        <v>1.02</v>
+      </c>
+      <c r="AG232">
+        <v>12</v>
+      </c>
+      <c r="AH232">
+        <v>1.16</v>
+      </c>
+      <c r="AI232">
+        <v>5.5</v>
+      </c>
+      <c r="AJ232">
+        <v>1.5</v>
+      </c>
+      <c r="AK232">
+        <v>2.55</v>
+      </c>
+      <c r="AL232">
+        <v>1.44</v>
+      </c>
+      <c r="AM232">
+        <v>2.75</v>
+      </c>
+      <c r="AN232">
+        <v>1.55</v>
+      </c>
+      <c r="AO232">
+        <v>1.22</v>
+      </c>
+      <c r="AP232">
+        <v>1.5</v>
+      </c>
+      <c r="AQ232">
+        <v>1.33</v>
+      </c>
+      <c r="AR232">
+        <v>1</v>
+      </c>
+      <c r="AS232">
+        <v>1.46</v>
+      </c>
+      <c r="AT232">
+        <v>0.92</v>
+      </c>
+      <c r="AU232">
+        <v>1.45</v>
+      </c>
+      <c r="AV232">
+        <v>1.66</v>
+      </c>
+      <c r="AW232">
+        <v>3.11</v>
+      </c>
+      <c r="AX232">
+        <v>2.11</v>
+      </c>
+      <c r="AY232">
+        <v>7.6</v>
+      </c>
+      <c r="AZ232">
+        <v>2.05</v>
+      </c>
+      <c r="BA232">
+        <v>1.21</v>
+      </c>
+      <c r="BB232">
+        <v>1.42</v>
+      </c>
+      <c r="BC232">
+        <v>1.78</v>
+      </c>
+      <c r="BD232">
+        <v>2.2</v>
+      </c>
+      <c r="BE232">
+        <v>2.98</v>
+      </c>
+      <c r="BF232">
+        <v>8</v>
+      </c>
+      <c r="BG232">
+        <v>4</v>
+      </c>
+      <c r="BH232">
+        <v>5</v>
+      </c>
+      <c r="BI232">
+        <v>7</v>
+      </c>
+      <c r="BJ232">
+        <v>13</v>
+      </c>
+      <c r="BK232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2435424</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44967.66666666666</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>80</v>
+      </c>
+      <c r="H233" t="s">
+        <v>78</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233" t="s">
+        <v>86</v>
+      </c>
+      <c r="P233" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q233">
+        <v>10</v>
+      </c>
+      <c r="R233">
+        <v>10</v>
+      </c>
+      <c r="S233">
+        <v>20</v>
+      </c>
+      <c r="T233">
+        <v>3</v>
+      </c>
+      <c r="U233">
+        <v>2.15</v>
+      </c>
+      <c r="V233">
+        <v>3.6</v>
+      </c>
+      <c r="W233">
+        <v>1.37</v>
+      </c>
+      <c r="X233">
+        <v>2.85</v>
+      </c>
+      <c r="Y233">
+        <v>2.8</v>
+      </c>
+      <c r="Z233">
+        <v>1.39</v>
+      </c>
+      <c r="AA233">
+        <v>6.95</v>
+      </c>
+      <c r="AB233">
+        <v>1.07</v>
+      </c>
+      <c r="AC233">
+        <v>2.3</v>
+      </c>
+      <c r="AD233">
+        <v>3.4</v>
+      </c>
+      <c r="AE233">
+        <v>3</v>
+      </c>
+      <c r="AF233">
+        <v>1.05</v>
+      </c>
+      <c r="AG233">
+        <v>12</v>
+      </c>
+      <c r="AH233">
+        <v>1.3</v>
+      </c>
+      <c r="AI233">
+        <v>3.5</v>
+      </c>
+      <c r="AJ233">
+        <v>1.9</v>
+      </c>
+      <c r="AK233">
+        <v>1.9</v>
+      </c>
+      <c r="AL233">
+        <v>1.72</v>
+      </c>
+      <c r="AM233">
+        <v>2.1</v>
+      </c>
+      <c r="AN233">
+        <v>1.4</v>
+      </c>
+      <c r="AO233">
+        <v>1.25</v>
+      </c>
+      <c r="AP233">
+        <v>1.63</v>
+      </c>
+      <c r="AQ233">
+        <v>2.18</v>
+      </c>
+      <c r="AR233">
+        <v>1.45</v>
+      </c>
+      <c r="AS233">
+        <v>2</v>
+      </c>
+      <c r="AT233">
+        <v>1.58</v>
+      </c>
+      <c r="AU233">
+        <v>1.24</v>
+      </c>
+      <c r="AV233">
+        <v>1.4</v>
+      </c>
+      <c r="AW233">
+        <v>2.64</v>
+      </c>
+      <c r="AX233">
+        <v>1.87</v>
+      </c>
+      <c r="AY233">
+        <v>7.6</v>
+      </c>
+      <c r="AZ233">
+        <v>2.39</v>
+      </c>
+      <c r="BA233">
+        <v>1.24</v>
+      </c>
+      <c r="BB233">
+        <v>1.54</v>
+      </c>
+      <c r="BC233">
+        <v>1.88</v>
+      </c>
+      <c r="BD233">
+        <v>2.32</v>
+      </c>
+      <c r="BE233">
+        <v>3.2</v>
+      </c>
+      <c r="BF233">
+        <v>0</v>
+      </c>
+      <c r="BG233">
+        <v>2</v>
+      </c>
+      <c r="BH233">
+        <v>3</v>
+      </c>
+      <c r="BI233">
+        <v>4</v>
+      </c>
+      <c r="BJ233">
+        <v>3</v>
+      </c>
+      <c r="BK233">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>2435425</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44967.66666666666</v>
+      </c>
+      <c r="F234">
+        <v>24</v>
+      </c>
+      <c r="G234" t="s">
+        <v>77</v>
+      </c>
+      <c r="H234" t="s">
+        <v>76</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" t="s">
+        <v>203</v>
+      </c>
+      <c r="P234" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q234">
+        <v>3</v>
+      </c>
+      <c r="R234">
+        <v>6</v>
+      </c>
+      <c r="S234">
+        <v>9</v>
+      </c>
+      <c r="T234">
+        <v>3.6</v>
+      </c>
+      <c r="U234">
+        <v>2.2</v>
+      </c>
+      <c r="V234">
+        <v>2.85</v>
+      </c>
+      <c r="W234">
+        <v>1.34</v>
+      </c>
+      <c r="X234">
+        <v>3</v>
+      </c>
+      <c r="Y234">
+        <v>2.7</v>
+      </c>
+      <c r="Z234">
+        <v>1.41</v>
+      </c>
+      <c r="AA234">
+        <v>6.45</v>
+      </c>
+      <c r="AB234">
+        <v>1.09</v>
+      </c>
+      <c r="AC234">
+        <v>3.1</v>
+      </c>
+      <c r="AD234">
+        <v>3.5</v>
+      </c>
+      <c r="AE234">
+        <v>2.2</v>
+      </c>
+      <c r="AF234">
+        <v>1.04</v>
+      </c>
+      <c r="AG234">
+        <v>12</v>
+      </c>
+      <c r="AH234">
+        <v>1.28</v>
+      </c>
+      <c r="AI234">
+        <v>3.75</v>
+      </c>
+      <c r="AJ234">
+        <v>1.83</v>
+      </c>
+      <c r="AK234">
+        <v>1.95</v>
+      </c>
+      <c r="AL234">
+        <v>1.68</v>
+      </c>
+      <c r="AM234">
+        <v>2.15</v>
+      </c>
+      <c r="AN234">
+        <v>1.68</v>
+      </c>
+      <c r="AO234">
+        <v>1.25</v>
+      </c>
+      <c r="AP234">
+        <v>1.36</v>
+      </c>
+      <c r="AQ234">
+        <v>1.27</v>
+      </c>
+      <c r="AR234">
+        <v>1.27</v>
+      </c>
+      <c r="AS234">
+        <v>1.42</v>
+      </c>
+      <c r="AT234">
+        <v>1.17</v>
+      </c>
+      <c r="AU234">
+        <v>1.51</v>
+      </c>
+      <c r="AV234">
+        <v>1.57</v>
+      </c>
+      <c r="AW234">
+        <v>3.08</v>
+      </c>
+      <c r="AX234">
+        <v>2.37</v>
+      </c>
+      <c r="AY234">
+        <v>7.8</v>
+      </c>
+      <c r="AZ234">
+        <v>1.87</v>
+      </c>
+      <c r="BA234">
+        <v>1.19</v>
+      </c>
+      <c r="BB234">
+        <v>1.39</v>
+      </c>
+      <c r="BC234">
+        <v>1.74</v>
+      </c>
+      <c r="BD234">
+        <v>2.15</v>
+      </c>
+      <c r="BE234">
+        <v>2.84</v>
+      </c>
+      <c r="BF234">
+        <v>2</v>
+      </c>
+      <c r="BG234">
+        <v>0</v>
+      </c>
+      <c r="BH234">
+        <v>7</v>
+      </c>
+      <c r="BI234">
+        <v>8</v>
+      </c>
+      <c r="BJ234">
+        <v>9</v>
+      </c>
+      <c r="BK234">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>2435426</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44967.66666666666</v>
+      </c>
+      <c r="F235">
+        <v>24</v>
+      </c>
+      <c r="G235" t="s">
+        <v>84</v>
+      </c>
+      <c r="H235" t="s">
+        <v>69</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="L235">
+        <v>5</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>6</v>
+      </c>
+      <c r="O235" t="s">
+        <v>246</v>
+      </c>
+      <c r="P235" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q235">
+        <v>2</v>
+      </c>
+      <c r="R235">
+        <v>9</v>
+      </c>
+      <c r="S235">
+        <v>11</v>
+      </c>
+      <c r="T235">
+        <v>2.6</v>
+      </c>
+      <c r="U235">
+        <v>2.3</v>
+      </c>
+      <c r="V235">
+        <v>3.75</v>
+      </c>
+      <c r="W235">
+        <v>1.3</v>
+      </c>
+      <c r="X235">
+        <v>3.2</v>
+      </c>
+      <c r="Y235">
+        <v>2.45</v>
+      </c>
+      <c r="Z235">
+        <v>1.49</v>
+      </c>
+      <c r="AA235">
+        <v>5.9</v>
+      </c>
+      <c r="AB235">
+        <v>1.1</v>
+      </c>
+      <c r="AC235">
+        <v>2</v>
+      </c>
+      <c r="AD235">
+        <v>3.6</v>
+      </c>
+      <c r="AE235">
+        <v>3.5</v>
+      </c>
+      <c r="AF235">
+        <v>1.03</v>
+      </c>
+      <c r="AG235">
+        <v>15</v>
+      </c>
+      <c r="AH235">
+        <v>1.22</v>
+      </c>
+      <c r="AI235">
+        <v>4.2</v>
+      </c>
+      <c r="AJ235">
+        <v>1.7</v>
+      </c>
+      <c r="AK235">
+        <v>2.15</v>
+      </c>
+      <c r="AL235">
+        <v>1.6</v>
+      </c>
+      <c r="AM235">
+        <v>2.25</v>
+      </c>
+      <c r="AN235">
+        <v>1.3</v>
+      </c>
+      <c r="AO235">
+        <v>1.22</v>
+      </c>
+      <c r="AP235">
+        <v>1.83</v>
+      </c>
+      <c r="AQ235">
+        <v>2.4</v>
+      </c>
+      <c r="AR235">
+        <v>0.73</v>
+      </c>
+      <c r="AS235">
+        <v>2.45</v>
+      </c>
+      <c r="AT235">
+        <v>0.67</v>
+      </c>
+      <c r="AU235">
+        <v>1.33</v>
+      </c>
+      <c r="AV235">
+        <v>0.89</v>
+      </c>
+      <c r="AW235">
+        <v>2.22</v>
+      </c>
+      <c r="AX235">
+        <v>1.65</v>
+      </c>
+      <c r="AY235">
+        <v>10</v>
+      </c>
+      <c r="AZ235">
+        <v>2.64</v>
+      </c>
+      <c r="BA235">
+        <v>1.24</v>
+      </c>
+      <c r="BB235">
+        <v>1.54</v>
+      </c>
+      <c r="BC235">
+        <v>1.88</v>
+      </c>
+      <c r="BD235">
+        <v>2.3</v>
+      </c>
+      <c r="BE235">
+        <v>3.2</v>
+      </c>
+      <c r="BF235">
+        <v>6</v>
+      </c>
+      <c r="BG235">
+        <v>3</v>
+      </c>
+      <c r="BH235">
+        <v>3</v>
+      </c>
+      <c r="BI235">
+        <v>2</v>
+      </c>
+      <c r="BJ235">
+        <v>9</v>
+      </c>
+      <c r="BK235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>2435427</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44967.66666666666</v>
+      </c>
+      <c r="F236">
+        <v>24</v>
+      </c>
+      <c r="G236" t="s">
+        <v>68</v>
+      </c>
+      <c r="H236" t="s">
+        <v>79</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>2</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>2</v>
+      </c>
+      <c r="O236" t="s">
+        <v>247</v>
+      </c>
+      <c r="P236" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q236">
+        <v>1</v>
+      </c>
+      <c r="R236">
+        <v>5</v>
+      </c>
+      <c r="S236">
+        <v>6</v>
+      </c>
+      <c r="T236">
+        <v>3.3</v>
+      </c>
+      <c r="U236">
+        <v>2.2</v>
+      </c>
+      <c r="V236">
+        <v>3.1</v>
+      </c>
+      <c r="W236">
+        <v>1.34</v>
+      </c>
+      <c r="X236">
+        <v>3</v>
+      </c>
+      <c r="Y236">
+        <v>2.6</v>
+      </c>
+      <c r="Z236">
+        <v>1.44</v>
+      </c>
+      <c r="AA236">
+        <v>6.45</v>
+      </c>
+      <c r="AB236">
+        <v>1.09</v>
+      </c>
+      <c r="AC236">
+        <v>2.75</v>
+      </c>
+      <c r="AD236">
+        <v>3.5</v>
+      </c>
+      <c r="AE236">
+        <v>2.45</v>
+      </c>
+      <c r="AF236">
+        <v>1.04</v>
+      </c>
+      <c r="AG236">
+        <v>13</v>
+      </c>
+      <c r="AH236">
+        <v>1.25</v>
+      </c>
+      <c r="AI236">
+        <v>3.75</v>
+      </c>
+      <c r="AJ236">
+        <v>1.8</v>
+      </c>
+      <c r="AK236">
+        <v>2</v>
+      </c>
+      <c r="AL236">
+        <v>1.65</v>
+      </c>
+      <c r="AM236">
+        <v>2.2</v>
+      </c>
+      <c r="AN236">
+        <v>1.55</v>
+      </c>
+      <c r="AO236">
+        <v>1.25</v>
+      </c>
+      <c r="AP236">
+        <v>1.45</v>
+      </c>
+      <c r="AQ236">
+        <v>1.55</v>
+      </c>
+      <c r="AR236">
+        <v>0.91</v>
+      </c>
+      <c r="AS236">
+        <v>1.67</v>
+      </c>
+      <c r="AT236">
+        <v>0.83</v>
+      </c>
+      <c r="AU236">
+        <v>1.58</v>
+      </c>
+      <c r="AV236">
+        <v>1.49</v>
+      </c>
+      <c r="AW236">
+        <v>3.07</v>
+      </c>
+      <c r="AX236">
+        <v>2.2</v>
+      </c>
+      <c r="AY236">
+        <v>7.6</v>
+      </c>
+      <c r="AZ236">
+        <v>1.97</v>
+      </c>
+      <c r="BA236">
+        <v>1.19</v>
+      </c>
+      <c r="BB236">
+        <v>1.39</v>
+      </c>
+      <c r="BC236">
+        <v>1.72</v>
+      </c>
+      <c r="BD236">
+        <v>2.12</v>
+      </c>
+      <c r="BE236">
+        <v>2.84</v>
+      </c>
+      <c r="BF236">
+        <v>7</v>
+      </c>
+      <c r="BG236">
+        <v>3</v>
+      </c>
+      <c r="BH236">
+        <v>2</v>
+      </c>
+      <c r="BI236">
+        <v>6</v>
+      </c>
+      <c r="BJ236">
+        <v>9</v>
+      </c>
+      <c r="BK236">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>2435428</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44967.66666666666</v>
+      </c>
+      <c r="F237">
+        <v>24</v>
+      </c>
+      <c r="G237" t="s">
+        <v>72</v>
+      </c>
+      <c r="H237" t="s">
+        <v>74</v>
+      </c>
+      <c r="I237">
+        <v>3</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>3</v>
+      </c>
+      <c r="L237">
+        <v>4</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>5</v>
+      </c>
+      <c r="O237" t="s">
+        <v>248</v>
+      </c>
+      <c r="P237" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q237">
+        <v>8</v>
+      </c>
+      <c r="R237">
+        <v>5</v>
+      </c>
+      <c r="S237">
+        <v>13</v>
+      </c>
+      <c r="T237">
+        <v>1.7</v>
+      </c>
+      <c r="U237">
+        <v>2.75</v>
+      </c>
+      <c r="V237">
+        <v>8</v>
+      </c>
+      <c r="W237">
+        <v>1.24</v>
+      </c>
+      <c r="X237">
+        <v>3.7</v>
+      </c>
+      <c r="Y237">
+        <v>2.22</v>
+      </c>
+      <c r="Z237">
+        <v>1.6</v>
+      </c>
+      <c r="AA237">
+        <v>4.95</v>
+      </c>
+      <c r="AB237">
+        <v>1.14</v>
+      </c>
+      <c r="AC237">
+        <v>0</v>
+      </c>
+      <c r="AD237">
+        <v>0</v>
+      </c>
+      <c r="AE237">
+        <v>11</v>
+      </c>
+      <c r="AF237">
+        <v>1.01</v>
+      </c>
+      <c r="AG237">
+        <v>19</v>
+      </c>
+      <c r="AH237">
+        <v>1.16</v>
+      </c>
+      <c r="AI237">
+        <v>5</v>
+      </c>
+      <c r="AJ237">
+        <v>1.53</v>
+      </c>
+      <c r="AK237">
+        <v>2.55</v>
+      </c>
+      <c r="AL237">
+        <v>1.95</v>
+      </c>
+      <c r="AM237">
+        <v>1.83</v>
+      </c>
+      <c r="AN237">
+        <v>1.01</v>
+      </c>
+      <c r="AO237">
+        <v>1.1</v>
+      </c>
+      <c r="AP237">
+        <v>3.75</v>
+      </c>
+      <c r="AQ237">
+        <v>2.17</v>
+      </c>
+      <c r="AR237">
+        <v>1.18</v>
+      </c>
+      <c r="AS237">
+        <v>2.23</v>
+      </c>
+      <c r="AT237">
+        <v>1.08</v>
+      </c>
+      <c r="AU237">
+        <v>2</v>
+      </c>
+      <c r="AV237">
+        <v>1.33</v>
+      </c>
+      <c r="AW237">
+        <v>3.33</v>
+      </c>
+      <c r="AX237">
+        <v>1.15</v>
+      </c>
+      <c r="AY237">
+        <v>14</v>
+      </c>
+      <c r="AZ237">
+        <v>6.2</v>
+      </c>
+      <c r="BA237">
+        <v>1.18</v>
+      </c>
+      <c r="BB237">
+        <v>1.32</v>
+      </c>
+      <c r="BC237">
+        <v>1.68</v>
+      </c>
+      <c r="BD237">
+        <v>2.05</v>
+      </c>
+      <c r="BE237">
+        <v>2.6</v>
+      </c>
+      <c r="BF237">
+        <v>10</v>
+      </c>
+      <c r="BG237">
+        <v>10</v>
+      </c>
+      <c r="BH237">
+        <v>7</v>
+      </c>
+      <c r="BI237">
+        <v>2</v>
+      </c>
+      <c r="BJ237">
+        <v>17</v>
+      </c>
+      <c r="BK237">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>2435430</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44967.66666666666</v>
+      </c>
+      <c r="F238">
+        <v>24</v>
+      </c>
+      <c r="G238" t="s">
+        <v>71</v>
+      </c>
+      <c r="H238" t="s">
+        <v>66</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
+        <v>206</v>
+      </c>
+      <c r="P238" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q238">
+        <v>13</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <v>13</v>
+      </c>
+      <c r="T238">
+        <v>1.87</v>
+      </c>
+      <c r="U238">
+        <v>2.45</v>
+      </c>
+      <c r="V238">
+        <v>7.5</v>
+      </c>
+      <c r="W238">
+        <v>1.34</v>
+      </c>
+      <c r="X238">
+        <v>3</v>
+      </c>
+      <c r="Y238">
+        <v>2.6</v>
+      </c>
+      <c r="Z238">
+        <v>1.44</v>
+      </c>
+      <c r="AA238">
+        <v>6.4</v>
+      </c>
+      <c r="AB238">
+        <v>1.09</v>
+      </c>
+      <c r="AC238">
+        <v>1.36</v>
+      </c>
+      <c r="AD238">
+        <v>0</v>
+      </c>
+      <c r="AE238">
+        <v>9</v>
+      </c>
+      <c r="AF238">
+        <v>1.03</v>
+      </c>
+      <c r="AG238">
+        <v>13</v>
+      </c>
+      <c r="AH238">
+        <v>1.25</v>
+      </c>
+      <c r="AI238">
+        <v>3.75</v>
+      </c>
+      <c r="AJ238">
+        <v>1.8</v>
+      </c>
+      <c r="AK238">
+        <v>2</v>
+      </c>
+      <c r="AL238">
+        <v>2.15</v>
+      </c>
+      <c r="AM238">
+        <v>1.68</v>
+      </c>
+      <c r="AN238">
+        <v>1.05</v>
+      </c>
+      <c r="AO238">
+        <v>1.14</v>
+      </c>
+      <c r="AP238">
+        <v>3.2</v>
+      </c>
+      <c r="AQ238">
+        <v>1.82</v>
+      </c>
+      <c r="AR238">
+        <v>1</v>
+      </c>
+      <c r="AS238">
+        <v>1.92</v>
+      </c>
+      <c r="AT238">
+        <v>0.92</v>
+      </c>
+      <c r="AU238">
+        <v>1.75</v>
+      </c>
+      <c r="AV238">
+        <v>1.07</v>
+      </c>
+      <c r="AW238">
+        <v>2.82</v>
+      </c>
+      <c r="AX238">
+        <v>1.22</v>
+      </c>
+      <c r="AY238">
+        <v>14.5</v>
+      </c>
+      <c r="AZ238">
+        <v>5.05</v>
+      </c>
+      <c r="BA238">
+        <v>1.21</v>
+      </c>
+      <c r="BB238">
+        <v>1.51</v>
+      </c>
+      <c r="BC238">
+        <v>1.79</v>
+      </c>
+      <c r="BD238">
+        <v>2.23</v>
+      </c>
+      <c r="BE238">
+        <v>2.93</v>
+      </c>
+      <c r="BF238">
+        <v>3</v>
+      </c>
+      <c r="BG238">
+        <v>0</v>
+      </c>
+      <c r="BH238">
+        <v>10</v>
+      </c>
+      <c r="BI238">
+        <v>2</v>
+      </c>
+      <c r="BJ238">
+        <v>13</v>
+      </c>
+      <c r="BK238">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="366">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,9 @@
     <t>['26', '31', '34', '59']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['8', '23', '33']</t>
   </si>
   <si>
@@ -917,9 +920,6 @@
   </si>
   <si>
     <t>['18', '71']</t>
-  </si>
-  <si>
-    <t>['39']</t>
   </si>
   <si>
     <t>['45+2', '82']</t>
@@ -1106,6 +1106,12 @@
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['19', '20']</t>
+  </si>
+  <si>
+    <t>['3', '54']</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK238"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1711,7 +1717,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1902,7 +1908,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2183,7 +2189,7 @@
         <v>2.55</v>
       </c>
       <c r="AT4">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2857,7 +2863,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3048,7 +3054,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3329,7 +3335,7 @@
         <v>1.17</v>
       </c>
       <c r="AT10">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3621,7 +3627,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4003,7 +4009,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4385,7 +4391,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4576,7 +4582,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4767,7 +4773,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4958,7 +4964,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5045,10 +5051,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT19">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5236,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
         <v>0.92</v>
@@ -5340,7 +5346,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5427,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT21">
         <v>1.17</v>
@@ -5531,7 +5537,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5621,7 +5627,7 @@
         <v>1.92</v>
       </c>
       <c r="AT22">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU22">
         <v>1.76</v>
@@ -6000,10 +6006,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT24">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU24">
         <v>1.81</v>
@@ -6104,7 +6110,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6295,7 +6301,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6677,7 +6683,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6868,7 +6874,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7059,7 +7065,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7250,7 +7256,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7337,10 +7343,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT31">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU31">
         <v>1.4</v>
@@ -7441,7 +7447,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7823,7 +7829,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8014,7 +8020,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -9056,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT40">
         <v>1.33</v>
@@ -9351,7 +9357,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9733,7 +9739,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10115,7 +10121,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10396,7 +10402,7 @@
         <v>1.92</v>
       </c>
       <c r="AT47">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU47">
         <v>1.64</v>
@@ -10497,7 +10503,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10584,7 +10590,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT48">
         <v>1.17</v>
@@ -10688,7 +10694,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10775,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT49">
         <v>0.67</v>
@@ -10969,7 +10975,7 @@
         <v>1.17</v>
       </c>
       <c r="AT50">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU50">
         <v>1.33</v>
@@ -11261,7 +11267,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11452,7 +11458,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11834,7 +11840,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12112,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT56">
         <v>0.67</v>
@@ -12598,7 +12604,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12688,7 +12694,7 @@
         <v>1.92</v>
       </c>
       <c r="AT59">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU59">
         <v>1.33</v>
@@ -12789,7 +12795,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12980,7 +12986,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13553,7 +13559,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13744,7 +13750,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13831,7 +13837,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
         <v>0.64</v>
@@ -13935,7 +13941,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14126,7 +14132,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14213,10 +14219,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT67">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU67">
         <v>1.27</v>
@@ -14317,7 +14323,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14407,7 +14413,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU68">
         <v>1.12</v>
@@ -14890,7 +14896,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14980,7 +14986,7 @@
         <v>2.23</v>
       </c>
       <c r="AT71">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU71">
         <v>1.81</v>
@@ -15168,7 +15174,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT72">
         <v>0.92</v>
@@ -15272,7 +15278,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15463,7 +15469,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15654,7 +15660,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16227,7 +16233,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16609,7 +16615,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16890,7 +16896,7 @@
         <v>1.42</v>
       </c>
       <c r="AT81">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU81">
         <v>1.16</v>
@@ -16991,7 +16997,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17373,7 +17379,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17564,7 +17570,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17651,7 +17657,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT85">
         <v>1.33</v>
@@ -17755,7 +17761,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17946,7 +17952,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18328,7 +18334,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18418,7 +18424,7 @@
         <v>1.46</v>
       </c>
       <c r="AT89">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU89">
         <v>1.72</v>
@@ -19092,7 +19098,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19179,10 +19185,10 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT93">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU93">
         <v>1.16</v>
@@ -19283,7 +19289,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19474,7 +19480,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19561,7 +19567,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT95">
         <v>1.58</v>
@@ -19665,7 +19671,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -20238,7 +20244,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20429,7 +20435,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20811,7 +20817,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -21092,7 +21098,7 @@
         <v>2.23</v>
       </c>
       <c r="AT103">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU103">
         <v>1.76</v>
@@ -21283,7 +21289,7 @@
         <v>1.67</v>
       </c>
       <c r="AT104">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -21471,7 +21477,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT105">
         <v>1.17</v>
@@ -23763,7 +23769,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT117">
         <v>0.64</v>
@@ -23954,7 +23960,7 @@
         <v>2.4</v>
       </c>
       <c r="AS118">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT118">
         <v>2.55</v>
@@ -24145,7 +24151,7 @@
         <v>0.6</v>
       </c>
       <c r="AS119">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT119">
         <v>0.67</v>
@@ -24530,7 +24536,7 @@
         <v>1.83</v>
       </c>
       <c r="AT121">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU121">
         <v>2.12</v>
@@ -24912,7 +24918,7 @@
         <v>1.92</v>
       </c>
       <c r="AT123">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU123">
         <v>1.52</v>
@@ -25676,7 +25682,7 @@
         <v>1.42</v>
       </c>
       <c r="AT127">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU127">
         <v>1.35</v>
@@ -26822,7 +26828,7 @@
         <v>1.67</v>
       </c>
       <c r="AT133">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU133">
         <v>1.51</v>
@@ -27010,7 +27016,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT134">
         <v>0.67</v>
@@ -27204,7 +27210,7 @@
         <v>1.92</v>
       </c>
       <c r="AT135">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU135">
         <v>1.75</v>
@@ -27965,7 +27971,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT139">
         <v>1.25</v>
@@ -28156,7 +28162,7 @@
         <v>1.17</v>
       </c>
       <c r="AS140">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT140">
         <v>1.58</v>
@@ -29114,7 +29120,7 @@
         <v>1.5</v>
       </c>
       <c r="AT145">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU145">
         <v>1.37</v>
@@ -29406,7 +29412,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q147">
         <v>15</v>
@@ -30066,7 +30072,7 @@
         <v>1.67</v>
       </c>
       <c r="AS150">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT150">
         <v>0.92</v>
@@ -30448,7 +30454,7 @@
         <v>0.14</v>
       </c>
       <c r="AS152">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT152">
         <v>0.67</v>
@@ -30833,7 +30839,7 @@
         <v>2</v>
       </c>
       <c r="AT154">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU154">
         <v>1.18</v>
@@ -31594,7 +31600,7 @@
         <v>1.43</v>
       </c>
       <c r="AS158">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT158">
         <v>1.58</v>
@@ -32271,7 +32277,7 @@
         <v>202</v>
       </c>
       <c r="P162" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32552,7 +32558,7 @@
         <v>1.67</v>
       </c>
       <c r="AT163">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU163">
         <v>1.75</v>
@@ -32934,7 +32940,7 @@
         <v>1.92</v>
       </c>
       <c r="AT165">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU165">
         <v>1.55</v>
@@ -34077,7 +34083,7 @@
         <v>1.13</v>
       </c>
       <c r="AS171">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT171">
         <v>0.92</v>
@@ -35136,7 +35142,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35327,7 +35333,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35608,7 +35614,7 @@
         <v>1.08</v>
       </c>
       <c r="AT179">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU179">
         <v>1.25</v>
@@ -35796,7 +35802,7 @@
         <v>0.88</v>
       </c>
       <c r="AS180">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT180">
         <v>0.83</v>
@@ -36372,7 +36378,7 @@
         <v>1.27</v>
       </c>
       <c r="AT183">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU183">
         <v>1.31</v>
@@ -36754,7 +36760,7 @@
         <v>1.83</v>
       </c>
       <c r="AT185">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU185">
         <v>1.97</v>
@@ -36855,7 +36861,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37324,7 +37330,7 @@
         <v>1</v>
       </c>
       <c r="AS188">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT188">
         <v>1.08</v>
@@ -39043,7 +39049,7 @@
         <v>0.9</v>
       </c>
       <c r="AS197">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT197">
         <v>0.92</v>
@@ -40192,7 +40198,7 @@
         <v>1.27</v>
       </c>
       <c r="AT203">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU203">
         <v>1.26</v>
@@ -40484,7 +40490,7 @@
         <v>85</v>
       </c>
       <c r="P205" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q205">
         <v>2</v>
@@ -40953,7 +40959,7 @@
         <v>1.9</v>
       </c>
       <c r="AS207">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT207">
         <v>1.83</v>
@@ -41720,7 +41726,7 @@
         <v>1.42</v>
       </c>
       <c r="AT211">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU211">
         <v>1.32</v>
@@ -42012,7 +42018,7 @@
         <v>231</v>
       </c>
       <c r="P213" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42484,7 +42490,7 @@
         <v>2</v>
       </c>
       <c r="AT215">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU215">
         <v>1.27</v>
@@ -43054,7 +43060,7 @@
         <v>1.45</v>
       </c>
       <c r="AS218">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT218">
         <v>1.33</v>
@@ -43158,7 +43164,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43245,7 +43251,7 @@
         <v>0.9</v>
       </c>
       <c r="AS219">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT219">
         <v>0.83</v>
@@ -43540,7 +43546,7 @@
         <v>236</v>
       </c>
       <c r="P221" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q221">
         <v>8</v>
@@ -43731,7 +43737,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -44012,7 +44018,7 @@
         <v>1.42</v>
       </c>
       <c r="AT223">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU223">
         <v>1.91</v>
@@ -45540,7 +45546,7 @@
         <v>1.42</v>
       </c>
       <c r="AT231">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU231">
         <v>1.38</v>
@@ -46301,7 +46307,7 @@
         <v>0.73</v>
       </c>
       <c r="AS235">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT235">
         <v>0.67</v>
@@ -46929,6 +46935,579 @@
       </c>
       <c r="BK238">
         <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>2435431</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44970.66666666666</v>
+      </c>
+      <c r="F239">
+        <v>24</v>
+      </c>
+      <c r="G239" t="s">
+        <v>83</v>
+      </c>
+      <c r="H239" t="s">
+        <v>81</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>2</v>
+      </c>
+      <c r="K239">
+        <v>3</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>249</v>
+      </c>
+      <c r="P239" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q239">
+        <v>6</v>
+      </c>
+      <c r="R239">
+        <v>5</v>
+      </c>
+      <c r="S239">
+        <v>11</v>
+      </c>
+      <c r="T239">
+        <v>3.34</v>
+      </c>
+      <c r="U239">
+        <v>2.28</v>
+      </c>
+      <c r="V239">
+        <v>2.88</v>
+      </c>
+      <c r="W239">
+        <v>1.29</v>
+      </c>
+      <c r="X239">
+        <v>3.3</v>
+      </c>
+      <c r="Y239">
+        <v>2.45</v>
+      </c>
+      <c r="Z239">
+        <v>1.49</v>
+      </c>
+      <c r="AA239">
+        <v>5.9</v>
+      </c>
+      <c r="AB239">
+        <v>1.1</v>
+      </c>
+      <c r="AC239">
+        <v>2.77</v>
+      </c>
+      <c r="AD239">
+        <v>3.83</v>
+      </c>
+      <c r="AE239">
+        <v>2.34</v>
+      </c>
+      <c r="AF239">
+        <v>1.02</v>
+      </c>
+      <c r="AG239">
+        <v>15</v>
+      </c>
+      <c r="AH239">
+        <v>1.22</v>
+      </c>
+      <c r="AI239">
+        <v>4.2</v>
+      </c>
+      <c r="AJ239">
+        <v>1.63</v>
+      </c>
+      <c r="AK239">
+        <v>2.06</v>
+      </c>
+      <c r="AL239">
+        <v>1.57</v>
+      </c>
+      <c r="AM239">
+        <v>2.35</v>
+      </c>
+      <c r="AN239">
+        <v>1.57</v>
+      </c>
+      <c r="AO239">
+        <v>1.22</v>
+      </c>
+      <c r="AP239">
+        <v>1.47</v>
+      </c>
+      <c r="AQ239">
+        <v>1.45</v>
+      </c>
+      <c r="AR239">
+        <v>1.09</v>
+      </c>
+      <c r="AS239">
+        <v>1.33</v>
+      </c>
+      <c r="AT239">
+        <v>1.25</v>
+      </c>
+      <c r="AU239">
+        <v>1.26</v>
+      </c>
+      <c r="AV239">
+        <v>1.62</v>
+      </c>
+      <c r="AW239">
+        <v>2.88</v>
+      </c>
+      <c r="AX239">
+        <v>2.26</v>
+      </c>
+      <c r="AY239">
+        <v>7.4</v>
+      </c>
+      <c r="AZ239">
+        <v>1.94</v>
+      </c>
+      <c r="BA239">
+        <v>1.28</v>
+      </c>
+      <c r="BB239">
+        <v>1.62</v>
+      </c>
+      <c r="BC239">
+        <v>1.99</v>
+      </c>
+      <c r="BD239">
+        <v>2.48</v>
+      </c>
+      <c r="BE239">
+        <v>3.48</v>
+      </c>
+      <c r="BF239">
+        <v>4</v>
+      </c>
+      <c r="BG239">
+        <v>4</v>
+      </c>
+      <c r="BH239">
+        <v>7</v>
+      </c>
+      <c r="BI239">
+        <v>5</v>
+      </c>
+      <c r="BJ239">
+        <v>11</v>
+      </c>
+      <c r="BK239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>2435432</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44970.66666666666</v>
+      </c>
+      <c r="F240">
+        <v>24</v>
+      </c>
+      <c r="G240" t="s">
+        <v>82</v>
+      </c>
+      <c r="H240" t="s">
+        <v>75</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240" t="s">
+        <v>86</v>
+      </c>
+      <c r="P240" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q240">
+        <v>3</v>
+      </c>
+      <c r="R240">
+        <v>3</v>
+      </c>
+      <c r="S240">
+        <v>6</v>
+      </c>
+      <c r="T240">
+        <v>3.1</v>
+      </c>
+      <c r="U240">
+        <v>2.15</v>
+      </c>
+      <c r="V240">
+        <v>3.4</v>
+      </c>
+      <c r="W240">
+        <v>1.34</v>
+      </c>
+      <c r="X240">
+        <v>3</v>
+      </c>
+      <c r="Y240">
+        <v>2.7</v>
+      </c>
+      <c r="Z240">
+        <v>1.41</v>
+      </c>
+      <c r="AA240">
+        <v>6.45</v>
+      </c>
+      <c r="AB240">
+        <v>1.09</v>
+      </c>
+      <c r="AC240">
+        <v>2.55</v>
+      </c>
+      <c r="AD240">
+        <v>3.49</v>
+      </c>
+      <c r="AE240">
+        <v>2.71</v>
+      </c>
+      <c r="AF240">
+        <v>1.04</v>
+      </c>
+      <c r="AG240">
+        <v>12</v>
+      </c>
+      <c r="AH240">
+        <v>1.28</v>
+      </c>
+      <c r="AI240">
+        <v>3.75</v>
+      </c>
+      <c r="AJ240">
+        <v>1.82</v>
+      </c>
+      <c r="AK240">
+        <v>2</v>
+      </c>
+      <c r="AL240">
+        <v>1.66</v>
+      </c>
+      <c r="AM240">
+        <v>2.15</v>
+      </c>
+      <c r="AN240">
+        <v>1.45</v>
+      </c>
+      <c r="AO240">
+        <v>1.25</v>
+      </c>
+      <c r="AP240">
+        <v>1.55</v>
+      </c>
+      <c r="AQ240">
+        <v>0.82</v>
+      </c>
+      <c r="AR240">
+        <v>1.27</v>
+      </c>
+      <c r="AS240">
+        <v>0.75</v>
+      </c>
+      <c r="AT240">
+        <v>1.42</v>
+      </c>
+      <c r="AU240">
+        <v>1.5</v>
+      </c>
+      <c r="AV240">
+        <v>1.14</v>
+      </c>
+      <c r="AW240">
+        <v>2.64</v>
+      </c>
+      <c r="AX240">
+        <v>1.95</v>
+      </c>
+      <c r="AY240">
+        <v>7.5</v>
+      </c>
+      <c r="AZ240">
+        <v>2.17</v>
+      </c>
+      <c r="BA240">
+        <v>1.27</v>
+      </c>
+      <c r="BB240">
+        <v>1.53</v>
+      </c>
+      <c r="BC240">
+        <v>1.86</v>
+      </c>
+      <c r="BD240">
+        <v>2.28</v>
+      </c>
+      <c r="BE240">
+        <v>3</v>
+      </c>
+      <c r="BF240">
+        <v>2</v>
+      </c>
+      <c r="BG240">
+        <v>2</v>
+      </c>
+      <c r="BH240">
+        <v>1</v>
+      </c>
+      <c r="BI240">
+        <v>2</v>
+      </c>
+      <c r="BJ240">
+        <v>3</v>
+      </c>
+      <c r="BK240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>2435395</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44970.66666666666</v>
+      </c>
+      <c r="F241">
+        <v>21</v>
+      </c>
+      <c r="G241" t="s">
+        <v>84</v>
+      </c>
+      <c r="H241" t="s">
+        <v>67</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+      <c r="N241">
+        <v>2</v>
+      </c>
+      <c r="O241" t="s">
+        <v>86</v>
+      </c>
+      <c r="P241" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q241">
+        <v>1</v>
+      </c>
+      <c r="R241">
+        <v>1</v>
+      </c>
+      <c r="S241">
+        <v>2</v>
+      </c>
+      <c r="T241">
+        <v>4.2</v>
+      </c>
+      <c r="U241">
+        <v>2.5</v>
+      </c>
+      <c r="V241">
+        <v>2.05</v>
+      </c>
+      <c r="W241">
+        <v>1.25</v>
+      </c>
+      <c r="X241">
+        <v>3.75</v>
+      </c>
+      <c r="Y241">
+        <v>2.2</v>
+      </c>
+      <c r="Z241">
+        <v>1.62</v>
+      </c>
+      <c r="AA241">
+        <v>4.75</v>
+      </c>
+      <c r="AB241">
+        <v>1.15</v>
+      </c>
+      <c r="AC241">
+        <v>4.07</v>
+      </c>
+      <c r="AD241">
+        <v>4.17</v>
+      </c>
+      <c r="AE241">
+        <v>1.65</v>
+      </c>
+      <c r="AF241">
+        <v>1.02</v>
+      </c>
+      <c r="AG241">
+        <v>12</v>
+      </c>
+      <c r="AH241">
+        <v>1.17</v>
+      </c>
+      <c r="AI241">
+        <v>4.5</v>
+      </c>
+      <c r="AJ241">
+        <v>1.53</v>
+      </c>
+      <c r="AK241">
+        <v>2.38</v>
+      </c>
+      <c r="AL241">
+        <v>1.57</v>
+      </c>
+      <c r="AM241">
+        <v>2.3</v>
+      </c>
+      <c r="AN241">
+        <v>2.2</v>
+      </c>
+      <c r="AO241">
+        <v>1.22</v>
+      </c>
+      <c r="AP241">
+        <v>1.17</v>
+      </c>
+      <c r="AQ241">
+        <v>2.45</v>
+      </c>
+      <c r="AR241">
+        <v>1.58</v>
+      </c>
+      <c r="AS241">
+        <v>2.25</v>
+      </c>
+      <c r="AT241">
+        <v>1.69</v>
+      </c>
+      <c r="AU241">
+        <v>1.32</v>
+      </c>
+      <c r="AV241">
+        <v>1.49</v>
+      </c>
+      <c r="AW241">
+        <v>2.81</v>
+      </c>
+      <c r="AX241">
+        <v>3.46</v>
+      </c>
+      <c r="AY241">
+        <v>8.5</v>
+      </c>
+      <c r="AZ241">
+        <v>1.44</v>
+      </c>
+      <c r="BA241">
+        <v>1.22</v>
+      </c>
+      <c r="BB241">
+        <v>1.42</v>
+      </c>
+      <c r="BC241">
+        <v>1.74</v>
+      </c>
+      <c r="BD241">
+        <v>2.23</v>
+      </c>
+      <c r="BE241">
+        <v>3</v>
+      </c>
+      <c r="BF241">
+        <v>2</v>
+      </c>
+      <c r="BG241">
+        <v>3</v>
+      </c>
+      <c r="BH241">
+        <v>4</v>
+      </c>
+      <c r="BI241">
+        <v>1</v>
+      </c>
+      <c r="BJ241">
+        <v>6</v>
+      </c>
+      <c r="BK241">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="374">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -766,6 +766,18 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['4', '11', '74']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['66', '70']</t>
+  </si>
+  <si>
+    <t>['7', '40', '53']</t>
+  </si>
+  <si>
     <t>['8', '23', '33']</t>
   </si>
   <si>
@@ -1112,6 +1124,18 @@
   </si>
   <si>
     <t>['3', '54']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['83', '90+3']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1717,7 +1741,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1807,7 +1831,7 @@
         <v>1.46</v>
       </c>
       <c r="AT2">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1908,7 +1932,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1995,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT3">
         <v>1.17</v>
@@ -2186,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT4">
         <v>1.25</v>
@@ -2380,7 +2404,7 @@
         <v>1.67</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2568,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT6">
         <v>0.67</v>
@@ -2863,7 +2887,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2953,7 +2977,7 @@
         <v>1.92</v>
       </c>
       <c r="AT8">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3054,7 +3078,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3523,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT11">
         <v>0.92</v>
@@ -3627,7 +3651,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3714,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT12">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4009,7 +4033,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4287,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT15">
         <v>0.67</v>
@@ -4391,7 +4415,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4481,7 +4505,7 @@
         <v>1.42</v>
       </c>
       <c r="AT16">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4582,7 +4606,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4672,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4773,7 +4797,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4860,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT18">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4964,7 +4988,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5346,7 +5370,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5537,7 +5561,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -6110,7 +6134,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6197,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT25">
         <v>0.67</v>
@@ -6301,7 +6325,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6582,7 +6606,7 @@
         <v>1.42</v>
       </c>
       <c r="AT27">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU27">
         <v>1.93</v>
@@ -6683,7 +6707,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6773,7 +6797,7 @@
         <v>1.42</v>
       </c>
       <c r="AT28">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU28">
         <v>1.38</v>
@@ -6874,7 +6898,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7065,7 +7089,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7152,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT30">
         <v>1.58</v>
@@ -7256,7 +7280,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7447,7 +7471,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7537,7 +7561,7 @@
         <v>2.23</v>
       </c>
       <c r="AT32">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU32">
         <v>1.83</v>
@@ -7725,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7829,7 +7853,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8020,7 +8044,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8107,10 +8131,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT35">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU35">
         <v>1.28</v>
@@ -8680,10 +8704,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT38">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU38">
         <v>1.19</v>
@@ -8871,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT39">
         <v>0.92</v>
@@ -9065,7 +9089,7 @@
         <v>0.75</v>
       </c>
       <c r="AT40">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU40">
         <v>1.13</v>
@@ -9253,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT41">
         <v>0.92</v>
@@ -9357,7 +9381,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9444,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT42">
         <v>0.83</v>
@@ -9739,7 +9763,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9829,7 +9853,7 @@
         <v>1.46</v>
       </c>
       <c r="AT44">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU44">
         <v>1.65</v>
@@ -10121,7 +10145,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10211,7 +10235,7 @@
         <v>1.67</v>
       </c>
       <c r="AT46">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU46">
         <v>1.41</v>
@@ -10503,7 +10527,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10694,7 +10718,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -11163,7 +11187,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT51">
         <v>0.92</v>
@@ -11267,7 +11291,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11357,7 +11381,7 @@
         <v>1.67</v>
       </c>
       <c r="AT52">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11458,7 +11482,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11548,7 +11572,7 @@
         <v>2.23</v>
       </c>
       <c r="AT53">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU53">
         <v>1.72</v>
@@ -11736,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT54">
         <v>0.92</v>
@@ -11840,7 +11864,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11927,10 +11951,10 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT55">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU55">
         <v>2.1</v>
@@ -12121,7 +12145,7 @@
         <v>0.75</v>
       </c>
       <c r="AT56">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU56">
         <v>1.31</v>
@@ -12500,10 +12524,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT58">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU58">
         <v>0.9</v>
@@ -12604,7 +12628,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12691,7 +12715,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT59">
         <v>1.42</v>
@@ -12795,7 +12819,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12882,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT60">
         <v>1.08</v>
@@ -12986,7 +13010,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13455,10 +13479,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT63">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU63">
         <v>1.43</v>
@@ -13559,7 +13583,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13646,10 +13670,10 @@
         <v>3</v>
       </c>
       <c r="AS64">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT64">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU64">
         <v>2.22</v>
@@ -13750,7 +13774,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13840,7 +13864,7 @@
         <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU65">
         <v>1.2</v>
@@ -13941,7 +13965,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14132,7 +14156,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14323,7 +14347,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14410,7 +14434,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT68">
         <v>1.69</v>
@@ -14795,7 +14819,7 @@
         <v>1.42</v>
       </c>
       <c r="AT70">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU70">
         <v>1.16</v>
@@ -14896,7 +14920,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15278,7 +15302,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15469,7 +15493,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15660,7 +15684,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16233,7 +16257,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16320,7 +16344,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT78">
         <v>0.92</v>
@@ -16511,10 +16535,10 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT79">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU79">
         <v>2</v>
@@ -16615,7 +16639,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16702,10 +16726,10 @@
         <v>0.67</v>
       </c>
       <c r="AS80">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU80">
         <v>1.12</v>
@@ -16997,7 +17021,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17084,7 +17108,7 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT82">
         <v>0.67</v>
@@ -17379,7 +17403,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17469,7 +17493,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU84">
         <v>1.43</v>
@@ -17570,7 +17594,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17660,7 +17684,7 @@
         <v>2.25</v>
       </c>
       <c r="AT85">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU85">
         <v>1.43</v>
@@ -17761,7 +17785,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17952,7 +17976,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18039,10 +18063,10 @@
         <v>0.75</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT87">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU87">
         <v>2.32</v>
@@ -18334,7 +18358,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18612,7 +18636,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT90">
         <v>1.17</v>
@@ -18997,7 +19021,7 @@
         <v>1.67</v>
       </c>
       <c r="AT92">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU92">
         <v>1.7</v>
@@ -19098,7 +19122,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19289,7 +19313,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19379,7 +19403,7 @@
         <v>1.92</v>
       </c>
       <c r="AT94">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU94">
         <v>1.95</v>
@@ -19480,7 +19504,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19671,7 +19695,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19758,7 +19782,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT96">
         <v>0.92</v>
@@ -19949,10 +19973,10 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT97">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU97">
         <v>2.26</v>
@@ -20140,10 +20164,10 @@
         <v>3</v>
       </c>
       <c r="AS98">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT98">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU98">
         <v>1.15</v>
@@ -20244,7 +20268,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20334,7 +20358,7 @@
         <v>1.17</v>
       </c>
       <c r="AT99">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU99">
         <v>1.33</v>
@@ -20435,7 +20459,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20522,7 +20546,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT100">
         <v>0.83</v>
@@ -20713,7 +20737,7 @@
         <v>1</v>
       </c>
       <c r="AS101">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT101">
         <v>1.17</v>
@@ -21008,7 +21032,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21199,7 +21223,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21390,7 +21414,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21480,7 +21504,7 @@
         <v>2.25</v>
       </c>
       <c r="AT105">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU105">
         <v>1.38</v>
@@ -21581,7 +21605,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21668,7 +21692,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT106">
         <v>1.17</v>
@@ -21963,7 +21987,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22345,7 +22369,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22432,7 +22456,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT110">
         <v>0.92</v>
@@ -22536,7 +22560,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22626,7 +22650,7 @@
         <v>1.42</v>
       </c>
       <c r="AT111">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU111">
         <v>1.34</v>
@@ -22727,7 +22751,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22814,7 +22838,7 @@
         <v>0.6</v>
       </c>
       <c r="AS112">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT112">
         <v>0.83</v>
@@ -23005,10 +23029,10 @@
         <v>1.6</v>
       </c>
       <c r="AS113">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT113">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU113">
         <v>1.88</v>
@@ -23196,7 +23220,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT114">
         <v>1.17</v>
@@ -23300,7 +23324,7 @@
         <v>112</v>
       </c>
       <c r="P115" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23491,7 +23515,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23578,7 +23602,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT116">
         <v>1.17</v>
@@ -23772,7 +23796,7 @@
         <v>2.25</v>
       </c>
       <c r="AT117">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU117">
         <v>1.31</v>
@@ -23963,7 +23987,7 @@
         <v>0.75</v>
       </c>
       <c r="AT118">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU118">
         <v>1.49</v>
@@ -24154,7 +24178,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU119">
         <v>1.2</v>
@@ -24255,7 +24279,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24345,7 +24369,7 @@
         <v>1.17</v>
       </c>
       <c r="AT120">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU120">
         <v>1.41</v>
@@ -24533,7 +24557,7 @@
         <v>1.6</v>
       </c>
       <c r="AS121">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT121">
         <v>1.42</v>
@@ -24637,7 +24661,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24828,7 +24852,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24915,7 +24939,7 @@
         <v>2</v>
       </c>
       <c r="AS123">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT123">
         <v>1.69</v>
@@ -25019,7 +25043,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25210,7 +25234,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25300,7 +25324,7 @@
         <v>2</v>
       </c>
       <c r="AT125">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU125">
         <v>1.17</v>
@@ -25592,7 +25616,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25783,7 +25807,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -26165,7 +26189,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26252,7 +26276,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT130">
         <v>0.92</v>
@@ -26356,7 +26380,7 @@
         <v>111</v>
       </c>
       <c r="P131" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26446,7 +26470,7 @@
         <v>1.17</v>
       </c>
       <c r="AT131">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU131">
         <v>1.42</v>
@@ -26547,7 +26571,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q132">
         <v>1</v>
@@ -26634,10 +26658,10 @@
         <v>2.5</v>
       </c>
       <c r="AS132">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT132">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU132">
         <v>1.33</v>
@@ -27019,7 +27043,7 @@
         <v>2.25</v>
       </c>
       <c r="AT134">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU134">
         <v>1.46</v>
@@ -27120,7 +27144,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27502,7 +27526,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27589,10 +27613,10 @@
         <v>1.67</v>
       </c>
       <c r="AS137">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT137">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU137">
         <v>1.95</v>
@@ -27693,7 +27717,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27780,7 +27804,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT138">
         <v>0.92</v>
@@ -27974,7 +27998,7 @@
         <v>0.75</v>
       </c>
       <c r="AT139">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU139">
         <v>1.46</v>
@@ -28353,7 +28377,7 @@
         <v>1.14</v>
       </c>
       <c r="AS141">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT141">
         <v>1.17</v>
@@ -28544,7 +28568,7 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT142">
         <v>1.17</v>
@@ -28648,7 +28672,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28738,7 +28762,7 @@
         <v>1.42</v>
       </c>
       <c r="AT143">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU143">
         <v>1.77</v>
@@ -28839,7 +28863,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28929,7 +28953,7 @@
         <v>2.23</v>
       </c>
       <c r="AT144">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU144">
         <v>1.79</v>
@@ -29117,7 +29141,7 @@
         <v>1</v>
       </c>
       <c r="AS145">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT145">
         <v>1.25</v>
@@ -29311,7 +29335,7 @@
         <v>1.42</v>
       </c>
       <c r="AT146">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU146">
         <v>1.5</v>
@@ -29412,7 +29436,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q147">
         <v>15</v>
@@ -29502,7 +29526,7 @@
         <v>1.67</v>
       </c>
       <c r="AT147">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU147">
         <v>1.75</v>
@@ -29690,7 +29714,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT148">
         <v>0.92</v>
@@ -29794,7 +29818,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29884,7 +29908,7 @@
         <v>1.17</v>
       </c>
       <c r="AT149">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU149">
         <v>1.31</v>
@@ -30263,7 +30287,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT151">
         <v>1.17</v>
@@ -30645,7 +30669,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT153">
         <v>0.92</v>
@@ -30940,7 +30964,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -31131,7 +31155,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31221,7 +31245,7 @@
         <v>1.46</v>
       </c>
       <c r="AT156">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU156">
         <v>1.56</v>
@@ -31409,7 +31433,7 @@
         <v>0.86</v>
       </c>
       <c r="AS157">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT157">
         <v>0.67</v>
@@ -31704,7 +31728,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31794,7 +31818,7 @@
         <v>1.67</v>
       </c>
       <c r="AT159">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU159">
         <v>1.51</v>
@@ -31895,7 +31919,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31982,10 +32006,10 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT160">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU160">
         <v>1.27</v>
@@ -32277,7 +32301,7 @@
         <v>202</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32468,7 +32492,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32746,7 +32770,7 @@
         <v>0.75</v>
       </c>
       <c r="AS164">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT164">
         <v>0.92</v>
@@ -32937,7 +32961,7 @@
         <v>1</v>
       </c>
       <c r="AS165">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT165">
         <v>1.25</v>
@@ -33041,7 +33065,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33232,7 +33256,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33322,7 +33346,7 @@
         <v>1.42</v>
       </c>
       <c r="AT167">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU167">
         <v>1.85</v>
@@ -33510,10 +33534,10 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT168">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU168">
         <v>1.43</v>
@@ -33614,7 +33638,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33701,10 +33725,10 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT169">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU169">
         <v>1.9</v>
@@ -33895,7 +33919,7 @@
         <v>2.23</v>
       </c>
       <c r="AT170">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU170">
         <v>1.75</v>
@@ -33996,7 +34020,7 @@
         <v>209</v>
       </c>
       <c r="P171" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34187,7 +34211,7 @@
         <v>86</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34465,7 +34489,7 @@
         <v>0.75</v>
       </c>
       <c r="AS173">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT173">
         <v>0.67</v>
@@ -34569,7 +34593,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -34659,7 +34683,7 @@
         <v>2</v>
       </c>
       <c r="AT174">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU174">
         <v>1.2</v>
@@ -34760,7 +34784,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34850,7 +34874,7 @@
         <v>1.42</v>
       </c>
       <c r="AT175">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU175">
         <v>1.77</v>
@@ -35041,7 +35065,7 @@
         <v>1.42</v>
       </c>
       <c r="AT176">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU176">
         <v>1.35</v>
@@ -35142,7 +35166,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35229,7 +35253,7 @@
         <v>1</v>
       </c>
       <c r="AS177">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT177">
         <v>0.92</v>
@@ -35333,7 +35357,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35423,7 +35447,7 @@
         <v>1.67</v>
       </c>
       <c r="AT178">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU178">
         <v>1.47</v>
@@ -35611,7 +35635,7 @@
         <v>1.25</v>
       </c>
       <c r="AS179">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT179">
         <v>1.42</v>
@@ -35715,7 +35739,7 @@
         <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35996,7 +36020,7 @@
         <v>1.42</v>
       </c>
       <c r="AT181">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU181">
         <v>1.37</v>
@@ -36097,7 +36121,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36375,7 +36399,7 @@
         <v>0.89</v>
       </c>
       <c r="AS183">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT183">
         <v>1.25</v>
@@ -36670,7 +36694,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36757,7 +36781,7 @@
         <v>2</v>
       </c>
       <c r="AS185">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT185">
         <v>1.69</v>
@@ -36861,7 +36885,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36951,7 +36975,7 @@
         <v>1.17</v>
       </c>
       <c r="AT186">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU186">
         <v>1.51</v>
@@ -37052,7 +37076,7 @@
         <v>95</v>
       </c>
       <c r="P187" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q187">
         <v>6</v>
@@ -37243,7 +37267,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37521,7 +37545,7 @@
         <v>1.25</v>
       </c>
       <c r="AS189">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT189">
         <v>1.08</v>
@@ -37816,7 +37840,7 @@
         <v>220</v>
       </c>
       <c r="P191" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38007,7 +38031,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38094,7 +38118,7 @@
         <v>1.25</v>
       </c>
       <c r="AS192">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT192">
         <v>0.92</v>
@@ -38476,10 +38500,10 @@
         <v>1.6</v>
       </c>
       <c r="AS194">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT194">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU194">
         <v>1.53</v>
@@ -38580,7 +38604,7 @@
         <v>86</v>
       </c>
       <c r="P195" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38667,10 +38691,10 @@
         <v>2.63</v>
       </c>
       <c r="AS195">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT195">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU195">
         <v>1.84</v>
@@ -38771,7 +38795,7 @@
         <v>218</v>
       </c>
       <c r="P196" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -38858,7 +38882,7 @@
         <v>1.11</v>
       </c>
       <c r="AS196">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT196">
         <v>1.08</v>
@@ -39153,7 +39177,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -39243,7 +39267,7 @@
         <v>2</v>
       </c>
       <c r="AT198">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU198">
         <v>1.23</v>
@@ -39344,7 +39368,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39431,7 +39455,7 @@
         <v>0.89</v>
       </c>
       <c r="AS199">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT199">
         <v>0.83</v>
@@ -39625,7 +39649,7 @@
         <v>1.46</v>
       </c>
       <c r="AT200">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU200">
         <v>1.45</v>
@@ -39816,7 +39840,7 @@
         <v>2.23</v>
       </c>
       <c r="AT201">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU201">
         <v>1.87</v>
@@ -39917,7 +39941,7 @@
         <v>157</v>
       </c>
       <c r="P202" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40004,7 +40028,7 @@
         <v>1.1</v>
       </c>
       <c r="AS202">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT202">
         <v>1.17</v>
@@ -40195,7 +40219,7 @@
         <v>1.11</v>
       </c>
       <c r="AS203">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT203">
         <v>1.42</v>
@@ -40386,7 +40410,7 @@
         <v>0.7</v>
       </c>
       <c r="AS204">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT204">
         <v>0.67</v>
@@ -40490,7 +40514,7 @@
         <v>85</v>
       </c>
       <c r="P205" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q205">
         <v>2</v>
@@ -40577,10 +40601,10 @@
         <v>0.7</v>
       </c>
       <c r="AS205">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT205">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU205">
         <v>1.89</v>
@@ -40681,7 +40705,7 @@
         <v>227</v>
       </c>
       <c r="P206" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q206">
         <v>3</v>
@@ -40872,7 +40896,7 @@
         <v>228</v>
       </c>
       <c r="P207" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -40962,7 +40986,7 @@
         <v>1.33</v>
       </c>
       <c r="AT207">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU207">
         <v>1.28</v>
@@ -41063,7 +41087,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q208">
         <v>10</v>
@@ -41150,7 +41174,7 @@
         <v>1.11</v>
       </c>
       <c r="AS208">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT208">
         <v>0.92</v>
@@ -41341,7 +41365,7 @@
         <v>1.3</v>
       </c>
       <c r="AS209">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT209">
         <v>1.58</v>
@@ -42018,7 +42042,7 @@
         <v>231</v>
       </c>
       <c r="P213" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42209,7 +42233,7 @@
         <v>232</v>
       </c>
       <c r="P214" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -42782,7 +42806,7 @@
         <v>157</v>
       </c>
       <c r="P217" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -42872,7 +42896,7 @@
         <v>1.67</v>
       </c>
       <c r="AT217">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU217">
         <v>1.73</v>
@@ -42973,7 +42997,7 @@
         <v>233</v>
       </c>
       <c r="P218" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q218">
         <v>2</v>
@@ -43063,7 +43087,7 @@
         <v>1.33</v>
       </c>
       <c r="AT218">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU218">
         <v>1.24</v>
@@ -43164,7 +43188,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43355,7 +43379,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43442,10 +43466,10 @@
         <v>2</v>
       </c>
       <c r="AS220">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT220">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU220">
         <v>1.86</v>
@@ -43546,7 +43570,7 @@
         <v>236</v>
       </c>
       <c r="P221" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q221">
         <v>8</v>
@@ -43636,7 +43660,7 @@
         <v>1.92</v>
       </c>
       <c r="AT221">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU221">
         <v>1.75</v>
@@ -43737,7 +43761,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -43824,7 +43848,7 @@
         <v>0.73</v>
       </c>
       <c r="AS222">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT222">
         <v>0.67</v>
@@ -43928,7 +43952,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44206,10 +44230,10 @@
         <v>0.7</v>
       </c>
       <c r="AS224">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT224">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU224">
         <v>1.25</v>
@@ -44310,7 +44334,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44397,10 +44421,10 @@
         <v>1</v>
       </c>
       <c r="AS225">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT225">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU225">
         <v>1.45</v>
@@ -44501,7 +44525,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q226">
         <v>8</v>
@@ -44588,7 +44612,7 @@
         <v>1.27</v>
       </c>
       <c r="AS226">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT226">
         <v>1.17</v>
@@ -44779,10 +44803,10 @@
         <v>1.5</v>
       </c>
       <c r="AS227">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT227">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU227">
         <v>1.28</v>
@@ -44883,7 +44907,7 @@
         <v>242</v>
       </c>
       <c r="P228" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -45164,7 +45188,7 @@
         <v>1.92</v>
       </c>
       <c r="AT229">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU229">
         <v>1.74</v>
@@ -45355,7 +45379,7 @@
         <v>1.17</v>
       </c>
       <c r="AT230">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AU230">
         <v>1.44</v>
@@ -45647,7 +45671,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q232">
         <v>2</v>
@@ -45838,7 +45862,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q233">
         <v>10</v>
@@ -46602,7 +46626,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -46984,7 +47008,7 @@
         <v>249</v>
       </c>
       <c r="P239" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47175,7 +47199,7 @@
         <v>86</v>
       </c>
       <c r="P240" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -47366,7 +47390,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47508,6 +47532,1343 @@
       </c>
       <c r="BK241">
         <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>2435433</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>44974.66666666666</v>
+      </c>
+      <c r="F242">
+        <v>25</v>
+      </c>
+      <c r="G242" t="s">
+        <v>81</v>
+      </c>
+      <c r="H242" t="s">
+        <v>72</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>3</v>
+      </c>
+      <c r="L242">
+        <v>3</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>4</v>
+      </c>
+      <c r="O242" t="s">
+        <v>250</v>
+      </c>
+      <c r="P242" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q242">
+        <v>4</v>
+      </c>
+      <c r="R242">
+        <v>5</v>
+      </c>
+      <c r="S242">
+        <v>9</v>
+      </c>
+      <c r="T242">
+        <v>4.2</v>
+      </c>
+      <c r="U242">
+        <v>2.45</v>
+      </c>
+      <c r="V242">
+        <v>2.3</v>
+      </c>
+      <c r="W242">
+        <v>1.26</v>
+      </c>
+      <c r="X242">
+        <v>3.5</v>
+      </c>
+      <c r="Y242">
+        <v>2.29</v>
+      </c>
+      <c r="Z242">
+        <v>1.56</v>
+      </c>
+      <c r="AA242">
+        <v>4.95</v>
+      </c>
+      <c r="AB242">
+        <v>1.14</v>
+      </c>
+      <c r="AC242">
+        <v>3.94</v>
+      </c>
+      <c r="AD242">
+        <v>4.12</v>
+      </c>
+      <c r="AE242">
+        <v>1.8</v>
+      </c>
+      <c r="AF242">
+        <v>1.02</v>
+      </c>
+      <c r="AG242">
+        <v>17</v>
+      </c>
+      <c r="AH242">
+        <v>1.17</v>
+      </c>
+      <c r="AI242">
+        <v>4.75</v>
+      </c>
+      <c r="AJ242">
+        <v>1.5</v>
+      </c>
+      <c r="AK242">
+        <v>2.31</v>
+      </c>
+      <c r="AL242">
+        <v>1.56</v>
+      </c>
+      <c r="AM242">
+        <v>2.36</v>
+      </c>
+      <c r="AN242">
+        <v>2.05</v>
+      </c>
+      <c r="AO242">
+        <v>1.2</v>
+      </c>
+      <c r="AP242">
+        <v>1.25</v>
+      </c>
+      <c r="AQ242">
+        <v>1.33</v>
+      </c>
+      <c r="AR242">
+        <v>2.55</v>
+      </c>
+      <c r="AS242">
+        <v>1.46</v>
+      </c>
+      <c r="AT242">
+        <v>2.33</v>
+      </c>
+      <c r="AU242">
+        <v>1.88</v>
+      </c>
+      <c r="AV242">
+        <v>1.91</v>
+      </c>
+      <c r="AW242">
+        <v>3.79</v>
+      </c>
+      <c r="AX242">
+        <v>3.16</v>
+      </c>
+      <c r="AY242">
+        <v>8.5</v>
+      </c>
+      <c r="AZ242">
+        <v>1.51</v>
+      </c>
+      <c r="BA242">
+        <v>1.27</v>
+      </c>
+      <c r="BB242">
+        <v>1.51</v>
+      </c>
+      <c r="BC242">
+        <v>1.82</v>
+      </c>
+      <c r="BD242">
+        <v>2.24</v>
+      </c>
+      <c r="BE242">
+        <v>3.1</v>
+      </c>
+      <c r="BF242">
+        <v>8</v>
+      </c>
+      <c r="BG242">
+        <v>4</v>
+      </c>
+      <c r="BH242">
+        <v>4</v>
+      </c>
+      <c r="BI242">
+        <v>10</v>
+      </c>
+      <c r="BJ242">
+        <v>12</v>
+      </c>
+      <c r="BK242">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>2435434</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>44974.66666666666</v>
+      </c>
+      <c r="F243">
+        <v>25</v>
+      </c>
+      <c r="G243" t="s">
+        <v>78</v>
+      </c>
+      <c r="H243" t="s">
+        <v>77</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243" t="s">
+        <v>86</v>
+      </c>
+      <c r="P243" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q243">
+        <v>12</v>
+      </c>
+      <c r="R243">
+        <v>1</v>
+      </c>
+      <c r="S243">
+        <v>13</v>
+      </c>
+      <c r="T243">
+        <v>2.1</v>
+      </c>
+      <c r="U243">
+        <v>2.4</v>
+      </c>
+      <c r="V243">
+        <v>5.5</v>
+      </c>
+      <c r="W243">
+        <v>1.3</v>
+      </c>
+      <c r="X243">
+        <v>3.2</v>
+      </c>
+      <c r="Y243">
+        <v>2.45</v>
+      </c>
+      <c r="Z243">
+        <v>1.49</v>
+      </c>
+      <c r="AA243">
+        <v>5.95</v>
+      </c>
+      <c r="AB243">
+        <v>1.1</v>
+      </c>
+      <c r="AC243">
+        <v>1.56</v>
+      </c>
+      <c r="AD243">
+        <v>4.31</v>
+      </c>
+      <c r="AE243">
+        <v>5.44</v>
+      </c>
+      <c r="AF243">
+        <v>1.02</v>
+      </c>
+      <c r="AG243">
+        <v>15</v>
+      </c>
+      <c r="AH243">
+        <v>1.22</v>
+      </c>
+      <c r="AI243">
+        <v>4.2</v>
+      </c>
+      <c r="AJ243">
+        <v>1.68</v>
+      </c>
+      <c r="AK243">
+        <v>2.05</v>
+      </c>
+      <c r="AL243">
+        <v>1.75</v>
+      </c>
+      <c r="AM243">
+        <v>2</v>
+      </c>
+      <c r="AN243">
+        <v>1.14</v>
+      </c>
+      <c r="AO243">
+        <v>1.18</v>
+      </c>
+      <c r="AP243">
+        <v>2.45</v>
+      </c>
+      <c r="AQ243">
+        <v>1.92</v>
+      </c>
+      <c r="AR243">
+        <v>0.67</v>
+      </c>
+      <c r="AS243">
+        <v>1.85</v>
+      </c>
+      <c r="AT243">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU243">
+        <v>1.5</v>
+      </c>
+      <c r="AV243">
+        <v>1.2</v>
+      </c>
+      <c r="AW243">
+        <v>2.7</v>
+      </c>
+      <c r="AX243">
+        <v>1.34</v>
+      </c>
+      <c r="AY243">
+        <v>9.5</v>
+      </c>
+      <c r="AZ243">
+        <v>3.94</v>
+      </c>
+      <c r="BA243">
+        <v>1.2</v>
+      </c>
+      <c r="BB243">
+        <v>1.37</v>
+      </c>
+      <c r="BC243">
+        <v>1.74</v>
+      </c>
+      <c r="BD243">
+        <v>2.13</v>
+      </c>
+      <c r="BE243">
+        <v>2.77</v>
+      </c>
+      <c r="BF243">
+        <v>3</v>
+      </c>
+      <c r="BG243">
+        <v>0</v>
+      </c>
+      <c r="BH243">
+        <v>7</v>
+      </c>
+      <c r="BI243">
+        <v>0</v>
+      </c>
+      <c r="BJ243">
+        <v>10</v>
+      </c>
+      <c r="BK243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2435435</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>44974.66666666666</v>
+      </c>
+      <c r="F244">
+        <v>25</v>
+      </c>
+      <c r="G244" t="s">
+        <v>66</v>
+      </c>
+      <c r="H244" t="s">
+        <v>70</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244">
+        <v>3</v>
+      </c>
+      <c r="O244" t="s">
+        <v>110</v>
+      </c>
+      <c r="P244" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q244">
+        <v>3</v>
+      </c>
+      <c r="R244">
+        <v>8</v>
+      </c>
+      <c r="S244">
+        <v>11</v>
+      </c>
+      <c r="T244">
+        <v>3.6</v>
+      </c>
+      <c r="U244">
+        <v>2.2</v>
+      </c>
+      <c r="V244">
+        <v>2.9</v>
+      </c>
+      <c r="W244">
+        <v>1.33</v>
+      </c>
+      <c r="X244">
+        <v>3.1</v>
+      </c>
+      <c r="Y244">
+        <v>2.6</v>
+      </c>
+      <c r="Z244">
+        <v>1.44</v>
+      </c>
+      <c r="AA244">
+        <v>6.4</v>
+      </c>
+      <c r="AB244">
+        <v>1.09</v>
+      </c>
+      <c r="AC244">
+        <v>3.11</v>
+      </c>
+      <c r="AD244">
+        <v>3.59</v>
+      </c>
+      <c r="AE244">
+        <v>2.25</v>
+      </c>
+      <c r="AF244">
+        <v>1.03</v>
+      </c>
+      <c r="AG244">
+        <v>13</v>
+      </c>
+      <c r="AH244">
+        <v>1.25</v>
+      </c>
+      <c r="AI244">
+        <v>3.75</v>
+      </c>
+      <c r="AJ244">
+        <v>1.72</v>
+      </c>
+      <c r="AK244">
+        <v>2</v>
+      </c>
+      <c r="AL244">
+        <v>1.63</v>
+      </c>
+      <c r="AM244">
+        <v>2.22</v>
+      </c>
+      <c r="AN244">
+        <v>1.65</v>
+      </c>
+      <c r="AO244">
+        <v>1.25</v>
+      </c>
+      <c r="AP244">
+        <v>1.38</v>
+      </c>
+      <c r="AQ244">
+        <v>1.27</v>
+      </c>
+      <c r="AR244">
+        <v>1.83</v>
+      </c>
+      <c r="AS244">
+        <v>1.17</v>
+      </c>
+      <c r="AT244">
+        <v>1.92</v>
+      </c>
+      <c r="AU244">
+        <v>1.32</v>
+      </c>
+      <c r="AV244">
+        <v>1.41</v>
+      </c>
+      <c r="AW244">
+        <v>2.73</v>
+      </c>
+      <c r="AX244">
+        <v>2.43</v>
+      </c>
+      <c r="AY244">
+        <v>7.7</v>
+      </c>
+      <c r="AZ244">
+        <v>1.8</v>
+      </c>
+      <c r="BA244">
+        <v>1.23</v>
+      </c>
+      <c r="BB244">
+        <v>1.4</v>
+      </c>
+      <c r="BC244">
+        <v>1.74</v>
+      </c>
+      <c r="BD244">
+        <v>2.15</v>
+      </c>
+      <c r="BE244">
+        <v>2.85</v>
+      </c>
+      <c r="BF244">
+        <v>4</v>
+      </c>
+      <c r="BG244">
+        <v>11</v>
+      </c>
+      <c r="BH244">
+        <v>4</v>
+      </c>
+      <c r="BI244">
+        <v>7</v>
+      </c>
+      <c r="BJ244">
+        <v>8</v>
+      </c>
+      <c r="BK244">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2435436</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>44974.66666666666</v>
+      </c>
+      <c r="F245">
+        <v>25</v>
+      </c>
+      <c r="G245" t="s">
+        <v>67</v>
+      </c>
+      <c r="H245" t="s">
+        <v>71</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="O245" t="s">
+        <v>251</v>
+      </c>
+      <c r="P245" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q245">
+        <v>3</v>
+      </c>
+      <c r="R245">
+        <v>7</v>
+      </c>
+      <c r="S245">
+        <v>10</v>
+      </c>
+      <c r="T245">
+        <v>2.8</v>
+      </c>
+      <c r="U245">
+        <v>2.2</v>
+      </c>
+      <c r="V245">
+        <v>3.75</v>
+      </c>
+      <c r="W245">
+        <v>1.34</v>
+      </c>
+      <c r="X245">
+        <v>3</v>
+      </c>
+      <c r="Y245">
+        <v>2.6</v>
+      </c>
+      <c r="Z245">
+        <v>1.44</v>
+      </c>
+      <c r="AA245">
+        <v>6.45</v>
+      </c>
+      <c r="AB245">
+        <v>1.09</v>
+      </c>
+      <c r="AC245">
+        <v>2.09</v>
+      </c>
+      <c r="AD245">
+        <v>3.61</v>
+      </c>
+      <c r="AE245">
+        <v>3.45</v>
+      </c>
+      <c r="AF245">
+        <v>1.04</v>
+      </c>
+      <c r="AG245">
+        <v>13</v>
+      </c>
+      <c r="AH245">
+        <v>1.25</v>
+      </c>
+      <c r="AI245">
+        <v>3.75</v>
+      </c>
+      <c r="AJ245">
+        <v>1.83</v>
+      </c>
+      <c r="AK245">
+        <v>2.01</v>
+      </c>
+      <c r="AL245">
+        <v>1.68</v>
+      </c>
+      <c r="AM245">
+        <v>2.15</v>
+      </c>
+      <c r="AN245">
+        <v>1.35</v>
+      </c>
+      <c r="AO245">
+        <v>1.25</v>
+      </c>
+      <c r="AP245">
+        <v>1.72</v>
+      </c>
+      <c r="AQ245">
+        <v>2.55</v>
+      </c>
+      <c r="AR245">
+        <v>1.33</v>
+      </c>
+      <c r="AS245">
+        <v>2.42</v>
+      </c>
+      <c r="AT245">
+        <v>1.31</v>
+      </c>
+      <c r="AU245">
+        <v>1.87</v>
+      </c>
+      <c r="AV245">
+        <v>1.5</v>
+      </c>
+      <c r="AW245">
+        <v>3.37</v>
+      </c>
+      <c r="AX245">
+        <v>1.77</v>
+      </c>
+      <c r="AY245">
+        <v>7.6</v>
+      </c>
+      <c r="AZ245">
+        <v>2.52</v>
+      </c>
+      <c r="BA245">
+        <v>1.29</v>
+      </c>
+      <c r="BB245">
+        <v>1.54</v>
+      </c>
+      <c r="BC245">
+        <v>1.88</v>
+      </c>
+      <c r="BD245">
+        <v>2.32</v>
+      </c>
+      <c r="BE245">
+        <v>3.3</v>
+      </c>
+      <c r="BF245">
+        <v>5</v>
+      </c>
+      <c r="BG245">
+        <v>5</v>
+      </c>
+      <c r="BH245">
+        <v>3</v>
+      </c>
+      <c r="BI245">
+        <v>7</v>
+      </c>
+      <c r="BJ245">
+        <v>8</v>
+      </c>
+      <c r="BK245">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2435437</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44974.66666666666</v>
+      </c>
+      <c r="F246">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>75</v>
+      </c>
+      <c r="H246" t="s">
+        <v>83</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246">
+        <v>2</v>
+      </c>
+      <c r="O246" t="s">
+        <v>163</v>
+      </c>
+      <c r="P246" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q246">
+        <v>7</v>
+      </c>
+      <c r="R246">
+        <v>3</v>
+      </c>
+      <c r="S246">
+        <v>10</v>
+      </c>
+      <c r="T246">
+        <v>2.75</v>
+      </c>
+      <c r="U246">
+        <v>2.15</v>
+      </c>
+      <c r="V246">
+        <v>4</v>
+      </c>
+      <c r="W246">
+        <v>1.36</v>
+      </c>
+      <c r="X246">
+        <v>2.9</v>
+      </c>
+      <c r="Y246">
+        <v>2.8</v>
+      </c>
+      <c r="Z246">
+        <v>1.39</v>
+      </c>
+      <c r="AA246">
+        <v>6.95</v>
+      </c>
+      <c r="AB246">
+        <v>1.07</v>
+      </c>
+      <c r="AC246">
+        <v>2.06</v>
+      </c>
+      <c r="AD246">
+        <v>3.45</v>
+      </c>
+      <c r="AE246">
+        <v>3.64</v>
+      </c>
+      <c r="AF246">
+        <v>1.04</v>
+      </c>
+      <c r="AG246">
+        <v>12</v>
+      </c>
+      <c r="AH246">
+        <v>1.3</v>
+      </c>
+      <c r="AI246">
+        <v>3.5</v>
+      </c>
+      <c r="AJ246">
+        <v>1.97</v>
+      </c>
+      <c r="AK246">
+        <v>1.85</v>
+      </c>
+      <c r="AL246">
+        <v>1.75</v>
+      </c>
+      <c r="AM246">
+        <v>2.05</v>
+      </c>
+      <c r="AN246">
+        <v>1.3</v>
+      </c>
+      <c r="AO246">
+        <v>1.25</v>
+      </c>
+      <c r="AP246">
+        <v>1.75</v>
+      </c>
+      <c r="AQ246">
+        <v>1.5</v>
+      </c>
+      <c r="AR246">
+        <v>1.17</v>
+      </c>
+      <c r="AS246">
+        <v>1.46</v>
+      </c>
+      <c r="AT246">
+        <v>1.15</v>
+      </c>
+      <c r="AU246">
+        <v>1.43</v>
+      </c>
+      <c r="AV246">
+        <v>1.17</v>
+      </c>
+      <c r="AW246">
+        <v>2.6</v>
+      </c>
+      <c r="AX246">
+        <v>1.6</v>
+      </c>
+      <c r="AY246">
+        <v>7.8</v>
+      </c>
+      <c r="AZ246">
+        <v>2.88</v>
+      </c>
+      <c r="BA246">
+        <v>1.32</v>
+      </c>
+      <c r="BB246">
+        <v>1.69</v>
+      </c>
+      <c r="BC246">
+        <v>2.09</v>
+      </c>
+      <c r="BD246">
+        <v>2.8</v>
+      </c>
+      <c r="BE246">
+        <v>3.8</v>
+      </c>
+      <c r="BF246">
+        <v>3</v>
+      </c>
+      <c r="BG246">
+        <v>4</v>
+      </c>
+      <c r="BH246">
+        <v>5</v>
+      </c>
+      <c r="BI246">
+        <v>6</v>
+      </c>
+      <c r="BJ246">
+        <v>8</v>
+      </c>
+      <c r="BK246">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2435438</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44974.66666666666</v>
+      </c>
+      <c r="F247">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>69</v>
+      </c>
+      <c r="H247" t="s">
+        <v>80</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>252</v>
+      </c>
+      <c r="P247" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q247">
+        <v>2</v>
+      </c>
+      <c r="R247">
+        <v>6</v>
+      </c>
+      <c r="S247">
+        <v>8</v>
+      </c>
+      <c r="T247">
+        <v>4</v>
+      </c>
+      <c r="U247">
+        <v>2.15</v>
+      </c>
+      <c r="V247">
+        <v>2.8</v>
+      </c>
+      <c r="W247">
+        <v>1.37</v>
+      </c>
+      <c r="X247">
+        <v>2.85</v>
+      </c>
+      <c r="Y247">
+        <v>2.8</v>
+      </c>
+      <c r="Z247">
+        <v>1.39</v>
+      </c>
+      <c r="AA247">
+        <v>6.95</v>
+      </c>
+      <c r="AB247">
+        <v>1.07</v>
+      </c>
+      <c r="AC247">
+        <v>3.38</v>
+      </c>
+      <c r="AD247">
+        <v>3.61</v>
+      </c>
+      <c r="AE247">
+        <v>2.09</v>
+      </c>
+      <c r="AF247">
+        <v>1.05</v>
+      </c>
+      <c r="AG247">
+        <v>11</v>
+      </c>
+      <c r="AH247">
+        <v>1.3</v>
+      </c>
+      <c r="AI247">
+        <v>3.5</v>
+      </c>
+      <c r="AJ247">
+        <v>1.92</v>
+      </c>
+      <c r="AK247">
+        <v>1.88</v>
+      </c>
+      <c r="AL247">
+        <v>1.75</v>
+      </c>
+      <c r="AM247">
+        <v>2.05</v>
+      </c>
+      <c r="AN247">
+        <v>1.65</v>
+      </c>
+      <c r="AO247">
+        <v>1.27</v>
+      </c>
+      <c r="AP247">
+        <v>1.35</v>
+      </c>
+      <c r="AQ247">
+        <v>1.08</v>
+      </c>
+      <c r="AR247">
+        <v>1.25</v>
+      </c>
+      <c r="AS247">
+        <v>1.23</v>
+      </c>
+      <c r="AT247">
+        <v>1.15</v>
+      </c>
+      <c r="AU247">
+        <v>1.31</v>
+      </c>
+      <c r="AV247">
+        <v>1.27</v>
+      </c>
+      <c r="AW247">
+        <v>2.58</v>
+      </c>
+      <c r="AX247">
+        <v>2.48</v>
+      </c>
+      <c r="AY247">
+        <v>7.6</v>
+      </c>
+      <c r="AZ247">
+        <v>1.77</v>
+      </c>
+      <c r="BA247">
+        <v>1.29</v>
+      </c>
+      <c r="BB247">
+        <v>1.56</v>
+      </c>
+      <c r="BC247">
+        <v>1.89</v>
+      </c>
+      <c r="BD247">
+        <v>2.34</v>
+      </c>
+      <c r="BE247">
+        <v>3.3</v>
+      </c>
+      <c r="BF247">
+        <v>6</v>
+      </c>
+      <c r="BG247">
+        <v>9</v>
+      </c>
+      <c r="BH247">
+        <v>3</v>
+      </c>
+      <c r="BI247">
+        <v>7</v>
+      </c>
+      <c r="BJ247">
+        <v>9</v>
+      </c>
+      <c r="BK247">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2435441</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44974.66666666666</v>
+      </c>
+      <c r="F248">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>74</v>
+      </c>
+      <c r="H248" t="s">
+        <v>65</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>3</v>
+      </c>
+      <c r="L248">
+        <v>3</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>4</v>
+      </c>
+      <c r="O248" t="s">
+        <v>253</v>
+      </c>
+      <c r="P248" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q248">
+        <v>5</v>
+      </c>
+      <c r="R248">
+        <v>9</v>
+      </c>
+      <c r="S248">
+        <v>14</v>
+      </c>
+      <c r="T248">
+        <v>2.6</v>
+      </c>
+      <c r="U248">
+        <v>2.3</v>
+      </c>
+      <c r="V248">
+        <v>3.75</v>
+      </c>
+      <c r="W248">
+        <v>1.3</v>
+      </c>
+      <c r="X248">
+        <v>3.4</v>
+      </c>
+      <c r="Y248">
+        <v>2.5</v>
+      </c>
+      <c r="Z248">
+        <v>1.5</v>
+      </c>
+      <c r="AA248">
+        <v>6</v>
+      </c>
+      <c r="AB248">
+        <v>1.13</v>
+      </c>
+      <c r="AC248">
+        <v>2.03</v>
+      </c>
+      <c r="AD248">
+        <v>3.47</v>
+      </c>
+      <c r="AE248">
+        <v>3.23</v>
+      </c>
+      <c r="AF248">
+        <v>1</v>
+      </c>
+      <c r="AG248">
+        <v>13</v>
+      </c>
+      <c r="AH248">
+        <v>1.22</v>
+      </c>
+      <c r="AI248">
+        <v>4</v>
+      </c>
+      <c r="AJ248">
+        <v>1.68</v>
+      </c>
+      <c r="AK248">
+        <v>2.05</v>
+      </c>
+      <c r="AL248">
+        <v>1.57</v>
+      </c>
+      <c r="AM248">
+        <v>2.25</v>
+      </c>
+      <c r="AN248">
+        <v>1.3</v>
+      </c>
+      <c r="AO248">
+        <v>1.2</v>
+      </c>
+      <c r="AP248">
+        <v>1.8</v>
+      </c>
+      <c r="AQ248">
+        <v>1.83</v>
+      </c>
+      <c r="AR248">
+        <v>0.64</v>
+      </c>
+      <c r="AS248">
+        <v>1.92</v>
+      </c>
+      <c r="AT248">
+        <v>0.58</v>
+      </c>
+      <c r="AU248">
+        <v>1.87</v>
+      </c>
+      <c r="AV248">
+        <v>1.21</v>
+      </c>
+      <c r="AW248">
+        <v>3.08</v>
+      </c>
+      <c r="AX248">
+        <v>1.55</v>
+      </c>
+      <c r="AY248">
+        <v>6</v>
+      </c>
+      <c r="AZ248">
+        <v>2.75</v>
+      </c>
+      <c r="BA248">
+        <v>1.24</v>
+      </c>
+      <c r="BB248">
+        <v>1.44</v>
+      </c>
+      <c r="BC248">
+        <v>1.78</v>
+      </c>
+      <c r="BD248">
+        <v>2.19</v>
+      </c>
+      <c r="BE248">
+        <v>2.85</v>
+      </c>
+      <c r="BF248">
+        <v>6</v>
+      </c>
+      <c r="BG248">
+        <v>6</v>
+      </c>
+      <c r="BH248">
+        <v>3</v>
+      </c>
+      <c r="BI248">
+        <v>6</v>
+      </c>
+      <c r="BJ248">
+        <v>9</v>
+      </c>
+      <c r="BK248">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="378">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,15 @@
     <t>['7', '40', '53']</t>
   </si>
   <si>
+    <t>['28', '43']</t>
+  </si>
+  <si>
+    <t>['13', '37', '67', '68']</t>
+  </si>
+  <si>
+    <t>['5', '8', '51', '90+4']</t>
+  </si>
+  <si>
     <t>['8', '23', '33']</t>
   </si>
   <si>
@@ -1136,6 +1145,9 @@
   </si>
   <si>
     <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['31', '65']</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK248"/>
+  <dimension ref="A1:BK251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1741,7 +1753,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1932,7 +1944,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2022,7 +2034,7 @@
         <v>1.17</v>
       </c>
       <c r="AT3">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2887,7 +2899,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3078,7 +3090,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3356,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT10">
         <v>1.42</v>
@@ -3550,7 +3562,7 @@
         <v>1.92</v>
       </c>
       <c r="AT11">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3651,7 +3663,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4033,7 +4045,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4415,7 +4427,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4502,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT16">
         <v>1.92</v>
@@ -4606,7 +4618,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4797,7 +4809,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4988,7 +5000,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5075,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT19">
         <v>1.69</v>
@@ -5370,7 +5382,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5460,7 +5472,7 @@
         <v>2.25</v>
       </c>
       <c r="AT21">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5561,7 +5573,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -6134,7 +6146,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6325,7 +6337,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6415,7 +6427,7 @@
         <v>1.46</v>
       </c>
       <c r="AT26">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU26">
         <v>1.76</v>
@@ -6707,7 +6719,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6898,7 +6910,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6985,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT29">
         <v>0.83</v>
@@ -7089,7 +7101,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7280,7 +7292,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7471,7 +7483,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7853,7 +7865,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7943,7 +7955,7 @@
         <v>1.67</v>
       </c>
       <c r="AT34">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU34">
         <v>1.85</v>
@@ -8044,7 +8056,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8322,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT36">
         <v>0.92</v>
@@ -9086,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT40">
         <v>1.31</v>
@@ -9280,7 +9292,7 @@
         <v>2.42</v>
       </c>
       <c r="AT41">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU41">
         <v>1.14</v>
@@ -9381,7 +9393,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9763,7 +9775,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10145,7 +10157,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10527,7 +10539,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10617,7 +10629,7 @@
         <v>2.25</v>
       </c>
       <c r="AT48">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU48">
         <v>1.69</v>
@@ -10718,7 +10730,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10996,7 +11008,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT50">
         <v>1.69</v>
@@ -11291,7 +11303,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11482,7 +11494,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11864,7 +11876,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12142,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT56">
         <v>0.6899999999999999</v>
@@ -12336,7 +12348,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU57">
         <v>0.95</v>
@@ -12628,7 +12640,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12819,7 +12831,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13010,7 +13022,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13097,10 +13109,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT61">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU61">
         <v>1.83</v>
@@ -13288,10 +13300,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT62">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU62">
         <v>1.41</v>
@@ -13583,7 +13595,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13774,7 +13786,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13965,7 +13977,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14156,7 +14168,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14243,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT67">
         <v>1.25</v>
@@ -14347,7 +14359,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14920,7 +14932,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15302,7 +15314,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15493,7 +15505,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15580,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT74">
         <v>1.58</v>
@@ -15684,7 +15696,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15774,7 +15786,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU75">
         <v>1.31</v>
@@ -16257,7 +16269,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16347,7 +16359,7 @@
         <v>1.17</v>
       </c>
       <c r="AT78">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU78">
         <v>1.13</v>
@@ -16639,7 +16651,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17021,7 +17033,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17403,7 +17415,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17594,7 +17606,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17785,7 +17797,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17976,7 +17988,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18358,7 +18370,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18639,7 +18651,7 @@
         <v>1.85</v>
       </c>
       <c r="AT90">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU90">
         <v>1.58</v>
@@ -18827,7 +18839,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT91">
         <v>1.08</v>
@@ -19122,7 +19134,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19313,7 +19325,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19504,7 +19516,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19591,7 +19603,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT95">
         <v>1.58</v>
@@ -19695,7 +19707,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19785,7 +19797,7 @@
         <v>1.23</v>
       </c>
       <c r="AT96">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU96">
         <v>1.16</v>
@@ -20268,7 +20280,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20355,7 +20367,7 @@
         <v>0</v>
       </c>
       <c r="AS99">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT99">
         <v>0.6899999999999999</v>
@@ -20459,7 +20471,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20740,7 +20752,7 @@
         <v>1.92</v>
       </c>
       <c r="AT101">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU101">
         <v>2.07</v>
@@ -21032,7 +21044,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21223,7 +21235,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21414,7 +21426,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21605,7 +21617,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21695,7 +21707,7 @@
         <v>1.46</v>
       </c>
       <c r="AT106">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU106">
         <v>1.35</v>
@@ -21883,7 +21895,7 @@
         <v>0.2</v>
       </c>
       <c r="AS107">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT107">
         <v>0.67</v>
@@ -21987,7 +21999,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22369,7 +22381,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22560,7 +22572,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22751,7 +22763,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -23223,7 +23235,7 @@
         <v>1.23</v>
       </c>
       <c r="AT114">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU114">
         <v>1.33</v>
@@ -23324,7 +23336,7 @@
         <v>112</v>
       </c>
       <c r="P115" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23515,7 +23527,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23605,7 +23617,7 @@
         <v>1.17</v>
       </c>
       <c r="AT116">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU116">
         <v>1.2</v>
@@ -23984,7 +23996,7 @@
         <v>2.4</v>
       </c>
       <c r="AS118">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT118">
         <v>2.33</v>
@@ -24279,7 +24291,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24366,7 +24378,7 @@
         <v>1.8</v>
       </c>
       <c r="AS120">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT120">
         <v>1.92</v>
@@ -24661,7 +24673,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24852,7 +24864,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -25043,7 +25055,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25133,7 +25145,7 @@
         <v>1.46</v>
       </c>
       <c r="AT124">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU124">
         <v>1.59</v>
@@ -25234,7 +25246,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25512,7 +25524,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT126">
         <v>0.67</v>
@@ -25616,7 +25628,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25807,7 +25819,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25897,7 +25909,7 @@
         <v>2.23</v>
       </c>
       <c r="AT128">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU128">
         <v>1.72</v>
@@ -26189,7 +26201,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26380,7 +26392,7 @@
         <v>111</v>
       </c>
       <c r="P131" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26467,7 +26479,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT131">
         <v>1.31</v>
@@ -26571,7 +26583,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q132">
         <v>1</v>
@@ -27144,7 +27156,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27526,7 +27538,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27717,7 +27729,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27995,7 +28007,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT139">
         <v>1.15</v>
@@ -28380,7 +28392,7 @@
         <v>1.92</v>
       </c>
       <c r="AT141">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU141">
         <v>1.92</v>
@@ -28571,7 +28583,7 @@
         <v>2.42</v>
       </c>
       <c r="AT142">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU142">
         <v>1.91</v>
@@ -28672,7 +28684,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28759,7 +28771,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT143">
         <v>1.15</v>
@@ -28863,7 +28875,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -29436,7 +29448,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q147">
         <v>15</v>
@@ -29818,7 +29830,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29905,7 +29917,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT149">
         <v>0.58</v>
@@ -30096,10 +30108,10 @@
         <v>1.67</v>
       </c>
       <c r="AS150">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT150">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU150">
         <v>1.4</v>
@@ -30290,7 +30302,7 @@
         <v>1.46</v>
       </c>
       <c r="AT151">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU151">
         <v>1.95</v>
@@ -30964,7 +30976,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -31155,7 +31167,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31728,7 +31740,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31919,7 +31931,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -32200,7 +32212,7 @@
         <v>1.92</v>
       </c>
       <c r="AT161">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU161">
         <v>1.75</v>
@@ -32301,7 +32313,7 @@
         <v>202</v>
       </c>
       <c r="P162" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32391,7 +32403,7 @@
         <v>1.42</v>
       </c>
       <c r="AT162">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU162">
         <v>1.47</v>
@@ -32492,7 +32504,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -33065,7 +33077,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33152,7 +33164,7 @@
         <v>0.13</v>
       </c>
       <c r="AS166">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT166">
         <v>0.67</v>
@@ -33256,7 +33268,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33343,7 +33355,7 @@
         <v>1.38</v>
       </c>
       <c r="AS167">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT167">
         <v>1.15</v>
@@ -33638,7 +33650,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -34020,7 +34032,7 @@
         <v>209</v>
       </c>
       <c r="P171" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34211,7 +34223,7 @@
         <v>86</v>
       </c>
       <c r="P172" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34593,7 +34605,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -34784,7 +34796,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34871,7 +34883,7 @@
         <v>1.44</v>
       </c>
       <c r="AS175">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT175">
         <v>1.31</v>
@@ -35166,7 +35178,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35357,7 +35369,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35739,7 +35751,7 @@
         <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -36121,7 +36133,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36593,7 +36605,7 @@
         <v>1.92</v>
       </c>
       <c r="AT184">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU184">
         <v>1.78</v>
@@ -36694,7 +36706,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36885,7 +36897,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36972,7 +36984,7 @@
         <v>1.56</v>
       </c>
       <c r="AS186">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT186">
         <v>1.15</v>
@@ -37076,7 +37088,7 @@
         <v>95</v>
       </c>
       <c r="P187" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q187">
         <v>6</v>
@@ -37267,7 +37279,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37354,7 +37366,7 @@
         <v>1</v>
       </c>
       <c r="AS188">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT188">
         <v>1.08</v>
@@ -37840,7 +37852,7 @@
         <v>220</v>
       </c>
       <c r="P191" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -37930,7 +37942,7 @@
         <v>1.42</v>
       </c>
       <c r="AT191">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU191">
         <v>1.47</v>
@@ -38031,7 +38043,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38121,7 +38133,7 @@
         <v>1.46</v>
       </c>
       <c r="AT192">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU192">
         <v>1.86</v>
@@ -38309,7 +38321,7 @@
         <v>1.11</v>
       </c>
       <c r="AS193">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT193">
         <v>0.92</v>
@@ -38604,7 +38616,7 @@
         <v>86</v>
       </c>
       <c r="P195" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38795,7 +38807,7 @@
         <v>218</v>
       </c>
       <c r="P196" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39073,7 +39085,7 @@
         <v>0.9</v>
       </c>
       <c r="AS197">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT197">
         <v>0.92</v>
@@ -39177,7 +39189,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -39368,7 +39380,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39941,7 +39953,7 @@
         <v>157</v>
       </c>
       <c r="P202" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40031,7 +40043,7 @@
         <v>1.23</v>
       </c>
       <c r="AT202">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU202">
         <v>1.21</v>
@@ -40514,7 +40526,7 @@
         <v>85</v>
       </c>
       <c r="P205" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q205">
         <v>2</v>
@@ -40705,7 +40717,7 @@
         <v>227</v>
       </c>
       <c r="P206" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q206">
         <v>3</v>
@@ -40792,10 +40804,10 @@
         <v>1.1</v>
       </c>
       <c r="AS206">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT206">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU206">
         <v>1.45</v>
@@ -40896,7 +40908,7 @@
         <v>228</v>
       </c>
       <c r="P207" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -41087,7 +41099,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q208">
         <v>10</v>
@@ -41177,7 +41189,7 @@
         <v>1.46</v>
       </c>
       <c r="AT208">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU208">
         <v>1.44</v>
@@ -42042,7 +42054,7 @@
         <v>231</v>
       </c>
       <c r="P213" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42233,7 +42245,7 @@
         <v>232</v>
       </c>
       <c r="P214" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -42323,7 +42335,7 @@
         <v>1.46</v>
       </c>
       <c r="AT214">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU214">
         <v>1.46</v>
@@ -42806,7 +42818,7 @@
         <v>157</v>
       </c>
       <c r="P217" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -42997,7 +43009,7 @@
         <v>233</v>
       </c>
       <c r="P218" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q218">
         <v>2</v>
@@ -43188,7 +43200,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43275,7 +43287,7 @@
         <v>0.9</v>
       </c>
       <c r="AS219">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT219">
         <v>0.83</v>
@@ -43379,7 +43391,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43570,7 +43582,7 @@
         <v>236</v>
       </c>
       <c r="P221" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q221">
         <v>8</v>
@@ -43761,7 +43773,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -43952,7 +43964,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44039,7 +44051,7 @@
         <v>1.1</v>
       </c>
       <c r="AS223">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT223">
         <v>1.42</v>
@@ -44334,7 +44346,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44525,7 +44537,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q226">
         <v>8</v>
@@ -44615,7 +44627,7 @@
         <v>1.46</v>
       </c>
       <c r="AT226">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU226">
         <v>1.92</v>
@@ -44907,7 +44919,7 @@
         <v>242</v>
       </c>
       <c r="P228" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -44997,7 +45009,7 @@
         <v>1.67</v>
       </c>
       <c r="AT228">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU228">
         <v>1.68</v>
@@ -45376,7 +45388,7 @@
         <v>2.7</v>
       </c>
       <c r="AS230">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT230">
         <v>2.33</v>
@@ -45671,7 +45683,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q232">
         <v>2</v>
@@ -45862,7 +45874,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q233">
         <v>10</v>
@@ -46143,7 +46155,7 @@
         <v>1.42</v>
       </c>
       <c r="AT234">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU234">
         <v>1.51</v>
@@ -46626,7 +46638,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -47008,7 +47020,7 @@
         <v>249</v>
       </c>
       <c r="P239" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47199,7 +47211,7 @@
         <v>86</v>
       </c>
       <c r="P240" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -47286,7 +47298,7 @@
         <v>1.27</v>
       </c>
       <c r="AS240">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT240">
         <v>1.42</v>
@@ -47390,7 +47402,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47581,7 +47593,7 @@
         <v>250</v>
       </c>
       <c r="P242" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q242">
         <v>4</v>
@@ -47963,7 +47975,7 @@
         <v>110</v>
       </c>
       <c r="P244" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -48154,7 +48166,7 @@
         <v>251</v>
       </c>
       <c r="P245" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q245">
         <v>3</v>
@@ -48727,7 +48739,7 @@
         <v>253</v>
       </c>
       <c r="P248" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q248">
         <v>5</v>
@@ -48869,6 +48881,579 @@
       </c>
       <c r="BK248">
         <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2435439</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44976.34375</v>
+      </c>
+      <c r="F249">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>79</v>
+      </c>
+      <c r="H249" t="s">
+        <v>76</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" t="s">
+        <v>254</v>
+      </c>
+      <c r="P249" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q249">
+        <v>4</v>
+      </c>
+      <c r="R249">
+        <v>4</v>
+      </c>
+      <c r="S249">
+        <v>8</v>
+      </c>
+      <c r="T249">
+        <v>2.5</v>
+      </c>
+      <c r="U249">
+        <v>2.15</v>
+      </c>
+      <c r="V249">
+        <v>3.8</v>
+      </c>
+      <c r="W249">
+        <v>1.36</v>
+      </c>
+      <c r="X249">
+        <v>3</v>
+      </c>
+      <c r="Y249">
+        <v>2.62</v>
+      </c>
+      <c r="Z249">
+        <v>1.44</v>
+      </c>
+      <c r="AA249">
+        <v>6</v>
+      </c>
+      <c r="AB249">
+        <v>1.11</v>
+      </c>
+      <c r="AC249">
+        <v>2.03</v>
+      </c>
+      <c r="AD249">
+        <v>3.62</v>
+      </c>
+      <c r="AE249">
+        <v>3.46</v>
+      </c>
+      <c r="AF249">
+        <v>1.05</v>
+      </c>
+      <c r="AG249">
+        <v>9</v>
+      </c>
+      <c r="AH249">
+        <v>1.29</v>
+      </c>
+      <c r="AI249">
+        <v>3.5</v>
+      </c>
+      <c r="AJ249">
+        <v>1.8</v>
+      </c>
+      <c r="AK249">
+        <v>1.91</v>
+      </c>
+      <c r="AL249">
+        <v>1.67</v>
+      </c>
+      <c r="AM249">
+        <v>2.1</v>
+      </c>
+      <c r="AN249">
+        <v>1.3</v>
+      </c>
+      <c r="AO249">
+        <v>1.29</v>
+      </c>
+      <c r="AP249">
+        <v>1.73</v>
+      </c>
+      <c r="AQ249">
+        <v>1.42</v>
+      </c>
+      <c r="AR249">
+        <v>1.17</v>
+      </c>
+      <c r="AS249">
+        <v>1.54</v>
+      </c>
+      <c r="AT249">
+        <v>1.08</v>
+      </c>
+      <c r="AU249">
+        <v>1.88</v>
+      </c>
+      <c r="AV249">
+        <v>1.5</v>
+      </c>
+      <c r="AW249">
+        <v>3.38</v>
+      </c>
+      <c r="AX249">
+        <v>1.59</v>
+      </c>
+      <c r="AY249">
+        <v>8</v>
+      </c>
+      <c r="AZ249">
+        <v>2.88</v>
+      </c>
+      <c r="BA249">
+        <v>1.18</v>
+      </c>
+      <c r="BB249">
+        <v>1.34</v>
+      </c>
+      <c r="BC249">
+        <v>1.69</v>
+      </c>
+      <c r="BD249">
+        <v>2.06</v>
+      </c>
+      <c r="BE249">
+        <v>2.7</v>
+      </c>
+      <c r="BF249">
+        <v>9</v>
+      </c>
+      <c r="BG249">
+        <v>6</v>
+      </c>
+      <c r="BH249">
+        <v>4</v>
+      </c>
+      <c r="BI249">
+        <v>5</v>
+      </c>
+      <c r="BJ249">
+        <v>13</v>
+      </c>
+      <c r="BK249">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>2435442</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44977.66666666666</v>
+      </c>
+      <c r="F250">
+        <v>25</v>
+      </c>
+      <c r="G250" t="s">
+        <v>82</v>
+      </c>
+      <c r="H250" t="s">
+        <v>68</v>
+      </c>
+      <c r="I250">
+        <v>2</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>3</v>
+      </c>
+      <c r="L250">
+        <v>4</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>5</v>
+      </c>
+      <c r="O250" t="s">
+        <v>255</v>
+      </c>
+      <c r="P250" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q250">
+        <v>5</v>
+      </c>
+      <c r="R250">
+        <v>6</v>
+      </c>
+      <c r="S250">
+        <v>11</v>
+      </c>
+      <c r="T250">
+        <v>3.1</v>
+      </c>
+      <c r="U250">
+        <v>2.3</v>
+      </c>
+      <c r="V250">
+        <v>3.1</v>
+      </c>
+      <c r="W250">
+        <v>1.3</v>
+      </c>
+      <c r="X250">
+        <v>3.4</v>
+      </c>
+      <c r="Y250">
+        <v>2.5</v>
+      </c>
+      <c r="Z250">
+        <v>1.5</v>
+      </c>
+      <c r="AA250">
+        <v>6</v>
+      </c>
+      <c r="AB250">
+        <v>1.13</v>
+      </c>
+      <c r="AC250">
+        <v>2.56</v>
+      </c>
+      <c r="AD250">
+        <v>3.43</v>
+      </c>
+      <c r="AE250">
+        <v>2.45</v>
+      </c>
+      <c r="AF250">
+        <v>1.02</v>
+      </c>
+      <c r="AG250">
+        <v>15</v>
+      </c>
+      <c r="AH250">
+        <v>1.22</v>
+      </c>
+      <c r="AI250">
+        <v>4.2</v>
+      </c>
+      <c r="AJ250">
+        <v>1.65</v>
+      </c>
+      <c r="AK250">
+        <v>2.15</v>
+      </c>
+      <c r="AL250">
+        <v>1.53</v>
+      </c>
+      <c r="AM250">
+        <v>2.38</v>
+      </c>
+      <c r="AN250">
+        <v>1.53</v>
+      </c>
+      <c r="AO250">
+        <v>1.28</v>
+      </c>
+      <c r="AP250">
+        <v>1.49</v>
+      </c>
+      <c r="AQ250">
+        <v>0.75</v>
+      </c>
+      <c r="AR250">
+        <v>1.17</v>
+      </c>
+      <c r="AS250">
+        <v>0.92</v>
+      </c>
+      <c r="AT250">
+        <v>1.08</v>
+      </c>
+      <c r="AU250">
+        <v>1.43</v>
+      </c>
+      <c r="AV250">
+        <v>1.33</v>
+      </c>
+      <c r="AW250">
+        <v>2.76</v>
+      </c>
+      <c r="AX250">
+        <v>2.13</v>
+      </c>
+      <c r="AY250">
+        <v>7.1</v>
+      </c>
+      <c r="AZ250">
+        <v>2.07</v>
+      </c>
+      <c r="BA250">
+        <v>1.19</v>
+      </c>
+      <c r="BB250">
+        <v>1.39</v>
+      </c>
+      <c r="BC250">
+        <v>1.74</v>
+      </c>
+      <c r="BD250">
+        <v>2.15</v>
+      </c>
+      <c r="BE250">
+        <v>2.79</v>
+      </c>
+      <c r="BF250">
+        <v>9</v>
+      </c>
+      <c r="BG250">
+        <v>6</v>
+      </c>
+      <c r="BH250">
+        <v>3</v>
+      </c>
+      <c r="BI250">
+        <v>6</v>
+      </c>
+      <c r="BJ250">
+        <v>12</v>
+      </c>
+      <c r="BK250">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>2435440</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>44977.66666666666</v>
+      </c>
+      <c r="F251">
+        <v>25</v>
+      </c>
+      <c r="G251" t="s">
+        <v>73</v>
+      </c>
+      <c r="H251" t="s">
+        <v>84</v>
+      </c>
+      <c r="I251">
+        <v>2</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>3</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251">
+        <v>6</v>
+      </c>
+      <c r="O251" t="s">
+        <v>256</v>
+      </c>
+      <c r="P251" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q251">
+        <v>2</v>
+      </c>
+      <c r="R251">
+        <v>5</v>
+      </c>
+      <c r="S251">
+        <v>7</v>
+      </c>
+      <c r="T251">
+        <v>2.3</v>
+      </c>
+      <c r="U251">
+        <v>2.6</v>
+      </c>
+      <c r="V251">
+        <v>3.75</v>
+      </c>
+      <c r="W251">
+        <v>1.22</v>
+      </c>
+      <c r="X251">
+        <v>4</v>
+      </c>
+      <c r="Y251">
+        <v>2</v>
+      </c>
+      <c r="Z251">
+        <v>1.73</v>
+      </c>
+      <c r="AA251">
+        <v>4.33</v>
+      </c>
+      <c r="AB251">
+        <v>1.2</v>
+      </c>
+      <c r="AC251">
+        <v>1.85</v>
+      </c>
+      <c r="AD251">
+        <v>3.92</v>
+      </c>
+      <c r="AE251">
+        <v>3.38</v>
+      </c>
+      <c r="AF251">
+        <v>1.02</v>
+      </c>
+      <c r="AG251">
+        <v>13</v>
+      </c>
+      <c r="AH251">
+        <v>1.11</v>
+      </c>
+      <c r="AI251">
+        <v>6.5</v>
+      </c>
+      <c r="AJ251">
+        <v>1.34</v>
+      </c>
+      <c r="AK251">
+        <v>2.82</v>
+      </c>
+      <c r="AL251">
+        <v>1.4</v>
+      </c>
+      <c r="AM251">
+        <v>2.75</v>
+      </c>
+      <c r="AN251">
+        <v>1.3</v>
+      </c>
+      <c r="AO251">
+        <v>1.18</v>
+      </c>
+      <c r="AP251">
+        <v>1.95</v>
+      </c>
+      <c r="AQ251">
+        <v>1.17</v>
+      </c>
+      <c r="AR251">
+        <v>0.92</v>
+      </c>
+      <c r="AS251">
+        <v>1.31</v>
+      </c>
+      <c r="AT251">
+        <v>0.85</v>
+      </c>
+      <c r="AU251">
+        <v>1.37</v>
+      </c>
+      <c r="AV251">
+        <v>1.15</v>
+      </c>
+      <c r="AW251">
+        <v>2.52</v>
+      </c>
+      <c r="AX251">
+        <v>1.67</v>
+      </c>
+      <c r="AY251">
+        <v>7.9</v>
+      </c>
+      <c r="AZ251">
+        <v>2.78</v>
+      </c>
+      <c r="BA251">
+        <v>1.27</v>
+      </c>
+      <c r="BB251">
+        <v>1.56</v>
+      </c>
+      <c r="BC251">
+        <v>1.93</v>
+      </c>
+      <c r="BD251">
+        <v>2.41</v>
+      </c>
+      <c r="BE251">
+        <v>3.28</v>
+      </c>
+      <c r="BF251">
+        <v>12</v>
+      </c>
+      <c r="BG251">
+        <v>9</v>
+      </c>
+      <c r="BH251">
+        <v>2</v>
+      </c>
+      <c r="BI251">
+        <v>5</v>
+      </c>
+      <c r="BJ251">
+        <v>14</v>
+      </c>
+      <c r="BK251">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="384">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1527,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK258"/>
+  <dimension ref="A1:BK259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT2">
         <v>1.15</v>
@@ -2243,7 +2243,7 @@
         <v>2.46</v>
       </c>
       <c r="AT4">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>2.25</v>
       </c>
       <c r="AT24">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU24">
         <v>1.81</v>
@@ -6442,7 +6442,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT26">
         <v>1.08</v>
@@ -9880,7 +9880,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT44">
         <v>2.33</v>
@@ -10456,7 +10456,7 @@
         <v>2</v>
       </c>
       <c r="AT47">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU47">
         <v>1.64</v>
@@ -14276,7 +14276,7 @@
         <v>0.92</v>
       </c>
       <c r="AT67">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU67">
         <v>1.27</v>
@@ -15040,7 +15040,7 @@
         <v>2.23</v>
       </c>
       <c r="AT71">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU71">
         <v>1.81</v>
@@ -16183,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT77">
         <v>0.85</v>
@@ -18475,7 +18475,7 @@
         <v>2.25</v>
       </c>
       <c r="AS89">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT89">
         <v>1.69</v>
@@ -21343,7 +21343,7 @@
         <v>1.77</v>
       </c>
       <c r="AT104">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -22295,7 +22295,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT109">
         <v>1.08</v>
@@ -25160,7 +25160,7 @@
         <v>1.17</v>
       </c>
       <c r="AS124">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT124">
         <v>1.08</v>
@@ -25736,7 +25736,7 @@
         <v>1.54</v>
       </c>
       <c r="AT127">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU127">
         <v>1.35</v>
@@ -27452,7 +27452,7 @@
         <v>0.67</v>
       </c>
       <c r="AS136">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT136">
         <v>1</v>
@@ -29174,7 +29174,7 @@
         <v>1.46</v>
       </c>
       <c r="AT145">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU145">
         <v>1.37</v>
@@ -31272,7 +31272,7 @@
         <v>1.86</v>
       </c>
       <c r="AS156">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT156">
         <v>1.92</v>
@@ -32994,7 +32994,7 @@
         <v>1.85</v>
       </c>
       <c r="AT165">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU165">
         <v>1.55</v>
@@ -36432,7 +36432,7 @@
         <v>1.17</v>
       </c>
       <c r="AT183">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU183">
         <v>1.31</v>
@@ -37193,7 +37193,7 @@
         <v>0.44</v>
       </c>
       <c r="AS187">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT187">
         <v>0.62</v>
@@ -39676,7 +39676,7 @@
         <v>1.1</v>
       </c>
       <c r="AS200">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT200">
         <v>1.15</v>
@@ -41780,7 +41780,7 @@
         <v>1.31</v>
       </c>
       <c r="AT211">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU211">
         <v>1.32</v>
@@ -42350,7 +42350,7 @@
         <v>1</v>
       </c>
       <c r="AS214">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT214">
         <v>0.85</v>
@@ -45788,7 +45788,7 @@
         <v>1</v>
       </c>
       <c r="AS232">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT232">
         <v>0.85</v>
@@ -47128,7 +47128,7 @@
         <v>1.33</v>
       </c>
       <c r="AT239">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU239">
         <v>1.26</v>
@@ -50809,6 +50809,197 @@
       </c>
       <c r="BK258">
         <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:63">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>2435450</v>
+      </c>
+      <c r="C259" t="s">
+        <v>63</v>
+      </c>
+      <c r="D259" t="s">
+        <v>64</v>
+      </c>
+      <c r="E259" s="2">
+        <v>44983.34375</v>
+      </c>
+      <c r="F259">
+        <v>26</v>
+      </c>
+      <c r="G259" t="s">
+        <v>65</v>
+      </c>
+      <c r="H259" t="s">
+        <v>81</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+      <c r="O259" t="s">
+        <v>86</v>
+      </c>
+      <c r="P259" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q259">
+        <v>6</v>
+      </c>
+      <c r="R259">
+        <v>3</v>
+      </c>
+      <c r="S259">
+        <v>9</v>
+      </c>
+      <c r="T259">
+        <v>4</v>
+      </c>
+      <c r="U259">
+        <v>2.3</v>
+      </c>
+      <c r="V259">
+        <v>2.5</v>
+      </c>
+      <c r="W259">
+        <v>1.33</v>
+      </c>
+      <c r="X259">
+        <v>3.25</v>
+      </c>
+      <c r="Y259">
+        <v>2.5</v>
+      </c>
+      <c r="Z259">
+        <v>1.5</v>
+      </c>
+      <c r="AA259">
+        <v>6</v>
+      </c>
+      <c r="AB259">
+        <v>1.13</v>
+      </c>
+      <c r="AC259">
+        <v>3.27</v>
+      </c>
+      <c r="AD259">
+        <v>3.53</v>
+      </c>
+      <c r="AE259">
+        <v>2</v>
+      </c>
+      <c r="AF259">
+        <v>1.02</v>
+      </c>
+      <c r="AG259">
+        <v>15</v>
+      </c>
+      <c r="AH259">
+        <v>1.22</v>
+      </c>
+      <c r="AI259">
+        <v>4.2</v>
+      </c>
+      <c r="AJ259">
+        <v>1.68</v>
+      </c>
+      <c r="AK259">
+        <v>2.05</v>
+      </c>
+      <c r="AL259">
+        <v>1.62</v>
+      </c>
+      <c r="AM259">
+        <v>2.2</v>
+      </c>
+      <c r="AN259">
+        <v>1.8</v>
+      </c>
+      <c r="AO259">
+        <v>1.22</v>
+      </c>
+      <c r="AP259">
+        <v>1.33</v>
+      </c>
+      <c r="AQ259">
+        <v>1.46</v>
+      </c>
+      <c r="AR259">
+        <v>1.25</v>
+      </c>
+      <c r="AS259">
+        <v>1.43</v>
+      </c>
+      <c r="AT259">
+        <v>1.23</v>
+      </c>
+      <c r="AU259">
+        <v>1.49</v>
+      </c>
+      <c r="AV259">
+        <v>1.59</v>
+      </c>
+      <c r="AW259">
+        <v>3.08</v>
+      </c>
+      <c r="AX259">
+        <v>2.53</v>
+      </c>
+      <c r="AY259">
+        <v>7.7</v>
+      </c>
+      <c r="AZ259">
+        <v>1.75</v>
+      </c>
+      <c r="BA259">
+        <v>1.2</v>
+      </c>
+      <c r="BB259">
+        <v>1.41</v>
+      </c>
+      <c r="BC259">
+        <v>1.78</v>
+      </c>
+      <c r="BD259">
+        <v>2.19</v>
+      </c>
+      <c r="BE259">
+        <v>2.9</v>
+      </c>
+      <c r="BF259">
+        <v>2</v>
+      </c>
+      <c r="BG259">
+        <v>5</v>
+      </c>
+      <c r="BH259">
+        <v>5</v>
+      </c>
+      <c r="BI259">
+        <v>0</v>
+      </c>
+      <c r="BJ259">
+        <v>7</v>
+      </c>
+      <c r="BK259">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -50984,22 +50984,22 @@
         <v>2.9</v>
       </c>
       <c r="BF259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG259">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH259">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI259">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ259">
+        <v>6</v>
+      </c>
+      <c r="BK259">
         <v>7</v>
-      </c>
-      <c r="BK259">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="388">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -799,6 +799,12 @@
     <t>['21', '29', '68']</t>
   </si>
   <si>
+    <t>['27', '81', '90+5']</t>
+  </si>
+  <si>
+    <t>['8', '59', '77']</t>
+  </si>
+  <si>
     <t>['8', '23', '33']</t>
   </si>
   <si>
@@ -1167,6 +1173,12 @@
   <si>
     <t>['50', '62']</t>
   </si>
+  <si>
+    <t>['13', '15']</t>
+  </si>
+  <si>
+    <t>['51', '53', '87']</t>
+  </si>
 </sst>
 </file>
 
@@ -1527,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK259"/>
+  <dimension ref="A1:BK261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1771,7 +1783,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1962,7 +1974,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2917,7 +2929,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3108,7 +3120,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3681,7 +3693,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3771,7 +3783,7 @@
         <v>1.46</v>
       </c>
       <c r="AT12">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4063,7 +4075,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4445,7 +4457,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4636,7 +4648,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4827,7 +4839,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5018,7 +5030,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5296,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT20">
         <v>0.86</v>
@@ -5400,7 +5412,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5487,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT21">
         <v>1.08</v>
@@ -5591,7 +5603,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -6060,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT24">
         <v>1.23</v>
@@ -6164,7 +6176,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6355,7 +6367,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6737,7 +6749,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6827,7 +6839,7 @@
         <v>1.31</v>
       </c>
       <c r="AT28">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU28">
         <v>1.38</v>
@@ -6928,7 +6940,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7119,7 +7131,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7310,7 +7322,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7397,7 +7409,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT31">
         <v>1.69</v>
@@ -7501,7 +7513,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7883,7 +7895,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8074,7 +8086,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -9411,7 +9423,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9793,7 +9805,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9883,7 +9895,7 @@
         <v>1.43</v>
       </c>
       <c r="AT44">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU44">
         <v>1.65</v>
@@ -10175,7 +10187,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10557,7 +10569,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10644,7 +10656,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT48">
         <v>1.08</v>
@@ -10748,7 +10760,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10835,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT49">
         <v>0.85</v>
@@ -11321,7 +11333,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11512,7 +11524,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11894,7 +11906,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12658,7 +12670,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12849,7 +12861,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13040,7 +13052,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13613,7 +13625,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13703,7 +13715,7 @@
         <v>1.92</v>
       </c>
       <c r="AT64">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU64">
         <v>2.22</v>
@@ -13804,7 +13816,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13891,7 +13903,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT65">
         <v>0.58</v>
@@ -13995,7 +14007,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14186,7 +14198,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14377,7 +14389,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14950,7 +14962,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15228,7 +15240,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT72">
         <v>0.85</v>
@@ -15332,7 +15344,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15523,7 +15535,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15714,7 +15726,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16287,7 +16299,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16669,7 +16681,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17051,7 +17063,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17433,7 +17445,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17624,7 +17636,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17711,7 +17723,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT85">
         <v>1.31</v>
@@ -17815,7 +17827,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -18006,7 +18018,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18388,7 +18400,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19152,7 +19164,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19239,7 +19251,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT93">
         <v>1.31</v>
@@ -19343,7 +19355,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19534,7 +19546,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19725,7 +19737,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -20197,7 +20209,7 @@
         <v>1.17</v>
       </c>
       <c r="AT98">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU98">
         <v>1.15</v>
@@ -20298,7 +20310,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20489,7 +20501,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21062,7 +21074,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21253,7 +21265,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21444,7 +21456,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21531,7 +21543,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT105">
         <v>1.15</v>
@@ -21635,7 +21647,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -22017,7 +22029,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22399,7 +22411,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22590,7 +22602,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22781,7 +22793,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -23354,7 +23366,7 @@
         <v>112</v>
       </c>
       <c r="P115" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23545,7 +23557,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23823,7 +23835,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT117">
         <v>0.58</v>
@@ -24017,7 +24029,7 @@
         <v>0.92</v>
       </c>
       <c r="AT118">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU118">
         <v>1.49</v>
@@ -24205,7 +24217,7 @@
         <v>0.6</v>
       </c>
       <c r="AS119">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT119">
         <v>0.6899999999999999</v>
@@ -24309,7 +24321,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24691,7 +24703,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24882,7 +24894,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -25073,7 +25085,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25264,7 +25276,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25646,7 +25658,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25837,7 +25849,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -26219,7 +26231,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26410,7 +26422,7 @@
         <v>111</v>
       </c>
       <c r="P131" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26601,7 +26613,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q132">
         <v>1</v>
@@ -26691,7 +26703,7 @@
         <v>1.23</v>
       </c>
       <c r="AT132">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU132">
         <v>1.33</v>
@@ -27070,7 +27082,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT134">
         <v>0.6899999999999999</v>
@@ -27174,7 +27186,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27556,7 +27568,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27747,7 +27759,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -28216,7 +28228,7 @@
         <v>1.17</v>
       </c>
       <c r="AS140">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT140">
         <v>1.69</v>
@@ -28702,7 +28714,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28893,7 +28905,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -29466,7 +29478,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>15</v>
@@ -29848,7 +29860,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -30508,7 +30520,7 @@
         <v>0.14</v>
       </c>
       <c r="AS152">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT152">
         <v>0.62</v>
@@ -30994,7 +31006,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -31185,7 +31197,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31654,7 +31666,7 @@
         <v>1.43</v>
       </c>
       <c r="AS158">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT158">
         <v>1.69</v>
@@ -31758,7 +31770,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31848,7 +31860,7 @@
         <v>1.77</v>
       </c>
       <c r="AT159">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU159">
         <v>1.51</v>
@@ -31949,7 +31961,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -32331,7 +32343,7 @@
         <v>202</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32522,7 +32534,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -33095,7 +33107,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33286,7 +33298,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33668,7 +33680,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -34050,7 +34062,7 @@
         <v>209</v>
       </c>
       <c r="P171" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34137,7 +34149,7 @@
         <v>1.13</v>
       </c>
       <c r="AS171">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT171">
         <v>0.85</v>
@@ -34241,7 +34253,7 @@
         <v>86</v>
       </c>
       <c r="P172" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34623,7 +34635,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -34814,7 +34826,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -35196,7 +35208,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35387,7 +35399,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35769,7 +35781,7 @@
         <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35856,7 +35868,7 @@
         <v>0.88</v>
       </c>
       <c r="AS180">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT180">
         <v>1</v>
@@ -36151,7 +36163,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36724,7 +36736,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36915,7 +36927,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37106,7 +37118,7 @@
         <v>95</v>
       </c>
       <c r="P187" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q187">
         <v>6</v>
@@ -37297,7 +37309,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37870,7 +37882,7 @@
         <v>220</v>
       </c>
       <c r="P191" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38061,7 +38073,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38634,7 +38646,7 @@
         <v>86</v>
       </c>
       <c r="P195" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38724,7 +38736,7 @@
         <v>2.46</v>
       </c>
       <c r="AT195">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU195">
         <v>1.84</v>
@@ -38825,7 +38837,7 @@
         <v>218</v>
       </c>
       <c r="P196" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39207,7 +39219,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -39398,7 +39410,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39971,7 +39983,7 @@
         <v>157</v>
       </c>
       <c r="P202" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40544,7 +40556,7 @@
         <v>85</v>
       </c>
       <c r="P205" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q205">
         <v>2</v>
@@ -40735,7 +40747,7 @@
         <v>227</v>
       </c>
       <c r="P206" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q206">
         <v>3</v>
@@ -40926,7 +40938,7 @@
         <v>228</v>
       </c>
       <c r="P207" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -41013,7 +41025,7 @@
         <v>1.9</v>
       </c>
       <c r="AS207">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT207">
         <v>1.92</v>
@@ -41117,7 +41129,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q208">
         <v>10</v>
@@ -42072,7 +42084,7 @@
         <v>231</v>
       </c>
       <c r="P213" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42263,7 +42275,7 @@
         <v>232</v>
       </c>
       <c r="P214" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -42836,7 +42848,7 @@
         <v>157</v>
       </c>
       <c r="P217" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -42926,7 +42938,7 @@
         <v>1.54</v>
       </c>
       <c r="AT217">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU217">
         <v>1.73</v>
@@ -43027,7 +43039,7 @@
         <v>233</v>
       </c>
       <c r="P218" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q218">
         <v>2</v>
@@ -43114,7 +43126,7 @@
         <v>1.45</v>
       </c>
       <c r="AS218">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT218">
         <v>1.31</v>
@@ -43218,7 +43230,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43409,7 +43421,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43600,7 +43612,7 @@
         <v>236</v>
       </c>
       <c r="P221" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q221">
         <v>8</v>
@@ -43791,7 +43803,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -43982,7 +43994,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44364,7 +44376,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44555,7 +44567,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q226">
         <v>8</v>
@@ -44937,7 +44949,7 @@
         <v>242</v>
       </c>
       <c r="P228" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -45409,7 +45421,7 @@
         <v>1.31</v>
       </c>
       <c r="AT230">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU230">
         <v>1.44</v>
@@ -45701,7 +45713,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q232">
         <v>2</v>
@@ -45892,7 +45904,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q233">
         <v>10</v>
@@ -46361,7 +46373,7 @@
         <v>0.73</v>
       </c>
       <c r="AS235">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT235">
         <v>0.85</v>
@@ -46656,7 +46668,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -47038,7 +47050,7 @@
         <v>249</v>
       </c>
       <c r="P239" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47125,7 +47137,7 @@
         <v>1.09</v>
       </c>
       <c r="AS239">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT239">
         <v>1.23</v>
@@ -47229,7 +47241,7 @@
         <v>86</v>
       </c>
       <c r="P240" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -47420,7 +47432,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47507,7 +47519,7 @@
         <v>1.58</v>
       </c>
       <c r="AS241">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT241">
         <v>1.69</v>
@@ -47611,7 +47623,7 @@
         <v>250</v>
       </c>
       <c r="P242" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q242">
         <v>4</v>
@@ -47701,7 +47713,7 @@
         <v>1.46</v>
       </c>
       <c r="AT242">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AU242">
         <v>1.88</v>
@@ -47993,7 +48005,7 @@
         <v>110</v>
       </c>
       <c r="P244" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -48184,7 +48196,7 @@
         <v>251</v>
       </c>
       <c r="P245" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q245">
         <v>3</v>
@@ -48757,7 +48769,7 @@
         <v>253</v>
       </c>
       <c r="P248" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q248">
         <v>5</v>
@@ -49330,7 +49342,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q251">
         <v>2</v>
@@ -49521,7 +49533,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q252">
         <v>5</v>
@@ -50476,7 +50488,7 @@
         <v>86</v>
       </c>
       <c r="P257" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q257">
         <v>4</v>
@@ -50667,7 +50679,7 @@
         <v>260</v>
       </c>
       <c r="P258" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -51000,6 +51012,388 @@
       </c>
       <c r="BK259">
         <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:63">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>2435452</v>
+      </c>
+      <c r="C260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="2">
+        <v>44984.66666666666</v>
+      </c>
+      <c r="F260">
+        <v>26</v>
+      </c>
+      <c r="G260" t="s">
+        <v>84</v>
+      </c>
+      <c r="H260" t="s">
+        <v>72</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>2</v>
+      </c>
+      <c r="K260">
+        <v>3</v>
+      </c>
+      <c r="L260">
+        <v>3</v>
+      </c>
+      <c r="M260">
+        <v>2</v>
+      </c>
+      <c r="N260">
+        <v>5</v>
+      </c>
+      <c r="O260" t="s">
+        <v>261</v>
+      </c>
+      <c r="P260" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q260">
+        <v>1</v>
+      </c>
+      <c r="R260">
+        <v>4</v>
+      </c>
+      <c r="S260">
+        <v>5</v>
+      </c>
+      <c r="T260">
+        <v>4.5</v>
+      </c>
+      <c r="U260">
+        <v>2.62</v>
+      </c>
+      <c r="V260">
+        <v>1.91</v>
+      </c>
+      <c r="W260">
+        <v>1.22</v>
+      </c>
+      <c r="X260">
+        <v>4</v>
+      </c>
+      <c r="Y260">
+        <v>1.91</v>
+      </c>
+      <c r="Z260">
+        <v>1.8</v>
+      </c>
+      <c r="AA260">
+        <v>4</v>
+      </c>
+      <c r="AB260">
+        <v>1.22</v>
+      </c>
+      <c r="AC260">
+        <v>5.76</v>
+      </c>
+      <c r="AD260">
+        <v>4.94</v>
+      </c>
+      <c r="AE260">
+        <v>1.47</v>
+      </c>
+      <c r="AF260">
+        <v>1.02</v>
+      </c>
+      <c r="AG260">
+        <v>17</v>
+      </c>
+      <c r="AH260">
+        <v>1.08</v>
+      </c>
+      <c r="AI260">
+        <v>7</v>
+      </c>
+      <c r="AJ260">
+        <v>1.29</v>
+      </c>
+      <c r="AK260">
+        <v>3.6</v>
+      </c>
+      <c r="AL260">
+        <v>1.4</v>
+      </c>
+      <c r="AM260">
+        <v>2.75</v>
+      </c>
+      <c r="AN260">
+        <v>2.6</v>
+      </c>
+      <c r="AO260">
+        <v>1.17</v>
+      </c>
+      <c r="AP260">
+        <v>1.12</v>
+      </c>
+      <c r="AQ260">
+        <v>2.25</v>
+      </c>
+      <c r="AR260">
+        <v>2.33</v>
+      </c>
+      <c r="AS260">
+        <v>2.31</v>
+      </c>
+      <c r="AT260">
+        <v>2.15</v>
+      </c>
+      <c r="AU260">
+        <v>1.29</v>
+      </c>
+      <c r="AV260">
+        <v>1.9</v>
+      </c>
+      <c r="AW260">
+        <v>3.19</v>
+      </c>
+      <c r="AX260">
+        <v>4.28</v>
+      </c>
+      <c r="AY260">
+        <v>9.4</v>
+      </c>
+      <c r="AZ260">
+        <v>1.34</v>
+      </c>
+      <c r="BA260">
+        <v>1.21</v>
+      </c>
+      <c r="BB260">
+        <v>1.42</v>
+      </c>
+      <c r="BC260">
+        <v>1.74</v>
+      </c>
+      <c r="BD260">
+        <v>2.17</v>
+      </c>
+      <c r="BE260">
+        <v>2.84</v>
+      </c>
+      <c r="BF260">
+        <v>4</v>
+      </c>
+      <c r="BG260">
+        <v>10</v>
+      </c>
+      <c r="BH260">
+        <v>4</v>
+      </c>
+      <c r="BI260">
+        <v>6</v>
+      </c>
+      <c r="BJ260">
+        <v>8</v>
+      </c>
+      <c r="BK260">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>2435451</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>44984.66666666666</v>
+      </c>
+      <c r="F261">
+        <v>26</v>
+      </c>
+      <c r="G261" t="s">
+        <v>83</v>
+      </c>
+      <c r="H261" t="s">
+        <v>74</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>3</v>
+      </c>
+      <c r="M261">
+        <v>3</v>
+      </c>
+      <c r="N261">
+        <v>6</v>
+      </c>
+      <c r="O261" t="s">
+        <v>262</v>
+      </c>
+      <c r="P261" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q261">
+        <v>2</v>
+      </c>
+      <c r="R261">
+        <v>2</v>
+      </c>
+      <c r="S261">
+        <v>4</v>
+      </c>
+      <c r="T261">
+        <v>2.7</v>
+      </c>
+      <c r="U261">
+        <v>2.25</v>
+      </c>
+      <c r="V261">
+        <v>3.4</v>
+      </c>
+      <c r="W261">
+        <v>1.32</v>
+      </c>
+      <c r="X261">
+        <v>3.25</v>
+      </c>
+      <c r="Y261">
+        <v>2.4</v>
+      </c>
+      <c r="Z261">
+        <v>1.5</v>
+      </c>
+      <c r="AA261">
+        <v>5.75</v>
+      </c>
+      <c r="AB261">
+        <v>1.12</v>
+      </c>
+      <c r="AC261">
+        <v>2.3</v>
+      </c>
+      <c r="AD261">
+        <v>3.66</v>
+      </c>
+      <c r="AE261">
+        <v>2.93</v>
+      </c>
+      <c r="AF261">
+        <v>1.03</v>
+      </c>
+      <c r="AG261">
+        <v>16</v>
+      </c>
+      <c r="AH261">
+        <v>1.19</v>
+      </c>
+      <c r="AI261">
+        <v>4.3</v>
+      </c>
+      <c r="AJ261">
+        <v>1.62</v>
+      </c>
+      <c r="AK261">
+        <v>2.15</v>
+      </c>
+      <c r="AL261">
+        <v>1.5</v>
+      </c>
+      <c r="AM261">
+        <v>2.5</v>
+      </c>
+      <c r="AN261">
+        <v>1.38</v>
+      </c>
+      <c r="AO261">
+        <v>1.25</v>
+      </c>
+      <c r="AP261">
+        <v>1.62</v>
+      </c>
+      <c r="AQ261">
+        <v>1.33</v>
+      </c>
+      <c r="AR261">
+        <v>1.08</v>
+      </c>
+      <c r="AS261">
+        <v>1.31</v>
+      </c>
+      <c r="AT261">
+        <v>1.08</v>
+      </c>
+      <c r="AU261">
+        <v>1.28</v>
+      </c>
+      <c r="AV261">
+        <v>1.36</v>
+      </c>
+      <c r="AW261">
+        <v>2.64</v>
+      </c>
+      <c r="AX261">
+        <v>1.93</v>
+      </c>
+      <c r="AY261">
+        <v>7</v>
+      </c>
+      <c r="AZ261">
+        <v>2.36</v>
+      </c>
+      <c r="BA261">
+        <v>1.22</v>
+      </c>
+      <c r="BB261">
+        <v>1.45</v>
+      </c>
+      <c r="BC261">
+        <v>1.8</v>
+      </c>
+      <c r="BD261">
+        <v>2.29</v>
+      </c>
+      <c r="BE261">
+        <v>3.04</v>
+      </c>
+      <c r="BF261">
+        <v>10</v>
+      </c>
+      <c r="BG261">
+        <v>8</v>
+      </c>
+      <c r="BH261">
+        <v>6</v>
+      </c>
+      <c r="BI261">
+        <v>3</v>
+      </c>
+      <c r="BJ261">
+        <v>16</v>
+      </c>
+      <c r="BK261">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="389">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -805,6 +805,9 @@
     <t>['8', '59', '77']</t>
   </si>
   <si>
+    <t>['2', '4', '12', '14', '20', '27', '31', '46', '59', '62', '74', '89', '90+1']</t>
+  </si>
+  <si>
     <t>['8', '23', '33']</t>
   </si>
   <si>
@@ -1539,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK261"/>
+  <dimension ref="A1:BK265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1783,7 +1786,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1873,7 +1876,7 @@
         <v>1.43</v>
       </c>
       <c r="AT2">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1974,7 +1977,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2061,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT3">
         <v>1.08</v>
@@ -2828,7 +2831,7 @@
         <v>1.31</v>
       </c>
       <c r="AT7">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2929,7 +2932,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3120,7 +3123,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3207,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -3693,7 +3696,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3780,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT12">
         <v>2.15</v>
@@ -4075,7 +4078,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4457,7 +4460,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4547,7 +4550,7 @@
         <v>1.54</v>
       </c>
       <c r="AT16">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4648,7 +4651,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4839,7 +4842,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4929,7 +4932,7 @@
         <v>1.46</v>
       </c>
       <c r="AT18">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5030,7 +5033,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5412,7 +5415,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5499,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT21">
         <v>1.08</v>
@@ -5603,7 +5606,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -6072,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT24">
         <v>1.23</v>
@@ -6176,7 +6179,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6263,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT25">
         <v>0.62</v>
@@ -6367,7 +6370,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6648,7 +6651,7 @@
         <v>1.54</v>
       </c>
       <c r="AT27">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU27">
         <v>1.93</v>
@@ -6749,7 +6752,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6940,7 +6943,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7131,7 +7134,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7221,7 +7224,7 @@
         <v>1.92</v>
       </c>
       <c r="AT30">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU30">
         <v>2.32</v>
@@ -7322,7 +7325,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7513,7 +7516,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7600,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT32">
         <v>1.15</v>
@@ -7791,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT33">
         <v>0.6899999999999999</v>
@@ -7895,7 +7898,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8086,7 +8089,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8176,7 +8179,7 @@
         <v>1.23</v>
       </c>
       <c r="AT35">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <v>1.28</v>
@@ -8749,7 +8752,7 @@
         <v>1.85</v>
       </c>
       <c r="AT38">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU38">
         <v>1.19</v>
@@ -9423,7 +9426,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9510,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9805,7 +9808,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10086,7 +10089,7 @@
         <v>1.54</v>
       </c>
       <c r="AT45">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU45">
         <v>1.28</v>
@@ -10187,7 +10190,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10277,7 +10280,7 @@
         <v>1.77</v>
       </c>
       <c r="AT46">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU46">
         <v>1.41</v>
@@ -10569,7 +10572,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10656,7 +10659,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT48">
         <v>1.08</v>
@@ -10760,7 +10763,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -11333,7 +11336,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11524,7 +11527,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11611,7 +11614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT53">
         <v>1.31</v>
@@ -11906,7 +11909,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11996,7 +11999,7 @@
         <v>2.46</v>
       </c>
       <c r="AT55">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU55">
         <v>2.1</v>
@@ -12566,10 +12569,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT58">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU58">
         <v>0.9</v>
@@ -12670,7 +12673,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12861,7 +12864,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13052,7 +13055,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13524,7 +13527,7 @@
         <v>1.85</v>
       </c>
       <c r="AT63">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU63">
         <v>1.43</v>
@@ -13625,7 +13628,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13816,7 +13819,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13906,7 +13909,7 @@
         <v>1.31</v>
       </c>
       <c r="AT65">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU65">
         <v>1.2</v>
@@ -14007,7 +14010,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14198,7 +14201,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14389,7 +14392,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14476,7 +14479,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT68">
         <v>1.69</v>
@@ -14962,7 +14965,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15049,7 +15052,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT71">
         <v>1.23</v>
@@ -15240,7 +15243,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT72">
         <v>0.85</v>
@@ -15344,7 +15347,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15535,7 +15538,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15625,7 +15628,7 @@
         <v>1.54</v>
       </c>
       <c r="AT74">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU74">
         <v>2.01</v>
@@ -15726,7 +15729,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16299,7 +16302,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16386,7 +16389,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT78">
         <v>0.85</v>
@@ -16681,7 +16684,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17063,7 +17066,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17150,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT82">
         <v>0.62</v>
@@ -17341,7 +17344,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT83">
         <v>0.85</v>
@@ -17445,7 +17448,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17535,7 +17538,7 @@
         <v>1.77</v>
       </c>
       <c r="AT84">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU84">
         <v>1.43</v>
@@ -17636,7 +17639,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17723,7 +17726,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT85">
         <v>1.31</v>
@@ -17827,7 +17830,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -18018,7 +18021,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18400,7 +18403,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19063,7 +19066,7 @@
         <v>1.54</v>
       </c>
       <c r="AT92">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU92">
         <v>1.7</v>
@@ -19164,7 +19167,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19355,7 +19358,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19445,7 +19448,7 @@
         <v>2</v>
       </c>
       <c r="AT94">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU94">
         <v>1.95</v>
@@ -19546,7 +19549,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19636,7 +19639,7 @@
         <v>0.92</v>
       </c>
       <c r="AT95">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU95">
         <v>1.44</v>
@@ -19737,7 +19740,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -20018,7 +20021,7 @@
         <v>1.46</v>
       </c>
       <c r="AT97">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU97">
         <v>2.26</v>
@@ -20206,7 +20209,7 @@
         <v>3</v>
       </c>
       <c r="AS98">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT98">
         <v>2.15</v>
@@ -20310,7 +20313,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20501,7 +20504,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21074,7 +21077,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21161,7 +21164,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT103">
         <v>1.69</v>
@@ -21265,7 +21268,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21456,7 +21459,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21543,7 +21546,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT105">
         <v>1.15</v>
@@ -21647,7 +21650,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21734,7 +21737,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT106">
         <v>1.08</v>
@@ -22029,7 +22032,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22411,7 +22414,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22602,7 +22605,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22793,7 +22796,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -23074,7 +23077,7 @@
         <v>2.46</v>
       </c>
       <c r="AT113">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU113">
         <v>1.88</v>
@@ -23366,7 +23369,7 @@
         <v>112</v>
       </c>
       <c r="P115" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23456,7 +23459,7 @@
         <v>2</v>
       </c>
       <c r="AT115">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU115">
         <v>1.81</v>
@@ -23557,7 +23560,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23644,7 +23647,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT116">
         <v>1.08</v>
@@ -23835,10 +23838,10 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT117">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU117">
         <v>1.31</v>
@@ -24321,7 +24324,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24411,7 +24414,7 @@
         <v>1.31</v>
       </c>
       <c r="AT120">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU120">
         <v>1.41</v>
@@ -24703,7 +24706,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24894,7 +24897,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -25085,7 +25088,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25276,7 +25279,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25658,7 +25661,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25849,7 +25852,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25936,7 +25939,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT128">
         <v>0.85</v>
@@ -26231,7 +26234,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26318,7 +26321,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT130">
         <v>0.86</v>
@@ -26422,7 +26425,7 @@
         <v>111</v>
       </c>
       <c r="P131" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26613,7 +26616,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q132">
         <v>1</v>
@@ -27082,7 +27085,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT134">
         <v>0.6899999999999999</v>
@@ -27186,7 +27189,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27568,7 +27571,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27658,7 +27661,7 @@
         <v>1.46</v>
       </c>
       <c r="AT137">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU137">
         <v>1.95</v>
@@ -27759,7 +27762,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27846,7 +27849,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT138">
         <v>0.85</v>
@@ -28040,7 +28043,7 @@
         <v>0.92</v>
       </c>
       <c r="AT139">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU139">
         <v>1.46</v>
@@ -28231,7 +28234,7 @@
         <v>1.31</v>
       </c>
       <c r="AT140">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU140">
         <v>1.3</v>
@@ -28714,7 +28717,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28905,7 +28908,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28992,10 +28995,10 @@
         <v>1.57</v>
       </c>
       <c r="AS144">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT144">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU144">
         <v>1.79</v>
@@ -29183,7 +29186,7 @@
         <v>1</v>
       </c>
       <c r="AS145">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT145">
         <v>1.23</v>
@@ -29478,7 +29481,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>15</v>
@@ -29860,7 +29863,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29950,7 +29953,7 @@
         <v>1.31</v>
       </c>
       <c r="AT149">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU149">
         <v>1.31</v>
@@ -31006,7 +31009,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -31197,7 +31200,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31287,7 +31290,7 @@
         <v>1.43</v>
       </c>
       <c r="AT156">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU156">
         <v>1.56</v>
@@ -31666,10 +31669,10 @@
         <v>1.43</v>
       </c>
       <c r="AS158">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT158">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU158">
         <v>1.46</v>
@@ -31770,7 +31773,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31961,7 +31964,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -32048,7 +32051,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT160">
         <v>1.31</v>
@@ -32343,7 +32346,7 @@
         <v>202</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32534,7 +32537,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -33107,7 +33110,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33298,7 +33301,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33388,7 +33391,7 @@
         <v>1.54</v>
       </c>
       <c r="AT167">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU167">
         <v>1.85</v>
@@ -33576,10 +33579,10 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT168">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU168">
         <v>1.43</v>
@@ -33680,7 +33683,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33958,7 +33961,7 @@
         <v>0.75</v>
       </c>
       <c r="AS170">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT170">
         <v>0.6899999999999999</v>
@@ -34062,7 +34065,7 @@
         <v>209</v>
       </c>
       <c r="P171" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34253,7 +34256,7 @@
         <v>86</v>
       </c>
       <c r="P172" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34343,7 +34346,7 @@
         <v>1.77</v>
       </c>
       <c r="AT172">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU172">
         <v>1.46</v>
@@ -34635,7 +34638,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -34725,7 +34728,7 @@
         <v>1.85</v>
       </c>
       <c r="AT174">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU174">
         <v>1.2</v>
@@ -34826,7 +34829,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -35107,7 +35110,7 @@
         <v>1.54</v>
       </c>
       <c r="AT176">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU176">
         <v>1.35</v>
@@ -35208,7 +35211,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35399,7 +35402,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35781,7 +35784,7 @@
         <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35868,7 +35871,7 @@
         <v>0.88</v>
       </c>
       <c r="AS180">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT180">
         <v>1</v>
@@ -36163,7 +36166,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36250,10 +36253,10 @@
         <v>1.44</v>
       </c>
       <c r="AS182">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT182">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU182">
         <v>1.84</v>
@@ -36441,7 +36444,7 @@
         <v>0.89</v>
       </c>
       <c r="AS183">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT183">
         <v>1.23</v>
@@ -36736,7 +36739,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36927,7 +36930,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37017,7 +37020,7 @@
         <v>1.31</v>
       </c>
       <c r="AT186">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU186">
         <v>1.51</v>
@@ -37118,7 +37121,7 @@
         <v>95</v>
       </c>
       <c r="P187" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q187">
         <v>6</v>
@@ -37309,7 +37312,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37587,7 +37590,7 @@
         <v>1.25</v>
       </c>
       <c r="AS189">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT189">
         <v>1.08</v>
@@ -37882,7 +37885,7 @@
         <v>220</v>
       </c>
       <c r="P191" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38073,7 +38076,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38646,7 +38649,7 @@
         <v>86</v>
       </c>
       <c r="P195" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38837,7 +38840,7 @@
         <v>218</v>
       </c>
       <c r="P196" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39219,7 +39222,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -39309,7 +39312,7 @@
         <v>1.85</v>
       </c>
       <c r="AT198">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU198">
         <v>1.23</v>
@@ -39410,7 +39413,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39879,10 +39882,10 @@
         <v>2.11</v>
       </c>
       <c r="AS201">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT201">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU201">
         <v>1.87</v>
@@ -39983,7 +39986,7 @@
         <v>157</v>
       </c>
       <c r="P202" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40261,7 +40264,7 @@
         <v>1.11</v>
       </c>
       <c r="AS203">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT203">
         <v>1.31</v>
@@ -40556,7 +40559,7 @@
         <v>85</v>
       </c>
       <c r="P205" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q205">
         <v>2</v>
@@ -40747,7 +40750,7 @@
         <v>227</v>
       </c>
       <c r="P206" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q206">
         <v>3</v>
@@ -40938,7 +40941,7 @@
         <v>228</v>
       </c>
       <c r="P207" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -41028,7 +41031,7 @@
         <v>1.31</v>
       </c>
       <c r="AT207">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU207">
         <v>1.28</v>
@@ -41129,7 +41132,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q208">
         <v>10</v>
@@ -41216,7 +41219,7 @@
         <v>1.11</v>
       </c>
       <c r="AS208">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT208">
         <v>0.85</v>
@@ -41407,10 +41410,10 @@
         <v>1.3</v>
       </c>
       <c r="AS209">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT209">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU209">
         <v>1.5</v>
@@ -41598,7 +41601,7 @@
         <v>0.8</v>
       </c>
       <c r="AS210">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT210">
         <v>0.85</v>
@@ -42084,7 +42087,7 @@
         <v>231</v>
       </c>
       <c r="P213" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42275,7 +42278,7 @@
         <v>232</v>
       </c>
       <c r="P214" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -42848,7 +42851,7 @@
         <v>157</v>
       </c>
       <c r="P217" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -43039,7 +43042,7 @@
         <v>233</v>
       </c>
       <c r="P218" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q218">
         <v>2</v>
@@ -43230,7 +43233,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43421,7 +43424,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43511,7 +43514,7 @@
         <v>1.92</v>
       </c>
       <c r="AT220">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU220">
         <v>1.86</v>
@@ -43612,7 +43615,7 @@
         <v>236</v>
       </c>
       <c r="P221" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q221">
         <v>8</v>
@@ -43803,7 +43806,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -43994,7 +43997,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44275,7 +44278,7 @@
         <v>1.23</v>
       </c>
       <c r="AT224">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU224">
         <v>1.25</v>
@@ -44376,7 +44379,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44567,7 +44570,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q226">
         <v>8</v>
@@ -44845,10 +44848,10 @@
         <v>1.5</v>
       </c>
       <c r="AS227">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT227">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU227">
         <v>1.28</v>
@@ -44949,7 +44952,7 @@
         <v>242</v>
       </c>
       <c r="P228" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -45230,7 +45233,7 @@
         <v>2</v>
       </c>
       <c r="AT229">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU229">
         <v>1.74</v>
@@ -45713,7 +45716,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q232">
         <v>2</v>
@@ -45904,7 +45907,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q233">
         <v>10</v>
@@ -45994,7 +45997,7 @@
         <v>1.85</v>
       </c>
       <c r="AT233">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU233">
         <v>1.24</v>
@@ -46373,7 +46376,7 @@
         <v>0.73</v>
       </c>
       <c r="AS235">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT235">
         <v>0.85</v>
@@ -46668,7 +46671,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -46755,7 +46758,7 @@
         <v>1.18</v>
       </c>
       <c r="AS237">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT237">
         <v>1.08</v>
@@ -47050,7 +47053,7 @@
         <v>249</v>
       </c>
       <c r="P239" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47241,7 +47244,7 @@
         <v>86</v>
       </c>
       <c r="P240" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -47432,7 +47435,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47519,7 +47522,7 @@
         <v>1.58</v>
       </c>
       <c r="AS241">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT241">
         <v>1.69</v>
@@ -47623,7 +47626,7 @@
         <v>250</v>
       </c>
       <c r="P242" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q242">
         <v>4</v>
@@ -48005,7 +48008,7 @@
         <v>110</v>
       </c>
       <c r="P244" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -48092,10 +48095,10 @@
         <v>1.83</v>
       </c>
       <c r="AS244">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT244">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU244">
         <v>1.32</v>
@@ -48196,7 +48199,7 @@
         <v>251</v>
       </c>
       <c r="P245" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q245">
         <v>3</v>
@@ -48474,7 +48477,7 @@
         <v>1.17</v>
       </c>
       <c r="AS246">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT246">
         <v>1.15</v>
@@ -48668,7 +48671,7 @@
         <v>1.23</v>
       </c>
       <c r="AT247">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU247">
         <v>1.31</v>
@@ -48769,7 +48772,7 @@
         <v>253</v>
       </c>
       <c r="P248" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q248">
         <v>5</v>
@@ -48859,7 +48862,7 @@
         <v>1.92</v>
       </c>
       <c r="AT248">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU248">
         <v>1.87</v>
@@ -49342,7 +49345,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q251">
         <v>2</v>
@@ -49533,7 +49536,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q252">
         <v>5</v>
@@ -50005,7 +50008,7 @@
         <v>1.54</v>
       </c>
       <c r="AT254">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU254">
         <v>1.66</v>
@@ -50488,7 +50491,7 @@
         <v>86</v>
       </c>
       <c r="P257" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q257">
         <v>4</v>
@@ -50679,7 +50682,7 @@
         <v>260</v>
       </c>
       <c r="P258" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -51061,7 +51064,7 @@
         <v>261</v>
       </c>
       <c r="P260" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q260">
         <v>1</v>
@@ -51148,7 +51151,7 @@
         <v>2.33</v>
       </c>
       <c r="AS260">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT260">
         <v>2.15</v>
@@ -51252,7 +51255,7 @@
         <v>262</v>
       </c>
       <c r="P261" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q261">
         <v>2</v>
@@ -51394,6 +51397,770 @@
       </c>
       <c r="BK261">
         <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:63">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>2435456</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="2">
+        <v>44988.66666666666</v>
+      </c>
+      <c r="F262">
+        <v>27</v>
+      </c>
+      <c r="G262" t="s">
+        <v>84</v>
+      </c>
+      <c r="H262" t="s">
+        <v>70</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262" t="s">
+        <v>86</v>
+      </c>
+      <c r="P262" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q262">
+        <v>7</v>
+      </c>
+      <c r="R262">
+        <v>5</v>
+      </c>
+      <c r="S262">
+        <v>12</v>
+      </c>
+      <c r="T262">
+        <v>3.1</v>
+      </c>
+      <c r="U262">
+        <v>2.25</v>
+      </c>
+      <c r="V262">
+        <v>2.8</v>
+      </c>
+      <c r="W262">
+        <v>1.33</v>
+      </c>
+      <c r="X262">
+        <v>3.25</v>
+      </c>
+      <c r="Y262">
+        <v>2.38</v>
+      </c>
+      <c r="Z262">
+        <v>1.53</v>
+      </c>
+      <c r="AA262">
+        <v>5</v>
+      </c>
+      <c r="AB262">
+        <v>1.14</v>
+      </c>
+      <c r="AC262">
+        <v>2.65</v>
+      </c>
+      <c r="AD262">
+        <v>3.55</v>
+      </c>
+      <c r="AE262">
+        <v>2.33</v>
+      </c>
+      <c r="AF262">
+        <v>1.03</v>
+      </c>
+      <c r="AG262">
+        <v>11</v>
+      </c>
+      <c r="AH262">
+        <v>1.2</v>
+      </c>
+      <c r="AI262">
+        <v>4.33</v>
+      </c>
+      <c r="AJ262">
+        <v>1.62</v>
+      </c>
+      <c r="AK262">
+        <v>2.2</v>
+      </c>
+      <c r="AL262">
+        <v>1.6</v>
+      </c>
+      <c r="AM262">
+        <v>2.25</v>
+      </c>
+      <c r="AN262">
+        <v>1.53</v>
+      </c>
+      <c r="AO262">
+        <v>1.25</v>
+      </c>
+      <c r="AP262">
+        <v>1.44</v>
+      </c>
+      <c r="AQ262">
+        <v>2.31</v>
+      </c>
+      <c r="AR262">
+        <v>1.92</v>
+      </c>
+      <c r="AS262">
+        <v>2.14</v>
+      </c>
+      <c r="AT262">
+        <v>2</v>
+      </c>
+      <c r="AU262">
+        <v>1.27</v>
+      </c>
+      <c r="AV262">
+        <v>1.49</v>
+      </c>
+      <c r="AW262">
+        <v>2.76</v>
+      </c>
+      <c r="AX262">
+        <v>2.25</v>
+      </c>
+      <c r="AY262">
+        <v>7.7</v>
+      </c>
+      <c r="AZ262">
+        <v>1.87</v>
+      </c>
+      <c r="BA262">
+        <v>1.2</v>
+      </c>
+      <c r="BB262">
+        <v>1.36</v>
+      </c>
+      <c r="BC262">
+        <v>1.68</v>
+      </c>
+      <c r="BD262">
+        <v>2.06</v>
+      </c>
+      <c r="BE262">
+        <v>2.7</v>
+      </c>
+      <c r="BF262">
+        <v>7</v>
+      </c>
+      <c r="BG262">
+        <v>7</v>
+      </c>
+      <c r="BH262">
+        <v>7</v>
+      </c>
+      <c r="BI262">
+        <v>6</v>
+      </c>
+      <c r="BJ262">
+        <v>14</v>
+      </c>
+      <c r="BK262">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:63">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>2435457</v>
+      </c>
+      <c r="C263" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="2">
+        <v>44988.66666666666</v>
+      </c>
+      <c r="F263">
+        <v>27</v>
+      </c>
+      <c r="G263" t="s">
+        <v>72</v>
+      </c>
+      <c r="H263" t="s">
+        <v>65</v>
+      </c>
+      <c r="I263">
+        <v>7</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>7</v>
+      </c>
+      <c r="L263">
+        <v>13</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>13</v>
+      </c>
+      <c r="O263" t="s">
+        <v>263</v>
+      </c>
+      <c r="P263" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q263">
+        <v>2</v>
+      </c>
+      <c r="R263">
+        <v>4</v>
+      </c>
+      <c r="S263">
+        <v>6</v>
+      </c>
+      <c r="T263">
+        <v>1.62</v>
+      </c>
+      <c r="U263">
+        <v>2.62</v>
+      </c>
+      <c r="V263">
+        <v>8</v>
+      </c>
+      <c r="W263">
+        <v>1.22</v>
+      </c>
+      <c r="X263">
+        <v>4</v>
+      </c>
+      <c r="Y263">
+        <v>2</v>
+      </c>
+      <c r="Z263">
+        <v>1.73</v>
+      </c>
+      <c r="AA263">
+        <v>4</v>
+      </c>
+      <c r="AB263">
+        <v>1.22</v>
+      </c>
+      <c r="AC263">
+        <v>1.21</v>
+      </c>
+      <c r="AD263">
+        <v>6.3</v>
+      </c>
+      <c r="AE263">
+        <v>10</v>
+      </c>
+      <c r="AF263">
+        <v>1.02</v>
+      </c>
+      <c r="AG263">
+        <v>15</v>
+      </c>
+      <c r="AH263">
+        <v>1.11</v>
+      </c>
+      <c r="AI263">
+        <v>6</v>
+      </c>
+      <c r="AJ263">
+        <v>1.4</v>
+      </c>
+      <c r="AK263">
+        <v>2.75</v>
+      </c>
+      <c r="AL263">
+        <v>1.8</v>
+      </c>
+      <c r="AM263">
+        <v>1.91</v>
+      </c>
+      <c r="AN263">
+        <v>1.02</v>
+      </c>
+      <c r="AO263">
+        <v>1.1</v>
+      </c>
+      <c r="AP263">
+        <v>4.2</v>
+      </c>
+      <c r="AQ263">
+        <v>2.23</v>
+      </c>
+      <c r="AR263">
+        <v>0.58</v>
+      </c>
+      <c r="AS263">
+        <v>2.29</v>
+      </c>
+      <c r="AT263">
+        <v>0.54</v>
+      </c>
+      <c r="AU263">
+        <v>2.01</v>
+      </c>
+      <c r="AV263">
+        <v>1.26</v>
+      </c>
+      <c r="AW263">
+        <v>3.27</v>
+      </c>
+      <c r="AX263">
+        <v>1.19</v>
+      </c>
+      <c r="AY263">
+        <v>14</v>
+      </c>
+      <c r="AZ263">
+        <v>5.35</v>
+      </c>
+      <c r="BA263">
+        <v>1.18</v>
+      </c>
+      <c r="BB263">
+        <v>1.29</v>
+      </c>
+      <c r="BC263">
+        <v>1.63</v>
+      </c>
+      <c r="BD263">
+        <v>1.99</v>
+      </c>
+      <c r="BE263">
+        <v>2.5</v>
+      </c>
+      <c r="BF263">
+        <v>17</v>
+      </c>
+      <c r="BG263">
+        <v>4</v>
+      </c>
+      <c r="BH263">
+        <v>4</v>
+      </c>
+      <c r="BI263">
+        <v>0</v>
+      </c>
+      <c r="BJ263">
+        <v>21</v>
+      </c>
+      <c r="BK263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:63">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>2435454</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E264" s="2">
+        <v>44988.66666666666</v>
+      </c>
+      <c r="F264">
+        <v>27</v>
+      </c>
+      <c r="G264" t="s">
+        <v>66</v>
+      </c>
+      <c r="H264" t="s">
+        <v>78</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>1</v>
+      </c>
+      <c r="O264" t="s">
+        <v>86</v>
+      </c>
+      <c r="P264" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q264">
+        <v>1</v>
+      </c>
+      <c r="R264">
+        <v>3</v>
+      </c>
+      <c r="S264">
+        <v>4</v>
+      </c>
+      <c r="T264">
+        <v>4.1</v>
+      </c>
+      <c r="U264">
+        <v>2.26</v>
+      </c>
+      <c r="V264">
+        <v>2.46</v>
+      </c>
+      <c r="W264">
+        <v>1.33</v>
+      </c>
+      <c r="X264">
+        <v>3.16</v>
+      </c>
+      <c r="Y264">
+        <v>2.55</v>
+      </c>
+      <c r="Z264">
+        <v>1.48</v>
+      </c>
+      <c r="AA264">
+        <v>6.1</v>
+      </c>
+      <c r="AB264">
+        <v>1.11</v>
+      </c>
+      <c r="AC264">
+        <v>3.64</v>
+      </c>
+      <c r="AD264">
+        <v>3.7</v>
+      </c>
+      <c r="AE264">
+        <v>1.95</v>
+      </c>
+      <c r="AF264">
+        <v>1</v>
+      </c>
+      <c r="AG264">
+        <v>10.5</v>
+      </c>
+      <c r="AH264">
+        <v>1.21</v>
+      </c>
+      <c r="AI264">
+        <v>3.82</v>
+      </c>
+      <c r="AJ264">
+        <v>1.76</v>
+      </c>
+      <c r="AK264">
+        <v>2.09</v>
+      </c>
+      <c r="AL264">
+        <v>1.65</v>
+      </c>
+      <c r="AM264">
+        <v>2.16</v>
+      </c>
+      <c r="AN264">
+        <v>1.84</v>
+      </c>
+      <c r="AO264">
+        <v>1.28</v>
+      </c>
+      <c r="AP264">
+        <v>1.28</v>
+      </c>
+      <c r="AQ264">
+        <v>1.17</v>
+      </c>
+      <c r="AR264">
+        <v>1.69</v>
+      </c>
+      <c r="AS264">
+        <v>1.08</v>
+      </c>
+      <c r="AT264">
+        <v>1.79</v>
+      </c>
+      <c r="AU264">
+        <v>1.3</v>
+      </c>
+      <c r="AV264">
+        <v>1.37</v>
+      </c>
+      <c r="AW264">
+        <v>2.67</v>
+      </c>
+      <c r="AX264">
+        <v>2.89</v>
+      </c>
+      <c r="AY264">
+        <v>8</v>
+      </c>
+      <c r="AZ264">
+        <v>1.57</v>
+      </c>
+      <c r="BA264">
+        <v>1.19</v>
+      </c>
+      <c r="BB264">
+        <v>1.38</v>
+      </c>
+      <c r="BC264">
+        <v>1.74</v>
+      </c>
+      <c r="BD264">
+        <v>2.15</v>
+      </c>
+      <c r="BE264">
+        <v>2.77</v>
+      </c>
+      <c r="BF264">
+        <v>4</v>
+      </c>
+      <c r="BG264">
+        <v>11</v>
+      </c>
+      <c r="BH264">
+        <v>3</v>
+      </c>
+      <c r="BI264">
+        <v>6</v>
+      </c>
+      <c r="BJ264">
+        <v>7</v>
+      </c>
+      <c r="BK264">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:63">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>2435458</v>
+      </c>
+      <c r="C265" t="s">
+        <v>63</v>
+      </c>
+      <c r="D265" t="s">
+        <v>64</v>
+      </c>
+      <c r="E265" s="2">
+        <v>44988.66666666666</v>
+      </c>
+      <c r="F265">
+        <v>27</v>
+      </c>
+      <c r="G265" t="s">
+        <v>75</v>
+      </c>
+      <c r="H265" t="s">
+        <v>80</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>1</v>
+      </c>
+      <c r="O265" t="s">
+        <v>86</v>
+      </c>
+      <c r="P265" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q265">
+        <v>5</v>
+      </c>
+      <c r="R265">
+        <v>6</v>
+      </c>
+      <c r="S265">
+        <v>11</v>
+      </c>
+      <c r="T265">
+        <v>3</v>
+      </c>
+      <c r="U265">
+        <v>2.1</v>
+      </c>
+      <c r="V265">
+        <v>3.2</v>
+      </c>
+      <c r="W265">
+        <v>1.4</v>
+      </c>
+      <c r="X265">
+        <v>2.75</v>
+      </c>
+      <c r="Y265">
+        <v>2.75</v>
+      </c>
+      <c r="Z265">
+        <v>1.4</v>
+      </c>
+      <c r="AA265">
+        <v>6.5</v>
+      </c>
+      <c r="AB265">
+        <v>1.1</v>
+      </c>
+      <c r="AC265">
+        <v>2.38</v>
+      </c>
+      <c r="AD265">
+        <v>3.36</v>
+      </c>
+      <c r="AE265">
+        <v>2.95</v>
+      </c>
+      <c r="AF265">
+        <v>1.07</v>
+      </c>
+      <c r="AG265">
+        <v>7.5</v>
+      </c>
+      <c r="AH265">
+        <v>1.33</v>
+      </c>
+      <c r="AI265">
+        <v>3.25</v>
+      </c>
+      <c r="AJ265">
+        <v>1.91</v>
+      </c>
+      <c r="AK265">
+        <v>1.8</v>
+      </c>
+      <c r="AL265">
+        <v>1.73</v>
+      </c>
+      <c r="AM265">
+        <v>2</v>
+      </c>
+      <c r="AN265">
+        <v>1.4</v>
+      </c>
+      <c r="AO265">
+        <v>1.3</v>
+      </c>
+      <c r="AP265">
+        <v>1.53</v>
+      </c>
+      <c r="AQ265">
+        <v>1.46</v>
+      </c>
+      <c r="AR265">
+        <v>1.15</v>
+      </c>
+      <c r="AS265">
+        <v>1.36</v>
+      </c>
+      <c r="AT265">
+        <v>1.29</v>
+      </c>
+      <c r="AU265">
+        <v>1.41</v>
+      </c>
+      <c r="AV265">
+        <v>1.32</v>
+      </c>
+      <c r="AW265">
+        <v>2.73</v>
+      </c>
+      <c r="AX265">
+        <v>1.87</v>
+      </c>
+      <c r="AY265">
+        <v>7.4</v>
+      </c>
+      <c r="AZ265">
+        <v>2.33</v>
+      </c>
+      <c r="BA265">
+        <v>1.3</v>
+      </c>
+      <c r="BB265">
+        <v>1.63</v>
+      </c>
+      <c r="BC265">
+        <v>2.01</v>
+      </c>
+      <c r="BD265">
+        <v>2.5</v>
+      </c>
+      <c r="BE265">
+        <v>3.65</v>
+      </c>
+      <c r="BF265">
+        <v>5</v>
+      </c>
+      <c r="BG265">
+        <v>3</v>
+      </c>
+      <c r="BH265">
+        <v>3</v>
+      </c>
+      <c r="BI265">
+        <v>3</v>
+      </c>
+      <c r="BJ265">
+        <v>8</v>
+      </c>
+      <c r="BK265">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="396">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -808,6 +808,12 @@
     <t>['2', '4', '12', '14', '20', '27', '31', '46', '59', '62', '74', '89', '90+1']</t>
   </si>
   <si>
+    <t>['55', '90+1']</t>
+  </si>
+  <si>
+    <t>['15', '49']</t>
+  </si>
+  <si>
     <t>['8', '23', '33']</t>
   </si>
   <si>
@@ -1182,6 +1188,21 @@
   <si>
     <t>['51', '53', '87']</t>
   </si>
+  <si>
+    <t>['52', '70']</t>
+  </si>
+  <si>
+    <t>['22', '63', '90+4']</t>
+  </si>
+  <si>
+    <t>['7', '20']</t>
+  </si>
+  <si>
+    <t>['11', '39', '83']</t>
+  </si>
+  <si>
+    <t>['41', '57']</t>
+  </si>
 </sst>
 </file>
 
@@ -1542,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK265"/>
+  <dimension ref="A1:BK271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1786,7 +1807,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1977,7 +1998,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2067,7 +2088,7 @@
         <v>1.08</v>
       </c>
       <c r="AT3">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2449,7 +2470,7 @@
         <v>1.77</v>
       </c>
       <c r="AT5">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2932,7 +2953,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3123,7 +3144,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3401,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT10">
         <v>1.31</v>
@@ -3592,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT11">
         <v>0.85</v>
@@ -3696,7 +3717,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4078,7 +4099,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4359,7 +4380,7 @@
         <v>1.85</v>
       </c>
       <c r="AT15">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4460,7 +4481,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4547,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT16">
         <v>2</v>
@@ -4651,7 +4672,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4741,7 +4762,7 @@
         <v>1.85</v>
       </c>
       <c r="AT17">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4842,7 +4863,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4929,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT18">
         <v>0.54</v>
@@ -5033,7 +5054,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5120,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT19">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5311,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT20">
         <v>0.86</v>
@@ -5415,7 +5436,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5505,7 +5526,7 @@
         <v>2.14</v>
       </c>
       <c r="AT21">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5606,7 +5627,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5887,7 +5908,7 @@
         <v>1.77</v>
       </c>
       <c r="AT23">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>1.34</v>
@@ -6179,7 +6200,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6370,7 +6391,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6460,7 +6481,7 @@
         <v>1.43</v>
       </c>
       <c r="AT26">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU26">
         <v>1.76</v>
@@ -6752,7 +6773,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6943,7 +6964,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7030,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT29">
         <v>1</v>
@@ -7134,7 +7155,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7221,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT30">
         <v>1.79</v>
@@ -7325,7 +7346,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7412,10 +7433,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT31">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU31">
         <v>1.4</v>
@@ -7516,7 +7537,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7797,7 +7818,7 @@
         <v>1.36</v>
       </c>
       <c r="AT33">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7898,7 +7919,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7988,7 +8009,7 @@
         <v>1.54</v>
       </c>
       <c r="AT34">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU34">
         <v>1.85</v>
@@ -8089,7 +8110,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8367,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT36">
         <v>0.86</v>
@@ -8940,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT39">
         <v>0.85</v>
@@ -9131,10 +9152,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT40">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU40">
         <v>1.13</v>
@@ -9426,7 +9447,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9808,7 +9829,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10190,7 +10211,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10572,7 +10593,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10662,7 +10683,7 @@
         <v>2.14</v>
       </c>
       <c r="AT48">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU48">
         <v>1.69</v>
@@ -10763,7 +10784,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10850,10 +10871,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT49">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>0.96</v>
@@ -11041,10 +11062,10 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT50">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU50">
         <v>1.33</v>
@@ -11232,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT51">
         <v>0.86</v>
@@ -11336,7 +11357,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11527,7 +11548,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11617,7 +11638,7 @@
         <v>2.29</v>
       </c>
       <c r="AT53">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU53">
         <v>1.72</v>
@@ -11909,7 +11930,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12187,10 +12208,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT56">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU56">
         <v>1.31</v>
@@ -12673,7 +12694,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12864,7 +12885,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12951,7 +12972,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT60">
         <v>1.08</v>
@@ -13055,7 +13076,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13142,10 +13163,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT61">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU61">
         <v>1.83</v>
@@ -13333,10 +13354,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT62">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU62">
         <v>1.41</v>
@@ -13628,7 +13649,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13715,7 +13736,7 @@
         <v>3</v>
       </c>
       <c r="AS64">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT64">
         <v>2.15</v>
@@ -13819,7 +13840,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13906,7 +13927,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT65">
         <v>0.54</v>
@@ -14010,7 +14031,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14201,7 +14222,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14288,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT67">
         <v>1.23</v>
@@ -14392,7 +14413,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14482,7 +14503,7 @@
         <v>1.36</v>
       </c>
       <c r="AT68">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU68">
         <v>1.12</v>
@@ -14965,7 +14986,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15347,7 +15368,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15538,7 +15559,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15625,7 +15646,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT74">
         <v>1.79</v>
@@ -15729,7 +15750,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15819,7 +15840,7 @@
         <v>1.85</v>
       </c>
       <c r="AT75">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU75">
         <v>1.31</v>
@@ -16201,7 +16222,7 @@
         <v>1.43</v>
       </c>
       <c r="AT77">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU77">
         <v>1.72</v>
@@ -16302,7 +16323,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16583,7 +16604,7 @@
         <v>2.46</v>
       </c>
       <c r="AT79">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU79">
         <v>2</v>
@@ -16684,7 +16705,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16774,7 +16795,7 @@
         <v>1.23</v>
       </c>
       <c r="AT80">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU80">
         <v>1.12</v>
@@ -17066,7 +17087,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17448,7 +17469,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17639,7 +17660,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17729,7 +17750,7 @@
         <v>2.14</v>
       </c>
       <c r="AT85">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU85">
         <v>1.43</v>
@@ -17830,7 +17851,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17920,7 +17941,7 @@
         <v>1.54</v>
       </c>
       <c r="AT86">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.26</v>
@@ -18021,7 +18042,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18108,7 +18129,7 @@
         <v>0.75</v>
       </c>
       <c r="AS87">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
         <v>1.15</v>
@@ -18403,7 +18424,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18493,7 +18514,7 @@
         <v>1.43</v>
       </c>
       <c r="AT89">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU89">
         <v>1.72</v>
@@ -18684,7 +18705,7 @@
         <v>1.85</v>
       </c>
       <c r="AT90">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU90">
         <v>1.58</v>
@@ -18872,7 +18893,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT91">
         <v>1.08</v>
@@ -19167,7 +19188,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19254,7 +19275,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT93">
         <v>1.31</v>
@@ -19358,7 +19379,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19549,7 +19570,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19636,7 +19657,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT95">
         <v>1.79</v>
@@ -19740,7 +19761,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -20018,7 +20039,7 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT97">
         <v>1.29</v>
@@ -20313,7 +20334,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20400,10 +20421,10 @@
         <v>0</v>
       </c>
       <c r="AS99">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT99">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU99">
         <v>1.33</v>
@@ -20504,7 +20525,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20782,10 +20803,10 @@
         <v>1</v>
       </c>
       <c r="AS101">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT101">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU101">
         <v>2.07</v>
@@ -21077,7 +21098,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21167,7 +21188,7 @@
         <v>2.29</v>
       </c>
       <c r="AT103">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU103">
         <v>1.76</v>
@@ -21268,7 +21289,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21459,7 +21480,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21650,7 +21671,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21740,7 +21761,7 @@
         <v>1.36</v>
       </c>
       <c r="AT106">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU106">
         <v>1.35</v>
@@ -21928,7 +21949,7 @@
         <v>0.2</v>
       </c>
       <c r="AS107">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT107">
         <v>0.62</v>
@@ -22032,7 +22053,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22122,7 +22143,7 @@
         <v>1.85</v>
       </c>
       <c r="AT108">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU108">
         <v>1.24</v>
@@ -22414,7 +22435,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22605,7 +22626,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22695,7 +22716,7 @@
         <v>1.54</v>
       </c>
       <c r="AT111">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU111">
         <v>1.34</v>
@@ -22796,7 +22817,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22883,7 +22904,7 @@
         <v>0.6</v>
       </c>
       <c r="AS112">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT112">
         <v>1</v>
@@ -23268,7 +23289,7 @@
         <v>1.23</v>
       </c>
       <c r="AT114">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU114">
         <v>1.33</v>
@@ -23369,7 +23390,7 @@
         <v>112</v>
       </c>
       <c r="P115" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23560,7 +23581,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23650,7 +23671,7 @@
         <v>1.08</v>
       </c>
       <c r="AT116">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU116">
         <v>1.2</v>
@@ -24029,7 +24050,7 @@
         <v>2.4</v>
       </c>
       <c r="AS118">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT118">
         <v>2.15</v>
@@ -24220,10 +24241,10 @@
         <v>0.6</v>
       </c>
       <c r="AS119">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT119">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU119">
         <v>1.2</v>
@@ -24324,7 +24345,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24411,7 +24432,7 @@
         <v>1.8</v>
       </c>
       <c r="AS120">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT120">
         <v>2</v>
@@ -24602,7 +24623,7 @@
         <v>1.6</v>
       </c>
       <c r="AS121">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT121">
         <v>1.31</v>
@@ -24706,7 +24727,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24897,7 +24918,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24987,7 +25008,7 @@
         <v>1.85</v>
       </c>
       <c r="AT123">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU123">
         <v>1.52</v>
@@ -25088,7 +25109,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25178,7 +25199,7 @@
         <v>1.43</v>
       </c>
       <c r="AT124">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU124">
         <v>1.59</v>
@@ -25279,7 +25300,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25557,10 +25578,10 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT126">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU126">
         <v>1.8</v>
@@ -25661,7 +25682,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25852,7 +25873,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -26234,7 +26255,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26425,7 +26446,7 @@
         <v>111</v>
       </c>
       <c r="P131" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26512,10 +26533,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT131">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU131">
         <v>1.42</v>
@@ -26616,7 +26637,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q132">
         <v>1</v>
@@ -27088,7 +27109,7 @@
         <v>2.14</v>
       </c>
       <c r="AT134">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU134">
         <v>1.46</v>
@@ -27189,7 +27210,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27279,7 +27300,7 @@
         <v>2</v>
       </c>
       <c r="AT135">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU135">
         <v>1.75</v>
@@ -27571,7 +27592,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27658,7 +27679,7 @@
         <v>1.67</v>
       </c>
       <c r="AS137">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT137">
         <v>2</v>
@@ -27762,7 +27783,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -28040,7 +28061,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT139">
         <v>1.29</v>
@@ -28231,7 +28252,7 @@
         <v>1.17</v>
       </c>
       <c r="AS140">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT140">
         <v>1.79</v>
@@ -28422,10 +28443,10 @@
         <v>1.14</v>
       </c>
       <c r="AS141">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT141">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU141">
         <v>1.92</v>
@@ -28616,7 +28637,7 @@
         <v>2.46</v>
       </c>
       <c r="AT142">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU142">
         <v>1.91</v>
@@ -28717,7 +28738,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28804,7 +28825,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT143">
         <v>1.15</v>
@@ -28908,7 +28929,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -29380,7 +29401,7 @@
         <v>1.31</v>
       </c>
       <c r="AT146">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU146">
         <v>1.5</v>
@@ -29481,7 +29502,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q147">
         <v>15</v>
@@ -29571,7 +29592,7 @@
         <v>1.54</v>
       </c>
       <c r="AT147">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU147">
         <v>1.75</v>
@@ -29863,7 +29884,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29950,7 +29971,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT149">
         <v>0.54</v>
@@ -30141,7 +30162,7 @@
         <v>1.67</v>
       </c>
       <c r="AS150">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT150">
         <v>0.85</v>
@@ -30332,10 +30353,10 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT151">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU151">
         <v>1.95</v>
@@ -30523,7 +30544,7 @@
         <v>0.14</v>
       </c>
       <c r="AS152">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT152">
         <v>0.62</v>
@@ -30714,7 +30735,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT153">
         <v>0.85</v>
@@ -31009,7 +31030,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -31200,7 +31221,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31481,7 +31502,7 @@
         <v>2.46</v>
       </c>
       <c r="AT157">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU157">
         <v>1.97</v>
@@ -31773,7 +31794,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31964,7 +31985,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -32054,7 +32075,7 @@
         <v>1.08</v>
       </c>
       <c r="AT160">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU160">
         <v>1.27</v>
@@ -32245,7 +32266,7 @@
         <v>2</v>
       </c>
       <c r="AT161">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU161">
         <v>1.75</v>
@@ -32346,7 +32367,7 @@
         <v>202</v>
       </c>
       <c r="P162" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32537,7 +32558,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32627,7 +32648,7 @@
         <v>1.54</v>
       </c>
       <c r="AT163">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU163">
         <v>1.75</v>
@@ -33110,7 +33131,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33197,7 +33218,7 @@
         <v>0.13</v>
       </c>
       <c r="AS166">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT166">
         <v>0.62</v>
@@ -33301,7 +33322,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33388,7 +33409,7 @@
         <v>1.38</v>
       </c>
       <c r="AS167">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT167">
         <v>1.29</v>
@@ -33683,7 +33704,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33770,7 +33791,7 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT169">
         <v>1.15</v>
@@ -33964,7 +33985,7 @@
         <v>2.29</v>
       </c>
       <c r="AT170">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU170">
         <v>1.75</v>
@@ -34065,7 +34086,7 @@
         <v>209</v>
       </c>
       <c r="P171" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34152,7 +34173,7 @@
         <v>1.13</v>
       </c>
       <c r="AS171">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT171">
         <v>0.85</v>
@@ -34256,7 +34277,7 @@
         <v>86</v>
       </c>
       <c r="P172" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34534,10 +34555,10 @@
         <v>0.75</v>
       </c>
       <c r="AS173">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT173">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU173">
         <v>1.9</v>
@@ -34638,7 +34659,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -34829,7 +34850,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34916,10 +34937,10 @@
         <v>1.44</v>
       </c>
       <c r="AS175">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT175">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU175">
         <v>1.77</v>
@@ -35211,7 +35232,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35402,7 +35423,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35784,7 +35805,7 @@
         <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -36065,7 +36086,7 @@
         <v>1.31</v>
       </c>
       <c r="AT181">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU181">
         <v>1.37</v>
@@ -36166,7 +36187,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36638,7 +36659,7 @@
         <v>2</v>
       </c>
       <c r="AT184">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU184">
         <v>1.78</v>
@@ -36739,7 +36760,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36826,10 +36847,10 @@
         <v>2</v>
       </c>
       <c r="AS185">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT185">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU185">
         <v>1.97</v>
@@ -36930,7 +36951,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37017,7 +37038,7 @@
         <v>1.56</v>
       </c>
       <c r="AS186">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT186">
         <v>1.29</v>
@@ -37121,7 +37142,7 @@
         <v>95</v>
       </c>
       <c r="P187" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q187">
         <v>6</v>
@@ -37312,7 +37333,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37399,7 +37420,7 @@
         <v>1</v>
       </c>
       <c r="AS188">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT188">
         <v>1.08</v>
@@ -37784,7 +37805,7 @@
         <v>1.54</v>
       </c>
       <c r="AT190">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU190">
         <v>1.6</v>
@@ -37885,7 +37906,7 @@
         <v>220</v>
       </c>
       <c r="P191" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -37975,7 +37996,7 @@
         <v>1.54</v>
       </c>
       <c r="AT191">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU191">
         <v>1.47</v>
@@ -38076,7 +38097,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38163,7 +38184,7 @@
         <v>1.25</v>
       </c>
       <c r="AS192">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT192">
         <v>0.85</v>
@@ -38354,7 +38375,7 @@
         <v>1.11</v>
       </c>
       <c r="AS193">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT193">
         <v>0.85</v>
@@ -38548,7 +38569,7 @@
         <v>1.85</v>
       </c>
       <c r="AT194">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU194">
         <v>1.53</v>
@@ -38649,7 +38670,7 @@
         <v>86</v>
       </c>
       <c r="P195" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38840,7 +38861,7 @@
         <v>218</v>
       </c>
       <c r="P196" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39118,7 +39139,7 @@
         <v>0.9</v>
       </c>
       <c r="AS197">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT197">
         <v>0.86</v>
@@ -39222,7 +39243,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -39413,7 +39434,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39986,7 +40007,7 @@
         <v>157</v>
       </c>
       <c r="P202" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40076,7 +40097,7 @@
         <v>1.23</v>
       </c>
       <c r="AT202">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU202">
         <v>1.21</v>
@@ -40455,7 +40476,7 @@
         <v>0.7</v>
       </c>
       <c r="AS204">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT204">
         <v>0.62</v>
@@ -40559,7 +40580,7 @@
         <v>85</v>
       </c>
       <c r="P205" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q205">
         <v>2</v>
@@ -40646,10 +40667,10 @@
         <v>0.7</v>
       </c>
       <c r="AS205">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT205">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU205">
         <v>1.89</v>
@@ -40750,7 +40771,7 @@
         <v>227</v>
       </c>
       <c r="P206" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q206">
         <v>3</v>
@@ -40837,10 +40858,10 @@
         <v>1.1</v>
       </c>
       <c r="AS206">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT206">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU206">
         <v>1.45</v>
@@ -40941,7 +40962,7 @@
         <v>228</v>
       </c>
       <c r="P207" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -41028,7 +41049,7 @@
         <v>1.9</v>
       </c>
       <c r="AS207">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT207">
         <v>2</v>
@@ -41132,7 +41153,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q208">
         <v>10</v>
@@ -41604,7 +41625,7 @@
         <v>2.29</v>
       </c>
       <c r="AT210">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU210">
         <v>1.92</v>
@@ -42087,7 +42108,7 @@
         <v>231</v>
       </c>
       <c r="P213" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42278,7 +42299,7 @@
         <v>232</v>
       </c>
       <c r="P214" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -42559,7 +42580,7 @@
         <v>1.85</v>
       </c>
       <c r="AT215">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU215">
         <v>1.27</v>
@@ -42851,7 +42872,7 @@
         <v>157</v>
       </c>
       <c r="P217" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -43042,7 +43063,7 @@
         <v>233</v>
       </c>
       <c r="P218" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q218">
         <v>2</v>
@@ -43129,10 +43150,10 @@
         <v>1.45</v>
       </c>
       <c r="AS218">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT218">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU218">
         <v>1.24</v>
@@ -43233,7 +43254,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43320,7 +43341,7 @@
         <v>0.9</v>
       </c>
       <c r="AS219">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT219">
         <v>1</v>
@@ -43424,7 +43445,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43511,7 +43532,7 @@
         <v>2</v>
       </c>
       <c r="AS220">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT220">
         <v>2</v>
@@ -43615,7 +43636,7 @@
         <v>236</v>
       </c>
       <c r="P221" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q221">
         <v>8</v>
@@ -43705,7 +43726,7 @@
         <v>2</v>
       </c>
       <c r="AT221">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU221">
         <v>1.75</v>
@@ -43806,7 +43827,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -43997,7 +44018,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44084,7 +44105,7 @@
         <v>1.1</v>
       </c>
       <c r="AS223">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT223">
         <v>1.31</v>
@@ -44379,7 +44400,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44570,7 +44591,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q226">
         <v>8</v>
@@ -44657,10 +44678,10 @@
         <v>1.27</v>
       </c>
       <c r="AS226">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT226">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU226">
         <v>1.92</v>
@@ -44952,7 +44973,7 @@
         <v>242</v>
       </c>
       <c r="P228" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -45421,7 +45442,7 @@
         <v>2.7</v>
       </c>
       <c r="AS230">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT230">
         <v>2.15</v>
@@ -45615,7 +45636,7 @@
         <v>1.31</v>
       </c>
       <c r="AT231">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU231">
         <v>1.38</v>
@@ -45716,7 +45737,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q232">
         <v>2</v>
@@ -45907,7 +45928,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q233">
         <v>10</v>
@@ -46188,7 +46209,7 @@
         <v>1.54</v>
       </c>
       <c r="AT234">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU234">
         <v>1.51</v>
@@ -46379,7 +46400,7 @@
         <v>2.14</v>
       </c>
       <c r="AT235">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU235">
         <v>1.33</v>
@@ -46671,7 +46692,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -47053,7 +47074,7 @@
         <v>249</v>
       </c>
       <c r="P239" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47140,7 +47161,7 @@
         <v>1.09</v>
       </c>
       <c r="AS239">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT239">
         <v>1.23</v>
@@ -47244,7 +47265,7 @@
         <v>86</v>
       </c>
       <c r="P240" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -47331,7 +47352,7 @@
         <v>1.27</v>
       </c>
       <c r="AS240">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT240">
         <v>1.31</v>
@@ -47435,7 +47456,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47525,7 +47546,7 @@
         <v>2.14</v>
       </c>
       <c r="AT241">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU241">
         <v>1.32</v>
@@ -47626,7 +47647,7 @@
         <v>250</v>
       </c>
       <c r="P242" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q242">
         <v>4</v>
@@ -47713,7 +47734,7 @@
         <v>2.55</v>
       </c>
       <c r="AS242">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT242">
         <v>2.15</v>
@@ -47907,7 +47928,7 @@
         <v>1.85</v>
       </c>
       <c r="AT243">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU243">
         <v>1.5</v>
@@ -48008,7 +48029,7 @@
         <v>110</v>
       </c>
       <c r="P244" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -48199,7 +48220,7 @@
         <v>251</v>
       </c>
       <c r="P245" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q245">
         <v>3</v>
@@ -48289,7 +48310,7 @@
         <v>2.46</v>
       </c>
       <c r="AT245">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU245">
         <v>1.87</v>
@@ -48772,7 +48793,7 @@
         <v>253</v>
       </c>
       <c r="P248" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q248">
         <v>5</v>
@@ -48859,7 +48880,7 @@
         <v>0.64</v>
       </c>
       <c r="AS248">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT248">
         <v>0.54</v>
@@ -49050,10 +49071,10 @@
         <v>1.17</v>
       </c>
       <c r="AS249">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT249">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU249">
         <v>1.88</v>
@@ -49241,10 +49262,10 @@
         <v>1.17</v>
       </c>
       <c r="AS250">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT250">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU250">
         <v>1.43</v>
@@ -49345,7 +49366,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q251">
         <v>2</v>
@@ -49432,7 +49453,7 @@
         <v>0.92</v>
       </c>
       <c r="AS251">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT251">
         <v>0.85</v>
@@ -49536,7 +49557,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q252">
         <v>5</v>
@@ -49817,7 +49838,7 @@
         <v>1.31</v>
       </c>
       <c r="AT253">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU253">
         <v>1.35</v>
@@ -50491,7 +50512,7 @@
         <v>86</v>
       </c>
       <c r="P257" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q257">
         <v>4</v>
@@ -50682,7 +50703,7 @@
         <v>260</v>
       </c>
       <c r="P258" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -51064,7 +51085,7 @@
         <v>261</v>
       </c>
       <c r="P260" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q260">
         <v>1</v>
@@ -51255,7 +51276,7 @@
         <v>262</v>
       </c>
       <c r="P261" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q261">
         <v>2</v>
@@ -51342,7 +51363,7 @@
         <v>1.08</v>
       </c>
       <c r="AS261">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT261">
         <v>1.08</v>
@@ -52160,6 +52181,1152 @@
         <v>8</v>
       </c>
       <c r="BK265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:63">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>2435461</v>
+      </c>
+      <c r="C266" t="s">
+        <v>63</v>
+      </c>
+      <c r="D266" t="s">
+        <v>64</v>
+      </c>
+      <c r="E266" s="2">
+        <v>44991.66666666666</v>
+      </c>
+      <c r="F266">
+        <v>27</v>
+      </c>
+      <c r="G266" t="s">
+        <v>83</v>
+      </c>
+      <c r="H266" t="s">
+        <v>68</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+      <c r="N266">
+        <v>3</v>
+      </c>
+      <c r="O266" t="s">
+        <v>111</v>
+      </c>
+      <c r="P266" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q266">
+        <v>6</v>
+      </c>
+      <c r="R266">
+        <v>6</v>
+      </c>
+      <c r="S266">
+        <v>12</v>
+      </c>
+      <c r="T266">
+        <v>3.1</v>
+      </c>
+      <c r="U266">
+        <v>2.25</v>
+      </c>
+      <c r="V266">
+        <v>3.1</v>
+      </c>
+      <c r="W266">
+        <v>1.33</v>
+      </c>
+      <c r="X266">
+        <v>3.25</v>
+      </c>
+      <c r="Y266">
+        <v>2.63</v>
+      </c>
+      <c r="Z266">
+        <v>1.44</v>
+      </c>
+      <c r="AA266">
+        <v>6.5</v>
+      </c>
+      <c r="AB266">
+        <v>1.11</v>
+      </c>
+      <c r="AC266">
+        <v>2.52</v>
+      </c>
+      <c r="AD266">
+        <v>3.38</v>
+      </c>
+      <c r="AE266">
+        <v>2.51</v>
+      </c>
+      <c r="AF266">
+        <v>1.04</v>
+      </c>
+      <c r="AG266">
+        <v>13</v>
+      </c>
+      <c r="AH266">
+        <v>1.25</v>
+      </c>
+      <c r="AI266">
+        <v>3.75</v>
+      </c>
+      <c r="AJ266">
+        <v>1.7</v>
+      </c>
+      <c r="AK266">
+        <v>2.05</v>
+      </c>
+      <c r="AL266">
+        <v>1.62</v>
+      </c>
+      <c r="AM266">
+        <v>2.2</v>
+      </c>
+      <c r="AN266">
+        <v>1.5</v>
+      </c>
+      <c r="AO266">
+        <v>1.29</v>
+      </c>
+      <c r="AP266">
+        <v>1.44</v>
+      </c>
+      <c r="AQ266">
+        <v>1.31</v>
+      </c>
+      <c r="AR266">
+        <v>1.08</v>
+      </c>
+      <c r="AS266">
+        <v>1.21</v>
+      </c>
+      <c r="AT266">
+        <v>1.21</v>
+      </c>
+      <c r="AU266">
+        <v>1.35</v>
+      </c>
+      <c r="AV266">
+        <v>1.37</v>
+      </c>
+      <c r="AW266">
+        <v>2.72</v>
+      </c>
+      <c r="AX266">
+        <v>2.15</v>
+      </c>
+      <c r="AY266">
+        <v>5.5</v>
+      </c>
+      <c r="AZ266">
+        <v>1.86</v>
+      </c>
+      <c r="BA266">
+        <v>1.27</v>
+      </c>
+      <c r="BB266">
+        <v>1.5</v>
+      </c>
+      <c r="BC266">
+        <v>1.87</v>
+      </c>
+      <c r="BD266">
+        <v>2.45</v>
+      </c>
+      <c r="BE266">
+        <v>3.4</v>
+      </c>
+      <c r="BF266">
+        <v>6</v>
+      </c>
+      <c r="BG266">
+        <v>7</v>
+      </c>
+      <c r="BH266">
+        <v>4</v>
+      </c>
+      <c r="BI266">
+        <v>5</v>
+      </c>
+      <c r="BJ266">
+        <v>10</v>
+      </c>
+      <c r="BK266">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:63">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>2435462</v>
+      </c>
+      <c r="C267" t="s">
+        <v>63</v>
+      </c>
+      <c r="D267" t="s">
+        <v>64</v>
+      </c>
+      <c r="E267" s="2">
+        <v>44991.66666666666</v>
+      </c>
+      <c r="F267">
+        <v>27</v>
+      </c>
+      <c r="G267" t="s">
+        <v>82</v>
+      </c>
+      <c r="H267" t="s">
+        <v>76</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>3</v>
+      </c>
+      <c r="N267">
+        <v>4</v>
+      </c>
+      <c r="O267" t="s">
+        <v>91</v>
+      </c>
+      <c r="P267" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q267">
+        <v>3</v>
+      </c>
+      <c r="R267">
+        <v>3</v>
+      </c>
+      <c r="S267">
+        <v>6</v>
+      </c>
+      <c r="T267">
+        <v>3.25</v>
+      </c>
+      <c r="U267">
+        <v>2.38</v>
+      </c>
+      <c r="V267">
+        <v>2.88</v>
+      </c>
+      <c r="W267">
+        <v>1.29</v>
+      </c>
+      <c r="X267">
+        <v>3.5</v>
+      </c>
+      <c r="Y267">
+        <v>2.38</v>
+      </c>
+      <c r="Z267">
+        <v>1.53</v>
+      </c>
+      <c r="AA267">
+        <v>5.5</v>
+      </c>
+      <c r="AB267">
+        <v>1.14</v>
+      </c>
+      <c r="AC267">
+        <v>2.78</v>
+      </c>
+      <c r="AD267">
+        <v>3.58</v>
+      </c>
+      <c r="AE267">
+        <v>2.22</v>
+      </c>
+      <c r="AF267">
+        <v>1.02</v>
+      </c>
+      <c r="AG267">
+        <v>17</v>
+      </c>
+      <c r="AH267">
+        <v>1.18</v>
+      </c>
+      <c r="AI267">
+        <v>4.75</v>
+      </c>
+      <c r="AJ267">
+        <v>1.58</v>
+      </c>
+      <c r="AK267">
+        <v>2.25</v>
+      </c>
+      <c r="AL267">
+        <v>1.5</v>
+      </c>
+      <c r="AM267">
+        <v>2.5</v>
+      </c>
+      <c r="AN267">
+        <v>1.65</v>
+      </c>
+      <c r="AO267">
+        <v>1.22</v>
+      </c>
+      <c r="AP267">
+        <v>1.44</v>
+      </c>
+      <c r="AQ267">
+        <v>0.92</v>
+      </c>
+      <c r="AR267">
+        <v>1.08</v>
+      </c>
+      <c r="AS267">
+        <v>0.86</v>
+      </c>
+      <c r="AT267">
+        <v>1.21</v>
+      </c>
+      <c r="AU267">
+        <v>1.46</v>
+      </c>
+      <c r="AV267">
+        <v>1.51</v>
+      </c>
+      <c r="AW267">
+        <v>2.97</v>
+      </c>
+      <c r="AX267">
+        <v>2.35</v>
+      </c>
+      <c r="AY267">
+        <v>5.5</v>
+      </c>
+      <c r="AZ267">
+        <v>1.74</v>
+      </c>
+      <c r="BA267">
+        <v>1.22</v>
+      </c>
+      <c r="BB267">
+        <v>1.42</v>
+      </c>
+      <c r="BC267">
+        <v>1.74</v>
+      </c>
+      <c r="BD267">
+        <v>2.23</v>
+      </c>
+      <c r="BE267">
+        <v>3</v>
+      </c>
+      <c r="BF267">
+        <v>2</v>
+      </c>
+      <c r="BG267">
+        <v>8</v>
+      </c>
+      <c r="BH267">
+        <v>3</v>
+      </c>
+      <c r="BI267">
+        <v>3</v>
+      </c>
+      <c r="BJ267">
+        <v>5</v>
+      </c>
+      <c r="BK267">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:63">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>2435460</v>
+      </c>
+      <c r="C268" t="s">
+        <v>63</v>
+      </c>
+      <c r="D268" t="s">
+        <v>64</v>
+      </c>
+      <c r="E268" s="2">
+        <v>44991.66666666666</v>
+      </c>
+      <c r="F268">
+        <v>27</v>
+      </c>
+      <c r="G268" t="s">
+        <v>74</v>
+      </c>
+      <c r="H268" t="s">
+        <v>71</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>2</v>
+      </c>
+      <c r="K268">
+        <v>2</v>
+      </c>
+      <c r="L268">
+        <v>2</v>
+      </c>
+      <c r="M268">
+        <v>2</v>
+      </c>
+      <c r="N268">
+        <v>4</v>
+      </c>
+      <c r="O268" t="s">
+        <v>264</v>
+      </c>
+      <c r="P268" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>7</v>
+      </c>
+      <c r="S268">
+        <v>7</v>
+      </c>
+      <c r="T268">
+        <v>4.75</v>
+      </c>
+      <c r="U268">
+        <v>2.38</v>
+      </c>
+      <c r="V268">
+        <v>2.25</v>
+      </c>
+      <c r="W268">
+        <v>1.33</v>
+      </c>
+      <c r="X268">
+        <v>3.25</v>
+      </c>
+      <c r="Y268">
+        <v>2.5</v>
+      </c>
+      <c r="Z268">
+        <v>1.5</v>
+      </c>
+      <c r="AA268">
+        <v>6</v>
+      </c>
+      <c r="AB268">
+        <v>1.13</v>
+      </c>
+      <c r="AC268">
+        <v>4.38</v>
+      </c>
+      <c r="AD268">
+        <v>3.75</v>
+      </c>
+      <c r="AE268">
+        <v>1.68</v>
+      </c>
+      <c r="AF268">
+        <v>1.03</v>
+      </c>
+      <c r="AG268">
+        <v>13</v>
+      </c>
+      <c r="AH268">
+        <v>1.2</v>
+      </c>
+      <c r="AI268">
+        <v>4.33</v>
+      </c>
+      <c r="AJ268">
+        <v>1.65</v>
+      </c>
+      <c r="AK268">
+        <v>2.1</v>
+      </c>
+      <c r="AL268">
+        <v>1.73</v>
+      </c>
+      <c r="AM268">
+        <v>2</v>
+      </c>
+      <c r="AN268">
+        <v>2.15</v>
+      </c>
+      <c r="AO268">
+        <v>1.2</v>
+      </c>
+      <c r="AP268">
+        <v>1.18</v>
+      </c>
+      <c r="AQ268">
+        <v>1.92</v>
+      </c>
+      <c r="AR268">
+        <v>1.31</v>
+      </c>
+      <c r="AS268">
+        <v>1.86</v>
+      </c>
+      <c r="AT268">
+        <v>1.29</v>
+      </c>
+      <c r="AU268">
+        <v>1.83</v>
+      </c>
+      <c r="AV268">
+        <v>1.49</v>
+      </c>
+      <c r="AW268">
+        <v>3.32</v>
+      </c>
+      <c r="AX268">
+        <v>3.45</v>
+      </c>
+      <c r="AY268">
+        <v>6</v>
+      </c>
+      <c r="AZ268">
+        <v>1.37</v>
+      </c>
+      <c r="BA268">
+        <v>1.22</v>
+      </c>
+      <c r="BB268">
+        <v>1.42</v>
+      </c>
+      <c r="BC268">
+        <v>1.74</v>
+      </c>
+      <c r="BD268">
+        <v>2.23</v>
+      </c>
+      <c r="BE268">
+        <v>3</v>
+      </c>
+      <c r="BF268">
+        <v>6</v>
+      </c>
+      <c r="BG268">
+        <v>7</v>
+      </c>
+      <c r="BH268">
+        <v>1</v>
+      </c>
+      <c r="BI268">
+        <v>7</v>
+      </c>
+      <c r="BJ268">
+        <v>7</v>
+      </c>
+      <c r="BK268">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:63">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>2435455</v>
+      </c>
+      <c r="C269" t="s">
+        <v>63</v>
+      </c>
+      <c r="D269" t="s">
+        <v>64</v>
+      </c>
+      <c r="E269" s="2">
+        <v>44991.66666666666</v>
+      </c>
+      <c r="F269">
+        <v>27</v>
+      </c>
+      <c r="G269" t="s">
+        <v>79</v>
+      </c>
+      <c r="H269" t="s">
+        <v>77</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>2</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>2</v>
+      </c>
+      <c r="O269" t="s">
+        <v>265</v>
+      </c>
+      <c r="P269" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q269">
+        <v>10</v>
+      </c>
+      <c r="R269">
+        <v>2</v>
+      </c>
+      <c r="S269">
+        <v>12</v>
+      </c>
+      <c r="T269">
+        <v>2.05</v>
+      </c>
+      <c r="U269">
+        <v>2.5</v>
+      </c>
+      <c r="V269">
+        <v>5</v>
+      </c>
+      <c r="W269">
+        <v>1.29</v>
+      </c>
+      <c r="X269">
+        <v>3.5</v>
+      </c>
+      <c r="Y269">
+        <v>2.25</v>
+      </c>
+      <c r="Z269">
+        <v>1.57</v>
+      </c>
+      <c r="AA269">
+        <v>5.5</v>
+      </c>
+      <c r="AB269">
+        <v>1.14</v>
+      </c>
+      <c r="AC269">
+        <v>1.54</v>
+      </c>
+      <c r="AD269">
+        <v>4.2</v>
+      </c>
+      <c r="AE269">
+        <v>4.95</v>
+      </c>
+      <c r="AF269">
+        <v>1.02</v>
+      </c>
+      <c r="AG269">
+        <v>17</v>
+      </c>
+      <c r="AH269">
+        <v>1.18</v>
+      </c>
+      <c r="AI269">
+        <v>4.75</v>
+      </c>
+      <c r="AJ269">
+        <v>1.55</v>
+      </c>
+      <c r="AK269">
+        <v>2.25</v>
+      </c>
+      <c r="AL269">
+        <v>1.67</v>
+      </c>
+      <c r="AM269">
+        <v>2.1</v>
+      </c>
+      <c r="AN269">
+        <v>1.15</v>
+      </c>
+      <c r="AO269">
+        <v>1.17</v>
+      </c>
+      <c r="AP269">
+        <v>2.45</v>
+      </c>
+      <c r="AQ269">
+        <v>1.54</v>
+      </c>
+      <c r="AR269">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS269">
+        <v>1.64</v>
+      </c>
+      <c r="AT269">
+        <v>0.64</v>
+      </c>
+      <c r="AU269">
+        <v>1.88</v>
+      </c>
+      <c r="AV269">
+        <v>1.12</v>
+      </c>
+      <c r="AW269">
+        <v>3</v>
+      </c>
+      <c r="AX269">
+        <v>1.16</v>
+      </c>
+      <c r="AY269">
+        <v>8.25</v>
+      </c>
+      <c r="AZ269">
+        <v>6</v>
+      </c>
+      <c r="BA269">
+        <v>1.2</v>
+      </c>
+      <c r="BB269">
+        <v>1.38</v>
+      </c>
+      <c r="BC269">
+        <v>1.67</v>
+      </c>
+      <c r="BD269">
+        <v>2.12</v>
+      </c>
+      <c r="BE269">
+        <v>2.85</v>
+      </c>
+      <c r="BF269">
+        <v>4</v>
+      </c>
+      <c r="BG269">
+        <v>0</v>
+      </c>
+      <c r="BH269">
+        <v>6</v>
+      </c>
+      <c r="BI269">
+        <v>5</v>
+      </c>
+      <c r="BJ269">
+        <v>10</v>
+      </c>
+      <c r="BK269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:63">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>2435453</v>
+      </c>
+      <c r="C270" t="s">
+        <v>63</v>
+      </c>
+      <c r="D270" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" s="2">
+        <v>44991.66666666666</v>
+      </c>
+      <c r="F270">
+        <v>27</v>
+      </c>
+      <c r="G270" t="s">
+        <v>81</v>
+      </c>
+      <c r="H270" t="s">
+        <v>67</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>2</v>
+      </c>
+      <c r="K270">
+        <v>2</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>3</v>
+      </c>
+      <c r="N270">
+        <v>3</v>
+      </c>
+      <c r="O270" t="s">
+        <v>86</v>
+      </c>
+      <c r="P270" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q270">
+        <v>8</v>
+      </c>
+      <c r="R270">
+        <v>5</v>
+      </c>
+      <c r="S270">
+        <v>13</v>
+      </c>
+      <c r="T270">
+        <v>3.4</v>
+      </c>
+      <c r="U270">
+        <v>2.3</v>
+      </c>
+      <c r="V270">
+        <v>2.88</v>
+      </c>
+      <c r="W270">
+        <v>1.3</v>
+      </c>
+      <c r="X270">
+        <v>3.4</v>
+      </c>
+      <c r="Y270">
+        <v>2.5</v>
+      </c>
+      <c r="Z270">
+        <v>1.5</v>
+      </c>
+      <c r="AA270">
+        <v>6</v>
+      </c>
+      <c r="AB270">
+        <v>1.13</v>
+      </c>
+      <c r="AC270">
+        <v>2.7</v>
+      </c>
+      <c r="AD270">
+        <v>3.5</v>
+      </c>
+      <c r="AE270">
+        <v>2.15</v>
+      </c>
+      <c r="AF270">
+        <v>1.03</v>
+      </c>
+      <c r="AG270">
+        <v>13</v>
+      </c>
+      <c r="AH270">
+        <v>1.22</v>
+      </c>
+      <c r="AI270">
+        <v>4.3</v>
+      </c>
+      <c r="AJ270">
+        <v>1.67</v>
+      </c>
+      <c r="AK270">
+        <v>2.15</v>
+      </c>
+      <c r="AL270">
+        <v>1.57</v>
+      </c>
+      <c r="AM270">
+        <v>2.25</v>
+      </c>
+      <c r="AN270">
+        <v>1.66</v>
+      </c>
+      <c r="AO270">
+        <v>1.25</v>
+      </c>
+      <c r="AP270">
+        <v>1.38</v>
+      </c>
+      <c r="AQ270">
+        <v>1.46</v>
+      </c>
+      <c r="AR270">
+        <v>1.69</v>
+      </c>
+      <c r="AS270">
+        <v>1.36</v>
+      </c>
+      <c r="AT270">
+        <v>1.79</v>
+      </c>
+      <c r="AU270">
+        <v>1.87</v>
+      </c>
+      <c r="AV270">
+        <v>1.44</v>
+      </c>
+      <c r="AW270">
+        <v>3.31</v>
+      </c>
+      <c r="AX270">
+        <v>2.4</v>
+      </c>
+      <c r="AY270">
+        <v>5.75</v>
+      </c>
+      <c r="AZ270">
+        <v>1.68</v>
+      </c>
+      <c r="BA270">
+        <v>1.18</v>
+      </c>
+      <c r="BB270">
+        <v>1.34</v>
+      </c>
+      <c r="BC270">
+        <v>1.61</v>
+      </c>
+      <c r="BD270">
+        <v>2.02</v>
+      </c>
+      <c r="BE270">
+        <v>2.7</v>
+      </c>
+      <c r="BF270">
+        <v>0</v>
+      </c>
+      <c r="BG270">
+        <v>12</v>
+      </c>
+      <c r="BH270">
+        <v>6</v>
+      </c>
+      <c r="BI270">
+        <v>6</v>
+      </c>
+      <c r="BJ270">
+        <v>6</v>
+      </c>
+      <c r="BK270">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" spans="1:63">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>2435459</v>
+      </c>
+      <c r="C271" t="s">
+        <v>63</v>
+      </c>
+      <c r="D271" t="s">
+        <v>64</v>
+      </c>
+      <c r="E271" s="2">
+        <v>44991.66666666666</v>
+      </c>
+      <c r="F271">
+        <v>27</v>
+      </c>
+      <c r="G271" t="s">
+        <v>73</v>
+      </c>
+      <c r="H271" t="s">
+        <v>69</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>2</v>
+      </c>
+      <c r="N271">
+        <v>3</v>
+      </c>
+      <c r="O271" t="s">
+        <v>126</v>
+      </c>
+      <c r="P271" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q271">
+        <v>10</v>
+      </c>
+      <c r="R271">
+        <v>2</v>
+      </c>
+      <c r="S271">
+        <v>12</v>
+      </c>
+      <c r="T271">
+        <v>2.2</v>
+      </c>
+      <c r="U271">
+        <v>2.5</v>
+      </c>
+      <c r="V271">
+        <v>4.33</v>
+      </c>
+      <c r="W271">
+        <v>1.25</v>
+      </c>
+      <c r="X271">
+        <v>3.75</v>
+      </c>
+      <c r="Y271">
+        <v>2.2</v>
+      </c>
+      <c r="Z271">
+        <v>1.62</v>
+      </c>
+      <c r="AA271">
+        <v>5</v>
+      </c>
+      <c r="AB271">
+        <v>1.17</v>
+      </c>
+      <c r="AC271">
+        <v>1.71</v>
+      </c>
+      <c r="AD271">
+        <v>3.82</v>
+      </c>
+      <c r="AE271">
+        <v>4.13</v>
+      </c>
+      <c r="AF271">
+        <v>1.02</v>
+      </c>
+      <c r="AG271">
+        <v>13</v>
+      </c>
+      <c r="AH271">
+        <v>1.14</v>
+      </c>
+      <c r="AI271">
+        <v>5.5</v>
+      </c>
+      <c r="AJ271">
+        <v>1.44</v>
+      </c>
+      <c r="AK271">
+        <v>2.7</v>
+      </c>
+      <c r="AL271">
+        <v>1.53</v>
+      </c>
+      <c r="AM271">
+        <v>2.38</v>
+      </c>
+      <c r="AN271">
+        <v>1.22</v>
+      </c>
+      <c r="AO271">
+        <v>1.18</v>
+      </c>
+      <c r="AP271">
+        <v>2.1</v>
+      </c>
+      <c r="AQ271">
+        <v>1.31</v>
+      </c>
+      <c r="AR271">
+        <v>0.85</v>
+      </c>
+      <c r="AS271">
+        <v>1.21</v>
+      </c>
+      <c r="AT271">
+        <v>1</v>
+      </c>
+      <c r="AU271">
+        <v>1.42</v>
+      </c>
+      <c r="AV271">
+        <v>0.99</v>
+      </c>
+      <c r="AW271">
+        <v>2.41</v>
+      </c>
+      <c r="AX271">
+        <v>1.41</v>
+      </c>
+      <c r="AY271">
+        <v>6</v>
+      </c>
+      <c r="AZ271">
+        <v>3.2</v>
+      </c>
+      <c r="BA271">
+        <v>1.32</v>
+      </c>
+      <c r="BB271">
+        <v>1.58</v>
+      </c>
+      <c r="BC271">
+        <v>2.02</v>
+      </c>
+      <c r="BD271">
+        <v>2.7</v>
+      </c>
+      <c r="BE271">
+        <v>3.8</v>
+      </c>
+      <c r="BF271">
+        <v>7</v>
+      </c>
+      <c r="BG271">
+        <v>4</v>
+      </c>
+      <c r="BH271">
+        <v>11</v>
+      </c>
+      <c r="BI271">
+        <v>2</v>
+      </c>
+      <c r="BJ271">
+        <v>18</v>
+      </c>
+      <c r="BK271">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -53536,19 +53536,19 @@
         <v>2.69</v>
       </c>
       <c r="BF272">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG272">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH272">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BI272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ272">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BK272">
         <v>5</v>
@@ -53604,13 +53604,13 @@
         <v>403</v>
       </c>
       <c r="Q273">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S273">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T273">
         <v>3.25</v>
@@ -53727,22 +53727,22 @@
         <v>3.64</v>
       </c>
       <c r="BF273">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG273">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH273">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ273">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BK273">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274" spans="1:63">
@@ -53918,22 +53918,22 @@
         <v>3.28</v>
       </c>
       <c r="BF274">
+        <v>6</v>
+      </c>
+      <c r="BG274">
         <v>7</v>
       </c>
-      <c r="BG274">
-        <v>5</v>
-      </c>
       <c r="BH274">
+        <v>7</v>
+      </c>
+      <c r="BI274">
+        <v>2</v>
+      </c>
+      <c r="BJ274">
+        <v>13</v>
+      </c>
+      <c r="BK274">
         <v>9</v>
-      </c>
-      <c r="BI274">
-        <v>3</v>
-      </c>
-      <c r="BJ274">
-        <v>16</v>
-      </c>
-      <c r="BK274">
-        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:63">
@@ -54109,22 +54109,22 @@
         <v>2.93</v>
       </c>
       <c r="BF275">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG275">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH275">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI275">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ275">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK275">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:63">
@@ -54177,13 +54177,13 @@
         <v>164</v>
       </c>
       <c r="Q276">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S276">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T276">
         <v>2.25</v>
@@ -54300,22 +54300,22 @@
         <v>2.93</v>
       </c>
       <c r="BF276">
+        <v>8</v>
+      </c>
+      <c r="BG276">
         <v>4</v>
       </c>
-      <c r="BG276">
-        <v>2</v>
-      </c>
       <c r="BH276">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BI276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ276">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BK276">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:63">
@@ -54371,10 +54371,10 @@
         <v>1</v>
       </c>
       <c r="R277">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S277">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T277">
         <v>3</v>
@@ -54491,22 +54491,22 @@
         <v>3.48</v>
       </c>
       <c r="BF277">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG277">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI277">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ277">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BK277">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:63">
@@ -54559,13 +54559,13 @@
         <v>175</v>
       </c>
       <c r="Q278">
+        <v>8</v>
+      </c>
+      <c r="R278">
         <v>6</v>
       </c>
-      <c r="R278">
-        <v>5</v>
-      </c>
       <c r="S278">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T278">
         <v>2.4</v>
@@ -54682,22 +54682,22 @@
         <v>3.28</v>
       </c>
       <c r="BF278">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG278">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH278">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ278">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BK278">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:63">
@@ -54750,13 +54750,13 @@
         <v>406</v>
       </c>
       <c r="Q279">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R279">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S279">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T279">
         <v>4</v>
@@ -54876,19 +54876,19 @@
         <v>6</v>
       </c>
       <c r="BG279">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BH279">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI279">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ279">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK279">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:63">
@@ -54944,10 +54944,10 @@
         <v>2</v>
       </c>
       <c r="R280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S280">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T280">
         <v>1.85</v>
@@ -55064,22 +55064,22 @@
         <v>2.84</v>
       </c>
       <c r="BF280">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG280">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH280">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI280">
         <v>2</v>
       </c>
       <c r="BJ280">
+        <v>12</v>
+      </c>
+      <c r="BK280">
         <v>6</v>
-      </c>
-      <c r="BK280">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -781,10 +781,10 @@
     <t>['28', '43']</t>
   </si>
   <si>
-    <t>['13', '37', '67', '68']</t>
+    <t>['5', '8', '51', '90+4']</t>
   </si>
   <si>
-    <t>['5', '8', '51', '90+4']</t>
+    <t>['13', '37', '67', '68']</t>
   </si>
   <si>
     <t>['11', '25']</t>
@@ -799,10 +799,10 @@
     <t>['21', '29', '68']</t>
   </si>
   <si>
-    <t>['27', '81', '90+5']</t>
+    <t>['8', '59', '77']</t>
   </si>
   <si>
-    <t>['8', '59', '77']</t>
+    <t>['27', '81', '90+5']</t>
   </si>
   <si>
     <t>['2', '4', '12', '14', '20', '27', '31', '46', '59', '62', '74', '89', '90+1']</t>
@@ -814,10 +814,10 @@
     <t>['15', '49']</t>
   </si>
   <si>
-    <t>['32', '45+1', '58', '70']</t>
+    <t>['30', '89']</t>
   </si>
   <si>
-    <t>['30', '89']</t>
+    <t>['32', '45+1', '58', '70']</t>
   </si>
   <si>
     <t>['44', '71']</t>
@@ -835,13 +835,13 @@
     <t>['4', '90+5']</t>
   </si>
   <si>
+    <t>['43', '90']</t>
+  </si>
+  <si>
     <t>['76']</t>
   </si>
   <si>
     <t>['60', '66']</t>
-  </si>
-  <si>
-    <t>['43', '90']</t>
   </si>
   <si>
     <t>['51', '90+3']</t>
@@ -1219,37 +1219,40 @@
     <t>['50', '62']</t>
   </si>
   <si>
+    <t>['51', '53', '87']</t>
+  </si>
+  <si>
     <t>['13', '15']</t>
   </si>
   <si>
-    <t>['51', '53', '87']</t>
+    <t>['22', '63', '90+4']</t>
   </si>
   <si>
     <t>['52', '70']</t>
   </si>
   <si>
-    <t>['22', '63', '90+4']</t>
+    <t>['7', '20']</t>
   </si>
   <si>
-    <t>['7', '20']</t>
+    <t>['41', '57']</t>
   </si>
   <si>
     <t>['11', '39', '83']</t>
   </si>
   <si>
-    <t>['41', '57']</t>
+    <t>['12', '26', '79']</t>
   </si>
   <si>
-    <t>['12', '26', '79']</t>
+    <t>['29', '66', '72']</t>
   </si>
   <si>
     <t>['20', '83']</t>
   </si>
   <si>
-    <t>['29', '66', '72']</t>
+    <t>['10', '16', '83', '87']</t>
   </si>
   <si>
-    <t>['10', '16', '83', '87']</t>
+    <t>['49', '54', '61']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -1258,19 +1261,16 @@
     <t>['4', '17', '21', '34', '51', '86']</t>
   </si>
   <si>
-    <t>['49', '54', '61']</t>
-  </si>
-  <si>
     <t>['13', '46']</t>
   </si>
   <si>
     <t>['52', '60', '67']</t>
   </si>
   <si>
-    <t>['50', '56', '61', '81', '90+3']</t>
+    <t>['40', '48']</t>
   </si>
   <si>
-    <t>['40', '48']</t>
+    <t>['50', '56', '61', '81', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -3213,7 +3213,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -4741,7 +4741,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -47101,7 +47101,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>2435431</v>
+        <v>2435432</v>
       </c>
       <c r="C239" t="s">
         <v>63</v>
@@ -47116,175 +47116,175 @@
         <v>24</v>
       </c>
       <c r="G239" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H239" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O239" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="P239" t="s">
-        <v>392</v>
+        <v>298</v>
       </c>
       <c r="Q239">
+        <v>3</v>
+      </c>
+      <c r="R239">
+        <v>3</v>
+      </c>
+      <c r="S239">
         <v>6</v>
       </c>
-      <c r="R239">
-        <v>5</v>
-      </c>
-      <c r="S239">
-        <v>11</v>
-      </c>
       <c r="T239">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="U239">
+        <v>2.15</v>
+      </c>
+      <c r="V239">
+        <v>3.4</v>
+      </c>
+      <c r="W239">
+        <v>1.34</v>
+      </c>
+      <c r="X239">
+        <v>3</v>
+      </c>
+      <c r="Y239">
+        <v>2.7</v>
+      </c>
+      <c r="Z239">
+        <v>1.41</v>
+      </c>
+      <c r="AA239">
+        <v>6.45</v>
+      </c>
+      <c r="AB239">
+        <v>1.09</v>
+      </c>
+      <c r="AC239">
+        <v>2.55</v>
+      </c>
+      <c r="AD239">
+        <v>3.49</v>
+      </c>
+      <c r="AE239">
+        <v>2.71</v>
+      </c>
+      <c r="AF239">
+        <v>1.04</v>
+      </c>
+      <c r="AG239">
+        <v>12</v>
+      </c>
+      <c r="AH239">
+        <v>1.28</v>
+      </c>
+      <c r="AI239">
+        <v>3.75</v>
+      </c>
+      <c r="AJ239">
+        <v>1.82</v>
+      </c>
+      <c r="AK239">
+        <v>2</v>
+      </c>
+      <c r="AL239">
+        <v>1.66</v>
+      </c>
+      <c r="AM239">
+        <v>2.15</v>
+      </c>
+      <c r="AN239">
+        <v>1.45</v>
+      </c>
+      <c r="AO239">
+        <v>1.25</v>
+      </c>
+      <c r="AP239">
+        <v>1.55</v>
+      </c>
+      <c r="AQ239">
+        <v>0.82</v>
+      </c>
+      <c r="AR239">
+        <v>1.27</v>
+      </c>
+      <c r="AS239">
+        <v>0.8</v>
+      </c>
+      <c r="AT239">
+        <v>1.4</v>
+      </c>
+      <c r="AU239">
+        <v>1.5</v>
+      </c>
+      <c r="AV239">
+        <v>1.14</v>
+      </c>
+      <c r="AW239">
+        <v>2.64</v>
+      </c>
+      <c r="AX239">
+        <v>1.95</v>
+      </c>
+      <c r="AY239">
+        <v>7.5</v>
+      </c>
+      <c r="AZ239">
+        <v>2.17</v>
+      </c>
+      <c r="BA239">
+        <v>1.27</v>
+      </c>
+      <c r="BB239">
+        <v>1.53</v>
+      </c>
+      <c r="BC239">
+        <v>1.86</v>
+      </c>
+      <c r="BD239">
         <v>2.28</v>
       </c>
-      <c r="V239">
-        <v>2.88</v>
-      </c>
-      <c r="W239">
-        <v>1.29</v>
-      </c>
-      <c r="X239">
-        <v>3.3</v>
-      </c>
-      <c r="Y239">
-        <v>2.45</v>
-      </c>
-      <c r="Z239">
-        <v>1.49</v>
-      </c>
-      <c r="AA239">
-        <v>5.9</v>
-      </c>
-      <c r="AB239">
-        <v>1.1</v>
-      </c>
-      <c r="AC239">
-        <v>2.77</v>
-      </c>
-      <c r="AD239">
-        <v>3.83</v>
-      </c>
-      <c r="AE239">
-        <v>2.34</v>
-      </c>
-      <c r="AF239">
-        <v>1.02</v>
-      </c>
-      <c r="AG239">
-        <v>15</v>
-      </c>
-      <c r="AH239">
-        <v>1.22</v>
-      </c>
-      <c r="AI239">
-        <v>4.2</v>
-      </c>
-      <c r="AJ239">
-        <v>1.63</v>
-      </c>
-      <c r="AK239">
-        <v>2.06</v>
-      </c>
-      <c r="AL239">
-        <v>1.57</v>
-      </c>
-      <c r="AM239">
-        <v>2.35</v>
-      </c>
-      <c r="AN239">
-        <v>1.57</v>
-      </c>
-      <c r="AO239">
-        <v>1.22</v>
-      </c>
-      <c r="AP239">
-        <v>1.47</v>
-      </c>
-      <c r="AQ239">
-        <v>1.45</v>
-      </c>
-      <c r="AR239">
-        <v>1.09</v>
-      </c>
-      <c r="AS239">
-        <v>1.33</v>
-      </c>
-      <c r="AT239">
-        <v>1.33</v>
-      </c>
-      <c r="AU239">
-        <v>1.26</v>
-      </c>
-      <c r="AV239">
-        <v>1.62</v>
-      </c>
-      <c r="AW239">
-        <v>2.88</v>
-      </c>
-      <c r="AX239">
-        <v>2.26</v>
-      </c>
-      <c r="AY239">
-        <v>7.4</v>
-      </c>
-      <c r="AZ239">
-        <v>1.94</v>
-      </c>
-      <c r="BA239">
-        <v>1.28</v>
-      </c>
-      <c r="BB239">
-        <v>1.62</v>
-      </c>
-      <c r="BC239">
-        <v>1.99</v>
-      </c>
-      <c r="BD239">
-        <v>2.48</v>
-      </c>
       <c r="BE239">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="BF239">
+        <v>2</v>
+      </c>
+      <c r="BG239">
+        <v>2</v>
+      </c>
+      <c r="BH239">
+        <v>1</v>
+      </c>
+      <c r="BI239">
+        <v>2</v>
+      </c>
+      <c r="BJ239">
+        <v>3</v>
+      </c>
+      <c r="BK239">
         <v>4</v>
-      </c>
-      <c r="BG239">
-        <v>4</v>
-      </c>
-      <c r="BH239">
-        <v>7</v>
-      </c>
-      <c r="BI239">
-        <v>5</v>
-      </c>
-      <c r="BJ239">
-        <v>11</v>
-      </c>
-      <c r="BK239">
-        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:63">
@@ -47292,7 +47292,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>2435432</v>
+        <v>2435431</v>
       </c>
       <c r="C240" t="s">
         <v>63</v>
@@ -47307,175 +47307,175 @@
         <v>24</v>
       </c>
       <c r="G240" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H240" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K240">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O240" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>298</v>
+        <v>392</v>
       </c>
       <c r="Q240">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R240">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S240">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T240">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="U240">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="V240">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="W240">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="X240">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Y240">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Z240">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AA240">
-        <v>6.45</v>
+        <v>5.9</v>
       </c>
       <c r="AB240">
+        <v>1.1</v>
+      </c>
+      <c r="AC240">
+        <v>2.77</v>
+      </c>
+      <c r="AD240">
+        <v>3.83</v>
+      </c>
+      <c r="AE240">
+        <v>2.34</v>
+      </c>
+      <c r="AF240">
+        <v>1.02</v>
+      </c>
+      <c r="AG240">
+        <v>15</v>
+      </c>
+      <c r="AH240">
+        <v>1.22</v>
+      </c>
+      <c r="AI240">
+        <v>4.2</v>
+      </c>
+      <c r="AJ240">
+        <v>1.63</v>
+      </c>
+      <c r="AK240">
+        <v>2.06</v>
+      </c>
+      <c r="AL240">
+        <v>1.57</v>
+      </c>
+      <c r="AM240">
+        <v>2.35</v>
+      </c>
+      <c r="AN240">
+        <v>1.57</v>
+      </c>
+      <c r="AO240">
+        <v>1.22</v>
+      </c>
+      <c r="AP240">
+        <v>1.47</v>
+      </c>
+      <c r="AQ240">
+        <v>1.45</v>
+      </c>
+      <c r="AR240">
         <v>1.09</v>
       </c>
-      <c r="AC240">
-        <v>2.55</v>
-      </c>
-      <c r="AD240">
-        <v>3.49</v>
-      </c>
-      <c r="AE240">
-        <v>2.71</v>
-      </c>
-      <c r="AF240">
-        <v>1.04</v>
-      </c>
-      <c r="AG240">
-        <v>12</v>
-      </c>
-      <c r="AH240">
+      <c r="AS240">
+        <v>1.33</v>
+      </c>
+      <c r="AT240">
+        <v>1.33</v>
+      </c>
+      <c r="AU240">
+        <v>1.26</v>
+      </c>
+      <c r="AV240">
+        <v>1.62</v>
+      </c>
+      <c r="AW240">
+        <v>2.88</v>
+      </c>
+      <c r="AX240">
+        <v>2.26</v>
+      </c>
+      <c r="AY240">
+        <v>7.4</v>
+      </c>
+      <c r="AZ240">
+        <v>1.94</v>
+      </c>
+      <c r="BA240">
         <v>1.28</v>
       </c>
-      <c r="AI240">
-        <v>3.75</v>
-      </c>
-      <c r="AJ240">
-        <v>1.82</v>
-      </c>
-      <c r="AK240">
-        <v>2</v>
-      </c>
-      <c r="AL240">
-        <v>1.66</v>
-      </c>
-      <c r="AM240">
-        <v>2.15</v>
-      </c>
-      <c r="AN240">
-        <v>1.45</v>
-      </c>
-      <c r="AO240">
-        <v>1.25</v>
-      </c>
-      <c r="AP240">
-        <v>1.55</v>
-      </c>
-      <c r="AQ240">
-        <v>0.82</v>
-      </c>
-      <c r="AR240">
-        <v>1.27</v>
-      </c>
-      <c r="AS240">
-        <v>0.8</v>
-      </c>
-      <c r="AT240">
-        <v>1.4</v>
-      </c>
-      <c r="AU240">
-        <v>1.5</v>
-      </c>
-      <c r="AV240">
-        <v>1.14</v>
-      </c>
-      <c r="AW240">
-        <v>2.64</v>
-      </c>
-      <c r="AX240">
-        <v>1.95</v>
-      </c>
-      <c r="AY240">
-        <v>7.5</v>
-      </c>
-      <c r="AZ240">
-        <v>2.17</v>
-      </c>
-      <c r="BA240">
-        <v>1.27</v>
-      </c>
       <c r="BB240">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="BC240">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="BD240">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="BE240">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="BF240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH240">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI240">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ240">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BK240">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:63">
@@ -49202,7 +49202,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>2435442</v>
+        <v>2435440</v>
       </c>
       <c r="C250" t="s">
         <v>63</v>
@@ -49217,10 +49217,10 @@
         <v>25</v>
       </c>
       <c r="G250" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H250" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I250">
         <v>2</v>
@@ -49235,157 +49235,157 @@
         <v>4</v>
       </c>
       <c r="M250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N250">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O250" t="s">
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>120</v>
+        <v>398</v>
       </c>
       <c r="Q250">
+        <v>2</v>
+      </c>
+      <c r="R250">
         <v>5</v>
       </c>
-      <c r="R250">
-        <v>6</v>
-      </c>
       <c r="S250">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T250">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="U250">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="V250">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="W250">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X250">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Y250">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Z250">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AA250">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AB250">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AC250">
-        <v>2.56</v>
+        <v>1.85</v>
       </c>
       <c r="AD250">
-        <v>3.43</v>
+        <v>3.92</v>
       </c>
       <c r="AE250">
-        <v>2.45</v>
+        <v>3.38</v>
       </c>
       <c r="AF250">
         <v>1.02</v>
       </c>
       <c r="AG250">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH250">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AI250">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="AJ250">
-        <v>1.65</v>
+        <v>1.34</v>
       </c>
       <c r="AK250">
-        <v>2.15</v>
+        <v>2.82</v>
       </c>
       <c r="AL250">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AM250">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AN250">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AO250">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AP250">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="AQ250">
-        <v>0.75</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="AS250">
-        <v>0.8</v>
+        <v>1.13</v>
       </c>
       <c r="AT250">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="AU250">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AV250">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AW250">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="AX250">
-        <v>2.13</v>
+        <v>1.67</v>
       </c>
       <c r="AY250">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="AZ250">
-        <v>2.07</v>
+        <v>2.78</v>
       </c>
       <c r="BA250">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="BB250">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="BC250">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="BD250">
-        <v>2.15</v>
+        <v>2.41</v>
       </c>
       <c r="BE250">
-        <v>2.79</v>
+        <v>3.28</v>
       </c>
       <c r="BF250">
+        <v>12</v>
+      </c>
+      <c r="BG250">
         <v>9</v>
       </c>
-      <c r="BG250">
-        <v>6</v>
-      </c>
       <c r="BH250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI250">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ250">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BK250">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:63">
@@ -49393,7 +49393,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>2435440</v>
+        <v>2435442</v>
       </c>
       <c r="C251" t="s">
         <v>63</v>
@@ -49408,10 +49408,10 @@
         <v>25</v>
       </c>
       <c r="G251" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H251" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I251">
         <v>2</v>
@@ -49426,157 +49426,157 @@
         <v>4</v>
       </c>
       <c r="M251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N251">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O251" t="s">
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>398</v>
+        <v>120</v>
       </c>
       <c r="Q251">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R251">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S251">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T251">
+        <v>3.1</v>
+      </c>
+      <c r="U251">
         <v>2.3</v>
       </c>
-      <c r="U251">
-        <v>2.6</v>
-      </c>
       <c r="V251">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="W251">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="X251">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Y251">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Z251">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AA251">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AB251">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AC251">
-        <v>1.85</v>
+        <v>2.56</v>
       </c>
       <c r="AD251">
-        <v>3.92</v>
+        <v>3.43</v>
       </c>
       <c r="AE251">
-        <v>3.38</v>
+        <v>2.45</v>
       </c>
       <c r="AF251">
         <v>1.02</v>
       </c>
       <c r="AG251">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH251">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AI251">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="AJ251">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="AK251">
-        <v>2.82</v>
+        <v>2.15</v>
       </c>
       <c r="AL251">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AM251">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AN251">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="AO251">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AP251">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="AQ251">
+        <v>0.75</v>
+      </c>
+      <c r="AR251">
         <v>1.17</v>
       </c>
-      <c r="AR251">
-        <v>0.92</v>
-      </c>
       <c r="AS251">
+        <v>0.8</v>
+      </c>
+      <c r="AT251">
         <v>1.13</v>
       </c>
-      <c r="AT251">
-        <v>0.79</v>
-      </c>
       <c r="AU251">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AV251">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AW251">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="AX251">
-        <v>1.67</v>
+        <v>2.13</v>
       </c>
       <c r="AY251">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="AZ251">
-        <v>2.78</v>
+        <v>2.07</v>
       </c>
       <c r="BA251">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="BB251">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="BC251">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="BD251">
-        <v>2.41</v>
+        <v>2.15</v>
       </c>
       <c r="BE251">
-        <v>3.28</v>
+        <v>2.79</v>
       </c>
       <c r="BF251">
+        <v>9</v>
+      </c>
+      <c r="BG251">
+        <v>6</v>
+      </c>
+      <c r="BH251">
+        <v>3</v>
+      </c>
+      <c r="BI251">
+        <v>6</v>
+      </c>
+      <c r="BJ251">
         <v>12</v>
       </c>
-      <c r="BG251">
-        <v>9</v>
-      </c>
-      <c r="BH251">
-        <v>2</v>
-      </c>
-      <c r="BI251">
-        <v>5</v>
-      </c>
-      <c r="BJ251">
-        <v>14</v>
-      </c>
       <c r="BK251">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:63">
@@ -51112,7 +51112,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>2435452</v>
+        <v>2435451</v>
       </c>
       <c r="C260" t="s">
         <v>63</v>
@@ -51127,28 +51127,28 @@
         <v>26</v>
       </c>
       <c r="G260" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H260" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I260">
         <v>1</v>
       </c>
       <c r="J260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L260">
         <v>3</v>
       </c>
       <c r="M260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N260">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O260" t="s">
         <v>261</v>
@@ -51157,145 +51157,145 @@
         <v>401</v>
       </c>
       <c r="Q260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R260">
+        <v>2</v>
+      </c>
+      <c r="S260">
         <v>4</v>
       </c>
-      <c r="S260">
-        <v>5</v>
-      </c>
       <c r="T260">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="U260">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="V260">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="W260">
+        <v>1.32</v>
+      </c>
+      <c r="X260">
+        <v>3.25</v>
+      </c>
+      <c r="Y260">
+        <v>2.4</v>
+      </c>
+      <c r="Z260">
+        <v>1.5</v>
+      </c>
+      <c r="AA260">
+        <v>5.75</v>
+      </c>
+      <c r="AB260">
+        <v>1.12</v>
+      </c>
+      <c r="AC260">
+        <v>2.3</v>
+      </c>
+      <c r="AD260">
+        <v>3.66</v>
+      </c>
+      <c r="AE260">
+        <v>2.93</v>
+      </c>
+      <c r="AF260">
+        <v>1.03</v>
+      </c>
+      <c r="AG260">
+        <v>16</v>
+      </c>
+      <c r="AH260">
+        <v>1.19</v>
+      </c>
+      <c r="AI260">
+        <v>4.3</v>
+      </c>
+      <c r="AJ260">
+        <v>1.62</v>
+      </c>
+      <c r="AK260">
+        <v>2.15</v>
+      </c>
+      <c r="AL260">
+        <v>1.5</v>
+      </c>
+      <c r="AM260">
+        <v>2.5</v>
+      </c>
+      <c r="AN260">
+        <v>1.38</v>
+      </c>
+      <c r="AO260">
+        <v>1.25</v>
+      </c>
+      <c r="AP260">
+        <v>1.62</v>
+      </c>
+      <c r="AQ260">
+        <v>1.33</v>
+      </c>
+      <c r="AR260">
+        <v>1.08</v>
+      </c>
+      <c r="AS260">
+        <v>1.33</v>
+      </c>
+      <c r="AT260">
+        <v>0.93</v>
+      </c>
+      <c r="AU260">
+        <v>1.28</v>
+      </c>
+      <c r="AV260">
+        <v>1.36</v>
+      </c>
+      <c r="AW260">
+        <v>2.64</v>
+      </c>
+      <c r="AX260">
+        <v>1.93</v>
+      </c>
+      <c r="AY260">
+        <v>7</v>
+      </c>
+      <c r="AZ260">
+        <v>2.36</v>
+      </c>
+      <c r="BA260">
         <v>1.22</v>
       </c>
-      <c r="X260">
-        <v>4</v>
-      </c>
-      <c r="Y260">
-        <v>1.91</v>
-      </c>
-      <c r="Z260">
+      <c r="BB260">
+        <v>1.45</v>
+      </c>
+      <c r="BC260">
         <v>1.8</v>
       </c>
-      <c r="AA260">
-        <v>4</v>
-      </c>
-      <c r="AB260">
-        <v>1.22</v>
-      </c>
-      <c r="AC260">
-        <v>5.76</v>
-      </c>
-      <c r="AD260">
-        <v>4.94</v>
-      </c>
-      <c r="AE260">
-        <v>1.47</v>
-      </c>
-      <c r="AF260">
-        <v>1.02</v>
-      </c>
-      <c r="AG260">
-        <v>17</v>
-      </c>
-      <c r="AH260">
-        <v>1.08</v>
-      </c>
-      <c r="AI260">
-        <v>7</v>
-      </c>
-      <c r="AJ260">
-        <v>1.29</v>
-      </c>
-      <c r="AK260">
-        <v>3.6</v>
-      </c>
-      <c r="AL260">
-        <v>1.4</v>
-      </c>
-      <c r="AM260">
-        <v>2.75</v>
-      </c>
-      <c r="AN260">
-        <v>2.6</v>
-      </c>
-      <c r="AO260">
-        <v>1.17</v>
-      </c>
-      <c r="AP260">
-        <v>1.12</v>
-      </c>
-      <c r="AQ260">
-        <v>2.25</v>
-      </c>
-      <c r="AR260">
-        <v>2.33</v>
-      </c>
-      <c r="AS260">
-        <v>2.2</v>
-      </c>
-      <c r="AT260">
-        <v>2.27</v>
-      </c>
-      <c r="AU260">
-        <v>1.29</v>
-      </c>
-      <c r="AV260">
-        <v>1.9</v>
-      </c>
-      <c r="AW260">
-        <v>3.19</v>
-      </c>
-      <c r="AX260">
-        <v>4.28</v>
-      </c>
-      <c r="AY260">
-        <v>9.4</v>
-      </c>
-      <c r="AZ260">
-        <v>1.34</v>
-      </c>
-      <c r="BA260">
-        <v>1.21</v>
-      </c>
-      <c r="BB260">
-        <v>1.42</v>
-      </c>
-      <c r="BC260">
-        <v>1.74</v>
-      </c>
       <c r="BD260">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="BE260">
-        <v>2.84</v>
+        <v>3.04</v>
       </c>
       <c r="BF260">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BG260">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BH260">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI260">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ260">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BK260">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:63">
@@ -51303,7 +51303,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>2435451</v>
+        <v>2435452</v>
       </c>
       <c r="C261" t="s">
         <v>63</v>
@@ -51318,28 +51318,28 @@
         <v>26</v>
       </c>
       <c r="G261" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H261" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I261">
         <v>1</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K261">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L261">
         <v>3</v>
       </c>
       <c r="M261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N261">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O261" t="s">
         <v>262</v>
@@ -51348,145 +51348,145 @@
         <v>402</v>
       </c>
       <c r="Q261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R261">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S261">
+        <v>5</v>
+      </c>
+      <c r="T261">
+        <v>4.5</v>
+      </c>
+      <c r="U261">
+        <v>2.62</v>
+      </c>
+      <c r="V261">
+        <v>1.91</v>
+      </c>
+      <c r="W261">
+        <v>1.22</v>
+      </c>
+      <c r="X261">
         <v>4</v>
       </c>
-      <c r="T261">
-        <v>2.7</v>
-      </c>
-      <c r="U261">
+      <c r="Y261">
+        <v>1.91</v>
+      </c>
+      <c r="Z261">
+        <v>1.8</v>
+      </c>
+      <c r="AA261">
+        <v>4</v>
+      </c>
+      <c r="AB261">
+        <v>1.22</v>
+      </c>
+      <c r="AC261">
+        <v>5.76</v>
+      </c>
+      <c r="AD261">
+        <v>4.94</v>
+      </c>
+      <c r="AE261">
+        <v>1.47</v>
+      </c>
+      <c r="AF261">
+        <v>1.02</v>
+      </c>
+      <c r="AG261">
+        <v>17</v>
+      </c>
+      <c r="AH261">
+        <v>1.08</v>
+      </c>
+      <c r="AI261">
+        <v>7</v>
+      </c>
+      <c r="AJ261">
+        <v>1.29</v>
+      </c>
+      <c r="AK261">
+        <v>3.6</v>
+      </c>
+      <c r="AL261">
+        <v>1.4</v>
+      </c>
+      <c r="AM261">
+        <v>2.75</v>
+      </c>
+      <c r="AN261">
+        <v>2.6</v>
+      </c>
+      <c r="AO261">
+        <v>1.17</v>
+      </c>
+      <c r="AP261">
+        <v>1.12</v>
+      </c>
+      <c r="AQ261">
         <v>2.25</v>
       </c>
-      <c r="V261">
-        <v>3.4</v>
-      </c>
-      <c r="W261">
-        <v>1.32</v>
-      </c>
-      <c r="X261">
-        <v>3.25</v>
-      </c>
-      <c r="Y261">
-        <v>2.4</v>
-      </c>
-      <c r="Z261">
-        <v>1.5</v>
-      </c>
-      <c r="AA261">
-        <v>5.75</v>
-      </c>
-      <c r="AB261">
-        <v>1.12</v>
-      </c>
-      <c r="AC261">
-        <v>2.3</v>
-      </c>
-      <c r="AD261">
-        <v>3.66</v>
-      </c>
-      <c r="AE261">
-        <v>2.93</v>
-      </c>
-      <c r="AF261">
-        <v>1.03</v>
-      </c>
-      <c r="AG261">
+      <c r="AR261">
+        <v>2.33</v>
+      </c>
+      <c r="AS261">
+        <v>2.2</v>
+      </c>
+      <c r="AT261">
+        <v>2.27</v>
+      </c>
+      <c r="AU261">
+        <v>1.29</v>
+      </c>
+      <c r="AV261">
+        <v>1.9</v>
+      </c>
+      <c r="AW261">
+        <v>3.19</v>
+      </c>
+      <c r="AX261">
+        <v>4.28</v>
+      </c>
+      <c r="AY261">
+        <v>9.4</v>
+      </c>
+      <c r="AZ261">
+        <v>1.34</v>
+      </c>
+      <c r="BA261">
+        <v>1.21</v>
+      </c>
+      <c r="BB261">
+        <v>1.42</v>
+      </c>
+      <c r="BC261">
+        <v>1.74</v>
+      </c>
+      <c r="BD261">
+        <v>2.17</v>
+      </c>
+      <c r="BE261">
+        <v>2.84</v>
+      </c>
+      <c r="BF261">
+        <v>4</v>
+      </c>
+      <c r="BG261">
+        <v>10</v>
+      </c>
+      <c r="BH261">
+        <v>4</v>
+      </c>
+      <c r="BI261">
+        <v>6</v>
+      </c>
+      <c r="BJ261">
+        <v>8</v>
+      </c>
+      <c r="BK261">
         <v>16</v>
-      </c>
-      <c r="AH261">
-        <v>1.19</v>
-      </c>
-      <c r="AI261">
-        <v>4.3</v>
-      </c>
-      <c r="AJ261">
-        <v>1.62</v>
-      </c>
-      <c r="AK261">
-        <v>2.15</v>
-      </c>
-      <c r="AL261">
-        <v>1.5</v>
-      </c>
-      <c r="AM261">
-        <v>2.5</v>
-      </c>
-      <c r="AN261">
-        <v>1.38</v>
-      </c>
-      <c r="AO261">
-        <v>1.25</v>
-      </c>
-      <c r="AP261">
-        <v>1.62</v>
-      </c>
-      <c r="AQ261">
-        <v>1.33</v>
-      </c>
-      <c r="AR261">
-        <v>1.08</v>
-      </c>
-      <c r="AS261">
-        <v>1.33</v>
-      </c>
-      <c r="AT261">
-        <v>0.93</v>
-      </c>
-      <c r="AU261">
-        <v>1.28</v>
-      </c>
-      <c r="AV261">
-        <v>1.36</v>
-      </c>
-      <c r="AW261">
-        <v>2.64</v>
-      </c>
-      <c r="AX261">
-        <v>1.93</v>
-      </c>
-      <c r="AY261">
-        <v>7</v>
-      </c>
-      <c r="AZ261">
-        <v>2.36</v>
-      </c>
-      <c r="BA261">
-        <v>1.22</v>
-      </c>
-      <c r="BB261">
-        <v>1.45</v>
-      </c>
-      <c r="BC261">
-        <v>1.8</v>
-      </c>
-      <c r="BD261">
-        <v>2.29</v>
-      </c>
-      <c r="BE261">
-        <v>3.04</v>
-      </c>
-      <c r="BF261">
-        <v>10</v>
-      </c>
-      <c r="BG261">
-        <v>8</v>
-      </c>
-      <c r="BH261">
-        <v>6</v>
-      </c>
-      <c r="BI261">
-        <v>3</v>
-      </c>
-      <c r="BJ261">
-        <v>16</v>
-      </c>
-      <c r="BK261">
-        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:63">
@@ -51494,7 +51494,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>2435456</v>
+        <v>2435458</v>
       </c>
       <c r="C262" t="s">
         <v>63</v>
@@ -51509,10 +51509,10 @@
         <v>27</v>
       </c>
       <c r="G262" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H262" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -51536,148 +51536,148 @@
         <v>86</v>
       </c>
       <c r="P262" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="Q262">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R262">
+        <v>6</v>
+      </c>
+      <c r="S262">
+        <v>11</v>
+      </c>
+      <c r="T262">
+        <v>3</v>
+      </c>
+      <c r="U262">
+        <v>2.1</v>
+      </c>
+      <c r="V262">
+        <v>3.2</v>
+      </c>
+      <c r="W262">
+        <v>1.4</v>
+      </c>
+      <c r="X262">
+        <v>2.75</v>
+      </c>
+      <c r="Y262">
+        <v>2.75</v>
+      </c>
+      <c r="Z262">
+        <v>1.4</v>
+      </c>
+      <c r="AA262">
+        <v>6.5</v>
+      </c>
+      <c r="AB262">
+        <v>1.1</v>
+      </c>
+      <c r="AC262">
+        <v>2.38</v>
+      </c>
+      <c r="AD262">
+        <v>3.36</v>
+      </c>
+      <c r="AE262">
+        <v>2.95</v>
+      </c>
+      <c r="AF262">
+        <v>1.07</v>
+      </c>
+      <c r="AG262">
+        <v>7.5</v>
+      </c>
+      <c r="AH262">
+        <v>1.33</v>
+      </c>
+      <c r="AI262">
+        <v>3.25</v>
+      </c>
+      <c r="AJ262">
+        <v>1.91</v>
+      </c>
+      <c r="AK262">
+        <v>1.8</v>
+      </c>
+      <c r="AL262">
+        <v>1.73</v>
+      </c>
+      <c r="AM262">
+        <v>2</v>
+      </c>
+      <c r="AN262">
+        <v>1.4</v>
+      </c>
+      <c r="AO262">
+        <v>1.3</v>
+      </c>
+      <c r="AP262">
+        <v>1.53</v>
+      </c>
+      <c r="AQ262">
+        <v>1.46</v>
+      </c>
+      <c r="AR262">
+        <v>1.15</v>
+      </c>
+      <c r="AS262">
+        <v>1.36</v>
+      </c>
+      <c r="AT262">
+        <v>1.27</v>
+      </c>
+      <c r="AU262">
+        <v>1.41</v>
+      </c>
+      <c r="AV262">
+        <v>1.32</v>
+      </c>
+      <c r="AW262">
+        <v>2.73</v>
+      </c>
+      <c r="AX262">
+        <v>1.87</v>
+      </c>
+      <c r="AY262">
+        <v>7.4</v>
+      </c>
+      <c r="AZ262">
+        <v>2.33</v>
+      </c>
+      <c r="BA262">
+        <v>1.3</v>
+      </c>
+      <c r="BB262">
+        <v>1.63</v>
+      </c>
+      <c r="BC262">
+        <v>2.01</v>
+      </c>
+      <c r="BD262">
+        <v>2.5</v>
+      </c>
+      <c r="BE262">
+        <v>3.65</v>
+      </c>
+      <c r="BF262">
         <v>5</v>
       </c>
-      <c r="S262">
-        <v>12</v>
-      </c>
-      <c r="T262">
-        <v>3.1</v>
-      </c>
-      <c r="U262">
-        <v>2.25</v>
-      </c>
-      <c r="V262">
-        <v>2.8</v>
-      </c>
-      <c r="W262">
-        <v>1.33</v>
-      </c>
-      <c r="X262">
-        <v>3.25</v>
-      </c>
-      <c r="Y262">
-        <v>2.38</v>
-      </c>
-      <c r="Z262">
-        <v>1.53</v>
-      </c>
-      <c r="AA262">
-        <v>5</v>
-      </c>
-      <c r="AB262">
-        <v>1.14</v>
-      </c>
-      <c r="AC262">
-        <v>2.65</v>
-      </c>
-      <c r="AD262">
-        <v>3.55</v>
-      </c>
-      <c r="AE262">
-        <v>2.33</v>
-      </c>
-      <c r="AF262">
-        <v>1.03</v>
-      </c>
-      <c r="AG262">
-        <v>11</v>
-      </c>
-      <c r="AH262">
-        <v>1.2</v>
-      </c>
-      <c r="AI262">
-        <v>4.33</v>
-      </c>
-      <c r="AJ262">
-        <v>1.62</v>
-      </c>
-      <c r="AK262">
-        <v>2.2</v>
-      </c>
-      <c r="AL262">
-        <v>1.6</v>
-      </c>
-      <c r="AM262">
-        <v>2.25</v>
-      </c>
-      <c r="AN262">
-        <v>1.53</v>
-      </c>
-      <c r="AO262">
-        <v>1.25</v>
-      </c>
-      <c r="AP262">
-        <v>1.44</v>
-      </c>
-      <c r="AQ262">
-        <v>2.31</v>
-      </c>
-      <c r="AR262">
-        <v>1.92</v>
-      </c>
-      <c r="AS262">
-        <v>2.2</v>
-      </c>
-      <c r="AT262">
-        <v>2.07</v>
-      </c>
-      <c r="AU262">
-        <v>1.27</v>
-      </c>
-      <c r="AV262">
-        <v>1.49</v>
-      </c>
-      <c r="AW262">
-        <v>2.76</v>
-      </c>
-      <c r="AX262">
-        <v>2.25</v>
-      </c>
-      <c r="AY262">
-        <v>7.7</v>
-      </c>
-      <c r="AZ262">
-        <v>1.87</v>
-      </c>
-      <c r="BA262">
-        <v>1.2</v>
-      </c>
-      <c r="BB262">
-        <v>1.36</v>
-      </c>
-      <c r="BC262">
-        <v>1.68</v>
-      </c>
-      <c r="BD262">
-        <v>2.06</v>
-      </c>
-      <c r="BE262">
-        <v>2.7</v>
-      </c>
-      <c r="BF262">
-        <v>7</v>
-      </c>
       <c r="BG262">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH262">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BI262">
+        <v>3</v>
+      </c>
+      <c r="BJ262">
+        <v>8</v>
+      </c>
+      <c r="BK262">
         <v>6</v>
-      </c>
-      <c r="BJ262">
-        <v>14</v>
-      </c>
-      <c r="BK262">
-        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:63">
@@ -51685,7 +51685,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>2435457</v>
+        <v>2435454</v>
       </c>
       <c r="C263" t="s">
         <v>63</v>
@@ -51700,175 +51700,175 @@
         <v>27</v>
       </c>
       <c r="G263" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H263" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>1</v>
+      </c>
+      <c r="O263" t="s">
+        <v>86</v>
+      </c>
+      <c r="P263" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q263">
+        <v>1</v>
+      </c>
+      <c r="R263">
+        <v>3</v>
+      </c>
+      <c r="S263">
+        <v>4</v>
+      </c>
+      <c r="T263">
+        <v>4.1</v>
+      </c>
+      <c r="U263">
+        <v>2.26</v>
+      </c>
+      <c r="V263">
+        <v>2.46</v>
+      </c>
+      <c r="W263">
+        <v>1.33</v>
+      </c>
+      <c r="X263">
+        <v>3.16</v>
+      </c>
+      <c r="Y263">
+        <v>2.55</v>
+      </c>
+      <c r="Z263">
+        <v>1.48</v>
+      </c>
+      <c r="AA263">
+        <v>6.1</v>
+      </c>
+      <c r="AB263">
+        <v>1.11</v>
+      </c>
+      <c r="AC263">
+        <v>3.64</v>
+      </c>
+      <c r="AD263">
+        <v>3.7</v>
+      </c>
+      <c r="AE263">
+        <v>1.95</v>
+      </c>
+      <c r="AF263">
+        <v>1</v>
+      </c>
+      <c r="AG263">
+        <v>10.5</v>
+      </c>
+      <c r="AH263">
+        <v>1.21</v>
+      </c>
+      <c r="AI263">
+        <v>3.82</v>
+      </c>
+      <c r="AJ263">
+        <v>1.76</v>
+      </c>
+      <c r="AK263">
+        <v>2.09</v>
+      </c>
+      <c r="AL263">
+        <v>1.65</v>
+      </c>
+      <c r="AM263">
+        <v>2.16</v>
+      </c>
+      <c r="AN263">
+        <v>1.84</v>
+      </c>
+      <c r="AO263">
+        <v>1.28</v>
+      </c>
+      <c r="AP263">
+        <v>1.28</v>
+      </c>
+      <c r="AQ263">
+        <v>1.17</v>
+      </c>
+      <c r="AR263">
+        <v>1.69</v>
+      </c>
+      <c r="AS263">
+        <v>1</v>
+      </c>
+      <c r="AT263">
+        <v>1.87</v>
+      </c>
+      <c r="AU263">
+        <v>1.3</v>
+      </c>
+      <c r="AV263">
+        <v>1.37</v>
+      </c>
+      <c r="AW263">
+        <v>2.67</v>
+      </c>
+      <c r="AX263">
+        <v>2.89</v>
+      </c>
+      <c r="AY263">
+        <v>8</v>
+      </c>
+      <c r="AZ263">
+        <v>1.57</v>
+      </c>
+      <c r="BA263">
+        <v>1.19</v>
+      </c>
+      <c r="BB263">
+        <v>1.38</v>
+      </c>
+      <c r="BC263">
+        <v>1.74</v>
+      </c>
+      <c r="BD263">
+        <v>2.15</v>
+      </c>
+      <c r="BE263">
+        <v>2.77</v>
+      </c>
+      <c r="BF263">
+        <v>4</v>
+      </c>
+      <c r="BG263">
+        <v>11</v>
+      </c>
+      <c r="BH263">
+        <v>3</v>
+      </c>
+      <c r="BI263">
+        <v>6</v>
+      </c>
+      <c r="BJ263">
         <v>7</v>
       </c>
-      <c r="J263">
-        <v>0</v>
-      </c>
-      <c r="K263">
-        <v>7</v>
-      </c>
-      <c r="L263">
-        <v>13</v>
-      </c>
-      <c r="M263">
-        <v>0</v>
-      </c>
-      <c r="N263">
-        <v>13</v>
-      </c>
-      <c r="O263" t="s">
-        <v>263</v>
-      </c>
-      <c r="P263" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q263">
-        <v>2</v>
-      </c>
-      <c r="R263">
-        <v>4</v>
-      </c>
-      <c r="S263">
-        <v>6</v>
-      </c>
-      <c r="T263">
-        <v>1.62</v>
-      </c>
-      <c r="U263">
-        <v>2.62</v>
-      </c>
-      <c r="V263">
-        <v>8</v>
-      </c>
-      <c r="W263">
-        <v>1.22</v>
-      </c>
-      <c r="X263">
-        <v>4</v>
-      </c>
-      <c r="Y263">
-        <v>2</v>
-      </c>
-      <c r="Z263">
-        <v>1.73</v>
-      </c>
-      <c r="AA263">
-        <v>4</v>
-      </c>
-      <c r="AB263">
-        <v>1.22</v>
-      </c>
-      <c r="AC263">
-        <v>1.21</v>
-      </c>
-      <c r="AD263">
-        <v>6.3</v>
-      </c>
-      <c r="AE263">
-        <v>10</v>
-      </c>
-      <c r="AF263">
-        <v>1.02</v>
-      </c>
-      <c r="AG263">
-        <v>15</v>
-      </c>
-      <c r="AH263">
-        <v>1.11</v>
-      </c>
-      <c r="AI263">
-        <v>6</v>
-      </c>
-      <c r="AJ263">
-        <v>1.4</v>
-      </c>
-      <c r="AK263">
-        <v>2.75</v>
-      </c>
-      <c r="AL263">
-        <v>1.8</v>
-      </c>
-      <c r="AM263">
-        <v>1.91</v>
-      </c>
-      <c r="AN263">
-        <v>1.02</v>
-      </c>
-      <c r="AO263">
-        <v>1.1</v>
-      </c>
-      <c r="AP263">
-        <v>4.2</v>
-      </c>
-      <c r="AQ263">
-        <v>2.23</v>
-      </c>
-      <c r="AR263">
-        <v>0.58</v>
-      </c>
-      <c r="AS263">
-        <v>2.33</v>
-      </c>
-      <c r="AT263">
-        <v>0.5</v>
-      </c>
-      <c r="AU263">
-        <v>2.01</v>
-      </c>
-      <c r="AV263">
-        <v>1.26</v>
-      </c>
-      <c r="AW263">
-        <v>3.27</v>
-      </c>
-      <c r="AX263">
-        <v>1.19</v>
-      </c>
-      <c r="AY263">
-        <v>14</v>
-      </c>
-      <c r="AZ263">
-        <v>5.35</v>
-      </c>
-      <c r="BA263">
-        <v>1.18</v>
-      </c>
-      <c r="BB263">
-        <v>1.29</v>
-      </c>
-      <c r="BC263">
-        <v>1.63</v>
-      </c>
-      <c r="BD263">
-        <v>1.99</v>
-      </c>
-      <c r="BE263">
-        <v>2.5</v>
-      </c>
-      <c r="BF263">
+      <c r="BK263">
         <v>17</v>
-      </c>
-      <c r="BG263">
-        <v>4</v>
-      </c>
-      <c r="BH263">
-        <v>4</v>
-      </c>
-      <c r="BI263">
-        <v>0</v>
-      </c>
-      <c r="BJ263">
-        <v>21</v>
-      </c>
-      <c r="BK263">
-        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:63">
@@ -51876,7 +51876,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>2435454</v>
+        <v>2435456</v>
       </c>
       <c r="C264" t="s">
         <v>63</v>
@@ -51891,10 +51891,10 @@
         <v>27</v>
       </c>
       <c r="G264" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H264" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I264">
         <v>0</v>
@@ -51918,148 +51918,148 @@
         <v>86</v>
       </c>
       <c r="P264" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="Q264">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R264">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S264">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T264">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="U264">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="V264">
-        <v>2.46</v>
+        <v>2.8</v>
       </c>
       <c r="W264">
         <v>1.33</v>
       </c>
       <c r="X264">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Y264">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="Z264">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AA264">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="AB264">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AC264">
-        <v>3.64</v>
+        <v>2.65</v>
       </c>
       <c r="AD264">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="AE264">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="AF264">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AG264">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH264">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AI264">
-        <v>3.82</v>
+        <v>4.33</v>
       </c>
       <c r="AJ264">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AK264">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="AL264">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AM264">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="AN264">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="AO264">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP264">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AQ264">
-        <v>1.17</v>
+        <v>2.31</v>
       </c>
       <c r="AR264">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AS264">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AT264">
+        <v>2.07</v>
+      </c>
+      <c r="AU264">
+        <v>1.27</v>
+      </c>
+      <c r="AV264">
+        <v>1.49</v>
+      </c>
+      <c r="AW264">
+        <v>2.76</v>
+      </c>
+      <c r="AX264">
+        <v>2.25</v>
+      </c>
+      <c r="AY264">
+        <v>7.7</v>
+      </c>
+      <c r="AZ264">
         <v>1.87</v>
       </c>
-      <c r="AU264">
-        <v>1.3</v>
-      </c>
-      <c r="AV264">
-        <v>1.37</v>
-      </c>
-      <c r="AW264">
-        <v>2.67</v>
-      </c>
-      <c r="AX264">
-        <v>2.89</v>
-      </c>
-      <c r="AY264">
-        <v>8</v>
-      </c>
-      <c r="AZ264">
-        <v>1.57</v>
-      </c>
       <c r="BA264">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="BB264">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="BC264">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="BD264">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="BE264">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="BF264">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG264">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BH264">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI264">
         <v>6</v>
       </c>
       <c r="BJ264">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BK264">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:63">
@@ -52067,7 +52067,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>2435458</v>
+        <v>2435457</v>
       </c>
       <c r="C265" t="s">
         <v>63</v>
@@ -52082,175 +52082,175 @@
         <v>27</v>
       </c>
       <c r="G265" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H265" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K265">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L265">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N265">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O265" t="s">
+        <v>263</v>
+      </c>
+      <c r="P265" t="s">
         <v>86</v>
       </c>
-      <c r="P265" t="s">
-        <v>223</v>
-      </c>
       <c r="Q265">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R265">
+        <v>4</v>
+      </c>
+      <c r="S265">
         <v>6</v>
       </c>
-      <c r="S265">
-        <v>11</v>
-      </c>
       <c r="T265">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="U265">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="V265">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="W265">
+        <v>1.22</v>
+      </c>
+      <c r="X265">
+        <v>4</v>
+      </c>
+      <c r="Y265">
+        <v>2</v>
+      </c>
+      <c r="Z265">
+        <v>1.73</v>
+      </c>
+      <c r="AA265">
+        <v>4</v>
+      </c>
+      <c r="AB265">
+        <v>1.22</v>
+      </c>
+      <c r="AC265">
+        <v>1.21</v>
+      </c>
+      <c r="AD265">
+        <v>6.3</v>
+      </c>
+      <c r="AE265">
+        <v>10</v>
+      </c>
+      <c r="AF265">
+        <v>1.02</v>
+      </c>
+      <c r="AG265">
+        <v>15</v>
+      </c>
+      <c r="AH265">
+        <v>1.11</v>
+      </c>
+      <c r="AI265">
+        <v>6</v>
+      </c>
+      <c r="AJ265">
         <v>1.4</v>
       </c>
-      <c r="X265">
+      <c r="AK265">
         <v>2.75</v>
       </c>
-      <c r="Y265">
-        <v>2.75</v>
-      </c>
-      <c r="Z265">
-        <v>1.4</v>
-      </c>
-      <c r="AA265">
-        <v>6.5</v>
-      </c>
-      <c r="AB265">
+      <c r="AL265">
+        <v>1.8</v>
+      </c>
+      <c r="AM265">
+        <v>1.91</v>
+      </c>
+      <c r="AN265">
+        <v>1.02</v>
+      </c>
+      <c r="AO265">
         <v>1.1</v>
       </c>
-      <c r="AC265">
-        <v>2.38</v>
-      </c>
-      <c r="AD265">
-        <v>3.36</v>
-      </c>
-      <c r="AE265">
-        <v>2.95</v>
-      </c>
-      <c r="AF265">
-        <v>1.07</v>
-      </c>
-      <c r="AG265">
-        <v>7.5</v>
-      </c>
-      <c r="AH265">
-        <v>1.33</v>
-      </c>
-      <c r="AI265">
-        <v>3.25</v>
-      </c>
-      <c r="AJ265">
-        <v>1.91</v>
-      </c>
-      <c r="AK265">
-        <v>1.8</v>
-      </c>
-      <c r="AL265">
-        <v>1.73</v>
-      </c>
-      <c r="AM265">
-        <v>2</v>
-      </c>
-      <c r="AN265">
-        <v>1.4</v>
-      </c>
-      <c r="AO265">
-        <v>1.3</v>
-      </c>
       <c r="AP265">
-        <v>1.53</v>
+        <v>4.2</v>
       </c>
       <c r="AQ265">
-        <v>1.46</v>
+        <v>2.23</v>
       </c>
       <c r="AR265">
-        <v>1.15</v>
+        <v>0.58</v>
       </c>
       <c r="AS265">
-        <v>1.36</v>
+        <v>2.33</v>
       </c>
       <c r="AT265">
-        <v>1.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU265">
-        <v>1.41</v>
+        <v>2.01</v>
       </c>
       <c r="AV265">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AW265">
-        <v>2.73</v>
+        <v>3.27</v>
       </c>
       <c r="AX265">
-        <v>1.87</v>
+        <v>1.19</v>
       </c>
       <c r="AY265">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="AZ265">
-        <v>2.33</v>
+        <v>5.35</v>
       </c>
       <c r="BA265">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="BB265">
+        <v>1.29</v>
+      </c>
+      <c r="BC265">
         <v>1.63</v>
       </c>
-      <c r="BC265">
-        <v>2.01</v>
-      </c>
       <c r="BD265">
+        <v>1.99</v>
+      </c>
+      <c r="BE265">
         <v>2.5</v>
       </c>
-      <c r="BE265">
-        <v>3.65</v>
-      </c>
       <c r="BF265">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BG265">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH265">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI265">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ265">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BK265">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:63">
@@ -52258,7 +52258,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>2435461</v>
+        <v>2435462</v>
       </c>
       <c r="C266" t="s">
         <v>63</v>
@@ -52273,16 +52273,16 @@
         <v>27</v>
       </c>
       <c r="G266" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H266" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K266">
         <v>1</v>
@@ -52291,157 +52291,157 @@
         <v>1</v>
       </c>
       <c r="M266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N266">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O266" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="P266" t="s">
         <v>403</v>
       </c>
       <c r="Q266">
+        <v>3</v>
+      </c>
+      <c r="R266">
+        <v>3</v>
+      </c>
+      <c r="S266">
         <v>6</v>
       </c>
-      <c r="R266">
-        <v>6</v>
-      </c>
-      <c r="S266">
-        <v>12</v>
-      </c>
       <c r="T266">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="U266">
+        <v>2.38</v>
+      </c>
+      <c r="V266">
+        <v>2.88</v>
+      </c>
+      <c r="W266">
+        <v>1.29</v>
+      </c>
+      <c r="X266">
+        <v>3.5</v>
+      </c>
+      <c r="Y266">
+        <v>2.38</v>
+      </c>
+      <c r="Z266">
+        <v>1.53</v>
+      </c>
+      <c r="AA266">
+        <v>5.5</v>
+      </c>
+      <c r="AB266">
+        <v>1.14</v>
+      </c>
+      <c r="AC266">
+        <v>2.78</v>
+      </c>
+      <c r="AD266">
+        <v>3.58</v>
+      </c>
+      <c r="AE266">
+        <v>2.22</v>
+      </c>
+      <c r="AF266">
+        <v>1.02</v>
+      </c>
+      <c r="AG266">
+        <v>17</v>
+      </c>
+      <c r="AH266">
+        <v>1.18</v>
+      </c>
+      <c r="AI266">
+        <v>4.75</v>
+      </c>
+      <c r="AJ266">
+        <v>1.58</v>
+      </c>
+      <c r="AK266">
         <v>2.25</v>
       </c>
-      <c r="V266">
-        <v>3.1</v>
-      </c>
-      <c r="W266">
-        <v>1.33</v>
-      </c>
-      <c r="X266">
-        <v>3.25</v>
-      </c>
-      <c r="Y266">
-        <v>2.63</v>
-      </c>
-      <c r="Z266">
-        <v>1.44</v>
-      </c>
-      <c r="AA266">
-        <v>6.5</v>
-      </c>
-      <c r="AB266">
-        <v>1.11</v>
-      </c>
-      <c r="AC266">
-        <v>2.52</v>
-      </c>
-      <c r="AD266">
-        <v>3.38</v>
-      </c>
-      <c r="AE266">
-        <v>2.51</v>
-      </c>
-      <c r="AF266">
-        <v>1.04</v>
-      </c>
-      <c r="AG266">
-        <v>13</v>
-      </c>
-      <c r="AH266">
-        <v>1.25</v>
-      </c>
-      <c r="AI266">
-        <v>3.75</v>
-      </c>
-      <c r="AJ266">
-        <v>1.7</v>
-      </c>
-      <c r="AK266">
-        <v>2.05</v>
-      </c>
       <c r="AL266">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AM266">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AN266">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AO266">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AP266">
         <v>1.44</v>
       </c>
       <c r="AQ266">
-        <v>1.31</v>
+        <v>0.92</v>
       </c>
       <c r="AR266">
         <v>1.08</v>
       </c>
       <c r="AS266">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AT266">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AU266">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AV266">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AW266">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="AX266">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AY266">
         <v>5.5</v>
       </c>
       <c r="AZ266">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="BA266">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="BB266">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BC266">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="BD266">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BE266">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BF266">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG266">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH266">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI266">
+        <v>3</v>
+      </c>
+      <c r="BJ266">
         <v>5</v>
       </c>
-      <c r="BJ266">
-        <v>10</v>
-      </c>
       <c r="BK266">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:63">
@@ -52449,7 +52449,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>2435462</v>
+        <v>2435461</v>
       </c>
       <c r="C267" t="s">
         <v>63</v>
@@ -52464,16 +52464,16 @@
         <v>27</v>
       </c>
       <c r="G267" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H267" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K267">
         <v>1</v>
@@ -52482,157 +52482,157 @@
         <v>1</v>
       </c>
       <c r="M267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N267">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O267" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="P267" t="s">
         <v>404</v>
       </c>
       <c r="Q267">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R267">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S267">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T267">
+        <v>3.1</v>
+      </c>
+      <c r="U267">
+        <v>2.25</v>
+      </c>
+      <c r="V267">
+        <v>3.1</v>
+      </c>
+      <c r="W267">
+        <v>1.33</v>
+      </c>
+      <c r="X267">
         <v>3.25</v>
       </c>
-      <c r="U267">
-        <v>2.38</v>
-      </c>
-      <c r="V267">
-        <v>2.88</v>
-      </c>
-      <c r="W267">
+      <c r="Y267">
+        <v>2.63</v>
+      </c>
+      <c r="Z267">
+        <v>1.44</v>
+      </c>
+      <c r="AA267">
+        <v>6.5</v>
+      </c>
+      <c r="AB267">
+        <v>1.11</v>
+      </c>
+      <c r="AC267">
+        <v>2.52</v>
+      </c>
+      <c r="AD267">
+        <v>3.38</v>
+      </c>
+      <c r="AE267">
+        <v>2.51</v>
+      </c>
+      <c r="AF267">
+        <v>1.04</v>
+      </c>
+      <c r="AG267">
+        <v>13</v>
+      </c>
+      <c r="AH267">
+        <v>1.25</v>
+      </c>
+      <c r="AI267">
+        <v>3.75</v>
+      </c>
+      <c r="AJ267">
+        <v>1.7</v>
+      </c>
+      <c r="AK267">
+        <v>2.05</v>
+      </c>
+      <c r="AL267">
+        <v>1.62</v>
+      </c>
+      <c r="AM267">
+        <v>2.2</v>
+      </c>
+      <c r="AN267">
+        <v>1.5</v>
+      </c>
+      <c r="AO267">
         <v>1.29</v>
-      </c>
-      <c r="X267">
-        <v>3.5</v>
-      </c>
-      <c r="Y267">
-        <v>2.38</v>
-      </c>
-      <c r="Z267">
-        <v>1.53</v>
-      </c>
-      <c r="AA267">
-        <v>5.5</v>
-      </c>
-      <c r="AB267">
-        <v>1.14</v>
-      </c>
-      <c r="AC267">
-        <v>2.78</v>
-      </c>
-      <c r="AD267">
-        <v>3.58</v>
-      </c>
-      <c r="AE267">
-        <v>2.22</v>
-      </c>
-      <c r="AF267">
-        <v>1.02</v>
-      </c>
-      <c r="AG267">
-        <v>17</v>
-      </c>
-      <c r="AH267">
-        <v>1.18</v>
-      </c>
-      <c r="AI267">
-        <v>4.75</v>
-      </c>
-      <c r="AJ267">
-        <v>1.58</v>
-      </c>
-      <c r="AK267">
-        <v>2.25</v>
-      </c>
-      <c r="AL267">
-        <v>1.5</v>
-      </c>
-      <c r="AM267">
-        <v>2.5</v>
-      </c>
-      <c r="AN267">
-        <v>1.65</v>
-      </c>
-      <c r="AO267">
-        <v>1.22</v>
       </c>
       <c r="AP267">
         <v>1.44</v>
       </c>
       <c r="AQ267">
-        <v>0.92</v>
+        <v>1.31</v>
       </c>
       <c r="AR267">
         <v>1.08</v>
       </c>
       <c r="AS267">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AT267">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU267">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AV267">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="AW267">
-        <v>2.97</v>
+        <v>2.72</v>
       </c>
       <c r="AX267">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AY267">
         <v>5.5</v>
       </c>
       <c r="AZ267">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="BA267">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BB267">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BC267">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="BD267">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="BE267">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BF267">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG267">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH267">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI267">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ267">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BK267">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:63">
@@ -52831,7 +52831,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>2435455</v>
+        <v>2435459</v>
       </c>
       <c r="C269" t="s">
         <v>63</v>
@@ -52846,34 +52846,34 @@
         <v>27</v>
       </c>
       <c r="G269" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H269" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K269">
         <v>1</v>
       </c>
       <c r="L269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O269" t="s">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="P269" t="s">
-        <v>86</v>
+        <v>406</v>
       </c>
       <c r="Q269">
         <v>10</v>
@@ -52885,136 +52885,136 @@
         <v>12</v>
       </c>
       <c r="T269">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="U269">
         <v>2.5</v>
       </c>
       <c r="V269">
+        <v>4.33</v>
+      </c>
+      <c r="W269">
+        <v>1.25</v>
+      </c>
+      <c r="X269">
+        <v>3.75</v>
+      </c>
+      <c r="Y269">
+        <v>2.2</v>
+      </c>
+      <c r="Z269">
+        <v>1.62</v>
+      </c>
+      <c r="AA269">
         <v>5</v>
       </c>
-      <c r="W269">
-        <v>1.29</v>
-      </c>
-      <c r="X269">
-        <v>3.5</v>
-      </c>
-      <c r="Y269">
-        <v>2.25</v>
-      </c>
-      <c r="Z269">
-        <v>1.57</v>
-      </c>
-      <c r="AA269">
-        <v>5.5</v>
-      </c>
       <c r="AB269">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AC269">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AD269">
-        <v>4.2</v>
+        <v>3.82</v>
       </c>
       <c r="AE269">
-        <v>4.95</v>
+        <v>4.13</v>
       </c>
       <c r="AF269">
         <v>1.02</v>
       </c>
       <c r="AG269">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH269">
+        <v>1.14</v>
+      </c>
+      <c r="AI269">
+        <v>5.5</v>
+      </c>
+      <c r="AJ269">
+        <v>1.44</v>
+      </c>
+      <c r="AK269">
+        <v>2.7</v>
+      </c>
+      <c r="AL269">
+        <v>1.53</v>
+      </c>
+      <c r="AM269">
+        <v>2.38</v>
+      </c>
+      <c r="AN269">
+        <v>1.22</v>
+      </c>
+      <c r="AO269">
         <v>1.18</v>
       </c>
-      <c r="AI269">
-        <v>4.75</v>
-      </c>
-      <c r="AJ269">
-        <v>1.55</v>
-      </c>
-      <c r="AK269">
-        <v>2.25</v>
-      </c>
-      <c r="AL269">
-        <v>1.67</v>
-      </c>
-      <c r="AM269">
+      <c r="AP269">
         <v>2.1</v>
       </c>
-      <c r="AN269">
-        <v>1.15</v>
-      </c>
-      <c r="AO269">
-        <v>1.17</v>
-      </c>
-      <c r="AP269">
-        <v>2.45</v>
-      </c>
       <c r="AQ269">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AR269">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AS269">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="AT269">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AU269">
-        <v>1.88</v>
+        <v>1.42</v>
       </c>
       <c r="AV269">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="AW269">
-        <v>3</v>
+        <v>2.41</v>
       </c>
       <c r="AX269">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="AY269">
-        <v>8.25</v>
+        <v>6</v>
       </c>
       <c r="AZ269">
+        <v>3.2</v>
+      </c>
+      <c r="BA269">
+        <v>1.32</v>
+      </c>
+      <c r="BB269">
+        <v>1.58</v>
+      </c>
+      <c r="BC269">
+        <v>2.02</v>
+      </c>
+      <c r="BD269">
+        <v>2.7</v>
+      </c>
+      <c r="BE269">
+        <v>3.8</v>
+      </c>
+      <c r="BF269">
+        <v>7</v>
+      </c>
+      <c r="BG269">
+        <v>4</v>
+      </c>
+      <c r="BH269">
+        <v>11</v>
+      </c>
+      <c r="BI269">
+        <v>2</v>
+      </c>
+      <c r="BJ269">
+        <v>18</v>
+      </c>
+      <c r="BK269">
         <v>6</v>
-      </c>
-      <c r="BA269">
-        <v>1.2</v>
-      </c>
-      <c r="BB269">
-        <v>1.38</v>
-      </c>
-      <c r="BC269">
-        <v>1.67</v>
-      </c>
-      <c r="BD269">
-        <v>2.12</v>
-      </c>
-      <c r="BE269">
-        <v>2.85</v>
-      </c>
-      <c r="BF269">
-        <v>4</v>
-      </c>
-      <c r="BG269">
-        <v>0</v>
-      </c>
-      <c r="BH269">
-        <v>6</v>
-      </c>
-      <c r="BI269">
-        <v>5</v>
-      </c>
-      <c r="BJ269">
-        <v>10</v>
-      </c>
-      <c r="BK269">
-        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:63">
@@ -53022,7 +53022,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>2435453</v>
+        <v>2435455</v>
       </c>
       <c r="C270" t="s">
         <v>63</v>
@@ -53037,175 +53037,175 @@
         <v>27</v>
       </c>
       <c r="G270" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H270" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L270">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M270">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O270" t="s">
+        <v>265</v>
+      </c>
+      <c r="P270" t="s">
         <v>86</v>
       </c>
-      <c r="P270" t="s">
-        <v>406</v>
-      </c>
       <c r="Q270">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R270">
+        <v>2</v>
+      </c>
+      <c r="S270">
+        <v>12</v>
+      </c>
+      <c r="T270">
+        <v>2.05</v>
+      </c>
+      <c r="U270">
+        <v>2.5</v>
+      </c>
+      <c r="V270">
         <v>5</v>
       </c>
-      <c r="S270">
-        <v>13</v>
-      </c>
-      <c r="T270">
-        <v>3.4</v>
-      </c>
-      <c r="U270">
-        <v>2.3</v>
-      </c>
-      <c r="V270">
-        <v>2.88</v>
-      </c>
       <c r="W270">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X270">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y270">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z270">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA270">
+        <v>5.5</v>
+      </c>
+      <c r="AB270">
+        <v>1.14</v>
+      </c>
+      <c r="AC270">
+        <v>1.54</v>
+      </c>
+      <c r="AD270">
+        <v>4.2</v>
+      </c>
+      <c r="AE270">
+        <v>4.95</v>
+      </c>
+      <c r="AF270">
+        <v>1.02</v>
+      </c>
+      <c r="AG270">
+        <v>17</v>
+      </c>
+      <c r="AH270">
+        <v>1.18</v>
+      </c>
+      <c r="AI270">
+        <v>4.75</v>
+      </c>
+      <c r="AJ270">
+        <v>1.55</v>
+      </c>
+      <c r="AK270">
+        <v>2.25</v>
+      </c>
+      <c r="AL270">
+        <v>1.67</v>
+      </c>
+      <c r="AM270">
+        <v>2.1</v>
+      </c>
+      <c r="AN270">
+        <v>1.15</v>
+      </c>
+      <c r="AO270">
+        <v>1.17</v>
+      </c>
+      <c r="AP270">
+        <v>2.45</v>
+      </c>
+      <c r="AQ270">
+        <v>1.54</v>
+      </c>
+      <c r="AR270">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS270">
+        <v>1.53</v>
+      </c>
+      <c r="AT270">
+        <v>0.64</v>
+      </c>
+      <c r="AU270">
+        <v>1.88</v>
+      </c>
+      <c r="AV270">
+        <v>1.12</v>
+      </c>
+      <c r="AW270">
+        <v>3</v>
+      </c>
+      <c r="AX270">
+        <v>1.16</v>
+      </c>
+      <c r="AY270">
+        <v>8.25</v>
+      </c>
+      <c r="AZ270">
         <v>6</v>
       </c>
-      <c r="AB270">
-        <v>1.13</v>
-      </c>
-      <c r="AC270">
-        <v>2.7</v>
-      </c>
-      <c r="AD270">
-        <v>3.5</v>
-      </c>
-      <c r="AE270">
-        <v>2.15</v>
-      </c>
-      <c r="AF270">
-        <v>1.03</v>
-      </c>
-      <c r="AG270">
-        <v>13</v>
-      </c>
-      <c r="AH270">
-        <v>1.22</v>
-      </c>
-      <c r="AI270">
-        <v>4.3</v>
-      </c>
-      <c r="AJ270">
+      <c r="BA270">
+        <v>1.2</v>
+      </c>
+      <c r="BB270">
+        <v>1.38</v>
+      </c>
+      <c r="BC270">
         <v>1.67</v>
       </c>
-      <c r="AK270">
-        <v>2.15</v>
-      </c>
-      <c r="AL270">
-        <v>1.57</v>
-      </c>
-      <c r="AM270">
-        <v>2.25</v>
-      </c>
-      <c r="AN270">
-        <v>1.66</v>
-      </c>
-      <c r="AO270">
-        <v>1.25</v>
-      </c>
-      <c r="AP270">
-        <v>1.38</v>
-      </c>
-      <c r="AQ270">
-        <v>1.46</v>
-      </c>
-      <c r="AR270">
-        <v>1.69</v>
-      </c>
-      <c r="AS270">
-        <v>1.27</v>
-      </c>
-      <c r="AT270">
-        <v>1.87</v>
-      </c>
-      <c r="AU270">
-        <v>1.87</v>
-      </c>
-      <c r="AV270">
-        <v>1.44</v>
-      </c>
-      <c r="AW270">
-        <v>3.31</v>
-      </c>
-      <c r="AX270">
-        <v>2.4</v>
-      </c>
-      <c r="AY270">
-        <v>5.75</v>
-      </c>
-      <c r="AZ270">
-        <v>1.68</v>
-      </c>
-      <c r="BA270">
-        <v>1.18</v>
-      </c>
-      <c r="BB270">
-        <v>1.34</v>
-      </c>
-      <c r="BC270">
-        <v>1.61</v>
-      </c>
       <c r="BD270">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="BE270">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="BF270">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG270">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BH270">
         <v>6</v>
       </c>
       <c r="BI270">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ270">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BK270">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:63">
@@ -53213,7 +53213,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>2435459</v>
+        <v>2435453</v>
       </c>
       <c r="C271" t="s">
         <v>63</v>
@@ -53228,175 +53228,175 @@
         <v>27</v>
       </c>
       <c r="G271" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H271" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I271">
         <v>0</v>
       </c>
       <c r="J271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N271">
         <v>3</v>
       </c>
       <c r="O271" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="P271" t="s">
         <v>407</v>
       </c>
       <c r="Q271">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R271">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S271">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T271">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="U271">
+        <v>2.3</v>
+      </c>
+      <c r="V271">
+        <v>2.88</v>
+      </c>
+      <c r="W271">
+        <v>1.3</v>
+      </c>
+      <c r="X271">
+        <v>3.4</v>
+      </c>
+      <c r="Y271">
         <v>2.5</v>
       </c>
-      <c r="V271">
-        <v>4.33</v>
-      </c>
-      <c r="W271">
-        <v>1.25</v>
-      </c>
-      <c r="X271">
-        <v>3.75</v>
-      </c>
-      <c r="Y271">
-        <v>2.2</v>
-      </c>
       <c r="Z271">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AA271">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB271">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AC271">
-        <v>1.71</v>
+        <v>2.7</v>
       </c>
       <c r="AD271">
-        <v>3.82</v>
+        <v>3.5</v>
       </c>
       <c r="AE271">
-        <v>4.13</v>
+        <v>2.15</v>
       </c>
       <c r="AF271">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG271">
         <v>13</v>
       </c>
       <c r="AH271">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AI271">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="AJ271">
+        <v>1.67</v>
+      </c>
+      <c r="AK271">
+        <v>2.15</v>
+      </c>
+      <c r="AL271">
+        <v>1.57</v>
+      </c>
+      <c r="AM271">
+        <v>2.25</v>
+      </c>
+      <c r="AN271">
+        <v>1.66</v>
+      </c>
+      <c r="AO271">
+        <v>1.25</v>
+      </c>
+      <c r="AP271">
+        <v>1.38</v>
+      </c>
+      <c r="AQ271">
+        <v>1.46</v>
+      </c>
+      <c r="AR271">
+        <v>1.69</v>
+      </c>
+      <c r="AS271">
+        <v>1.27</v>
+      </c>
+      <c r="AT271">
+        <v>1.87</v>
+      </c>
+      <c r="AU271">
+        <v>1.87</v>
+      </c>
+      <c r="AV271">
         <v>1.44</v>
       </c>
-      <c r="AK271">
+      <c r="AW271">
+        <v>3.31</v>
+      </c>
+      <c r="AX271">
+        <v>2.4</v>
+      </c>
+      <c r="AY271">
+        <v>5.75</v>
+      </c>
+      <c r="AZ271">
+        <v>1.68</v>
+      </c>
+      <c r="BA271">
+        <v>1.18</v>
+      </c>
+      <c r="BB271">
+        <v>1.34</v>
+      </c>
+      <c r="BC271">
+        <v>1.61</v>
+      </c>
+      <c r="BD271">
+        <v>2.02</v>
+      </c>
+      <c r="BE271">
         <v>2.7</v>
       </c>
-      <c r="AL271">
-        <v>1.53</v>
-      </c>
-      <c r="AM271">
-        <v>2.38</v>
-      </c>
-      <c r="AN271">
-        <v>1.22</v>
-      </c>
-      <c r="AO271">
-        <v>1.18</v>
-      </c>
-      <c r="AP271">
-        <v>2.1</v>
-      </c>
-      <c r="AQ271">
-        <v>1.31</v>
-      </c>
-      <c r="AR271">
-        <v>0.85</v>
-      </c>
-      <c r="AS271">
-        <v>1.13</v>
-      </c>
-      <c r="AT271">
-        <v>1</v>
-      </c>
-      <c r="AU271">
-        <v>1.42</v>
-      </c>
-      <c r="AV271">
-        <v>0.99</v>
-      </c>
-      <c r="AW271">
-        <v>2.41</v>
-      </c>
-      <c r="AX271">
-        <v>1.41</v>
-      </c>
-      <c r="AY271">
+      <c r="BF271">
+        <v>0</v>
+      </c>
+      <c r="BG271">
+        <v>12</v>
+      </c>
+      <c r="BH271">
         <v>6</v>
       </c>
-      <c r="AZ271">
-        <v>3.2</v>
-      </c>
-      <c r="BA271">
-        <v>1.32</v>
-      </c>
-      <c r="BB271">
-        <v>1.58</v>
-      </c>
-      <c r="BC271">
-        <v>2.02</v>
-      </c>
-      <c r="BD271">
-        <v>2.7</v>
-      </c>
-      <c r="BE271">
-        <v>3.8</v>
-      </c>
-      <c r="BF271">
-        <v>7</v>
-      </c>
-      <c r="BG271">
-        <v>4</v>
-      </c>
-      <c r="BH271">
-        <v>11</v>
-      </c>
       <c r="BI271">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ271">
+        <v>6</v>
+      </c>
+      <c r="BK271">
         <v>18</v>
-      </c>
-      <c r="BK271">
-        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:63">
@@ -53404,7 +53404,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>2435471</v>
+        <v>2435472</v>
       </c>
       <c r="C272" t="s">
         <v>63</v>
@@ -53419,97 +53419,97 @@
         <v>28</v>
       </c>
       <c r="G272" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H272" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M272">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N272">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O272" t="s">
         <v>266</v>
       </c>
       <c r="P272" t="s">
-        <v>86</v>
+        <v>408</v>
       </c>
       <c r="Q272">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S272">
         <v>7</v>
       </c>
       <c r="T272">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="U272">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="V272">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="W272">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="X272">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y272">
-        <v>2.29</v>
+        <v>2.6</v>
       </c>
       <c r="Z272">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AA272">
-        <v>4.95</v>
+        <v>6.4</v>
       </c>
       <c r="AB272">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AC272">
-        <v>1.6</v>
+        <v>2.65</v>
       </c>
       <c r="AD272">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AE272">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="AF272">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG272">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH272">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AI272">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ272">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AK272">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AL272">
         <v>1.63</v>
@@ -53518,76 +53518,76 @@
         <v>2.25</v>
       </c>
       <c r="AN272">
-        <v>1.16</v>
+        <v>1.52</v>
       </c>
       <c r="AO272">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AP272">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="AQ272">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="AR272">
-        <v>0.54</v>
+        <v>2.15</v>
       </c>
       <c r="AS272">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="AT272">
-        <v>0.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU272">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="AV272">
-        <v>1.22</v>
+        <v>1.92</v>
       </c>
       <c r="AW272">
-        <v>2.67</v>
+        <v>3.66</v>
       </c>
       <c r="AX272">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AY272">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AZ272">
-        <v>4.05</v>
+        <v>2.18</v>
       </c>
       <c r="BA272">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="BB272">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="BC272">
-        <v>1.66</v>
+        <v>2.02</v>
       </c>
       <c r="BD272">
-        <v>2.02</v>
+        <v>2.62</v>
       </c>
       <c r="BE272">
-        <v>2.69</v>
+        <v>3.64</v>
       </c>
       <c r="BF272">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BG272">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH272">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ272">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BK272">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:63">
@@ -53595,7 +53595,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>2435472</v>
+        <v>2435471</v>
       </c>
       <c r="C273" t="s">
         <v>63</v>
@@ -53610,97 +53610,97 @@
         <v>28</v>
       </c>
       <c r="G273" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H273" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J273">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L273">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M273">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N273">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O273" t="s">
         <v>267</v>
       </c>
       <c r="P273" t="s">
-        <v>408</v>
+        <v>86</v>
       </c>
       <c r="Q273">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S273">
         <v>7</v>
       </c>
       <c r="T273">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="U273">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="V273">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="W273">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="X273">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y273">
-        <v>2.6</v>
+        <v>2.29</v>
       </c>
       <c r="Z273">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AA273">
-        <v>6.4</v>
+        <v>4.95</v>
       </c>
       <c r="AB273">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AC273">
-        <v>2.65</v>
+        <v>1.6</v>
       </c>
       <c r="AD273">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AE273">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="AF273">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG273">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH273">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AI273">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AJ273">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AK273">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AL273">
         <v>1.63</v>
@@ -53709,76 +53709,76 @@
         <v>2.25</v>
       </c>
       <c r="AN273">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="AO273">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP273">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="AQ273">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="AR273">
-        <v>2.15</v>
+        <v>0.54</v>
       </c>
       <c r="AS273">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="AT273">
-        <v>2.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU273">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="AV273">
-        <v>1.92</v>
+        <v>1.22</v>
       </c>
       <c r="AW273">
-        <v>3.66</v>
+        <v>2.67</v>
       </c>
       <c r="AX273">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="AY273">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AZ273">
-        <v>2.18</v>
+        <v>4.05</v>
       </c>
       <c r="BA273">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="BB273">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="BC273">
+        <v>1.66</v>
+      </c>
+      <c r="BD273">
         <v>2.02</v>
       </c>
-      <c r="BD273">
-        <v>2.62</v>
-      </c>
       <c r="BE273">
-        <v>3.64</v>
+        <v>2.69</v>
       </c>
       <c r="BF273">
+        <v>9</v>
+      </c>
+      <c r="BG273">
+        <v>4</v>
+      </c>
+      <c r="BH273">
+        <v>7</v>
+      </c>
+      <c r="BI273">
+        <v>1</v>
+      </c>
+      <c r="BJ273">
+        <v>16</v>
+      </c>
+      <c r="BK273">
         <v>5</v>
-      </c>
-      <c r="BG273">
-        <v>6</v>
-      </c>
-      <c r="BH273">
-        <v>6</v>
-      </c>
-      <c r="BI273">
-        <v>2</v>
-      </c>
-      <c r="BJ273">
-        <v>11</v>
-      </c>
-      <c r="BK273">
-        <v>8</v>
       </c>
     </row>
     <row r="274" spans="1:63">
@@ -53786,7 +53786,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>2435470</v>
+        <v>2435469</v>
       </c>
       <c r="C274" t="s">
         <v>63</v>
@@ -53801,175 +53801,175 @@
         <v>28</v>
       </c>
       <c r="G274" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H274" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274">
         <v>1</v>
       </c>
       <c r="K274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N274">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O274" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="P274" t="s">
         <v>409</v>
       </c>
       <c r="Q274">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R274">
         <v>4</v>
       </c>
       <c r="S274">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T274">
-        <v>2.56</v>
+        <v>3.5</v>
       </c>
       <c r="U274">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="V274">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="W274">
+        <v>1.3</v>
+      </c>
+      <c r="X274">
+        <v>3.2</v>
+      </c>
+      <c r="Y274">
+        <v>2.5</v>
+      </c>
+      <c r="Z274">
+        <v>1.48</v>
+      </c>
+      <c r="AA274">
+        <v>5.95</v>
+      </c>
+      <c r="AB274">
+        <v>1.1</v>
+      </c>
+      <c r="AC274">
+        <v>3</v>
+      </c>
+      <c r="AD274">
+        <v>3.5</v>
+      </c>
+      <c r="AE274">
+        <v>2.25</v>
+      </c>
+      <c r="AF274">
+        <v>1.03</v>
+      </c>
+      <c r="AG274">
+        <v>13</v>
+      </c>
+      <c r="AH274">
+        <v>1.22</v>
+      </c>
+      <c r="AI274">
+        <v>4.2</v>
+      </c>
+      <c r="AJ274">
+        <v>1.7</v>
+      </c>
+      <c r="AK274">
+        <v>2.1</v>
+      </c>
+      <c r="AL274">
+        <v>1.57</v>
+      </c>
+      <c r="AM274">
+        <v>2.35</v>
+      </c>
+      <c r="AN274">
+        <v>1.65</v>
+      </c>
+      <c r="AO274">
+        <v>1.25</v>
+      </c>
+      <c r="AP274">
+        <v>1.38</v>
+      </c>
+      <c r="AQ274">
+        <v>1.23</v>
+      </c>
+      <c r="AR274">
+        <v>1.23</v>
+      </c>
+      <c r="AS274">
+        <v>1.07</v>
+      </c>
+      <c r="AT274">
+        <v>1.33</v>
+      </c>
+      <c r="AU274">
+        <v>1.32</v>
+      </c>
+      <c r="AV274">
+        <v>1.55</v>
+      </c>
+      <c r="AW274">
+        <v>2.87</v>
+      </c>
+      <c r="AX274">
+        <v>2.65</v>
+      </c>
+      <c r="AY274">
+        <v>7.8</v>
+      </c>
+      <c r="AZ274">
+        <v>1.7</v>
+      </c>
+      <c r="BA274">
+        <v>1.2</v>
+      </c>
+      <c r="BB274">
         <v>1.4</v>
       </c>
-      <c r="X274">
-        <v>2.83</v>
-      </c>
-      <c r="Y274">
-        <v>2.88</v>
-      </c>
-      <c r="Z274">
-        <v>1.39</v>
-      </c>
-      <c r="AA274">
-        <v>7.4</v>
-      </c>
-      <c r="AB274">
-        <v>1.07</v>
-      </c>
-      <c r="AC274">
-        <v>1.98</v>
-      </c>
-      <c r="AD274">
-        <v>3.54</v>
-      </c>
-      <c r="AE274">
-        <v>3.7</v>
-      </c>
-      <c r="AF274">
-        <v>1.06</v>
-      </c>
-      <c r="AG274">
-        <v>8</v>
-      </c>
-      <c r="AH274">
-        <v>1.3</v>
-      </c>
-      <c r="AI274">
-        <v>3.4</v>
-      </c>
-      <c r="AJ274">
-        <v>1.85</v>
-      </c>
-      <c r="AK274">
-        <v>1.85</v>
-      </c>
-      <c r="AL274">
-        <v>1.81</v>
-      </c>
-      <c r="AM274">
-        <v>1.93</v>
-      </c>
-      <c r="AN274">
-        <v>1.25</v>
-      </c>
-      <c r="AO274">
-        <v>1.3</v>
-      </c>
-      <c r="AP274">
-        <v>1.8</v>
-      </c>
-      <c r="AQ274">
-        <v>1.54</v>
-      </c>
-      <c r="AR274">
-        <v>1.31</v>
-      </c>
-      <c r="AS274">
-        <v>1.53</v>
-      </c>
-      <c r="AT274">
-        <v>1.4</v>
-      </c>
-      <c r="AU274">
-        <v>1.62</v>
-      </c>
-      <c r="AV274">
-        <v>1.15</v>
-      </c>
-      <c r="AW274">
-        <v>2.77</v>
-      </c>
-      <c r="AX274">
-        <v>1.59</v>
-      </c>
-      <c r="AY274">
-        <v>8</v>
-      </c>
-      <c r="AZ274">
-        <v>2.95</v>
-      </c>
-      <c r="BA274">
-        <v>1.25</v>
-      </c>
-      <c r="BB274">
-        <v>1.56</v>
-      </c>
       <c r="BC274">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="BD274">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="BE274">
-        <v>3.28</v>
+        <v>2.93</v>
       </c>
       <c r="BF274">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG274">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH274">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ274">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BK274">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:63">
@@ -53977,7 +53977,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>2435469</v>
+        <v>2435468</v>
       </c>
       <c r="C275" t="s">
         <v>63</v>
@@ -53992,79 +53992,79 @@
         <v>28</v>
       </c>
       <c r="G275" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H275" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J275">
         <v>1</v>
       </c>
       <c r="K275">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L275">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N275">
         <v>5</v>
       </c>
       <c r="O275" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P275" t="s">
-        <v>410</v>
+        <v>164</v>
       </c>
       <c r="Q275">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R275">
+        <v>5</v>
+      </c>
+      <c r="S275">
+        <v>9</v>
+      </c>
+      <c r="T275">
+        <v>2.25</v>
+      </c>
+      <c r="U275">
+        <v>2.3</v>
+      </c>
+      <c r="V275">
+        <v>4.2</v>
+      </c>
+      <c r="W275">
+        <v>1.29</v>
+      </c>
+      <c r="X275">
+        <v>3.3</v>
+      </c>
+      <c r="Y275">
+        <v>2.25</v>
+      </c>
+      <c r="Z275">
+        <v>1.55</v>
+      </c>
+      <c r="AA275">
+        <v>5.25</v>
+      </c>
+      <c r="AB275">
+        <v>1.14</v>
+      </c>
+      <c r="AC275">
+        <v>1.7</v>
+      </c>
+      <c r="AD275">
+        <v>3.8</v>
+      </c>
+      <c r="AE275">
         <v>4</v>
-      </c>
-      <c r="S275">
-        <v>6</v>
-      </c>
-      <c r="T275">
-        <v>3.5</v>
-      </c>
-      <c r="U275">
-        <v>2.25</v>
-      </c>
-      <c r="V275">
-        <v>2.9</v>
-      </c>
-      <c r="W275">
-        <v>1.3</v>
-      </c>
-      <c r="X275">
-        <v>3.2</v>
-      </c>
-      <c r="Y275">
-        <v>2.5</v>
-      </c>
-      <c r="Z275">
-        <v>1.48</v>
-      </c>
-      <c r="AA275">
-        <v>5.95</v>
-      </c>
-      <c r="AB275">
-        <v>1.1</v>
-      </c>
-      <c r="AC275">
-        <v>3</v>
-      </c>
-      <c r="AD275">
-        <v>3.5</v>
-      </c>
-      <c r="AE275">
-        <v>2.25</v>
       </c>
       <c r="AF275">
         <v>1.03</v>
@@ -54073,94 +54073,94 @@
         <v>13</v>
       </c>
       <c r="AH275">
+        <v>1.17</v>
+      </c>
+      <c r="AI275">
+        <v>4.6</v>
+      </c>
+      <c r="AJ275">
+        <v>1.53</v>
+      </c>
+      <c r="AK275">
+        <v>2.3</v>
+      </c>
+      <c r="AL275">
+        <v>1.55</v>
+      </c>
+      <c r="AM275">
+        <v>2.25</v>
+      </c>
+      <c r="AN275">
         <v>1.22</v>
       </c>
-      <c r="AI275">
-        <v>4.2</v>
-      </c>
-      <c r="AJ275">
-        <v>1.7</v>
-      </c>
-      <c r="AK275">
-        <v>2.1</v>
-      </c>
-      <c r="AL275">
-        <v>1.57</v>
-      </c>
-      <c r="AM275">
-        <v>2.35</v>
-      </c>
-      <c r="AN275">
-        <v>1.65</v>
-      </c>
       <c r="AO275">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AP275">
-        <v>1.38</v>
+        <v>2.05</v>
       </c>
       <c r="AQ275">
-        <v>1.23</v>
+        <v>1.77</v>
       </c>
       <c r="AR275">
-        <v>1.23</v>
+        <v>0.85</v>
       </c>
       <c r="AS275">
-        <v>1.07</v>
+        <v>1.73</v>
       </c>
       <c r="AT275">
-        <v>1.33</v>
+        <v>0.79</v>
       </c>
       <c r="AU275">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AV275">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="AW275">
-        <v>2.87</v>
+        <v>2.79</v>
       </c>
       <c r="AX275">
-        <v>2.65</v>
+        <v>1.35</v>
       </c>
       <c r="AY275">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="AZ275">
-        <v>1.7</v>
+        <v>4.15</v>
       </c>
       <c r="BA275">
         <v>1.2</v>
       </c>
       <c r="BB275">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BC275">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="BD275">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="BE275">
         <v>2.93</v>
       </c>
       <c r="BF275">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG275">
         <v>4</v>
       </c>
       <c r="BH275">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BI275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ275">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BK275">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:63">
@@ -54168,7 +54168,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>2435468</v>
+        <v>2435470</v>
       </c>
       <c r="C276" t="s">
         <v>63</v>
@@ -54183,175 +54183,175 @@
         <v>28</v>
       </c>
       <c r="G276" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H276" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I276">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J276">
         <v>1</v>
       </c>
       <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>3</v>
+      </c>
+      <c r="O276" t="s">
+        <v>218</v>
+      </c>
+      <c r="P276" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q276">
+        <v>6</v>
+      </c>
+      <c r="R276">
         <v>4</v>
       </c>
-      <c r="L276">
-        <v>4</v>
-      </c>
-      <c r="M276">
-        <v>1</v>
-      </c>
-      <c r="N276">
-        <v>5</v>
-      </c>
-      <c r="O276" t="s">
-        <v>269</v>
-      </c>
-      <c r="P276" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q276">
-        <v>4</v>
-      </c>
-      <c r="R276">
-        <v>5</v>
-      </c>
       <c r="S276">
+        <v>10</v>
+      </c>
+      <c r="T276">
+        <v>2.56</v>
+      </c>
+      <c r="U276">
+        <v>2.13</v>
+      </c>
+      <c r="V276">
+        <v>4.3</v>
+      </c>
+      <c r="W276">
+        <v>1.4</v>
+      </c>
+      <c r="X276">
+        <v>2.83</v>
+      </c>
+      <c r="Y276">
+        <v>2.88</v>
+      </c>
+      <c r="Z276">
+        <v>1.39</v>
+      </c>
+      <c r="AA276">
+        <v>7.4</v>
+      </c>
+      <c r="AB276">
+        <v>1.07</v>
+      </c>
+      <c r="AC276">
+        <v>1.98</v>
+      </c>
+      <c r="AD276">
+        <v>3.54</v>
+      </c>
+      <c r="AE276">
+        <v>3.7</v>
+      </c>
+      <c r="AF276">
+        <v>1.06</v>
+      </c>
+      <c r="AG276">
+        <v>8</v>
+      </c>
+      <c r="AH276">
+        <v>1.3</v>
+      </c>
+      <c r="AI276">
+        <v>3.4</v>
+      </c>
+      <c r="AJ276">
+        <v>1.85</v>
+      </c>
+      <c r="AK276">
+        <v>1.85</v>
+      </c>
+      <c r="AL276">
+        <v>1.81</v>
+      </c>
+      <c r="AM276">
+        <v>1.93</v>
+      </c>
+      <c r="AN276">
+        <v>1.25</v>
+      </c>
+      <c r="AO276">
+        <v>1.3</v>
+      </c>
+      <c r="AP276">
+        <v>1.8</v>
+      </c>
+      <c r="AQ276">
+        <v>1.54</v>
+      </c>
+      <c r="AR276">
+        <v>1.31</v>
+      </c>
+      <c r="AS276">
+        <v>1.53</v>
+      </c>
+      <c r="AT276">
+        <v>1.4</v>
+      </c>
+      <c r="AU276">
+        <v>1.62</v>
+      </c>
+      <c r="AV276">
+        <v>1.15</v>
+      </c>
+      <c r="AW276">
+        <v>2.77</v>
+      </c>
+      <c r="AX276">
+        <v>1.59</v>
+      </c>
+      <c r="AY276">
+        <v>8</v>
+      </c>
+      <c r="AZ276">
+        <v>2.95</v>
+      </c>
+      <c r="BA276">
+        <v>1.25</v>
+      </c>
+      <c r="BB276">
+        <v>1.56</v>
+      </c>
+      <c r="BC276">
+        <v>1.91</v>
+      </c>
+      <c r="BD276">
+        <v>2.36</v>
+      </c>
+      <c r="BE276">
+        <v>3.28</v>
+      </c>
+      <c r="BF276">
+        <v>6</v>
+      </c>
+      <c r="BG276">
+        <v>7</v>
+      </c>
+      <c r="BH276">
+        <v>7</v>
+      </c>
+      <c r="BI276">
+        <v>2</v>
+      </c>
+      <c r="BJ276">
+        <v>13</v>
+      </c>
+      <c r="BK276">
         <v>9</v>
-      </c>
-      <c r="T276">
-        <v>2.25</v>
-      </c>
-      <c r="U276">
-        <v>2.3</v>
-      </c>
-      <c r="V276">
-        <v>4.2</v>
-      </c>
-      <c r="W276">
-        <v>1.29</v>
-      </c>
-      <c r="X276">
-        <v>3.3</v>
-      </c>
-      <c r="Y276">
-        <v>2.25</v>
-      </c>
-      <c r="Z276">
-        <v>1.55</v>
-      </c>
-      <c r="AA276">
-        <v>5.25</v>
-      </c>
-      <c r="AB276">
-        <v>1.14</v>
-      </c>
-      <c r="AC276">
-        <v>1.7</v>
-      </c>
-      <c r="AD276">
-        <v>3.8</v>
-      </c>
-      <c r="AE276">
-        <v>4</v>
-      </c>
-      <c r="AF276">
-        <v>1.03</v>
-      </c>
-      <c r="AG276">
-        <v>13</v>
-      </c>
-      <c r="AH276">
-        <v>1.17</v>
-      </c>
-      <c r="AI276">
-        <v>4.6</v>
-      </c>
-      <c r="AJ276">
-        <v>1.53</v>
-      </c>
-      <c r="AK276">
-        <v>2.3</v>
-      </c>
-      <c r="AL276">
-        <v>1.55</v>
-      </c>
-      <c r="AM276">
-        <v>2.25</v>
-      </c>
-      <c r="AN276">
-        <v>1.22</v>
-      </c>
-      <c r="AO276">
-        <v>1.24</v>
-      </c>
-      <c r="AP276">
-        <v>2.05</v>
-      </c>
-      <c r="AQ276">
-        <v>1.77</v>
-      </c>
-      <c r="AR276">
-        <v>0.85</v>
-      </c>
-      <c r="AS276">
-        <v>1.73</v>
-      </c>
-      <c r="AT276">
-        <v>0.79</v>
-      </c>
-      <c r="AU276">
-        <v>1.58</v>
-      </c>
-      <c r="AV276">
-        <v>1.21</v>
-      </c>
-      <c r="AW276">
-        <v>2.79</v>
-      </c>
-      <c r="AX276">
-        <v>1.35</v>
-      </c>
-      <c r="AY276">
-        <v>8.9</v>
-      </c>
-      <c r="AZ276">
-        <v>4.15</v>
-      </c>
-      <c r="BA276">
-        <v>1.2</v>
-      </c>
-      <c r="BB276">
-        <v>1.41</v>
-      </c>
-      <c r="BC276">
-        <v>1.75</v>
-      </c>
-      <c r="BD276">
-        <v>2.15</v>
-      </c>
-      <c r="BE276">
-        <v>2.93</v>
-      </c>
-      <c r="BF276">
-        <v>8</v>
-      </c>
-      <c r="BG276">
-        <v>4</v>
-      </c>
-      <c r="BH276">
-        <v>10</v>
-      </c>
-      <c r="BI276">
-        <v>2</v>
-      </c>
-      <c r="BJ276">
-        <v>18</v>
-      </c>
-      <c r="BK276">
-        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:63">
@@ -55123,7 +55123,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>2435478</v>
+        <v>2435479</v>
       </c>
       <c r="C281" t="s">
         <v>63</v>
@@ -55138,10 +55138,10 @@
         <v>30</v>
       </c>
       <c r="G281" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H281" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I281">
         <v>0</v>
@@ -55153,64 +55153,64 @@
         <v>1</v>
       </c>
       <c r="L281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M281">
         <v>1</v>
       </c>
       <c r="N281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O281" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="P281" t="s">
-        <v>412</v>
+        <v>118</v>
       </c>
       <c r="Q281">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R281">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S281">
         <v>7</v>
       </c>
       <c r="T281">
-        <v>2.63</v>
+        <v>4.16</v>
       </c>
       <c r="U281">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="V281">
-        <v>3.86</v>
+        <v>2.52</v>
       </c>
       <c r="W281">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X281">
-        <v>3.14</v>
+        <v>3.05</v>
       </c>
       <c r="Y281">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="Z281">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AA281">
-        <v>6.15</v>
+        <v>6.3</v>
       </c>
       <c r="AB281">
         <v>1.1</v>
       </c>
       <c r="AC281">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AD281">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AE281">
-        <v>3.25</v>
+        <v>1.9</v>
       </c>
       <c r="AF281">
         <v>1.03</v>
@@ -55222,91 +55222,91 @@
         <v>1.22</v>
       </c>
       <c r="AI281">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AJ281">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AK281">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AL281">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AM281">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="AN281">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO281">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AP281">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="AQ281">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="AR281">
-        <v>1.36</v>
+        <v>2.21</v>
       </c>
       <c r="AS281">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="AT281">
-        <v>1.33</v>
+        <v>2.27</v>
       </c>
       <c r="AU281">
-        <v>1.24</v>
+        <v>1.84</v>
       </c>
       <c r="AV281">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="AW281">
-        <v>2.74</v>
+        <v>3.75</v>
       </c>
       <c r="AX281">
-        <v>1.68</v>
+        <v>2.7</v>
       </c>
       <c r="AY281">
+        <v>5.75</v>
+      </c>
+      <c r="AZ281">
+        <v>1.6</v>
+      </c>
+      <c r="BA281">
+        <v>1.25</v>
+      </c>
+      <c r="BB281">
+        <v>1.54</v>
+      </c>
+      <c r="BC281">
+        <v>1.9</v>
+      </c>
+      <c r="BD281">
+        <v>2.35</v>
+      </c>
+      <c r="BE281">
+        <v>3.28</v>
+      </c>
+      <c r="BF281">
+        <v>3</v>
+      </c>
+      <c r="BG281">
+        <v>4</v>
+      </c>
+      <c r="BH281">
+        <v>2</v>
+      </c>
+      <c r="BI281">
         <v>6</v>
       </c>
-      <c r="AZ281">
-        <v>2.5</v>
-      </c>
-      <c r="BA281">
-        <v>1.22</v>
-      </c>
-      <c r="BB281">
-        <v>1.52</v>
-      </c>
-      <c r="BC281">
-        <v>1.83</v>
-      </c>
-      <c r="BD281">
-        <v>2.24</v>
-      </c>
-      <c r="BE281">
-        <v>3.08</v>
-      </c>
-      <c r="BF281">
-        <v>3</v>
-      </c>
-      <c r="BG281">
+      <c r="BJ281">
         <v>5</v>
       </c>
-      <c r="BH281">
-        <v>4</v>
-      </c>
-      <c r="BI281">
-        <v>3</v>
-      </c>
-      <c r="BJ281">
-        <v>7</v>
-      </c>
       <c r="BK281">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:63">
@@ -55314,7 +55314,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>2435480</v>
+        <v>2435482</v>
       </c>
       <c r="C282" t="s">
         <v>63</v>
@@ -55329,175 +55329,175 @@
         <v>30</v>
       </c>
       <c r="G282" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H282" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I282">
         <v>0</v>
       </c>
       <c r="J282">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K282">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" t="s">
+        <v>86</v>
+      </c>
+      <c r="P282" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q282">
         <v>6</v>
       </c>
-      <c r="N282">
+      <c r="R282">
+        <v>2</v>
+      </c>
+      <c r="S282">
         <v>8</v>
       </c>
-      <c r="O282" t="s">
-        <v>274</v>
-      </c>
-      <c r="P282" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q282">
-        <v>3</v>
-      </c>
-      <c r="R282">
-        <v>8</v>
-      </c>
-      <c r="S282">
-        <v>11</v>
-      </c>
       <c r="T282">
-        <v>2.59</v>
+        <v>2.9</v>
       </c>
       <c r="U282">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="V282">
-        <v>3.54</v>
+        <v>3.36</v>
       </c>
       <c r="W282">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="X282">
-        <v>3.64</v>
+        <v>3.22</v>
       </c>
       <c r="Y282">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="Z282">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AA282">
-        <v>4.94</v>
+        <v>5.85</v>
       </c>
       <c r="AB282">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AC282">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="AD282">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="AE282">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="AF282">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG282">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AH282">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AI282">
-        <v>5.25</v>
+        <v>3.9</v>
       </c>
       <c r="AJ282">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AK282">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AL282">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AM282">
+        <v>2.34</v>
+      </c>
+      <c r="AN282">
+        <v>1.45</v>
+      </c>
+      <c r="AO282">
+        <v>1.28</v>
+      </c>
+      <c r="AP282">
+        <v>1.57</v>
+      </c>
+      <c r="AQ282">
+        <v>0.86</v>
+      </c>
+      <c r="AR282">
+        <v>1.07</v>
+      </c>
+      <c r="AS282">
+        <v>0.8</v>
+      </c>
+      <c r="AT282">
+        <v>1.2</v>
+      </c>
+      <c r="AU282">
+        <v>1.41</v>
+      </c>
+      <c r="AV282">
+        <v>1.19</v>
+      </c>
+      <c r="AW282">
         <v>2.6</v>
       </c>
-      <c r="AN282">
-        <v>1.37</v>
-      </c>
-      <c r="AO282">
-        <v>1.26</v>
-      </c>
-      <c r="AP282">
-        <v>1.72</v>
-      </c>
-      <c r="AQ282">
-        <v>1.86</v>
-      </c>
-      <c r="AR282">
-        <v>0.79</v>
-      </c>
-      <c r="AS282">
-        <v>1.73</v>
-      </c>
-      <c r="AT282">
-        <v>0.93</v>
-      </c>
-      <c r="AU282">
-        <v>1.62</v>
-      </c>
-      <c r="AV282">
-        <v>1.6</v>
-      </c>
-      <c r="AW282">
-        <v>3.22</v>
-      </c>
       <c r="AX282">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AY282">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AZ282">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BA282">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BB282">
         <v>1.55</v>
       </c>
       <c r="BC282">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="BD282">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="BE282">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="BF282">
+        <v>3</v>
+      </c>
+      <c r="BG282">
         <v>5</v>
       </c>
-      <c r="BG282">
-        <v>10</v>
-      </c>
       <c r="BH282">
+        <v>3</v>
+      </c>
+      <c r="BI282">
         <v>4</v>
       </c>
-      <c r="BI282">
-        <v>5</v>
-      </c>
       <c r="BJ282">
+        <v>6</v>
+      </c>
+      <c r="BK282">
         <v>9</v>
-      </c>
-      <c r="BK282">
-        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:63">
@@ -55505,7 +55505,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>2435479</v>
+        <v>2435481</v>
       </c>
       <c r="C283" t="s">
         <v>63</v>
@@ -55520,79 +55520,79 @@
         <v>30</v>
       </c>
       <c r="G283" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H283" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K283">
         <v>1</v>
       </c>
       <c r="L283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O283" t="s">
+        <v>273</v>
+      </c>
+      <c r="P283" t="s">
         <v>86</v>
       </c>
-      <c r="P283" t="s">
-        <v>118</v>
-      </c>
       <c r="Q283">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R283">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S283">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T283">
-        <v>4.16</v>
+        <v>2.33</v>
       </c>
       <c r="U283">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="V283">
-        <v>2.52</v>
+        <v>4.68</v>
       </c>
       <c r="W283">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X283">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Y283">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="Z283">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AA283">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
       <c r="AB283">
         <v>1.1</v>
       </c>
       <c r="AC283">
-        <v>3.75</v>
+        <v>1.87</v>
       </c>
       <c r="AD283">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AE283">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="AF283">
         <v>1.03</v>
@@ -55601,94 +55601,94 @@
         <v>13</v>
       </c>
       <c r="AH283">
+        <v>1.25</v>
+      </c>
+      <c r="AI283">
+        <v>3.75</v>
+      </c>
+      <c r="AJ283">
+        <v>1.8</v>
+      </c>
+      <c r="AK283">
+        <v>2</v>
+      </c>
+      <c r="AL283">
+        <v>1.71</v>
+      </c>
+      <c r="AM283">
+        <v>2.08</v>
+      </c>
+      <c r="AN283">
         <v>1.22</v>
       </c>
-      <c r="AI283">
-        <v>4</v>
-      </c>
-      <c r="AJ283">
-        <v>1.75</v>
-      </c>
-      <c r="AK283">
-        <v>2.05</v>
-      </c>
-      <c r="AL283">
-        <v>1.67</v>
-      </c>
-      <c r="AM283">
-        <v>2.14</v>
-      </c>
-      <c r="AN283">
-        <v>1.83</v>
-      </c>
       <c r="AO283">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AP283">
-        <v>1.28</v>
+        <v>2.01</v>
       </c>
       <c r="AQ283">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="AR283">
-        <v>2.21</v>
+        <v>1</v>
       </c>
       <c r="AS283">
         <v>1.53</v>
       </c>
       <c r="AT283">
-        <v>2.27</v>
+        <v>0.93</v>
       </c>
       <c r="AU283">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AV283">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="AW283">
-        <v>3.75</v>
+        <v>3.02</v>
       </c>
       <c r="AX283">
-        <v>2.7</v>
+        <v>1.29</v>
       </c>
       <c r="AY283">
-        <v>5.75</v>
+        <v>6.75</v>
       </c>
       <c r="AZ283">
-        <v>1.6</v>
+        <v>4.05</v>
       </c>
       <c r="BA283">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="BB283">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="BC283">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="BD283">
-        <v>2.35</v>
+        <v>2.09</v>
       </c>
       <c r="BE283">
-        <v>3.28</v>
+        <v>2.76</v>
       </c>
       <c r="BF283">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG283">
+        <v>3</v>
+      </c>
+      <c r="BH283">
         <v>4</v>
       </c>
-      <c r="BH283">
-        <v>2</v>
-      </c>
       <c r="BI283">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ283">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK283">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:63">
@@ -55738,7 +55738,7 @@
         <v>98</v>
       </c>
       <c r="P284" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Q284">
         <v>7</v>
@@ -55887,7 +55887,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>2435481</v>
+        <v>2435478</v>
       </c>
       <c r="C285" t="s">
         <v>63</v>
@@ -55902,79 +55902,79 @@
         <v>30</v>
       </c>
       <c r="G285" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H285" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K285">
         <v>1</v>
       </c>
       <c r="L285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N285">
         <v>2</v>
       </c>
       <c r="O285" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P285" t="s">
-        <v>86</v>
+        <v>413</v>
       </c>
       <c r="Q285">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R285">
         <v>5</v>
       </c>
       <c r="S285">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T285">
-        <v>2.33</v>
+        <v>2.63</v>
       </c>
       <c r="U285">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V285">
-        <v>4.68</v>
+        <v>3.86</v>
       </c>
       <c r="W285">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X285">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="Y285">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="Z285">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AA285">
-        <v>6.25</v>
+        <v>6.15</v>
       </c>
       <c r="AB285">
         <v>1.1</v>
       </c>
       <c r="AC285">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AD285">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AE285">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AF285">
         <v>1.03</v>
@@ -55983,94 +55983,94 @@
         <v>13</v>
       </c>
       <c r="AH285">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI285">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AJ285">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AK285">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AL285">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AM285">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="AN285">
+        <v>1.33</v>
+      </c>
+      <c r="AO285">
+        <v>1.29</v>
+      </c>
+      <c r="AP285">
+        <v>1.73</v>
+      </c>
+      <c r="AQ285">
+        <v>1.93</v>
+      </c>
+      <c r="AR285">
+        <v>1.36</v>
+      </c>
+      <c r="AS285">
+        <v>1.87</v>
+      </c>
+      <c r="AT285">
+        <v>1.33</v>
+      </c>
+      <c r="AU285">
+        <v>1.24</v>
+      </c>
+      <c r="AV285">
+        <v>1.5</v>
+      </c>
+      <c r="AW285">
+        <v>2.74</v>
+      </c>
+      <c r="AX285">
+        <v>1.68</v>
+      </c>
+      <c r="AY285">
+        <v>6</v>
+      </c>
+      <c r="AZ285">
+        <v>2.5</v>
+      </c>
+      <c r="BA285">
         <v>1.22</v>
       </c>
-      <c r="AO285">
-        <v>1.26</v>
-      </c>
-      <c r="AP285">
-        <v>2.01</v>
-      </c>
-      <c r="AQ285">
-        <v>1.43</v>
-      </c>
-      <c r="AR285">
-        <v>1</v>
-      </c>
-      <c r="AS285">
-        <v>1.53</v>
-      </c>
-      <c r="AT285">
-        <v>0.93</v>
-      </c>
-      <c r="AU285">
-        <v>1.64</v>
-      </c>
-      <c r="AV285">
-        <v>1.38</v>
-      </c>
-      <c r="AW285">
-        <v>3.02</v>
-      </c>
-      <c r="AX285">
-        <v>1.29</v>
-      </c>
-      <c r="AY285">
-        <v>6.75</v>
-      </c>
-      <c r="AZ285">
-        <v>4.05</v>
-      </c>
-      <c r="BA285">
-        <v>1.21</v>
-      </c>
       <c r="BB285">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="BC285">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="BD285">
-        <v>2.09</v>
+        <v>2.24</v>
       </c>
       <c r="BE285">
-        <v>2.76</v>
+        <v>3.08</v>
       </c>
       <c r="BF285">
+        <v>3</v>
+      </c>
+      <c r="BG285">
         <v>5</v>
-      </c>
-      <c r="BG285">
-        <v>3</v>
       </c>
       <c r="BH285">
         <v>4</v>
       </c>
       <c r="BI285">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ285">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BK285">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:63">
@@ -56078,7 +56078,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>2435482</v>
+        <v>2435480</v>
       </c>
       <c r="C286" t="s">
         <v>63</v>
@@ -56093,175 +56093,175 @@
         <v>30</v>
       </c>
       <c r="G286" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H286" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K286">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M286">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N286">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O286" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="P286" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="Q286">
+        <v>3</v>
+      </c>
+      <c r="R286">
+        <v>8</v>
+      </c>
+      <c r="S286">
+        <v>11</v>
+      </c>
+      <c r="T286">
+        <v>2.59</v>
+      </c>
+      <c r="U286">
+        <v>2.4</v>
+      </c>
+      <c r="V286">
+        <v>3.54</v>
+      </c>
+      <c r="W286">
+        <v>1.26</v>
+      </c>
+      <c r="X286">
+        <v>3.64</v>
+      </c>
+      <c r="Y286">
+        <v>2.23</v>
+      </c>
+      <c r="Z286">
+        <v>1.62</v>
+      </c>
+      <c r="AA286">
+        <v>4.94</v>
+      </c>
+      <c r="AB286">
+        <v>1.16</v>
+      </c>
+      <c r="AC286">
+        <v>2.05</v>
+      </c>
+      <c r="AD286">
+        <v>3.65</v>
+      </c>
+      <c r="AE286">
+        <v>3.05</v>
+      </c>
+      <c r="AF286">
+        <v>1.02</v>
+      </c>
+      <c r="AG286">
+        <v>20</v>
+      </c>
+      <c r="AH286">
+        <v>1.15</v>
+      </c>
+      <c r="AI286">
+        <v>5.25</v>
+      </c>
+      <c r="AJ286">
+        <v>1.5</v>
+      </c>
+      <c r="AK286">
+        <v>2.4</v>
+      </c>
+      <c r="AL286">
+        <v>1.47</v>
+      </c>
+      <c r="AM286">
+        <v>2.6</v>
+      </c>
+      <c r="AN286">
+        <v>1.37</v>
+      </c>
+      <c r="AO286">
+        <v>1.26</v>
+      </c>
+      <c r="AP286">
+        <v>1.72</v>
+      </c>
+      <c r="AQ286">
+        <v>1.86</v>
+      </c>
+      <c r="AR286">
+        <v>0.79</v>
+      </c>
+      <c r="AS286">
+        <v>1.73</v>
+      </c>
+      <c r="AT286">
+        <v>0.93</v>
+      </c>
+      <c r="AU286">
+        <v>1.62</v>
+      </c>
+      <c r="AV286">
+        <v>1.6</v>
+      </c>
+      <c r="AW286">
+        <v>3.22</v>
+      </c>
+      <c r="AX286">
+        <v>1.51</v>
+      </c>
+      <c r="AY286">
         <v>6</v>
       </c>
-      <c r="R286">
-        <v>2</v>
-      </c>
-      <c r="S286">
-        <v>8</v>
-      </c>
-      <c r="T286">
-        <v>2.9</v>
-      </c>
-      <c r="U286">
-        <v>2.26</v>
-      </c>
-      <c r="V286">
-        <v>3.36</v>
-      </c>
-      <c r="W286">
-        <v>1.32</v>
-      </c>
-      <c r="X286">
-        <v>3.22</v>
-      </c>
-      <c r="Y286">
-        <v>2.49</v>
-      </c>
-      <c r="Z286">
-        <v>1.5</v>
-      </c>
-      <c r="AA286">
-        <v>5.85</v>
-      </c>
-      <c r="AB286">
-        <v>1.11</v>
-      </c>
-      <c r="AC286">
-        <v>2.32</v>
-      </c>
-      <c r="AD286">
-        <v>0</v>
-      </c>
-      <c r="AE286">
-        <v>2.67</v>
-      </c>
-      <c r="AF286">
-        <v>1.03</v>
-      </c>
-      <c r="AG286">
-        <v>14</v>
-      </c>
-      <c r="AH286">
-        <v>1.22</v>
-      </c>
-      <c r="AI286">
-        <v>3.9</v>
-      </c>
-      <c r="AJ286">
-        <v>1.7</v>
-      </c>
-      <c r="AK286">
-        <v>2</v>
-      </c>
-      <c r="AL286">
-        <v>1.57</v>
-      </c>
-      <c r="AM286">
-        <v>2.34</v>
-      </c>
-      <c r="AN286">
-        <v>1.45</v>
-      </c>
-      <c r="AO286">
-        <v>1.28</v>
-      </c>
-      <c r="AP286">
-        <v>1.57</v>
-      </c>
-      <c r="AQ286">
-        <v>0.86</v>
-      </c>
-      <c r="AR286">
-        <v>1.07</v>
-      </c>
-      <c r="AS286">
-        <v>0.8</v>
-      </c>
-      <c r="AT286">
-        <v>1.2</v>
-      </c>
-      <c r="AU286">
-        <v>1.41</v>
-      </c>
-      <c r="AV286">
-        <v>1.19</v>
-      </c>
-      <c r="AW286">
-        <v>2.6</v>
-      </c>
-      <c r="AX286">
-        <v>1.68</v>
-      </c>
-      <c r="AY286">
-        <v>5.75</v>
-      </c>
       <c r="AZ286">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BA286">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BB286">
         <v>1.55</v>
       </c>
       <c r="BC286">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="BD286">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="BE286">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="BF286">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG286">
+        <v>10</v>
+      </c>
+      <c r="BH286">
+        <v>4</v>
+      </c>
+      <c r="BI286">
         <v>5</v>
       </c>
-      <c r="BH286">
-        <v>3</v>
-      </c>
-      <c r="BI286">
-        <v>4</v>
-      </c>
       <c r="BJ286">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK286">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:63">
@@ -56269,7 +56269,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>2435484</v>
+        <v>2435485</v>
       </c>
       <c r="C287" t="s">
         <v>63</v>
@@ -56284,175 +56284,175 @@
         <v>29</v>
       </c>
       <c r="G287" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H287" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N287">
         <v>4</v>
       </c>
       <c r="O287" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="P287" t="s">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="Q287">
         <v>5</v>
       </c>
       <c r="R287">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S287">
+        <v>8</v>
+      </c>
+      <c r="T287">
+        <v>3.18</v>
+      </c>
+      <c r="U287">
+        <v>2.03</v>
+      </c>
+      <c r="V287">
+        <v>3.5</v>
+      </c>
+      <c r="W287">
+        <v>1.44</v>
+      </c>
+      <c r="X287">
+        <v>2.6</v>
+      </c>
+      <c r="Y287">
+        <v>3.05</v>
+      </c>
+      <c r="Z287">
+        <v>1.33</v>
+      </c>
+      <c r="AA287">
+        <v>7.9</v>
+      </c>
+      <c r="AB287">
+        <v>1.05</v>
+      </c>
+      <c r="AC287">
+        <v>2.6</v>
+      </c>
+      <c r="AD287">
+        <v>3.25</v>
+      </c>
+      <c r="AE287">
+        <v>2.84</v>
+      </c>
+      <c r="AF287">
+        <v>1.06</v>
+      </c>
+      <c r="AG287">
+        <v>9</v>
+      </c>
+      <c r="AH287">
+        <v>1.38</v>
+      </c>
+      <c r="AI287">
+        <v>3</v>
+      </c>
+      <c r="AJ287">
+        <v>2.05</v>
+      </c>
+      <c r="AK287">
+        <v>1.68</v>
+      </c>
+      <c r="AL287">
+        <v>1.87</v>
+      </c>
+      <c r="AM287">
+        <v>1.87</v>
+      </c>
+      <c r="AN287">
+        <v>1.44</v>
+      </c>
+      <c r="AO287">
+        <v>1.33</v>
+      </c>
+      <c r="AP287">
+        <v>1.51</v>
+      </c>
+      <c r="AQ287">
+        <v>1.64</v>
+      </c>
+      <c r="AR287">
+        <v>1.43</v>
+      </c>
+      <c r="AS287">
+        <v>1.6</v>
+      </c>
+      <c r="AT287">
+        <v>1.4</v>
+      </c>
+      <c r="AU287">
+        <v>1.45</v>
+      </c>
+      <c r="AV287">
+        <v>1.16</v>
+      </c>
+      <c r="AW287">
+        <v>2.61</v>
+      </c>
+      <c r="AX287">
+        <v>2.4</v>
+      </c>
+      <c r="AY287">
+        <v>7.5</v>
+      </c>
+      <c r="AZ287">
+        <v>1.84</v>
+      </c>
+      <c r="BA287">
+        <v>1.3</v>
+      </c>
+      <c r="BB287">
+        <v>1.62</v>
+      </c>
+      <c r="BC287">
+        <v>1.99</v>
+      </c>
+      <c r="BD287">
+        <v>2.48</v>
+      </c>
+      <c r="BE287">
+        <v>3.48</v>
+      </c>
+      <c r="BF287">
+        <v>4</v>
+      </c>
+      <c r="BG287">
+        <v>6</v>
+      </c>
+      <c r="BH287">
+        <v>4</v>
+      </c>
+      <c r="BI287">
+        <v>4</v>
+      </c>
+      <c r="BJ287">
+        <v>8</v>
+      </c>
+      <c r="BK287">
         <v>10</v>
-      </c>
-      <c r="T287">
-        <v>2.66</v>
-      </c>
-      <c r="U287">
-        <v>2.25</v>
-      </c>
-      <c r="V287">
-        <v>3.68</v>
-      </c>
-      <c r="W287">
-        <v>1.32</v>
-      </c>
-      <c r="X287">
-        <v>3.1</v>
-      </c>
-      <c r="Y287">
-        <v>2.55</v>
-      </c>
-      <c r="Z287">
-        <v>1.46</v>
-      </c>
-      <c r="AA287">
-        <v>5.95</v>
-      </c>
-      <c r="AB287">
-        <v>1.1</v>
-      </c>
-      <c r="AC287">
-        <v>2.22</v>
-      </c>
-      <c r="AD287">
-        <v>3.45</v>
-      </c>
-      <c r="AE287">
-        <v>3.27</v>
-      </c>
-      <c r="AF287">
-        <v>1.03</v>
-      </c>
-      <c r="AG287">
-        <v>13</v>
-      </c>
-      <c r="AH287">
-        <v>1.22</v>
-      </c>
-      <c r="AI287">
-        <v>4</v>
-      </c>
-      <c r="AJ287">
-        <v>1.68</v>
-      </c>
-      <c r="AK287">
-        <v>2.1</v>
-      </c>
-      <c r="AL287">
-        <v>1.61</v>
-      </c>
-      <c r="AM287">
-        <v>2.23</v>
-      </c>
-      <c r="AN287">
-        <v>1.35</v>
-      </c>
-      <c r="AO287">
-        <v>1.29</v>
-      </c>
-      <c r="AP287">
-        <v>1.7</v>
-      </c>
-      <c r="AQ287">
-        <v>1.43</v>
-      </c>
-      <c r="AR287">
-        <v>0.86</v>
-      </c>
-      <c r="AS287">
-        <v>1.53</v>
-      </c>
-      <c r="AT287">
-        <v>0.8</v>
-      </c>
-      <c r="AU287">
-        <v>1.43</v>
-      </c>
-      <c r="AV287">
-        <v>1.02</v>
-      </c>
-      <c r="AW287">
-        <v>2.45</v>
-      </c>
-      <c r="AX287">
-        <v>1.72</v>
-      </c>
-      <c r="AY287">
-        <v>7.7</v>
-      </c>
-      <c r="AZ287">
-        <v>2.62</v>
-      </c>
-      <c r="BA287">
-        <v>1.23</v>
-      </c>
-      <c r="BB287">
-        <v>1.52</v>
-      </c>
-      <c r="BC287">
-        <v>1.84</v>
-      </c>
-      <c r="BD287">
-        <v>2.25</v>
-      </c>
-      <c r="BE287">
-        <v>3.15</v>
-      </c>
-      <c r="BF287">
-        <v>7</v>
-      </c>
-      <c r="BG287">
-        <v>4</v>
-      </c>
-      <c r="BH287">
-        <v>8</v>
-      </c>
-      <c r="BI287">
-        <v>10</v>
-      </c>
-      <c r="BJ287">
-        <v>15</v>
-      </c>
-      <c r="BK287">
-        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:63">
@@ -56460,7 +56460,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>2435485</v>
+        <v>2435484</v>
       </c>
       <c r="C288" t="s">
         <v>63</v>
@@ -56475,175 +56475,175 @@
         <v>29</v>
       </c>
       <c r="G288" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H288" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N288">
         <v>4</v>
       </c>
       <c r="O288" t="s">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="P288" t="s">
-        <v>415</v>
+        <v>345</v>
       </c>
       <c r="Q288">
         <v>5</v>
       </c>
       <c r="R288">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S288">
+        <v>10</v>
+      </c>
+      <c r="T288">
+        <v>2.66</v>
+      </c>
+      <c r="U288">
+        <v>2.25</v>
+      </c>
+      <c r="V288">
+        <v>3.68</v>
+      </c>
+      <c r="W288">
+        <v>1.32</v>
+      </c>
+      <c r="X288">
+        <v>3.1</v>
+      </c>
+      <c r="Y288">
+        <v>2.55</v>
+      </c>
+      <c r="Z288">
+        <v>1.46</v>
+      </c>
+      <c r="AA288">
+        <v>5.95</v>
+      </c>
+      <c r="AB288">
+        <v>1.1</v>
+      </c>
+      <c r="AC288">
+        <v>2.22</v>
+      </c>
+      <c r="AD288">
+        <v>3.45</v>
+      </c>
+      <c r="AE288">
+        <v>3.27</v>
+      </c>
+      <c r="AF288">
+        <v>1.03</v>
+      </c>
+      <c r="AG288">
+        <v>13</v>
+      </c>
+      <c r="AH288">
+        <v>1.22</v>
+      </c>
+      <c r="AI288">
+        <v>4</v>
+      </c>
+      <c r="AJ288">
+        <v>1.68</v>
+      </c>
+      <c r="AK288">
+        <v>2.1</v>
+      </c>
+      <c r="AL288">
+        <v>1.61</v>
+      </c>
+      <c r="AM288">
+        <v>2.23</v>
+      </c>
+      <c r="AN288">
+        <v>1.35</v>
+      </c>
+      <c r="AO288">
+        <v>1.29</v>
+      </c>
+      <c r="AP288">
+        <v>1.7</v>
+      </c>
+      <c r="AQ288">
+        <v>1.43</v>
+      </c>
+      <c r="AR288">
+        <v>0.86</v>
+      </c>
+      <c r="AS288">
+        <v>1.53</v>
+      </c>
+      <c r="AT288">
+        <v>0.8</v>
+      </c>
+      <c r="AU288">
+        <v>1.43</v>
+      </c>
+      <c r="AV288">
+        <v>1.02</v>
+      </c>
+      <c r="AW288">
+        <v>2.45</v>
+      </c>
+      <c r="AX288">
+        <v>1.72</v>
+      </c>
+      <c r="AY288">
+        <v>7.7</v>
+      </c>
+      <c r="AZ288">
+        <v>2.62</v>
+      </c>
+      <c r="BA288">
+        <v>1.23</v>
+      </c>
+      <c r="BB288">
+        <v>1.52</v>
+      </c>
+      <c r="BC288">
+        <v>1.84</v>
+      </c>
+      <c r="BD288">
+        <v>2.25</v>
+      </c>
+      <c r="BE288">
+        <v>3.15</v>
+      </c>
+      <c r="BF288">
+        <v>7</v>
+      </c>
+      <c r="BG288">
+        <v>4</v>
+      </c>
+      <c r="BH288">
         <v>8</v>
       </c>
-      <c r="T288">
-        <v>3.18</v>
-      </c>
-      <c r="U288">
-        <v>2.03</v>
-      </c>
-      <c r="V288">
-        <v>3.5</v>
-      </c>
-      <c r="W288">
-        <v>1.44</v>
-      </c>
-      <c r="X288">
-        <v>2.6</v>
-      </c>
-      <c r="Y288">
-        <v>3.05</v>
-      </c>
-      <c r="Z288">
-        <v>1.33</v>
-      </c>
-      <c r="AA288">
-        <v>7.9</v>
-      </c>
-      <c r="AB288">
-        <v>1.05</v>
-      </c>
-      <c r="AC288">
-        <v>2.6</v>
-      </c>
-      <c r="AD288">
-        <v>3.25</v>
-      </c>
-      <c r="AE288">
-        <v>2.84</v>
-      </c>
-      <c r="AF288">
-        <v>1.06</v>
-      </c>
-      <c r="AG288">
-        <v>9</v>
-      </c>
-      <c r="AH288">
-        <v>1.38</v>
-      </c>
-      <c r="AI288">
-        <v>3</v>
-      </c>
-      <c r="AJ288">
-        <v>2.05</v>
-      </c>
-      <c r="AK288">
-        <v>1.68</v>
-      </c>
-      <c r="AL288">
-        <v>1.87</v>
-      </c>
-      <c r="AM288">
-        <v>1.87</v>
-      </c>
-      <c r="AN288">
-        <v>1.44</v>
-      </c>
-      <c r="AO288">
-        <v>1.33</v>
-      </c>
-      <c r="AP288">
-        <v>1.51</v>
-      </c>
-      <c r="AQ288">
-        <v>1.64</v>
-      </c>
-      <c r="AR288">
-        <v>1.43</v>
-      </c>
-      <c r="AS288">
-        <v>1.6</v>
-      </c>
-      <c r="AT288">
-        <v>1.4</v>
-      </c>
-      <c r="AU288">
-        <v>1.45</v>
-      </c>
-      <c r="AV288">
-        <v>1.16</v>
-      </c>
-      <c r="AW288">
-        <v>2.61</v>
-      </c>
-      <c r="AX288">
-        <v>2.4</v>
-      </c>
-      <c r="AY288">
-        <v>7.5</v>
-      </c>
-      <c r="AZ288">
-        <v>1.84</v>
-      </c>
-      <c r="BA288">
-        <v>1.3</v>
-      </c>
-      <c r="BB288">
-        <v>1.62</v>
-      </c>
-      <c r="BC288">
-        <v>1.99</v>
-      </c>
-      <c r="BD288">
-        <v>2.48</v>
-      </c>
-      <c r="BE288">
-        <v>3.48</v>
-      </c>
-      <c r="BF288">
-        <v>4</v>
-      </c>
-      <c r="BG288">
-        <v>6</v>
-      </c>
-      <c r="BH288">
-        <v>4</v>
-      </c>
       <c r="BI288">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BJ288">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BK288">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" spans="1:63">
@@ -56651,7 +56651,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>2435486</v>
+        <v>2435483</v>
       </c>
       <c r="C289" t="s">
         <v>63</v>
@@ -56666,175 +56666,175 @@
         <v>29</v>
       </c>
       <c r="G289" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H289" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289">
         <v>0</v>
       </c>
       <c r="K289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L289">
         <v>1</v>
       </c>
       <c r="M289">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N289">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O289" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P289" t="s">
-        <v>86</v>
+        <v>416</v>
       </c>
       <c r="Q289">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R289">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S289">
         <v>9</v>
       </c>
       <c r="T289">
-        <v>2.67</v>
+        <v>4.16</v>
       </c>
       <c r="U289">
-        <v>2.39</v>
+        <v>2.21</v>
       </c>
       <c r="V289">
-        <v>3.34</v>
+        <v>2.55</v>
       </c>
       <c r="W289">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="X289">
+        <v>3</v>
+      </c>
+      <c r="Y289">
+        <v>2.64</v>
+      </c>
+      <c r="Z289">
+        <v>1.45</v>
+      </c>
+      <c r="AA289">
+        <v>6.5</v>
+      </c>
+      <c r="AB289">
+        <v>1.09</v>
+      </c>
+      <c r="AC289">
+        <v>3.8</v>
+      </c>
+      <c r="AD289">
+        <v>3.58</v>
+      </c>
+      <c r="AE289">
+        <v>1.96</v>
+      </c>
+      <c r="AF289">
+        <v>1.01</v>
+      </c>
+      <c r="AG289">
+        <v>9.9</v>
+      </c>
+      <c r="AH289">
+        <v>1.23</v>
+      </c>
+      <c r="AI289">
         <v>3.64</v>
       </c>
-      <c r="Y289">
-        <v>2.23</v>
-      </c>
-      <c r="Z289">
-        <v>1.62</v>
-      </c>
-      <c r="AA289">
-        <v>4.95</v>
-      </c>
-      <c r="AB289">
-        <v>1.15</v>
-      </c>
-      <c r="AC289">
-        <v>2.2</v>
-      </c>
-      <c r="AD289">
-        <v>3.82</v>
-      </c>
-      <c r="AE289">
-        <v>3</v>
-      </c>
-      <c r="AF289">
-        <v>1.02</v>
-      </c>
-      <c r="AG289">
-        <v>16</v>
-      </c>
-      <c r="AH289">
-        <v>1.13</v>
-      </c>
-      <c r="AI289">
-        <v>4.85</v>
-      </c>
       <c r="AJ289">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="AK289">
-        <v>2.35</v>
+        <v>2.02</v>
       </c>
       <c r="AL289">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="AM289">
-        <v>2.6</v>
+        <v>2.11</v>
       </c>
       <c r="AN289">
-        <v>1.42</v>
+        <v>1.81</v>
       </c>
       <c r="AO289">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AP289">
+        <v>1.29</v>
+      </c>
+      <c r="AQ289">
+        <v>1.36</v>
+      </c>
+      <c r="AR289">
+        <v>1.29</v>
+      </c>
+      <c r="AS289">
+        <v>1.27</v>
+      </c>
+      <c r="AT289">
+        <v>1.4</v>
+      </c>
+      <c r="AU289">
+        <v>1.79</v>
+      </c>
+      <c r="AV289">
+        <v>1.49</v>
+      </c>
+      <c r="AW289">
+        <v>3.28</v>
+      </c>
+      <c r="AX289">
+        <v>2.79</v>
+      </c>
+      <c r="AY289">
+        <v>7.8</v>
+      </c>
+      <c r="AZ289">
         <v>1.65</v>
-      </c>
-      <c r="AQ289">
-        <v>2.14</v>
-      </c>
-      <c r="AR289">
-        <v>0.62</v>
-      </c>
-      <c r="AS289">
-        <v>2.2</v>
-      </c>
-      <c r="AT289">
-        <v>0.57</v>
-      </c>
-      <c r="AU289">
-        <v>1.32</v>
-      </c>
-      <c r="AV289">
-        <v>1.28</v>
-      </c>
-      <c r="AW289">
-        <v>2.6</v>
-      </c>
-      <c r="AX289">
-        <v>1.95</v>
-      </c>
-      <c r="AY289">
-        <v>7.6</v>
-      </c>
-      <c r="AZ289">
-        <v>2.23</v>
       </c>
       <c r="BA289">
         <v>1.24</v>
       </c>
       <c r="BB289">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="BC289">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="BD289">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="BE289">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BF289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG289">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH289">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI289">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BJ289">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BK289">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:63">
@@ -56842,7 +56842,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>2435483</v>
+        <v>2435492</v>
       </c>
       <c r="C290" t="s">
         <v>63</v>
@@ -56857,175 +56857,175 @@
         <v>29</v>
       </c>
       <c r="G290" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H290" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290">
         <v>1</v>
       </c>
       <c r="L290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N290">
+        <v>3</v>
+      </c>
+      <c r="O290" t="s">
+        <v>277</v>
+      </c>
+      <c r="P290" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q290">
+        <v>3</v>
+      </c>
+      <c r="R290">
+        <v>12</v>
+      </c>
+      <c r="S290">
+        <v>15</v>
+      </c>
+      <c r="T290">
         <v>4</v>
       </c>
-      <c r="O290" t="s">
-        <v>216</v>
-      </c>
-      <c r="P290" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q290">
-        <v>7</v>
-      </c>
-      <c r="R290">
-        <v>2</v>
-      </c>
-      <c r="S290">
-        <v>9</v>
-      </c>
-      <c r="T290">
-        <v>4.16</v>
-      </c>
       <c r="U290">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="V290">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="W290">
+        <v>1.33</v>
+      </c>
+      <c r="X290">
+        <v>3.16</v>
+      </c>
+      <c r="Y290">
+        <v>2.52</v>
+      </c>
+      <c r="Z290">
+        <v>1.49</v>
+      </c>
+      <c r="AA290">
+        <v>6</v>
+      </c>
+      <c r="AB290">
+        <v>1.11</v>
+      </c>
+      <c r="AC290">
+        <v>3.94</v>
+      </c>
+      <c r="AD290">
+        <v>3.74</v>
+      </c>
+      <c r="AE290">
+        <v>1.85</v>
+      </c>
+      <c r="AF290">
+        <v>1.02</v>
+      </c>
+      <c r="AG290">
+        <v>15</v>
+      </c>
+      <c r="AH290">
+        <v>1.2</v>
+      </c>
+      <c r="AI290">
+        <v>3.92</v>
+      </c>
+      <c r="AJ290">
+        <v>1.7</v>
+      </c>
+      <c r="AK290">
+        <v>2.05</v>
+      </c>
+      <c r="AL290">
+        <v>1.66</v>
+      </c>
+      <c r="AM290">
+        <v>2.16</v>
+      </c>
+      <c r="AN290">
+        <v>1.96</v>
+      </c>
+      <c r="AO290">
+        <v>1.29</v>
+      </c>
+      <c r="AP290">
+        <v>1.25</v>
+      </c>
+      <c r="AQ290">
+        <v>1.21</v>
+      </c>
+      <c r="AR290">
+        <v>1.14</v>
+      </c>
+      <c r="AS290">
+        <v>1.33</v>
+      </c>
+      <c r="AT290">
+        <v>1.07</v>
+      </c>
+      <c r="AU290">
         <v>1.36</v>
       </c>
-      <c r="X290">
-        <v>3</v>
-      </c>
-      <c r="Y290">
-        <v>2.64</v>
-      </c>
-      <c r="Z290">
-        <v>1.45</v>
-      </c>
-      <c r="AA290">
-        <v>6.5</v>
-      </c>
-      <c r="AB290">
-        <v>1.09</v>
-      </c>
-      <c r="AC290">
-        <v>3.8</v>
-      </c>
-      <c r="AD290">
-        <v>3.58</v>
-      </c>
-      <c r="AE290">
-        <v>1.96</v>
-      </c>
-      <c r="AF290">
-        <v>1.01</v>
-      </c>
-      <c r="AG290">
-        <v>9.9</v>
-      </c>
-      <c r="AH290">
-        <v>1.23</v>
-      </c>
-      <c r="AI290">
-        <v>3.64</v>
-      </c>
-      <c r="AJ290">
-        <v>1.81</v>
-      </c>
-      <c r="AK290">
-        <v>2.02</v>
-      </c>
-      <c r="AL290">
-        <v>1.69</v>
-      </c>
-      <c r="AM290">
-        <v>2.11</v>
-      </c>
-      <c r="AN290">
-        <v>1.81</v>
-      </c>
-      <c r="AO290">
-        <v>1.3</v>
-      </c>
-      <c r="AP290">
-        <v>1.29</v>
-      </c>
-      <c r="AQ290">
-        <v>1.36</v>
-      </c>
-      <c r="AR290">
-        <v>1.29</v>
-      </c>
-      <c r="AS290">
+      <c r="AV290">
+        <v>1.61</v>
+      </c>
+      <c r="AW290">
+        <v>2.97</v>
+      </c>
+      <c r="AX290">
+        <v>3.14</v>
+      </c>
+      <c r="AY290">
+        <v>8</v>
+      </c>
+      <c r="AZ290">
+        <v>1.54</v>
+      </c>
+      <c r="BA290">
         <v>1.27</v>
       </c>
-      <c r="AT290">
-        <v>1.4</v>
-      </c>
-      <c r="AU290">
-        <v>1.79</v>
-      </c>
-      <c r="AV290">
-        <v>1.49</v>
-      </c>
-      <c r="AW290">
-        <v>3.28</v>
-      </c>
-      <c r="AX290">
-        <v>2.79</v>
-      </c>
-      <c r="AY290">
-        <v>7.8</v>
-      </c>
-      <c r="AZ290">
-        <v>1.65</v>
-      </c>
-      <c r="BA290">
-        <v>1.24</v>
-      </c>
       <c r="BB290">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="BC290">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="BD290">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="BE290">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="BF290">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG290">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH290">
         <v>7</v>
       </c>
       <c r="BI290">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ290">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK290">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="1:63">
@@ -57033,7 +57033,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>2435487</v>
+        <v>2435486</v>
       </c>
       <c r="C291" t="s">
         <v>63</v>
@@ -57048,10 +57048,10 @@
         <v>29</v>
       </c>
       <c r="G291" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H291" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -57066,157 +57066,157 @@
         <v>1</v>
       </c>
       <c r="M291">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N291">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O291" t="s">
         <v>206</v>
       </c>
       <c r="P291" t="s">
-        <v>417</v>
+        <v>86</v>
       </c>
       <c r="Q291">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R291">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S291">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T291">
-        <v>5.3</v>
+        <v>2.67</v>
       </c>
       <c r="U291">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="V291">
-        <v>2.02</v>
+        <v>3.34</v>
       </c>
       <c r="W291">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="X291">
-        <v>3.45</v>
+        <v>3.64</v>
       </c>
       <c r="Y291">
-        <v>2.34</v>
+        <v>2.23</v>
       </c>
       <c r="Z291">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AA291">
-        <v>5.35</v>
+        <v>4.95</v>
       </c>
       <c r="AB291">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AC291">
-        <v>5.65</v>
+        <v>2.2</v>
       </c>
       <c r="AD291">
-        <v>4.25</v>
+        <v>3.82</v>
       </c>
       <c r="AE291">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="AF291">
         <v>1.02</v>
       </c>
       <c r="AG291">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH291">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AI291">
-        <v>4.45</v>
+        <v>4.85</v>
       </c>
       <c r="AJ291">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AK291">
+        <v>2.35</v>
+      </c>
+      <c r="AL291">
+        <v>1.46</v>
+      </c>
+      <c r="AM291">
+        <v>2.6</v>
+      </c>
+      <c r="AN291">
+        <v>1.42</v>
+      </c>
+      <c r="AO291">
+        <v>1.26</v>
+      </c>
+      <c r="AP291">
+        <v>1.65</v>
+      </c>
+      <c r="AQ291">
+        <v>2.14</v>
+      </c>
+      <c r="AR291">
+        <v>0.62</v>
+      </c>
+      <c r="AS291">
         <v>2.2</v>
       </c>
-      <c r="AL291">
-        <v>1.71</v>
-      </c>
-      <c r="AM291">
-        <v>2.14</v>
-      </c>
-      <c r="AN291">
-        <v>2.48</v>
-      </c>
-      <c r="AO291">
-        <v>1.21</v>
-      </c>
-      <c r="AP291">
-        <v>1.14</v>
-      </c>
-      <c r="AQ291">
-        <v>1.14</v>
-      </c>
-      <c r="AR291">
-        <v>1.79</v>
-      </c>
-      <c r="AS291">
-        <v>1.07</v>
-      </c>
       <c r="AT291">
-        <v>1.87</v>
+        <v>0.57</v>
       </c>
       <c r="AU291">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AV291">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="AW291">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="AX291">
-        <v>4.8</v>
+        <v>1.95</v>
       </c>
       <c r="AY291">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AZ291">
-        <v>1.28</v>
+        <v>2.23</v>
       </c>
       <c r="BA291">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BB291">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BC291">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="BD291">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="BE291">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="BF291">
         <v>2</v>
       </c>
       <c r="BG291">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BH291">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI291">
+        <v>2</v>
+      </c>
+      <c r="BJ291">
         <v>6</v>
       </c>
-      <c r="BJ291">
-        <v>5</v>
-      </c>
       <c r="BK291">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:63">
@@ -57266,7 +57266,7 @@
         <v>86</v>
       </c>
       <c r="P292" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q292">
         <v>1</v>
@@ -57415,7 +57415,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>2435492</v>
+        <v>2435491</v>
       </c>
       <c r="C293" t="s">
         <v>63</v>
@@ -57430,175 +57430,175 @@
         <v>29</v>
       </c>
       <c r="G293" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H293" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I293">
         <v>0</v>
       </c>
       <c r="J293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M293">
         <v>1</v>
       </c>
       <c r="N293">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O293" t="s">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="P293" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="Q293">
         <v>3</v>
       </c>
       <c r="R293">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S293">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T293">
-        <v>4</v>
+        <v>3.54</v>
       </c>
       <c r="U293">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
       <c r="V293">
-        <v>2.25</v>
+        <v>2.86</v>
       </c>
       <c r="W293">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X293">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
       <c r="Y293">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="Z293">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AA293">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB293">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC293">
-        <v>3.94</v>
+        <v>2.98</v>
       </c>
       <c r="AD293">
-        <v>3.74</v>
+        <v>3.45</v>
       </c>
       <c r="AE293">
-        <v>1.85</v>
+        <v>2.36</v>
       </c>
       <c r="AF293">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AG293">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AH293">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AI293">
-        <v>3.92</v>
+        <v>3.72</v>
       </c>
       <c r="AJ293">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AK293">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="AL293">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AM293">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="AN293">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="AO293">
         <v>1.29</v>
       </c>
       <c r="AP293">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AQ293">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AR293">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AS293">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AT293">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="AU293">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AV293">
-        <v>1.61</v>
+        <v>1.29</v>
       </c>
       <c r="AW293">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="AX293">
-        <v>3.14</v>
+        <v>2.3</v>
       </c>
       <c r="AY293">
+        <v>7.6</v>
+      </c>
+      <c r="AZ293">
+        <v>1.9</v>
+      </c>
+      <c r="BA293">
+        <v>1.23</v>
+      </c>
+      <c r="BB293">
+        <v>1.52</v>
+      </c>
+      <c r="BC293">
+        <v>1.84</v>
+      </c>
+      <c r="BD293">
+        <v>2.25</v>
+      </c>
+      <c r="BE293">
+        <v>3.15</v>
+      </c>
+      <c r="BF293">
+        <v>3</v>
+      </c>
+      <c r="BG293">
+        <v>6</v>
+      </c>
+      <c r="BH293">
+        <v>5</v>
+      </c>
+      <c r="BI293">
+        <v>5</v>
+      </c>
+      <c r="BJ293">
         <v>8</v>
       </c>
-      <c r="AZ293">
-        <v>1.54</v>
-      </c>
-      <c r="BA293">
-        <v>1.27</v>
-      </c>
-      <c r="BB293">
-        <v>1.61</v>
-      </c>
-      <c r="BC293">
-        <v>1.97</v>
-      </c>
-      <c r="BD293">
-        <v>2.46</v>
-      </c>
-      <c r="BE293">
-        <v>3.42</v>
-      </c>
-      <c r="BF293">
-        <v>8</v>
-      </c>
-      <c r="BG293">
-        <v>8</v>
-      </c>
-      <c r="BH293">
-        <v>7</v>
-      </c>
-      <c r="BI293">
-        <v>9</v>
-      </c>
-      <c r="BJ293">
-        <v>15</v>
-      </c>
       <c r="BK293">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:63">
@@ -57606,7 +57606,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>2435491</v>
+        <v>2435488</v>
       </c>
       <c r="C294" t="s">
         <v>63</v>
@@ -57621,10 +57621,10 @@
         <v>29</v>
       </c>
       <c r="G294" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H294" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -57636,160 +57636,160 @@
         <v>0</v>
       </c>
       <c r="L294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N294">
         <v>2</v>
       </c>
       <c r="O294" t="s">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="P294" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="Q294">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R294">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S294">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T294">
-        <v>3.54</v>
+        <v>1.76</v>
       </c>
       <c r="U294">
-        <v>2.21</v>
+        <v>2.71</v>
       </c>
       <c r="V294">
-        <v>2.86</v>
+        <v>6.4</v>
       </c>
       <c r="W294">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="X294">
-        <v>3.05</v>
+        <v>3.92</v>
       </c>
       <c r="Y294">
-        <v>2.61</v>
+        <v>2.1</v>
       </c>
       <c r="Z294">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="AA294">
-        <v>6.3</v>
+        <v>4.55</v>
       </c>
       <c r="AB294">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AC294">
-        <v>2.98</v>
+        <v>1.36</v>
       </c>
       <c r="AD294">
-        <v>3.45</v>
+        <v>5.53</v>
       </c>
       <c r="AE294">
-        <v>2.36</v>
+        <v>7.45</v>
       </c>
       <c r="AF294">
         <v>1.01</v>
       </c>
       <c r="AG294">
-        <v>10.25</v>
+        <v>18</v>
       </c>
       <c r="AH294">
+        <v>1.1</v>
+      </c>
+      <c r="AI294">
+        <v>5.4</v>
+      </c>
+      <c r="AJ294">
+        <v>1.39</v>
+      </c>
+      <c r="AK294">
+        <v>2.62</v>
+      </c>
+      <c r="AL294">
+        <v>1.69</v>
+      </c>
+      <c r="AM294">
+        <v>2.09</v>
+      </c>
+      <c r="AN294">
+        <v>1.08</v>
+      </c>
+      <c r="AO294">
+        <v>1.15</v>
+      </c>
+      <c r="AP294">
+        <v>3.18</v>
+      </c>
+      <c r="AQ294">
+        <v>2.29</v>
+      </c>
+      <c r="AR294">
+        <v>1.21</v>
+      </c>
+      <c r="AS294">
+        <v>2.33</v>
+      </c>
+      <c r="AT294">
+        <v>1.13</v>
+      </c>
+      <c r="AU294">
+        <v>2.08</v>
+      </c>
+      <c r="AV294">
+        <v>1.39</v>
+      </c>
+      <c r="AW294">
+        <v>3.47</v>
+      </c>
+      <c r="AX294">
+        <v>1.2</v>
+      </c>
+      <c r="AY294">
+        <v>10.75</v>
+      </c>
+      <c r="AZ294">
+        <v>6</v>
+      </c>
+      <c r="BA294">
         <v>1.22</v>
-      </c>
-      <c r="AI294">
-        <v>3.72</v>
-      </c>
-      <c r="AJ294">
-        <v>1.68</v>
-      </c>
-      <c r="AK294">
-        <v>1.99</v>
-      </c>
-      <c r="AL294">
-        <v>1.63</v>
-      </c>
-      <c r="AM294">
-        <v>2.22</v>
-      </c>
-      <c r="AN294">
-        <v>1.61</v>
-      </c>
-      <c r="AO294">
-        <v>1.29</v>
-      </c>
-      <c r="AP294">
-        <v>1.41</v>
-      </c>
-      <c r="AQ294">
-        <v>1.86</v>
-      </c>
-      <c r="AR294">
-        <v>1.29</v>
-      </c>
-      <c r="AS294">
-        <v>1.8</v>
-      </c>
-      <c r="AT294">
-        <v>1.27</v>
-      </c>
-      <c r="AU294">
-        <v>1.83</v>
-      </c>
-      <c r="AV294">
-        <v>1.29</v>
-      </c>
-      <c r="AW294">
-        <v>3.12</v>
-      </c>
-      <c r="AX294">
-        <v>2.3</v>
-      </c>
-      <c r="AY294">
-        <v>7.6</v>
-      </c>
-      <c r="AZ294">
-        <v>1.9</v>
-      </c>
-      <c r="BA294">
-        <v>1.23</v>
       </c>
       <c r="BB294">
         <v>1.52</v>
       </c>
       <c r="BC294">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="BD294">
         <v>2.25</v>
       </c>
       <c r="BE294">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="BF294">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG294">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH294">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI294">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ294">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BK294">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:63">
@@ -57797,7 +57797,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>2435488</v>
+        <v>2435487</v>
       </c>
       <c r="C295" t="s">
         <v>63</v>
@@ -57812,10 +57812,10 @@
         <v>29</v>
       </c>
       <c r="G295" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H295" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I295">
         <v>0</v>
@@ -57827,130 +57827,130 @@
         <v>0</v>
       </c>
       <c r="L295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M295">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N295">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O295" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="P295" t="s">
-        <v>86</v>
+        <v>418</v>
       </c>
       <c r="Q295">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R295">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S295">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T295">
-        <v>1.76</v>
+        <v>5.3</v>
       </c>
       <c r="U295">
-        <v>2.71</v>
+        <v>2.44</v>
       </c>
       <c r="V295">
-        <v>6.4</v>
+        <v>2.02</v>
       </c>
       <c r="W295">
+        <v>1.29</v>
+      </c>
+      <c r="X295">
+        <v>3.45</v>
+      </c>
+      <c r="Y295">
+        <v>2.34</v>
+      </c>
+      <c r="Z295">
+        <v>1.56</v>
+      </c>
+      <c r="AA295">
+        <v>5.35</v>
+      </c>
+      <c r="AB295">
+        <v>1.13</v>
+      </c>
+      <c r="AC295">
+        <v>5.65</v>
+      </c>
+      <c r="AD295">
+        <v>4.25</v>
+      </c>
+      <c r="AE295">
+        <v>1.57</v>
+      </c>
+      <c r="AF295">
+        <v>1.02</v>
+      </c>
+      <c r="AG295">
+        <v>17</v>
+      </c>
+      <c r="AH295">
+        <v>1.16</v>
+      </c>
+      <c r="AI295">
+        <v>4.45</v>
+      </c>
+      <c r="AJ295">
+        <v>1.58</v>
+      </c>
+      <c r="AK295">
+        <v>2.2</v>
+      </c>
+      <c r="AL295">
+        <v>1.71</v>
+      </c>
+      <c r="AM295">
+        <v>2.14</v>
+      </c>
+      <c r="AN295">
+        <v>2.48</v>
+      </c>
+      <c r="AO295">
+        <v>1.21</v>
+      </c>
+      <c r="AP295">
+        <v>1.14</v>
+      </c>
+      <c r="AQ295">
+        <v>1.14</v>
+      </c>
+      <c r="AR295">
+        <v>1.79</v>
+      </c>
+      <c r="AS295">
+        <v>1.07</v>
+      </c>
+      <c r="AT295">
+        <v>1.87</v>
+      </c>
+      <c r="AU295">
+        <v>1.34</v>
+      </c>
+      <c r="AV295">
+        <v>1.5</v>
+      </c>
+      <c r="AW295">
+        <v>2.84</v>
+      </c>
+      <c r="AX295">
+        <v>4.8</v>
+      </c>
+      <c r="AY295">
+        <v>9.6</v>
+      </c>
+      <c r="AZ295">
+        <v>1.28</v>
+      </c>
+      <c r="BA295">
         <v>1.23</v>
-      </c>
-      <c r="X295">
-        <v>3.92</v>
-      </c>
-      <c r="Y295">
-        <v>2.1</v>
-      </c>
-      <c r="Z295">
-        <v>1.69</v>
-      </c>
-      <c r="AA295">
-        <v>4.55</v>
-      </c>
-      <c r="AB295">
-        <v>1.18</v>
-      </c>
-      <c r="AC295">
-        <v>1.36</v>
-      </c>
-      <c r="AD295">
-        <v>5.53</v>
-      </c>
-      <c r="AE295">
-        <v>7.45</v>
-      </c>
-      <c r="AF295">
-        <v>1.01</v>
-      </c>
-      <c r="AG295">
-        <v>18</v>
-      </c>
-      <c r="AH295">
-        <v>1.1</v>
-      </c>
-      <c r="AI295">
-        <v>5.4</v>
-      </c>
-      <c r="AJ295">
-        <v>1.39</v>
-      </c>
-      <c r="AK295">
-        <v>2.62</v>
-      </c>
-      <c r="AL295">
-        <v>1.69</v>
-      </c>
-      <c r="AM295">
-        <v>2.09</v>
-      </c>
-      <c r="AN295">
-        <v>1.08</v>
-      </c>
-      <c r="AO295">
-        <v>1.15</v>
-      </c>
-      <c r="AP295">
-        <v>3.18</v>
-      </c>
-      <c r="AQ295">
-        <v>2.29</v>
-      </c>
-      <c r="AR295">
-        <v>1.21</v>
-      </c>
-      <c r="AS295">
-        <v>2.33</v>
-      </c>
-      <c r="AT295">
-        <v>1.13</v>
-      </c>
-      <c r="AU295">
-        <v>2.08</v>
-      </c>
-      <c r="AV295">
-        <v>1.39</v>
-      </c>
-      <c r="AW295">
-        <v>3.47</v>
-      </c>
-      <c r="AX295">
-        <v>1.2</v>
-      </c>
-      <c r="AY295">
-        <v>10.75</v>
-      </c>
-      <c r="AZ295">
-        <v>6</v>
-      </c>
-      <c r="BA295">
-        <v>1.22</v>
       </c>
       <c r="BB295">
         <v>1.52</v>
@@ -57965,22 +57965,22 @@
         <v>3.1</v>
       </c>
       <c r="BF295">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BG295">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BH295">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BI295">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ295">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BK295">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="423">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -856,6 +856,15 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['1', '39', '41']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['20', '90+2']</t>
+  </si>
+  <si>
     <t>['8', '23', '33']</t>
   </si>
   <si>
@@ -1272,6 +1281,9 @@
   <si>
     <t>['50', '56', '61', '81', '90+3']</t>
   </si>
+  <si>
+    <t>['7', '51']</t>
+  </si>
 </sst>
 </file>
 
@@ -1632,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK296"/>
+  <dimension ref="A1:BK300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1876,7 +1888,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -2067,7 +2079,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2345,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT4">
         <v>1.33</v>
@@ -2539,7 +2551,7 @@
         <v>1.73</v>
       </c>
       <c r="AT5">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -3109,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT8">
         <v>1.2</v>
@@ -3685,7 +3697,7 @@
         <v>1.8</v>
       </c>
       <c r="AT11">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3786,7 +3798,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3873,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT12">
         <v>2.27</v>
@@ -4168,7 +4180,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4449,7 +4461,7 @@
         <v>1.71</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4550,7 +4562,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4932,7 +4944,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5022,7 +5034,7 @@
         <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5123,7 +5135,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5505,7 +5517,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5696,7 +5708,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5783,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT22">
         <v>1.4</v>
@@ -5977,7 +5989,7 @@
         <v>1.73</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU23">
         <v>1.34</v>
@@ -6269,7 +6281,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6460,7 +6472,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6842,7 +6854,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -7033,7 +7045,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7224,7 +7236,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7415,7 +7427,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7606,7 +7618,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7884,10 +7896,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT33">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7988,7 +8000,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8179,7 +8191,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8842,7 +8854,7 @@
         <v>1.71</v>
       </c>
       <c r="AT38">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU38">
         <v>1.19</v>
@@ -9412,10 +9424,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT41">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU41">
         <v>1.14</v>
@@ -9516,7 +9528,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9603,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT42">
         <v>1.07</v>
@@ -9898,7 +9910,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10280,7 +10292,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10558,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT47">
         <v>1.33</v>
@@ -10662,7 +10674,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10853,7 +10865,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10943,7 +10955,7 @@
         <v>1.33</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU49">
         <v>0.96</v>
@@ -11426,7 +11438,7 @@
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11617,7 +11629,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11999,7 +12011,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12086,7 +12098,7 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT55">
         <v>2.07</v>
@@ -12280,7 +12292,7 @@
         <v>0.8</v>
       </c>
       <c r="AT56">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU56">
         <v>1.31</v>
@@ -12471,7 +12483,7 @@
         <v>1.87</v>
       </c>
       <c r="AT57">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU57">
         <v>0.95</v>
@@ -12662,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU58">
         <v>0.9</v>
@@ -12763,7 +12775,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12954,7 +12966,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13145,7 +13157,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13718,7 +13730,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13909,7 +13921,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13999,7 +14011,7 @@
         <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU65">
         <v>1.2</v>
@@ -14100,7 +14112,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14291,7 +14303,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14482,7 +14494,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14569,7 +14581,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT68">
         <v>1.87</v>
@@ -14760,7 +14772,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT69">
         <v>0.93</v>
@@ -15055,7 +15067,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15437,7 +15449,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -15628,7 +15640,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15819,7 +15831,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16291,7 +16303,7 @@
         <v>1.53</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU77">
         <v>1.72</v>
@@ -16392,7 +16404,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16482,7 +16494,7 @@
         <v>1</v>
       </c>
       <c r="AT78">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU78">
         <v>1.13</v>
@@ -16670,10 +16682,10 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT79">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU79">
         <v>2</v>
@@ -16774,7 +16786,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17156,7 +17168,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17243,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT82">
         <v>0.57</v>
@@ -17538,7 +17550,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17729,7 +17741,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17920,7 +17932,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -18010,7 +18022,7 @@
         <v>1.6</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU86">
         <v>1.26</v>
@@ -18111,7 +18123,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18493,7 +18505,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19257,7 +19269,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19448,7 +19460,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19535,10 +19547,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT94">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU94">
         <v>1.95</v>
@@ -19639,7 +19651,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19830,7 +19842,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19920,7 +19932,7 @@
         <v>1.07</v>
       </c>
       <c r="AT96">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU96">
         <v>1.16</v>
@@ -20403,7 +20415,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20493,7 +20505,7 @@
         <v>1.13</v>
       </c>
       <c r="AT99">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU99">
         <v>1.33</v>
@@ -20594,7 +20606,7 @@
         <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20681,7 +20693,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT100">
         <v>1.07</v>
@@ -21167,7 +21179,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21358,7 +21370,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21549,7 +21561,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21740,7 +21752,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21827,7 +21839,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT106">
         <v>1.2</v>
@@ -22122,7 +22134,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22212,7 +22224,7 @@
         <v>1.87</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU108">
         <v>1.24</v>
@@ -22504,7 +22516,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22695,7 +22707,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22886,7 +22898,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -23164,7 +23176,7 @@
         <v>1.6</v>
       </c>
       <c r="AS113">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT113">
         <v>1.27</v>
@@ -23459,7 +23471,7 @@
         <v>112</v>
       </c>
       <c r="P115" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23546,7 +23558,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT115">
         <v>1.87</v>
@@ -23650,7 +23662,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23931,7 +23943,7 @@
         <v>2.2</v>
       </c>
       <c r="AT117">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU117">
         <v>1.31</v>
@@ -24313,7 +24325,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU119">
         <v>1.2</v>
@@ -24414,7 +24426,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24796,7 +24808,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24987,7 +24999,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -25178,7 +25190,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25369,7 +25381,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25650,7 +25662,7 @@
         <v>1.53</v>
       </c>
       <c r="AT126">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU126">
         <v>1.8</v>
@@ -25751,7 +25763,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25942,7 +25954,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -26032,7 +26044,7 @@
         <v>2.33</v>
       </c>
       <c r="AT128">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU128">
         <v>1.72</v>
@@ -26324,7 +26336,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26411,7 +26423,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT130">
         <v>0.8</v>
@@ -26515,7 +26527,7 @@
         <v>111</v>
       </c>
       <c r="P131" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26706,7 +26718,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q132">
         <v>1</v>
@@ -27178,7 +27190,7 @@
         <v>2.2</v>
       </c>
       <c r="AT134">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU134">
         <v>1.46</v>
@@ -27279,7 +27291,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27366,7 +27378,7 @@
         <v>1.71</v>
       </c>
       <c r="AS135">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT135">
         <v>1.87</v>
@@ -27661,7 +27673,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27852,7 +27864,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -28703,7 +28715,7 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT142">
         <v>1.13</v>
@@ -28807,7 +28819,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28998,7 +29010,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -29276,7 +29288,7 @@
         <v>1</v>
       </c>
       <c r="AS145">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT145">
         <v>1.33</v>
@@ -29571,7 +29583,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q147">
         <v>15</v>
@@ -29661,7 +29673,7 @@
         <v>1.53</v>
       </c>
       <c r="AT147">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU147">
         <v>1.75</v>
@@ -29953,7 +29965,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -30043,7 +30055,7 @@
         <v>1.13</v>
       </c>
       <c r="AT149">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU149">
         <v>1.31</v>
@@ -30234,7 +30246,7 @@
         <v>0.8</v>
       </c>
       <c r="AT150">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU150">
         <v>1.4</v>
@@ -31099,7 +31111,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -31290,7 +31302,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31568,10 +31580,10 @@
         <v>0.86</v>
       </c>
       <c r="AS157">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT157">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU157">
         <v>1.97</v>
@@ -31863,7 +31875,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32054,7 +32066,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -32332,7 +32344,7 @@
         <v>0.88</v>
       </c>
       <c r="AS161">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT161">
         <v>1.13</v>
@@ -32436,7 +32448,7 @@
         <v>202</v>
       </c>
       <c r="P162" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -32526,7 +32538,7 @@
         <v>1.4</v>
       </c>
       <c r="AT162">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU162">
         <v>1.47</v>
@@ -32627,7 +32639,7 @@
         <v>203</v>
       </c>
       <c r="P163" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -33200,7 +33212,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33391,7 +33403,7 @@
         <v>205</v>
       </c>
       <c r="P167" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33669,10 +33681,10 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT168">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU168">
         <v>1.43</v>
@@ -33773,7 +33785,7 @@
         <v>207</v>
       </c>
       <c r="P169" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -34054,7 +34066,7 @@
         <v>2.33</v>
       </c>
       <c r="AT170">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU170">
         <v>1.75</v>
@@ -34155,7 +34167,7 @@
         <v>209</v>
       </c>
       <c r="P171" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34346,7 +34358,7 @@
         <v>86</v>
       </c>
       <c r="P172" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34627,7 +34639,7 @@
         <v>1.27</v>
       </c>
       <c r="AT173">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU173">
         <v>1.9</v>
@@ -34728,7 +34740,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -34919,7 +34931,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -35200,7 +35212,7 @@
         <v>1.6</v>
       </c>
       <c r="AT176">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU176">
         <v>1.35</v>
@@ -35301,7 +35313,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35388,7 +35400,7 @@
         <v>1</v>
       </c>
       <c r="AS177">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT177">
         <v>0.8</v>
@@ -35492,7 +35504,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35874,7 +35886,7 @@
         <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -36155,7 +36167,7 @@
         <v>1.4</v>
       </c>
       <c r="AT181">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU181">
         <v>1.37</v>
@@ -36256,7 +36268,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36725,7 +36737,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT184">
         <v>1.2</v>
@@ -36829,7 +36841,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -37020,7 +37032,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37211,7 +37223,7 @@
         <v>95</v>
       </c>
       <c r="P187" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q187">
         <v>6</v>
@@ -37402,7 +37414,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -37680,7 +37692,7 @@
         <v>1.25</v>
       </c>
       <c r="AS189">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT189">
         <v>0.93</v>
@@ -37874,7 +37886,7 @@
         <v>1.53</v>
       </c>
       <c r="AT190">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU190">
         <v>1.6</v>
@@ -37975,7 +37987,7 @@
         <v>220</v>
       </c>
       <c r="P191" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38166,7 +38178,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38256,7 +38268,7 @@
         <v>1.27</v>
       </c>
       <c r="AT192">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU192">
         <v>1.86</v>
@@ -38739,7 +38751,7 @@
         <v>86</v>
       </c>
       <c r="P195" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38826,7 +38838,7 @@
         <v>2.63</v>
       </c>
       <c r="AS195">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT195">
         <v>2.27</v>
@@ -38930,7 +38942,7 @@
         <v>218</v>
       </c>
       <c r="P196" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39312,7 +39324,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -39402,7 +39414,7 @@
         <v>1.87</v>
       </c>
       <c r="AT198">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU198">
         <v>1.23</v>
@@ -39503,7 +39515,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -40076,7 +40088,7 @@
         <v>157</v>
       </c>
       <c r="P202" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -40649,7 +40661,7 @@
         <v>85</v>
       </c>
       <c r="P205" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q205">
         <v>2</v>
@@ -40739,7 +40751,7 @@
         <v>1.8</v>
       </c>
       <c r="AT205">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU205">
         <v>1.89</v>
@@ -40840,7 +40852,7 @@
         <v>227</v>
       </c>
       <c r="P206" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q206">
         <v>3</v>
@@ -41031,7 +41043,7 @@
         <v>228</v>
       </c>
       <c r="P207" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -41222,7 +41234,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q208">
         <v>10</v>
@@ -41309,10 +41321,10 @@
         <v>1.11</v>
       </c>
       <c r="AS208">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT208">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU208">
         <v>1.44</v>
@@ -41500,7 +41512,7 @@
         <v>1.3</v>
       </c>
       <c r="AS209">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT209">
         <v>1.87</v>
@@ -41694,7 +41706,7 @@
         <v>2.33</v>
       </c>
       <c r="AT210">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU210">
         <v>1.92</v>
@@ -42177,7 +42189,7 @@
         <v>231</v>
       </c>
       <c r="P213" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42368,7 +42380,7 @@
         <v>232</v>
       </c>
       <c r="P214" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q214">
         <v>3</v>
@@ -42458,7 +42470,7 @@
         <v>1.53</v>
       </c>
       <c r="AT214">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU214">
         <v>1.46</v>
@@ -42941,7 +42953,7 @@
         <v>157</v>
       </c>
       <c r="P217" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -43132,7 +43144,7 @@
         <v>233</v>
       </c>
       <c r="P218" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q218">
         <v>2</v>
@@ -43323,7 +43335,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43514,7 +43526,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43705,7 +43717,7 @@
         <v>236</v>
       </c>
       <c r="P221" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q221">
         <v>8</v>
@@ -43792,10 +43804,10 @@
         <v>0.73</v>
       </c>
       <c r="AS221">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT221">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU221">
         <v>1.75</v>
@@ -43896,7 +43908,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -43983,7 +43995,7 @@
         <v>0.73</v>
       </c>
       <c r="AS222">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT222">
         <v>0.57</v>
@@ -44087,7 +44099,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -44368,7 +44380,7 @@
         <v>1.07</v>
       </c>
       <c r="AT224">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU224">
         <v>1.25</v>
@@ -44469,7 +44481,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44660,7 +44672,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q226">
         <v>8</v>
@@ -45042,7 +45054,7 @@
         <v>242</v>
       </c>
       <c r="P228" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -45132,7 +45144,7 @@
         <v>1.53</v>
       </c>
       <c r="AT228">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU228">
         <v>1.68</v>
@@ -45320,7 +45332,7 @@
         <v>1.36</v>
       </c>
       <c r="AS229">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT229">
         <v>1.27</v>
@@ -45806,7 +45818,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q232">
         <v>2</v>
@@ -45997,7 +46009,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q233">
         <v>10</v>
@@ -46469,7 +46481,7 @@
         <v>2.2</v>
       </c>
       <c r="AT235">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU235">
         <v>1.33</v>
@@ -46761,7 +46773,7 @@
         <v>248</v>
       </c>
       <c r="P237" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -47039,7 +47051,7 @@
         <v>1</v>
       </c>
       <c r="AS238">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT238">
         <v>0.8</v>
@@ -47143,7 +47155,7 @@
         <v>86</v>
       </c>
       <c r="P239" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -47334,7 +47346,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q240">
         <v>6</v>
@@ -47525,7 +47537,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47716,7 +47728,7 @@
         <v>250</v>
       </c>
       <c r="P242" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q242">
         <v>4</v>
@@ -47997,7 +48009,7 @@
         <v>1.71</v>
       </c>
       <c r="AT243">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU243">
         <v>1.5</v>
@@ -48098,7 +48110,7 @@
         <v>110</v>
       </c>
       <c r="P244" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -48289,7 +48301,7 @@
         <v>251</v>
       </c>
       <c r="P245" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q245">
         <v>3</v>
@@ -48376,7 +48388,7 @@
         <v>1.33</v>
       </c>
       <c r="AS245">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT245">
         <v>1.4</v>
@@ -48567,7 +48579,7 @@
         <v>1.17</v>
       </c>
       <c r="AS246">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT246">
         <v>1.2</v>
@@ -48862,7 +48874,7 @@
         <v>253</v>
       </c>
       <c r="P248" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q248">
         <v>5</v>
@@ -48952,7 +48964,7 @@
         <v>1.8</v>
       </c>
       <c r="AT248">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU248">
         <v>1.87</v>
@@ -49244,7 +49256,7 @@
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49334,7 +49346,7 @@
         <v>1.13</v>
       </c>
       <c r="AT250">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU250">
         <v>1.37</v>
@@ -49626,7 +49638,7 @@
         <v>257</v>
       </c>
       <c r="P252" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q252">
         <v>5</v>
@@ -49713,7 +49725,7 @@
         <v>0.92</v>
       </c>
       <c r="AS252">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT252">
         <v>0.93</v>
@@ -49907,7 +49919,7 @@
         <v>1.4</v>
       </c>
       <c r="AT253">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU253">
         <v>1.35</v>
@@ -50286,7 +50298,7 @@
         <v>1.42</v>
       </c>
       <c r="AS255">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT255">
         <v>1.4</v>
@@ -50581,7 +50593,7 @@
         <v>86</v>
       </c>
       <c r="P257" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q257">
         <v>4</v>
@@ -50772,7 +50784,7 @@
         <v>260</v>
       </c>
       <c r="P258" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -51154,7 +51166,7 @@
         <v>261</v>
       </c>
       <c r="P260" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q260">
         <v>2</v>
@@ -51345,7 +51357,7 @@
         <v>262</v>
       </c>
       <c r="P261" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51623,7 +51635,7 @@
         <v>1.15</v>
       </c>
       <c r="AS262">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT262">
         <v>1.27</v>
@@ -52199,7 +52211,7 @@
         <v>2.33</v>
       </c>
       <c r="AT265">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU265">
         <v>2.01</v>
@@ -52300,7 +52312,7 @@
         <v>91</v>
       </c>
       <c r="P266" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -52491,7 +52503,7 @@
         <v>111</v>
       </c>
       <c r="P267" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -52682,7 +52694,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q268">
         <v>0</v>
@@ -52873,7 +52885,7 @@
         <v>126</v>
       </c>
       <c r="P269" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q269">
         <v>10</v>
@@ -52963,7 +52975,7 @@
         <v>1.13</v>
       </c>
       <c r="AT269">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU269">
         <v>1.42</v>
@@ -53154,7 +53166,7 @@
         <v>1.53</v>
       </c>
       <c r="AT270">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU270">
         <v>1.88</v>
@@ -53255,7 +53267,7 @@
         <v>86</v>
       </c>
       <c r="P271" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q271">
         <v>8</v>
@@ -53446,7 +53458,7 @@
         <v>266</v>
       </c>
       <c r="P272" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q272">
         <v>5</v>
@@ -53533,7 +53545,7 @@
         <v>2.15</v>
       </c>
       <c r="AS272">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT272">
         <v>2.27</v>
@@ -53727,7 +53739,7 @@
         <v>1.4</v>
       </c>
       <c r="AT273">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU273">
         <v>1.45</v>
@@ -53828,7 +53840,7 @@
         <v>268</v>
       </c>
       <c r="P274" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q274">
         <v>2</v>
@@ -54109,7 +54121,7 @@
         <v>1.73</v>
       </c>
       <c r="AT275">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU275">
         <v>1.58</v>
@@ -54210,7 +54222,7 @@
         <v>218</v>
       </c>
       <c r="P276" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q276">
         <v>6</v>
@@ -54783,7 +54795,7 @@
         <v>86</v>
       </c>
       <c r="P279" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q279">
         <v>4</v>
@@ -55061,7 +55073,7 @@
         <v>1.08</v>
       </c>
       <c r="AS280">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT280">
         <v>0.93</v>
@@ -55738,7 +55750,7 @@
         <v>98</v>
       </c>
       <c r="P284" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q284">
         <v>7</v>
@@ -55929,7 +55941,7 @@
         <v>274</v>
       </c>
       <c r="P285" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q285">
         <v>2</v>
@@ -56120,7 +56132,7 @@
         <v>275</v>
       </c>
       <c r="P286" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q286">
         <v>3</v>
@@ -56311,7 +56323,7 @@
         <v>276</v>
       </c>
       <c r="P287" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q287">
         <v>5</v>
@@ -56502,7 +56514,7 @@
         <v>187</v>
       </c>
       <c r="P288" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -56693,7 +56705,7 @@
         <v>216</v>
       </c>
       <c r="P289" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q289">
         <v>7</v>
@@ -57266,7 +57278,7 @@
         <v>86</v>
       </c>
       <c r="P292" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q292">
         <v>1</v>
@@ -57839,7 +57851,7 @@
         <v>206</v>
       </c>
       <c r="P295" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q295">
         <v>3</v>
@@ -58030,7 +58042,7 @@
         <v>279</v>
       </c>
       <c r="P296" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q296">
         <v>10</v>
@@ -58172,6 +58184,770 @@
       </c>
       <c r="BK296">
         <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:63">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>2435474</v>
+      </c>
+      <c r="C297" t="s">
+        <v>63</v>
+      </c>
+      <c r="D297" t="s">
+        <v>64</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45011.39583333334</v>
+      </c>
+      <c r="F297">
+        <v>30</v>
+      </c>
+      <c r="G297" t="s">
+        <v>67</v>
+      </c>
+      <c r="H297" t="s">
+        <v>65</v>
+      </c>
+      <c r="I297">
+        <v>3</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>4</v>
+      </c>
+      <c r="L297">
+        <v>3</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>5</v>
+      </c>
+      <c r="O297" t="s">
+        <v>280</v>
+      </c>
+      <c r="P297" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q297">
+        <v>7</v>
+      </c>
+      <c r="R297">
+        <v>2</v>
+      </c>
+      <c r="S297">
+        <v>9</v>
+      </c>
+      <c r="T297">
+        <v>1.48</v>
+      </c>
+      <c r="U297">
+        <v>3.2</v>
+      </c>
+      <c r="V297">
+        <v>9</v>
+      </c>
+      <c r="W297">
+        <v>1.18</v>
+      </c>
+      <c r="X297">
+        <v>4.4</v>
+      </c>
+      <c r="Y297">
+        <v>1.92</v>
+      </c>
+      <c r="Z297">
+        <v>1.8</v>
+      </c>
+      <c r="AA297">
+        <v>3.95</v>
+      </c>
+      <c r="AB297">
+        <v>1.21</v>
+      </c>
+      <c r="AC297">
+        <v>1.15</v>
+      </c>
+      <c r="AD297">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="AE297">
+        <v>14.34</v>
+      </c>
+      <c r="AF297">
+        <v>1.01</v>
+      </c>
+      <c r="AG297">
+        <v>25</v>
+      </c>
+      <c r="AH297">
+        <v>1.09</v>
+      </c>
+      <c r="AI297">
+        <v>7</v>
+      </c>
+      <c r="AJ297">
+        <v>1.3</v>
+      </c>
+      <c r="AK297">
+        <v>3.03</v>
+      </c>
+      <c r="AL297">
+        <v>2.05</v>
+      </c>
+      <c r="AM297">
+        <v>1.75</v>
+      </c>
+      <c r="AN297">
+        <v>1.03</v>
+      </c>
+      <c r="AO297">
+        <v>1.07</v>
+      </c>
+      <c r="AP297">
+        <v>5</v>
+      </c>
+      <c r="AQ297">
+        <v>2.5</v>
+      </c>
+      <c r="AR297">
+        <v>0.5</v>
+      </c>
+      <c r="AS297">
+        <v>2.53</v>
+      </c>
+      <c r="AT297">
+        <v>0.47</v>
+      </c>
+      <c r="AU297">
+        <v>1.82</v>
+      </c>
+      <c r="AV297">
+        <v>1.19</v>
+      </c>
+      <c r="AW297">
+        <v>3.01</v>
+      </c>
+      <c r="AX297">
+        <v>1.18</v>
+      </c>
+      <c r="AY297">
+        <v>11.75</v>
+      </c>
+      <c r="AZ297">
+        <v>6.15</v>
+      </c>
+      <c r="BA297">
+        <v>1.19</v>
+      </c>
+      <c r="BB297">
+        <v>1.51</v>
+      </c>
+      <c r="BC297">
+        <v>1.74</v>
+      </c>
+      <c r="BD297">
+        <v>2.16</v>
+      </c>
+      <c r="BE297">
+        <v>2.75</v>
+      </c>
+      <c r="BF297">
+        <v>6</v>
+      </c>
+      <c r="BG297">
+        <v>4</v>
+      </c>
+      <c r="BH297">
+        <v>12</v>
+      </c>
+      <c r="BI297">
+        <v>2</v>
+      </c>
+      <c r="BJ297">
+        <v>18</v>
+      </c>
+      <c r="BK297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:63">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>2435475</v>
+      </c>
+      <c r="C298" t="s">
+        <v>63</v>
+      </c>
+      <c r="D298" t="s">
+        <v>64</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45011.39583333334</v>
+      </c>
+      <c r="F298">
+        <v>30</v>
+      </c>
+      <c r="G298" t="s">
+        <v>75</v>
+      </c>
+      <c r="H298" t="s">
+        <v>69</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>1</v>
+      </c>
+      <c r="O298" t="s">
+        <v>281</v>
+      </c>
+      <c r="P298" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q298">
+        <v>2</v>
+      </c>
+      <c r="R298">
+        <v>3</v>
+      </c>
+      <c r="S298">
+        <v>5</v>
+      </c>
+      <c r="T298">
+        <v>2.35</v>
+      </c>
+      <c r="U298">
+        <v>2.25</v>
+      </c>
+      <c r="V298">
+        <v>4.75</v>
+      </c>
+      <c r="W298">
+        <v>1.36</v>
+      </c>
+      <c r="X298">
+        <v>2.95</v>
+      </c>
+      <c r="Y298">
+        <v>2.75</v>
+      </c>
+      <c r="Z298">
+        <v>1.4</v>
+      </c>
+      <c r="AA298">
+        <v>6.9</v>
+      </c>
+      <c r="AB298">
+        <v>1.07</v>
+      </c>
+      <c r="AC298">
+        <v>1.7</v>
+      </c>
+      <c r="AD298">
+        <v>3.56</v>
+      </c>
+      <c r="AE298">
+        <v>4.08</v>
+      </c>
+      <c r="AF298">
+        <v>1.04</v>
+      </c>
+      <c r="AG298">
+        <v>12</v>
+      </c>
+      <c r="AH298">
+        <v>1.28</v>
+      </c>
+      <c r="AI298">
+        <v>3.6</v>
+      </c>
+      <c r="AJ298">
+        <v>1.82</v>
+      </c>
+      <c r="AK298">
+        <v>1.88</v>
+      </c>
+      <c r="AL298">
+        <v>1.83</v>
+      </c>
+      <c r="AM298">
+        <v>1.95</v>
+      </c>
+      <c r="AN298">
+        <v>1.2</v>
+      </c>
+      <c r="AO298">
+        <v>1.22</v>
+      </c>
+      <c r="AP298">
+        <v>2.1</v>
+      </c>
+      <c r="AQ298">
+        <v>1.36</v>
+      </c>
+      <c r="AR298">
+        <v>1</v>
+      </c>
+      <c r="AS298">
+        <v>1.47</v>
+      </c>
+      <c r="AT298">
+        <v>0.93</v>
+      </c>
+      <c r="AU298">
+        <v>1.4</v>
+      </c>
+      <c r="AV298">
+        <v>0.98</v>
+      </c>
+      <c r="AW298">
+        <v>2.38</v>
+      </c>
+      <c r="AX298">
+        <v>1.42</v>
+      </c>
+      <c r="AY298">
+        <v>8.5</v>
+      </c>
+      <c r="AZ298">
+        <v>3.68</v>
+      </c>
+      <c r="BA298">
+        <v>1.28</v>
+      </c>
+      <c r="BB298">
+        <v>1.61</v>
+      </c>
+      <c r="BC298">
+        <v>1.99</v>
+      </c>
+      <c r="BD298">
+        <v>2.48</v>
+      </c>
+      <c r="BE298">
+        <v>3.48</v>
+      </c>
+      <c r="BF298">
+        <v>8</v>
+      </c>
+      <c r="BG298">
+        <v>2</v>
+      </c>
+      <c r="BH298">
+        <v>6</v>
+      </c>
+      <c r="BI298">
+        <v>2</v>
+      </c>
+      <c r="BJ298">
+        <v>14</v>
+      </c>
+      <c r="BK298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:63">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>2435473</v>
+      </c>
+      <c r="C299" t="s">
+        <v>63</v>
+      </c>
+      <c r="D299" t="s">
+        <v>64</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45011.39583333334</v>
+      </c>
+      <c r="F299">
+        <v>30</v>
+      </c>
+      <c r="G299" t="s">
+        <v>66</v>
+      </c>
+      <c r="H299" t="s">
+        <v>77</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+      <c r="O299" t="s">
+        <v>86</v>
+      </c>
+      <c r="P299" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q299">
+        <v>3</v>
+      </c>
+      <c r="R299">
+        <v>6</v>
+      </c>
+      <c r="S299">
+        <v>9</v>
+      </c>
+      <c r="T299">
+        <v>3.3</v>
+      </c>
+      <c r="U299">
+        <v>2.15</v>
+      </c>
+      <c r="V299">
+        <v>3.25</v>
+      </c>
+      <c r="W299">
+        <v>1.36</v>
+      </c>
+      <c r="X299">
+        <v>2.9</v>
+      </c>
+      <c r="Y299">
+        <v>2.75</v>
+      </c>
+      <c r="Z299">
+        <v>1.4</v>
+      </c>
+      <c r="AA299">
+        <v>6.9</v>
+      </c>
+      <c r="AB299">
+        <v>1.07</v>
+      </c>
+      <c r="AC299">
+        <v>2.84</v>
+      </c>
+      <c r="AD299">
+        <v>3.25</v>
+      </c>
+      <c r="AE299">
+        <v>2.57</v>
+      </c>
+      <c r="AF299">
+        <v>1.04</v>
+      </c>
+      <c r="AG299">
+        <v>11</v>
+      </c>
+      <c r="AH299">
+        <v>1.28</v>
+      </c>
+      <c r="AI299">
+        <v>3.6</v>
+      </c>
+      <c r="AJ299">
+        <v>2</v>
+      </c>
+      <c r="AK299">
+        <v>1.82</v>
+      </c>
+      <c r="AL299">
+        <v>1.66</v>
+      </c>
+      <c r="AM299">
+        <v>2.15</v>
+      </c>
+      <c r="AN299">
+        <v>1.52</v>
+      </c>
+      <c r="AO299">
+        <v>1.25</v>
+      </c>
+      <c r="AP299">
+        <v>1.47</v>
+      </c>
+      <c r="AQ299">
+        <v>1</v>
+      </c>
+      <c r="AR299">
+        <v>0.64</v>
+      </c>
+      <c r="AS299">
+        <v>1</v>
+      </c>
+      <c r="AT299">
+        <v>0.67</v>
+      </c>
+      <c r="AU299">
+        <v>1.3</v>
+      </c>
+      <c r="AV299">
+        <v>1.08</v>
+      </c>
+      <c r="AW299">
+        <v>2.38</v>
+      </c>
+      <c r="AX299">
+        <v>2.11</v>
+      </c>
+      <c r="AY299">
+        <v>7.5</v>
+      </c>
+      <c r="AZ299">
+        <v>2.06</v>
+      </c>
+      <c r="BA299">
+        <v>1.25</v>
+      </c>
+      <c r="BB299">
+        <v>1.55</v>
+      </c>
+      <c r="BC299">
+        <v>1.89</v>
+      </c>
+      <c r="BD299">
+        <v>2.33</v>
+      </c>
+      <c r="BE299">
+        <v>3.28</v>
+      </c>
+      <c r="BF299">
+        <v>3</v>
+      </c>
+      <c r="BG299">
+        <v>3</v>
+      </c>
+      <c r="BH299">
+        <v>4</v>
+      </c>
+      <c r="BI299">
+        <v>5</v>
+      </c>
+      <c r="BJ299">
+        <v>7</v>
+      </c>
+      <c r="BK299">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:63">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>2435476</v>
+      </c>
+      <c r="C300" t="s">
+        <v>63</v>
+      </c>
+      <c r="D300" t="s">
+        <v>64</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45011.39583333334</v>
+      </c>
+      <c r="F300">
+        <v>30</v>
+      </c>
+      <c r="G300" t="s">
+        <v>71</v>
+      </c>
+      <c r="H300" t="s">
+        <v>84</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>2</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>2</v>
+      </c>
+      <c r="O300" t="s">
+        <v>282</v>
+      </c>
+      <c r="P300" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q300">
+        <v>3</v>
+      </c>
+      <c r="R300">
+        <v>2</v>
+      </c>
+      <c r="S300">
+        <v>5</v>
+      </c>
+      <c r="T300">
+        <v>1.71</v>
+      </c>
+      <c r="U300">
+        <v>2.6</v>
+      </c>
+      <c r="V300">
+        <v>6.6</v>
+      </c>
+      <c r="W300">
+        <v>1.24</v>
+      </c>
+      <c r="X300">
+        <v>3.82</v>
+      </c>
+      <c r="Y300">
+        <v>2.17</v>
+      </c>
+      <c r="Z300">
+        <v>1.65</v>
+      </c>
+      <c r="AA300">
+        <v>4.7</v>
+      </c>
+      <c r="AB300">
+        <v>1.17</v>
+      </c>
+      <c r="AC300">
+        <v>1.3</v>
+      </c>
+      <c r="AD300">
+        <v>5.58</v>
+      </c>
+      <c r="AE300">
+        <v>9.4</v>
+      </c>
+      <c r="AF300">
+        <v>1.02</v>
+      </c>
+      <c r="AG300">
+        <v>17</v>
+      </c>
+      <c r="AH300">
+        <v>1.14</v>
+      </c>
+      <c r="AI300">
+        <v>5.5</v>
+      </c>
+      <c r="AJ300">
+        <v>1.43</v>
+      </c>
+      <c r="AK300">
+        <v>2.5</v>
+      </c>
+      <c r="AL300">
+        <v>1.83</v>
+      </c>
+      <c r="AM300">
+        <v>1.95</v>
+      </c>
+      <c r="AN300">
+        <v>1.03</v>
+      </c>
+      <c r="AO300">
+        <v>1.1</v>
+      </c>
+      <c r="AP300">
+        <v>3.5</v>
+      </c>
+      <c r="AQ300">
+        <v>1.86</v>
+      </c>
+      <c r="AR300">
+        <v>0.79</v>
+      </c>
+      <c r="AS300">
+        <v>1.93</v>
+      </c>
+      <c r="AT300">
+        <v>0.73</v>
+      </c>
+      <c r="AU300">
+        <v>1.75</v>
+      </c>
+      <c r="AV300">
+        <v>1.19</v>
+      </c>
+      <c r="AW300">
+        <v>2.94</v>
+      </c>
+      <c r="AX300">
+        <v>1.17</v>
+      </c>
+      <c r="AY300">
+        <v>11.75</v>
+      </c>
+      <c r="AZ300">
+        <v>6.55</v>
+      </c>
+      <c r="BA300">
+        <v>1.22</v>
+      </c>
+      <c r="BB300">
+        <v>1.42</v>
+      </c>
+      <c r="BC300">
+        <v>1.76</v>
+      </c>
+      <c r="BD300">
+        <v>2.18</v>
+      </c>
+      <c r="BE300">
+        <v>2.88</v>
+      </c>
+      <c r="BF300">
+        <v>6</v>
+      </c>
+      <c r="BG300">
+        <v>2</v>
+      </c>
+      <c r="BH300">
+        <v>1</v>
+      </c>
+      <c r="BI300">
+        <v>6</v>
+      </c>
+      <c r="BJ300">
+        <v>7</v>
+      </c>
+      <c r="BK300">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK311"/>
+  <dimension ref="A1:BK319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT3" t="n">
         <v>1.13</v>
@@ -1309,7 +1309,7 @@
         <v>2.44</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT5" t="n">
         <v>0.6899999999999999</v>
@@ -2121,7 +2121,7 @@
         <v>1.93</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.69</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT15" t="n">
         <v>0.93</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT16" t="n">
         <v>2.07</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4151,7 +4151,7 @@
         <v>1.38</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.8</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT23" t="n">
         <v>0.93</v>
@@ -5369,7 +5369,7 @@
         <v>2.25</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>1.19</v>
@@ -6181,7 +6181,7 @@
         <v>1.31</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU28" t="n">
         <v>1.38</v>
@@ -6790,7 +6790,7 @@
         <v>1.44</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU31" t="n">
         <v>1.4</v>
@@ -6993,7 +6993,7 @@
         <v>2.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT33" t="n">
         <v>0.6899999999999999</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>1.25</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT36" t="n">
         <v>0.75</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU37" t="n">
         <v>0.93</v>
@@ -8208,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU38" t="n">
         <v>1.19</v>
@@ -8414,7 +8414,7 @@
         <v>1.38</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU39" t="n">
         <v>2.25</v>
@@ -8820,7 +8820,7 @@
         <v>2.44</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU41" t="n">
         <v>1.14</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT42" t="n">
         <v>1.19</v>
@@ -9429,7 +9429,7 @@
         <v>1.44</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU44" t="n">
         <v>1.65</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT45" t="n">
         <v>1.81</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT46" t="n">
         <v>1.19</v>
@@ -10038,7 +10038,7 @@
         <v>1.93</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU47" t="n">
         <v>1.64</v>
@@ -10647,7 +10647,7 @@
         <v>1.25</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU50" t="n">
         <v>1.33</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11459,7 +11459,7 @@
         <v>1.06</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU54" t="n">
         <v>1.16</v>
@@ -12065,10 +12065,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU57" t="n">
         <v>0.95</v>
@@ -12268,10 +12268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU58" t="n">
         <v>0.9</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT59" t="n">
         <v>1.31</v>
@@ -12677,7 +12677,7 @@
         <v>1.38</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU60" t="n">
         <v>2.28</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT61" t="n">
         <v>1.25</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT63" t="n">
         <v>1.19</v>
@@ -13489,7 +13489,7 @@
         <v>1.69</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU64" t="n">
         <v>2.22</v>
@@ -13692,7 +13692,7 @@
         <v>1.44</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU65" t="n">
         <v>1.2</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT66" t="n">
         <v>1.19</v>
@@ -14098,7 +14098,7 @@
         <v>0.8</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU67" t="n">
         <v>1.27</v>
@@ -14298,10 +14298,10 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU68" t="n">
         <v>1.12</v>
@@ -14504,7 +14504,7 @@
         <v>1.93</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU69" t="n">
         <v>1.87</v>
@@ -14707,7 +14707,7 @@
         <v>1.31</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU70" t="n">
         <v>1.16</v>
@@ -14910,7 +14910,7 @@
         <v>2.38</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU71" t="n">
         <v>1.81</v>
@@ -15113,7 +15113,7 @@
         <v>2.25</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU72" t="n">
         <v>1.54</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT73" t="n">
         <v>0.75</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT74" t="n">
         <v>1.81</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT75" t="n">
         <v>1.13</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT76" t="n">
         <v>0.5</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT82" t="n">
         <v>0.5</v>
@@ -17346,7 +17346,7 @@
         <v>2.38</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU83" t="n">
         <v>1.83</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT84" t="n">
         <v>2.07</v>
@@ -17952,7 +17952,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT86" t="n">
         <v>0.93</v>
@@ -18158,7 +18158,7 @@
         <v>1.38</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU87" t="n">
         <v>2.32</v>
@@ -18358,7 +18358,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT88" t="n">
         <v>0.75</v>
@@ -18564,7 +18564,7 @@
         <v>1.44</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU89" t="n">
         <v>1.72</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT90" t="n">
         <v>1.13</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU91" t="n">
         <v>1.84</v>
@@ -19170,7 +19170,7 @@
         <v>2.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
         <v>2.07</v>
@@ -19579,7 +19579,7 @@
         <v>1.93</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU94" t="n">
         <v>1.95</v>
@@ -19985,7 +19985,7 @@
         <v>1.06</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU96" t="n">
         <v>1.16</v>
@@ -20388,10 +20388,10 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU98" t="n">
         <v>1.15</v>
@@ -21406,7 +21406,7 @@
         <v>2.38</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU103" t="n">
         <v>1.76</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -21812,7 +21812,7 @@
         <v>2.25</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU105" t="n">
         <v>1.38</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT106" t="n">
         <v>1.13</v>
@@ -22215,7 +22215,7 @@
         <v>0.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT107" t="n">
         <v>0.5</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT108" t="n">
         <v>0.93</v>
@@ -22624,7 +22624,7 @@
         <v>1.44</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU109" t="n">
         <v>1.61</v>
@@ -22824,10 +22824,10 @@
         <v>0.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU110" t="n">
         <v>1.46</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT111" t="n">
         <v>1.5</v>
@@ -24042,7 +24042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT116" t="n">
         <v>1.25</v>
@@ -24248,7 +24248,7 @@
         <v>2.25</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU117" t="n">
         <v>1.31</v>
@@ -24451,7 +24451,7 @@
         <v>0.8</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU118" t="n">
         <v>1.49</v>
@@ -25263,7 +25263,7 @@
         <v>1.31</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU122" t="n">
         <v>1.5</v>
@@ -25463,10 +25463,10 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU123" t="n">
         <v>1.52</v>
@@ -25869,10 +25869,10 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU125" t="n">
         <v>1.17</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT126" t="n">
         <v>0.93</v>
@@ -26275,10 +26275,10 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26481,7 +26481,7 @@
         <v>2.38</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU128" t="n">
         <v>1.72</v>
@@ -26681,7 +26681,7 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT129" t="n">
         <v>0.5</v>
@@ -26884,7 +26884,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT130" t="n">
         <v>0.75</v>
@@ -27293,7 +27293,7 @@
         <v>1.06</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -27493,7 +27493,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT133" t="n">
         <v>1.31</v>
@@ -27902,7 +27902,7 @@
         <v>1.93</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU135" t="n">
         <v>1.75</v>
@@ -28508,10 +28508,10 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU138" t="n">
         <v>1.27</v>
@@ -29523,10 +29523,10 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -29929,10 +29929,10 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU145" t="n">
         <v>1.37</v>
@@ -30335,7 +30335,7 @@
         <v>0.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT147" t="n">
         <v>0.6899999999999999</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT148" t="n">
         <v>0.75</v>
@@ -30744,7 +30744,7 @@
         <v>1.25</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU149" t="n">
         <v>1.31</v>
@@ -30947,7 +30947,7 @@
         <v>0.8</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU150" t="n">
         <v>1.4</v>
@@ -31556,7 +31556,7 @@
         <v>1.69</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU153" t="n">
         <v>1.89</v>
@@ -31756,7 +31756,7 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT154" t="n">
         <v>1.31</v>
@@ -31959,7 +31959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT155" t="n">
         <v>1.19</v>
@@ -32771,10 +32771,10 @@
         <v>2.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -32974,7 +32974,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT160" t="n">
         <v>1.5</v>
@@ -33383,7 +33383,7 @@
         <v>1.31</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU162" t="n">
         <v>1.47</v>
@@ -33583,10 +33583,10 @@
         <v>1.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU163" t="n">
         <v>1.75</v>
@@ -33989,10 +33989,10 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU165" t="n">
         <v>1.55</v>
@@ -34395,7 +34395,7 @@
         <v>1.38</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT167" t="n">
         <v>1.19</v>
@@ -34598,10 +34598,10 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU168" t="n">
         <v>1.43</v>
@@ -34804,7 +34804,7 @@
         <v>1.69</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU169" t="n">
         <v>1.9</v>
@@ -35210,7 +35210,7 @@
         <v>1.44</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU171" t="n">
         <v>1.26</v>
@@ -35410,7 +35410,7 @@
         <v>1.25</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT172" t="n">
         <v>1.81</v>
@@ -35816,7 +35816,7 @@
         <v>2</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT174" t="n">
         <v>2.07</v>
@@ -36019,7 +36019,7 @@
         <v>1.44</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT175" t="n">
         <v>1.5</v>
@@ -36222,10 +36222,10 @@
         <v>0.88</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU176" t="n">
         <v>1.35</v>
@@ -36628,10 +36628,10 @@
         <v>1.22</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU178" t="n">
         <v>1.47</v>
@@ -37643,10 +37643,10 @@
         <v>0.89</v>
       </c>
       <c r="AS183" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU183" t="n">
         <v>1.31</v>
@@ -38052,7 +38052,7 @@
         <v>1.69</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU185" t="n">
         <v>1.97</v>
@@ -38661,7 +38661,7 @@
         <v>0.8</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU188" t="n">
         <v>1.61</v>
@@ -38861,10 +38861,10 @@
         <v>1.25</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU189" t="n">
         <v>1.43</v>
@@ -39064,7 +39064,7 @@
         <v>0.78</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT190" t="n">
         <v>0.93</v>
@@ -39267,7 +39267,7 @@
         <v>1.11</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT191" t="n">
         <v>1.25</v>
@@ -39473,7 +39473,7 @@
         <v>1.38</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU192" t="n">
         <v>1.86</v>
@@ -39673,10 +39673,10 @@
         <v>1.11</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU193" t="n">
         <v>1.72</v>
@@ -39876,7 +39876,7 @@
         <v>1.6</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT194" t="n">
         <v>1.5</v>
@@ -40082,7 +40082,7 @@
         <v>2.44</v>
       </c>
       <c r="AT195" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU195" t="n">
         <v>1.84</v>
@@ -40285,7 +40285,7 @@
         <v>1.06</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU196" t="n">
         <v>1.21</v>
@@ -40688,10 +40688,10 @@
         <v>0.78</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU198" t="n">
         <v>1.23</v>
@@ -40891,7 +40891,7 @@
         <v>0.89</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT199" t="n">
         <v>1.19</v>
@@ -41097,7 +41097,7 @@
         <v>1.44</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU200" t="n">
         <v>1.45</v>
@@ -41703,7 +41703,7 @@
         <v>1.11</v>
       </c>
       <c r="AS203" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT203" t="n">
         <v>1.31</v>
@@ -42718,10 +42718,10 @@
         <v>1.11</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU208" t="n">
         <v>1.44</v>
@@ -42921,7 +42921,7 @@
         <v>1.3</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT209" t="n">
         <v>1.81</v>
@@ -43330,7 +43330,7 @@
         <v>1.31</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU211" t="n">
         <v>1.32</v>
@@ -43530,7 +43530,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT212" t="n">
         <v>0.75</v>
@@ -43733,10 +43733,10 @@
         <v>1.3</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU213" t="n">
         <v>1.48</v>
@@ -43939,7 +43939,7 @@
         <v>1.44</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU214" t="n">
         <v>1.46</v>
@@ -44139,10 +44139,10 @@
         <v>1.9</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU215" t="n">
         <v>1.27</v>
@@ -44342,10 +44342,10 @@
         <v>1</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU216" t="n">
         <v>1.46</v>
@@ -44545,10 +44545,10 @@
         <v>2.67</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT217" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU217" t="n">
         <v>1.73</v>
@@ -45763,7 +45763,7 @@
         <v>1.1</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT223" t="n">
         <v>1.31</v>
@@ -45969,7 +45969,7 @@
         <v>1.06</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU224" t="n">
         <v>1.25</v>
@@ -46169,10 +46169,10 @@
         <v>1</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU225" t="n">
         <v>1.45</v>
@@ -46575,7 +46575,7 @@
         <v>1.5</v>
       </c>
       <c r="AS227" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT227" t="n">
         <v>1.19</v>
@@ -46778,10 +46778,10 @@
         <v>1</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU228" t="n">
         <v>1.68</v>
@@ -47187,7 +47187,7 @@
         <v>1.25</v>
       </c>
       <c r="AT230" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU230" t="n">
         <v>1.44</v>
@@ -47390,7 +47390,7 @@
         <v>1.31</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU231" t="n">
         <v>1.38</v>
@@ -47593,7 +47593,7 @@
         <v>1.44</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU232" t="n">
         <v>1.45</v>
@@ -47793,7 +47793,7 @@
         <v>1.45</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT233" t="n">
         <v>1.81</v>
@@ -47996,7 +47996,7 @@
         <v>1.27</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT234" t="n">
         <v>1.13</v>
@@ -48402,7 +48402,7 @@
         <v>0.91</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT236" t="n">
         <v>1.19</v>
@@ -48608,7 +48608,7 @@
         <v>2.38</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU237" t="n">
         <v>2</v>
@@ -49217,7 +49217,7 @@
         <v>1.44</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU240" t="n">
         <v>1.26</v>
@@ -49420,7 +49420,7 @@
         <v>2.25</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU241" t="n">
         <v>1.32</v>
@@ -49623,7 +49623,7 @@
         <v>1.38</v>
       </c>
       <c r="AT242" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU242" t="n">
         <v>1.88</v>
@@ -49823,7 +49823,7 @@
         <v>0.67</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT243" t="n">
         <v>0.6899999999999999</v>
@@ -50026,7 +50026,7 @@
         <v>1.83</v>
       </c>
       <c r="AS244" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT244" t="n">
         <v>2.07</v>
@@ -50432,10 +50432,10 @@
         <v>1.17</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU246" t="n">
         <v>1.43</v>
@@ -50841,7 +50841,7 @@
         <v>1.69</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU248" t="n">
         <v>1.87</v>
@@ -51041,7 +51041,7 @@
         <v>1.17</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT249" t="n">
         <v>1.13</v>
@@ -51247,7 +51247,7 @@
         <v>1.25</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU250" t="n">
         <v>1.37</v>
@@ -51653,7 +51653,7 @@
         <v>1.93</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU252" t="n">
         <v>1.75</v>
@@ -52056,7 +52056,7 @@
         <v>1.58</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT254" t="n">
         <v>1.81</v>
@@ -52462,7 +52462,7 @@
         <v>0.67</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT256" t="n">
         <v>0.5</v>
@@ -52665,7 +52665,7 @@
         <v>0.83</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT257" t="n">
         <v>1.19</v>
@@ -52868,7 +52868,7 @@
         <v>0.92</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT258" t="n">
         <v>0.75</v>
@@ -53074,7 +53074,7 @@
         <v>1.44</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU259" t="n">
         <v>1.49</v>
@@ -53277,7 +53277,7 @@
         <v>1.44</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU260" t="n">
         <v>1.28</v>
@@ -53480,7 +53480,7 @@
         <v>2.25</v>
       </c>
       <c r="AT261" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU261" t="n">
         <v>1.29</v>
@@ -53680,7 +53680,7 @@
         <v>1.15</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT262" t="n">
         <v>1.19</v>
@@ -53883,7 +53883,7 @@
         <v>1.69</v>
       </c>
       <c r="AS263" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT263" t="n">
         <v>1.81</v>
@@ -54292,7 +54292,7 @@
         <v>2.38</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU265" t="n">
         <v>2.01</v>
@@ -55304,7 +55304,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT270" t="n">
         <v>0.6899999999999999</v>
@@ -55510,7 +55510,7 @@
         <v>1.38</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU271" t="n">
         <v>1.87</v>
@@ -55713,7 +55713,7 @@
         <v>1.93</v>
       </c>
       <c r="AT272" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU272" t="n">
         <v>1.74</v>
@@ -55916,7 +55916,7 @@
         <v>1.31</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU273" t="n">
         <v>1.45</v>
@@ -56119,7 +56119,7 @@
         <v>1.06</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU274" t="n">
         <v>1.32</v>
@@ -56319,10 +56319,10 @@
         <v>0.85</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU275" t="n">
         <v>1.58</v>
@@ -56522,7 +56522,7 @@
         <v>1.31</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT276" t="n">
         <v>1.31</v>
@@ -56725,10 +56725,10 @@
         <v>1.15</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU277" t="n">
         <v>1.46</v>
@@ -56928,10 +56928,10 @@
         <v>0.85</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU278" t="n">
         <v>1.19</v>
@@ -57131,7 +57131,7 @@
         <v>1</v>
       </c>
       <c r="AS279" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT279" t="n">
         <v>1.19</v>
@@ -57337,7 +57337,7 @@
         <v>2.44</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU280" t="n">
         <v>1.84</v>
@@ -57537,10 +57537,10 @@
         <v>2.21</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT281" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU281" t="n">
         <v>1.84</v>
@@ -57743,7 +57743,7 @@
         <v>0.8</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU282" t="n">
         <v>1.41</v>
@@ -57943,10 +57943,10 @@
         <v>1</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU283" t="n">
         <v>1.64</v>
@@ -58146,7 +58146,7 @@
         <v>2</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT284" t="n">
         <v>2.07</v>
@@ -58349,10 +58349,10 @@
         <v>1.36</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU285" t="n">
         <v>1.24</v>
@@ -58552,10 +58552,10 @@
         <v>0.79</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT286" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU286" t="n">
         <v>1.62</v>
@@ -58755,7 +58755,7 @@
         <v>1.43</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT287" t="n">
         <v>1.31</v>
@@ -60382,7 +60382,7 @@
         <v>1.06</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU295" t="n">
         <v>1.34</v>
@@ -60788,7 +60788,7 @@
         <v>2.44</v>
       </c>
       <c r="AT297" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU297" t="n">
         <v>1.82</v>
@@ -60988,7 +60988,7 @@
         <v>1</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT298" t="n">
         <v>0.93</v>
@@ -61191,7 +61191,7 @@
         <v>0.64</v>
       </c>
       <c r="AS299" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT299" t="n">
         <v>0.6899999999999999</v>
@@ -61397,7 +61397,7 @@
         <v>1.93</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU300" t="n">
         <v>1.75</v>
@@ -63018,7 +63018,7 @@
         <v>0.53</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT308" t="n">
         <v>0.5</v>
@@ -63682,6 +63682,1630 @@
       </c>
       <c r="BK311" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2435509</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F312" t="n">
+        <v>32</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>1</v>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>1</v>
+      </c>
+      <c r="N312" t="n">
+        <v>2</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>2</v>
+      </c>
+      <c r="R312" t="n">
+        <v>5</v>
+      </c>
+      <c r="S312" t="n">
+        <v>7</v>
+      </c>
+      <c r="T312" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V312" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X312" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2435510</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F313" t="n">
+        <v>32</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Ajax II</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="n">
+        <v>2</v>
+      </c>
+      <c r="M313" t="n">
+        <v>3</v>
+      </c>
+      <c r="N313" t="n">
+        <v>5</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['72', '90+5']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['28', '57', '77']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>6</v>
+      </c>
+      <c r="R313" t="n">
+        <v>2</v>
+      </c>
+      <c r="S313" t="n">
+        <v>8</v>
+      </c>
+      <c r="T313" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V313" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X313" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2435508</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F314" t="n">
+        <v>32</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>2</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" t="n">
+        <v>2</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['62', '65']</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>7</v>
+      </c>
+      <c r="R314" t="n">
+        <v>2</v>
+      </c>
+      <c r="S314" t="n">
+        <v>9</v>
+      </c>
+      <c r="T314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V314" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X314" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2435507</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F315" t="n">
+        <v>32</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1</v>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="n">
+        <v>2</v>
+      </c>
+      <c r="N315" t="n">
+        <v>3</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>['33', '69']</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>6</v>
+      </c>
+      <c r="R315" t="n">
+        <v>6</v>
+      </c>
+      <c r="S315" t="n">
+        <v>12</v>
+      </c>
+      <c r="T315" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V315" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X315" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2435505</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F316" t="n">
+        <v>32</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>2</v>
+      </c>
+      <c r="J316" t="n">
+        <v>2</v>
+      </c>
+      <c r="K316" t="n">
+        <v>4</v>
+      </c>
+      <c r="L316" t="n">
+        <v>4</v>
+      </c>
+      <c r="M316" t="n">
+        <v>2</v>
+      </c>
+      <c r="N316" t="n">
+        <v>6</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>['10', '30', '70', '75']</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>['3', '37']</t>
+        </is>
+      </c>
+      <c r="Q316" t="n">
+        <v>2</v>
+      </c>
+      <c r="R316" t="n">
+        <v>11</v>
+      </c>
+      <c r="S316" t="n">
+        <v>13</v>
+      </c>
+      <c r="T316" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U316" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V316" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X316" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK316" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2435504</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F317" t="n">
+        <v>32</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>PSV II</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>1</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>1</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q317" t="n">
+        <v>6</v>
+      </c>
+      <c r="R317" t="n">
+        <v>6</v>
+      </c>
+      <c r="S317" t="n">
+        <v>12</v>
+      </c>
+      <c r="T317" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U317" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V317" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W317" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X317" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ317" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK317" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2435503</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F318" t="n">
+        <v>32</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>2</v>
+      </c>
+      <c r="J318" t="n">
+        <v>1</v>
+      </c>
+      <c r="K318" t="n">
+        <v>3</v>
+      </c>
+      <c r="L318" t="n">
+        <v>2</v>
+      </c>
+      <c r="M318" t="n">
+        <v>1</v>
+      </c>
+      <c r="N318" t="n">
+        <v>3</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>['38', '42']</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q318" t="n">
+        <v>5</v>
+      </c>
+      <c r="R318" t="n">
+        <v>4</v>
+      </c>
+      <c r="S318" t="n">
+        <v>9</v>
+      </c>
+      <c r="T318" t="n">
+        <v>2</v>
+      </c>
+      <c r="U318" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V318" t="n">
+        <v>6</v>
+      </c>
+      <c r="W318" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X318" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ318" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA318" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB318" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC318" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD318" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE318" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF318" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG318" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH318" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ318" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK318" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2435506</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F319" t="n">
+        <v>32</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>2</v>
+      </c>
+      <c r="J319" t="n">
+        <v>2</v>
+      </c>
+      <c r="K319" t="n">
+        <v>4</v>
+      </c>
+      <c r="L319" t="n">
+        <v>5</v>
+      </c>
+      <c r="M319" t="n">
+        <v>3</v>
+      </c>
+      <c r="N319" t="n">
+        <v>8</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>['4', '15', '59', '84', '90+5']</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>['8', '30', '81']</t>
+        </is>
+      </c>
+      <c r="Q319" t="n">
+        <v>6</v>
+      </c>
+      <c r="R319" t="n">
+        <v>7</v>
+      </c>
+      <c r="S319" t="n">
+        <v>13</v>
+      </c>
+      <c r="T319" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U319" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V319" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W319" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X319" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX319" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ319" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA319" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB319" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC319" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD319" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE319" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF319" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG319" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ319" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK319" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK319"/>
+  <dimension ref="A1:BK320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.13</v>
@@ -3745,7 +3745,7 @@
         <v>1.63</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>1.31</v>
@@ -7602,7 +7602,7 @@
         <v>1.06</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU35" t="n">
         <v>1.28</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
         <v>1.31</v>
@@ -11662,7 +11662,7 @@
         <v>2.44</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU55" t="n">
         <v>2.1</v>
@@ -14501,7 +14501,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
         <v>0.88</v>
@@ -17549,7 +17549,7 @@
         <v>1.81</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU84" t="n">
         <v>1.43</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU92" t="n">
         <v>1.7</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>0.44</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
         <v>1.81</v>
@@ -24857,7 +24857,7 @@
         <v>1.25</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU120" t="n">
         <v>1.41</v>
@@ -27899,7 +27899,7 @@
         <v>1.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT135" t="n">
         <v>1.75</v>
@@ -28308,7 +28308,7 @@
         <v>1.38</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU137" t="n">
         <v>1.95</v>
@@ -32165,7 +32165,7 @@
         <v>1.44</v>
       </c>
       <c r="AT156" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU156" t="n">
         <v>1.56</v>
@@ -33177,7 +33177,7 @@
         <v>0.88</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT161" t="n">
         <v>1.25</v>
@@ -35819,7 +35819,7 @@
         <v>1.94</v>
       </c>
       <c r="AT174" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU174" t="n">
         <v>1.2</v>
@@ -37846,7 +37846,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT184" t="n">
         <v>1.13</v>
@@ -41300,7 +41300,7 @@
         <v>2.38</v>
       </c>
       <c r="AT201" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU201" t="n">
         <v>1.87</v>
@@ -42518,7 +42518,7 @@
         <v>1.44</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU207" t="n">
         <v>1.28</v>
@@ -45157,7 +45157,7 @@
         <v>1.69</v>
       </c>
       <c r="AT220" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU220" t="n">
         <v>1.86</v>
@@ -45357,7 +45357,7 @@
         <v>0.73</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT221" t="n">
         <v>0.6899999999999999</v>
@@ -46981,7 +46981,7 @@
         <v>1.36</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT229" t="n">
         <v>1.19</v>
@@ -48808,7 +48808,7 @@
         <v>1</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT238" t="n">
         <v>0.75</v>
@@ -50029,7 +50029,7 @@
         <v>1.13</v>
       </c>
       <c r="AT244" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU244" t="n">
         <v>1.32</v>
@@ -51650,7 +51650,7 @@
         <v>0.92</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT252" t="n">
         <v>1.06</v>
@@ -54089,7 +54089,7 @@
         <v>2.25</v>
       </c>
       <c r="AT264" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU264" t="n">
         <v>1.27</v>
@@ -55710,7 +55710,7 @@
         <v>2.15</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT272" t="n">
         <v>2.13</v>
@@ -58149,7 +58149,7 @@
         <v>1.88</v>
       </c>
       <c r="AT284" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU284" t="n">
         <v>1.48</v>
@@ -61394,7 +61394,7 @@
         <v>0.79</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT300" t="n">
         <v>0.88</v>
@@ -65306,6 +65306,209 @@
       </c>
       <c r="BK319" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2435511</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45025.30208333334</v>
+      </c>
+      <c r="F320" t="n">
+        <v>32</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>1</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1</v>
+      </c>
+      <c r="K320" t="n">
+        <v>2</v>
+      </c>
+      <c r="L320" t="n">
+        <v>2</v>
+      </c>
+      <c r="M320" t="n">
+        <v>1</v>
+      </c>
+      <c r="N320" t="n">
+        <v>3</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['31', '51']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>7</v>
+      </c>
+      <c r="R320" t="n">
+        <v>3</v>
+      </c>
+      <c r="S320" t="n">
+        <v>10</v>
+      </c>
+      <c r="T320" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U320" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V320" t="n">
+        <v>6</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X320" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK320"/>
+  <dimension ref="A1:BK321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3542,7 +3542,7 @@
         <v>1.88</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT19" t="n">
         <v>1.75</v>
@@ -5166,7 +5166,7 @@
         <v>1.81</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT40" t="n">
         <v>1.5</v>
@@ -10444,7 +10444,7 @@
         <v>1.44</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU49" t="n">
         <v>0.96</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT56" t="n">
         <v>0.6899999999999999</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT67" t="n">
         <v>1.31</v>
@@ -16128,7 +16128,7 @@
         <v>1.44</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU77" t="n">
         <v>1.72</v>
@@ -17955,7 +17955,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU86" t="n">
         <v>1.26</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT95" t="n">
         <v>1.81</v>
@@ -22421,7 +22421,7 @@
         <v>1.94</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU108" t="n">
         <v>1.24</v>
@@ -24448,7 +24448,7 @@
         <v>2.4</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT118" t="n">
         <v>2.13</v>
@@ -26075,7 +26075,7 @@
         <v>1.63</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU126" t="n">
         <v>1.8</v>
@@ -28711,7 +28711,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT139" t="n">
         <v>1.19</v>
@@ -30944,7 +30944,7 @@
         <v>1.67</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT150" t="n">
         <v>0.88</v>
@@ -32368,7 +32368,7 @@
         <v>2.44</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU157" t="n">
         <v>1.97</v>
@@ -35616,7 +35616,7 @@
         <v>1.38</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU173" t="n">
         <v>1.9</v>
@@ -38658,7 +38658,7 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT188" t="n">
         <v>0.88</v>
@@ -39067,7 +39067,7 @@
         <v>1.5</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU190" t="n">
         <v>1.6</v>
@@ -40485,7 +40485,7 @@
         <v>0.9</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT197" t="n">
         <v>0.75</v>
@@ -43127,7 +43127,7 @@
         <v>2.38</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU210" t="n">
         <v>1.92</v>
@@ -44951,7 +44951,7 @@
         <v>0.9</v>
       </c>
       <c r="AS219" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT219" t="n">
         <v>1.19</v>
@@ -48202,7 +48202,7 @@
         <v>2.25</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU235" t="n">
         <v>1.33</v>
@@ -49011,7 +49011,7 @@
         <v>1.27</v>
       </c>
       <c r="AS239" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT239" t="n">
         <v>1.31</v>
@@ -51447,7 +51447,7 @@
         <v>1.17</v>
       </c>
       <c r="AS251" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT251" t="n">
         <v>1.25</v>
@@ -51856,7 +51856,7 @@
         <v>1.31</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU253" t="n">
         <v>1.35</v>
@@ -54492,7 +54492,7 @@
         <v>1.08</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT266" t="n">
         <v>1.13</v>
@@ -55104,7 +55104,7 @@
         <v>1.25</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU269" t="n">
         <v>1.42</v>
@@ -57740,7 +57740,7 @@
         <v>1.07</v>
       </c>
       <c r="AS282" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT282" t="n">
         <v>1.13</v>
@@ -60991,7 +60991,7 @@
         <v>1.38</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU298" t="n">
         <v>1.4</v>
@@ -65509,6 +65509,209 @@
       </c>
       <c r="BK320" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2435512</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45026.625</v>
+      </c>
+      <c r="F321" t="n">
+        <v>32</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>3</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1</v>
+      </c>
+      <c r="K321" t="n">
+        <v>4</v>
+      </c>
+      <c r="L321" t="n">
+        <v>4</v>
+      </c>
+      <c r="M321" t="n">
+        <v>2</v>
+      </c>
+      <c r="N321" t="n">
+        <v>6</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>['12', '16', '31', '90+4']</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>['8', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q321" t="n">
+        <v>9</v>
+      </c>
+      <c r="R321" t="n">
+        <v>2</v>
+      </c>
+      <c r="S321" t="n">
+        <v>11</v>
+      </c>
+      <c r="T321" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V321" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X321" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK321"/>
+  <dimension ref="A1:BK327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.13</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT4" t="n">
         <v>1.31</v>
@@ -1512,7 +1512,7 @@
         <v>1.81</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT7" t="n">
         <v>1.81</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.25</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT21" t="n">
         <v>1.25</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU22" t="n">
         <v>1.76</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT24" t="n">
         <v>1.31</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU26" t="n">
         <v>1.76</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU27" t="n">
         <v>1.93</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT28" t="n">
         <v>2.13</v>
@@ -6384,7 +6384,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU29" t="n">
         <v>1.2</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT32" t="n">
         <v>1.13</v>
@@ -7196,7 +7196,7 @@
         <v>1.38</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU33" t="n">
         <v>1.13</v>
@@ -7805,7 +7805,7 @@
         <v>1.63</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU36" t="n">
         <v>1.64</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT41" t="n">
         <v>0.88</v>
@@ -9023,7 +9023,7 @@
         <v>1.38</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU42" t="n">
         <v>1.01</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT43" t="n">
         <v>0.5</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT44" t="n">
         <v>2.13</v>
@@ -9835,7 +9835,7 @@
         <v>1.81</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU46" t="n">
         <v>1.41</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU48" t="n">
         <v>1.69</v>
@@ -10850,7 +10850,7 @@
         <v>1.69</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU51" t="n">
         <v>2.38</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -11659,7 +11659,7 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT55" t="n">
         <v>1.94</v>
@@ -11865,7 +11865,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU56" t="n">
         <v>1.31</v>
@@ -12474,7 +12474,7 @@
         <v>1.88</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU59" t="n">
         <v>1.33</v>
@@ -13286,7 +13286,7 @@
         <v>1.88</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU63" t="n">
         <v>1.43</v>
@@ -13895,7 +13895,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU66" t="n">
         <v>1.63</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT70" t="n">
         <v>1.13</v>
@@ -14907,7 +14907,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT71" t="n">
         <v>1.31</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT72" t="n">
         <v>1.06</v>
@@ -15316,7 +15316,7 @@
         <v>1.5</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU73" t="n">
         <v>1.24</v>
@@ -15722,7 +15722,7 @@
         <v>1.94</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU75" t="n">
         <v>1.31</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT77" t="n">
         <v>0.88</v>
@@ -16531,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU79" t="n">
         <v>2</v>
@@ -16937,10 +16937,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU81" t="n">
         <v>1.16</v>
@@ -17343,7 +17343,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT83" t="n">
         <v>1.06</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT85" t="n">
         <v>1.5</v>
@@ -18361,7 +18361,7 @@
         <v>1.94</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU88" t="n">
         <v>1.34</v>
@@ -18561,7 +18561,7 @@
         <v>2.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT89" t="n">
         <v>1.75</v>
@@ -18767,7 +18767,7 @@
         <v>1.88</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU90" t="n">
         <v>1.58</v>
@@ -19376,7 +19376,7 @@
         <v>1.44</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU93" t="n">
         <v>1.16</v>
@@ -20188,7 +20188,7 @@
         <v>1.38</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU97" t="n">
         <v>2.26</v>
@@ -20594,7 +20594,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -20794,10 +20794,10 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU100" t="n">
         <v>1.97</v>
@@ -21200,10 +21200,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU102" t="n">
         <v>1.32</v>
@@ -21403,7 +21403,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT103" t="n">
         <v>1.75</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT105" t="n">
         <v>1.13</v>
@@ -22015,7 +22015,7 @@
         <v>1.38</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU106" t="n">
         <v>1.35</v>
@@ -22621,7 +22621,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT109" t="n">
         <v>0.88</v>
@@ -23233,7 +23233,7 @@
         <v>1.38</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU112" t="n">
         <v>2.1</v>
@@ -23433,10 +23433,10 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU113" t="n">
         <v>1.88</v>
@@ -23639,7 +23639,7 @@
         <v>1.06</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU114" t="n">
         <v>1.33</v>
@@ -24245,7 +24245,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT117" t="n">
         <v>0.44</v>
@@ -24654,7 +24654,7 @@
         <v>1.44</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU119" t="n">
         <v>1.2</v>
@@ -25060,7 +25060,7 @@
         <v>1.69</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT122" t="n">
         <v>0.88</v>
@@ -25666,7 +25666,7 @@
         <v>1.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT124" t="n">
         <v>1.25</v>
@@ -26478,7 +26478,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT128" t="n">
         <v>0.88</v>
@@ -26887,7 +26887,7 @@
         <v>1.38</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU130" t="n">
         <v>1.36</v>
@@ -27496,7 +27496,7 @@
         <v>1.81</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU133" t="n">
         <v>1.51</v>
@@ -27696,10 +27696,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU134" t="n">
         <v>1.46</v>
@@ -28102,10 +28102,10 @@
         <v>0.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU136" t="n">
         <v>1.56</v>
@@ -28714,7 +28714,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU139" t="n">
         <v>1.46</v>
@@ -29120,7 +29120,7 @@
         <v>1.69</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU141" t="n">
         <v>1.92</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT142" t="n">
         <v>1.25</v>
@@ -29726,10 +29726,10 @@
         <v>1.57</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU144" t="n">
         <v>1.79</v>
@@ -30132,7 +30132,7 @@
         <v>1.57</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT146" t="n">
         <v>1.5</v>
@@ -30338,7 +30338,7 @@
         <v>1.5</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU147" t="n">
         <v>1.75</v>
@@ -30541,7 +30541,7 @@
         <v>1.88</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU148" t="n">
         <v>1.56</v>
@@ -31150,7 +31150,7 @@
         <v>1.38</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU151" t="n">
         <v>1.95</v>
@@ -31759,7 +31759,7 @@
         <v>1.94</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -31962,7 +31962,7 @@
         <v>1.5</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU155" t="n">
         <v>1.29</v>
@@ -32162,7 +32162,7 @@
         <v>1.86</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT156" t="n">
         <v>1.94</v>
@@ -32365,7 +32365,7 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT157" t="n">
         <v>0.88</v>
@@ -32568,7 +32568,7 @@
         <v>1.43</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT158" t="n">
         <v>1.81</v>
@@ -33380,7 +33380,7 @@
         <v>1.43</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT162" t="n">
         <v>0.88</v>
@@ -33789,7 +33789,7 @@
         <v>1.06</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU164" t="n">
         <v>1.33</v>
@@ -34398,7 +34398,7 @@
         <v>1.63</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU167" t="n">
         <v>1.85</v>
@@ -35004,10 +35004,10 @@
         <v>0.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU170" t="n">
         <v>1.75</v>
@@ -36425,10 +36425,10 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU177" t="n">
         <v>1.87</v>
@@ -36834,7 +36834,7 @@
         <v>1.06</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU179" t="n">
         <v>1.25</v>
@@ -37034,10 +37034,10 @@
         <v>0.88</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU180" t="n">
         <v>1.38</v>
@@ -37237,10 +37237,10 @@
         <v>0.67</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU181" t="n">
         <v>1.37</v>
@@ -37440,7 +37440,7 @@
         <v>1.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT182" t="n">
         <v>1.81</v>
@@ -37849,7 +37849,7 @@
         <v>2</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU184" t="n">
         <v>1.78</v>
@@ -38255,7 +38255,7 @@
         <v>1.25</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU186" t="n">
         <v>1.51</v>
@@ -38455,7 +38455,7 @@
         <v>0.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT187" t="n">
         <v>0.5</v>
@@ -40079,7 +40079,7 @@
         <v>2.63</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT195" t="n">
         <v>2.13</v>
@@ -40488,7 +40488,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU197" t="n">
         <v>1.54</v>
@@ -40894,7 +40894,7 @@
         <v>1.88</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU199" t="n">
         <v>1.56</v>
@@ -41094,7 +41094,7 @@
         <v>1.1</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT200" t="n">
         <v>1.13</v>
@@ -41297,7 +41297,7 @@
         <v>2.11</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT201" t="n">
         <v>1.94</v>
@@ -41706,7 +41706,7 @@
         <v>1.13</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU203" t="n">
         <v>1.26</v>
@@ -42112,7 +42112,7 @@
         <v>1.69</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU205" t="n">
         <v>1.89</v>
@@ -42315,7 +42315,7 @@
         <v>1.25</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU206" t="n">
         <v>1.45</v>
@@ -43124,7 +43124,7 @@
         <v>0.8</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT210" t="n">
         <v>0.88</v>
@@ -43327,7 +43327,7 @@
         <v>1.1</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT211" t="n">
         <v>1.31</v>
@@ -43533,7 +43533,7 @@
         <v>1.5</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU212" t="n">
         <v>1.67</v>
@@ -43936,7 +43936,7 @@
         <v>1</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT214" t="n">
         <v>0.88</v>
@@ -44954,7 +44954,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU219" t="n">
         <v>1.5</v>
@@ -45360,7 +45360,7 @@
         <v>2</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU221" t="n">
         <v>1.75</v>
@@ -45560,7 +45560,7 @@
         <v>0.73</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT222" t="n">
         <v>0.5</v>
@@ -45766,7 +45766,7 @@
         <v>1.63</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU223" t="n">
         <v>1.91</v>
@@ -46578,7 +46578,7 @@
         <v>1.13</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU227" t="n">
         <v>1.28</v>
@@ -46984,7 +46984,7 @@
         <v>2</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU229" t="n">
         <v>1.74</v>
@@ -47387,7 +47387,7 @@
         <v>1.73</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT231" t="n">
         <v>1.75</v>
@@ -47590,7 +47590,7 @@
         <v>1</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT232" t="n">
         <v>1.06</v>
@@ -47999,7 +47999,7 @@
         <v>1.5</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU234" t="n">
         <v>1.51</v>
@@ -48199,7 +48199,7 @@
         <v>0.73</v>
       </c>
       <c r="AS235" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT235" t="n">
         <v>0.88</v>
@@ -48405,7 +48405,7 @@
         <v>1.81</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU236" t="n">
         <v>1.58</v>
@@ -48605,7 +48605,7 @@
         <v>1.18</v>
       </c>
       <c r="AS237" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT237" t="n">
         <v>0.88</v>
@@ -48811,7 +48811,7 @@
         <v>2</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU238" t="n">
         <v>1.75</v>
@@ -49014,7 +49014,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU239" t="n">
         <v>1.5</v>
@@ -49417,7 +49417,7 @@
         <v>1.58</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT241" t="n">
         <v>1.75</v>
@@ -49826,7 +49826,7 @@
         <v>1.88</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU243" t="n">
         <v>1.5</v>
@@ -50229,7 +50229,7 @@
         <v>1.33</v>
       </c>
       <c r="AS245" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT245" t="n">
         <v>1.5</v>
@@ -50638,7 +50638,7 @@
         <v>1.06</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU247" t="n">
         <v>1.31</v>
@@ -51044,7 +51044,7 @@
         <v>1.63</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU249" t="n">
         <v>1.88</v>
@@ -51853,7 +51853,7 @@
         <v>0.67</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT253" t="n">
         <v>0.88</v>
@@ -52259,10 +52259,10 @@
         <v>1.42</v>
       </c>
       <c r="AS255" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU255" t="n">
         <v>1.8</v>
@@ -52668,7 +52668,7 @@
         <v>1.94</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU257" t="n">
         <v>1.17</v>
@@ -52871,7 +52871,7 @@
         <v>1.81</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU258" t="n">
         <v>1.57</v>
@@ -53071,7 +53071,7 @@
         <v>1.25</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT259" t="n">
         <v>1.31</v>
@@ -53477,7 +53477,7 @@
         <v>2.33</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT261" t="n">
         <v>2.13</v>
@@ -53683,7 +53683,7 @@
         <v>1.38</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU262" t="n">
         <v>1.41</v>
@@ -54086,7 +54086,7 @@
         <v>1.92</v>
       </c>
       <c r="AS264" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT264" t="n">
         <v>1.94</v>
@@ -54289,7 +54289,7 @@
         <v>0.58</v>
       </c>
       <c r="AS265" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT265" t="n">
         <v>0.44</v>
@@ -54495,7 +54495,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU266" t="n">
         <v>1.46</v>
@@ -55307,7 +55307,7 @@
         <v>1.63</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU270" t="n">
         <v>1.88</v>
@@ -55913,7 +55913,7 @@
         <v>0.54</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT273" t="n">
         <v>0.44</v>
@@ -56525,7 +56525,7 @@
         <v>1.5</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU276" t="n">
         <v>1.62</v>
@@ -57134,7 +57134,7 @@
         <v>1.13</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU279" t="n">
         <v>1.28</v>
@@ -57334,7 +57334,7 @@
         <v>1.08</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT280" t="n">
         <v>0.88</v>
@@ -58758,7 +58758,7 @@
         <v>1.5</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU287" t="n">
         <v>1.45</v>
@@ -58958,10 +58958,10 @@
         <v>0.86</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU288" t="n">
         <v>1.43</v>
@@ -59367,7 +59367,7 @@
         <v>1.44</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU290" t="n">
         <v>1.36</v>
@@ -59567,7 +59567,7 @@
         <v>0.62</v>
       </c>
       <c r="AS291" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT291" t="n">
         <v>0.5</v>
@@ -59976,7 +59976,7 @@
         <v>1.69</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU293" t="n">
         <v>1.83</v>
@@ -60176,7 +60176,7 @@
         <v>1.21</v>
       </c>
       <c r="AS294" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT294" t="n">
         <v>1.25</v>
@@ -60582,10 +60582,10 @@
         <v>1.21</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU296" t="n">
         <v>1.49</v>
@@ -60785,7 +60785,7 @@
         <v>0.5</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT297" t="n">
         <v>0.44</v>
@@ -61194,7 +61194,7 @@
         <v>1.13</v>
       </c>
       <c r="AT299" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU299" t="n">
         <v>1.3</v>
@@ -61597,7 +61597,7 @@
         <v>1.13</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT301" t="n">
         <v>1.25</v>
@@ -61803,7 +61803,7 @@
         <v>1.06</v>
       </c>
       <c r="AT302" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU302" t="n">
         <v>1.29</v>
@@ -62003,10 +62003,10 @@
         <v>1.27</v>
       </c>
       <c r="AS303" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU303" t="n">
         <v>1.3</v>
@@ -62206,7 +62206,7 @@
         <v>0.57</v>
       </c>
       <c r="AS304" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT304" t="n">
         <v>0.5</v>
@@ -62412,7 +62412,7 @@
         <v>1.38</v>
       </c>
       <c r="AT305" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU305" t="n">
         <v>1.76</v>
@@ -62612,7 +62612,7 @@
         <v>1.87</v>
       </c>
       <c r="AS306" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT306" t="n">
         <v>1.81</v>
@@ -62815,7 +62815,7 @@
         <v>1.4</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT307" t="n">
         <v>1.5</v>
@@ -63224,7 +63224,7 @@
         <v>1.25</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU309" t="n">
         <v>1.44</v>
@@ -63427,7 +63427,7 @@
         <v>1.69</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU310" t="n">
         <v>1.77</v>
@@ -63630,7 +63630,7 @@
         <v>1.44</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU311" t="n">
         <v>1.39</v>
@@ -65712,6 +65712,1224 @@
       </c>
       <c r="BK321" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2435513</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45030.625</v>
+      </c>
+      <c r="F322" t="n">
+        <v>33</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>1</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1</v>
+      </c>
+      <c r="K322" t="n">
+        <v>2</v>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="n">
+        <v>2</v>
+      </c>
+      <c r="N322" t="n">
+        <v>3</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>['45+1', '81']</t>
+        </is>
+      </c>
+      <c r="Q322" t="n">
+        <v>5</v>
+      </c>
+      <c r="R322" t="n">
+        <v>4</v>
+      </c>
+      <c r="S322" t="n">
+        <v>9</v>
+      </c>
+      <c r="T322" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U322" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V322" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X322" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2435514</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>45030.625</v>
+      </c>
+      <c r="F323" t="n">
+        <v>33</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>1</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q323" t="n">
+        <v>9</v>
+      </c>
+      <c r="R323" t="n">
+        <v>5</v>
+      </c>
+      <c r="S323" t="n">
+        <v>14</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U323" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V323" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="W323" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X323" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF323" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG323" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ323" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK323" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2435515</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>45030.625</v>
+      </c>
+      <c r="F324" t="n">
+        <v>33</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>1</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="n">
+        <v>2</v>
+      </c>
+      <c r="M324" t="n">
+        <v>1</v>
+      </c>
+      <c r="N324" t="n">
+        <v>3</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>['45+3', '78']</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q324" t="n">
+        <v>5</v>
+      </c>
+      <c r="R324" t="n">
+        <v>6</v>
+      </c>
+      <c r="S324" t="n">
+        <v>11</v>
+      </c>
+      <c r="T324" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U324" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V324" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="W324" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X324" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA324" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB324" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC324" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF324" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG324" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2435517</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>45030.625</v>
+      </c>
+      <c r="F325" t="n">
+        <v>33</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>1</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="n">
+        <v>2</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>2</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>['22', '65']</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q325" t="n">
+        <v>4</v>
+      </c>
+      <c r="R325" t="n">
+        <v>4</v>
+      </c>
+      <c r="S325" t="n">
+        <v>8</v>
+      </c>
+      <c r="T325" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U325" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V325" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="W325" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X325" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BA325" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB325" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC325" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF325" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG325" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2435518</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>45030.625</v>
+      </c>
+      <c r="F326" t="n">
+        <v>33</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>1</v>
+      </c>
+      <c r="K326" t="n">
+        <v>2</v>
+      </c>
+      <c r="L326" t="n">
+        <v>3</v>
+      </c>
+      <c r="M326" t="n">
+        <v>3</v>
+      </c>
+      <c r="N326" t="n">
+        <v>6</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>['7', '58', '62']</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>['10', '69', '77']</t>
+        </is>
+      </c>
+      <c r="Q326" t="n">
+        <v>1</v>
+      </c>
+      <c r="R326" t="n">
+        <v>7</v>
+      </c>
+      <c r="S326" t="n">
+        <v>8</v>
+      </c>
+      <c r="T326" t="n">
+        <v>4</v>
+      </c>
+      <c r="U326" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V326" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W326" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X326" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF326" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG326" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK326" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2435519</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>45030.625</v>
+      </c>
+      <c r="F327" t="n">
+        <v>33</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>1</v>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="n">
+        <v>2</v>
+      </c>
+      <c r="M327" t="n">
+        <v>2</v>
+      </c>
+      <c r="N327" t="n">
+        <v>4</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>['50', '84']</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>['28', '68']</t>
+        </is>
+      </c>
+      <c r="Q327" t="n">
+        <v>5</v>
+      </c>
+      <c r="R327" t="n">
+        <v>6</v>
+      </c>
+      <c r="S327" t="n">
+        <v>11</v>
+      </c>
+      <c r="T327" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U327" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V327" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X327" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK327"/>
+  <dimension ref="A1:BK328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.29</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT18" t="n">
         <v>0.44</v>
@@ -6587,7 +6587,7 @@
         <v>1.69</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU30" t="n">
         <v>2.32</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT39" t="n">
         <v>1.06</v>
@@ -9632,7 +9632,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU45" t="n">
         <v>1.28</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT60" t="n">
         <v>0.88</v>
@@ -15519,7 +15519,7 @@
         <v>1.63</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU74" t="n">
         <v>2.01</v>
@@ -18155,7 +18155,7 @@
         <v>0.75</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT87" t="n">
         <v>1.13</v>
@@ -19782,7 +19782,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU95" t="n">
         <v>1.44</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT97" t="n">
         <v>1.18</v>
@@ -23230,7 +23230,7 @@
         <v>0.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT112" t="n">
         <v>1.18</v>
@@ -23842,7 +23842,7 @@
         <v>2</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU115" t="n">
         <v>1.81</v>
@@ -28305,7 +28305,7 @@
         <v>1.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT137" t="n">
         <v>1.94</v>
@@ -28917,7 +28917,7 @@
         <v>1.44</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU140" t="n">
         <v>1.3</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT151" t="n">
         <v>1.06</v>
@@ -32571,7 +32571,7 @@
         <v>2.29</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU158" t="n">
         <v>1.46</v>
@@ -35413,7 +35413,7 @@
         <v>1.81</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU172" t="n">
         <v>1.46</v>
@@ -35613,7 +35613,7 @@
         <v>0.75</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT173" t="n">
         <v>0.88</v>
@@ -37443,7 +37443,7 @@
         <v>2.41</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU182" t="n">
         <v>1.84</v>
@@ -39470,7 +39470,7 @@
         <v>1.25</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT192" t="n">
         <v>0.88</v>
@@ -41906,7 +41906,7 @@
         <v>0.7</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT204" t="n">
         <v>0.5</v>
@@ -42924,7 +42924,7 @@
         <v>1.38</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU209" t="n">
         <v>1.5</v>
@@ -46372,7 +46372,7 @@
         <v>1.27</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT226" t="n">
         <v>1.25</v>
@@ -47796,7 +47796,7 @@
         <v>1.94</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU233" t="n">
         <v>1.24</v>
@@ -49620,7 +49620,7 @@
         <v>2.55</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT242" t="n">
         <v>2.13</v>
@@ -52059,7 +52059,7 @@
         <v>1.5</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU254" t="n">
         <v>1.66</v>
@@ -53886,7 +53886,7 @@
         <v>1.13</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU263" t="n">
         <v>1.3</v>
@@ -55507,7 +55507,7 @@
         <v>1.69</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT271" t="n">
         <v>1.75</v>
@@ -59161,7 +59161,7 @@
         <v>1.29</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT289" t="n">
         <v>1.5</v>
@@ -59773,7 +59773,7 @@
         <v>1.25</v>
       </c>
       <c r="AT292" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU292" t="n">
         <v>1.47</v>
@@ -62409,7 +62409,7 @@
         <v>1.4</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT305" t="n">
         <v>1.24</v>
@@ -62615,7 +62615,7 @@
         <v>2.47</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AU306" t="n">
         <v>1.85</v>
@@ -66930,6 +66930,209 @@
       </c>
       <c r="BK327" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2435520</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>45032.30208333334</v>
+      </c>
+      <c r="F328" t="n">
+        <v>33</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>2</v>
+      </c>
+      <c r="J328" t="n">
+        <v>1</v>
+      </c>
+      <c r="K328" t="n">
+        <v>3</v>
+      </c>
+      <c r="L328" t="n">
+        <v>2</v>
+      </c>
+      <c r="M328" t="n">
+        <v>3</v>
+      </c>
+      <c r="N328" t="n">
+        <v>5</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>['7', '12']</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>['35', '46', '64']</t>
+        </is>
+      </c>
+      <c r="Q328" t="n">
+        <v>5</v>
+      </c>
+      <c r="R328" t="n">
+        <v>3</v>
+      </c>
+      <c r="S328" t="n">
+        <v>8</v>
+      </c>
+      <c r="T328" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U328" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V328" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W328" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X328" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK328" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
